--- a/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="182">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -398,6 +398,15 @@
   </si>
   <si>
     <t>['89']</t>
+  </si>
+  <si>
+    <t>['2', '21', '62']</t>
+  </si>
+  <si>
+    <t>['1', '18', '76']</t>
+  </si>
+  <si>
+    <t>['7', '11', '53']</t>
   </si>
   <si>
     <t>['12', '15', '69', '90+3']</t>
@@ -912,7 +921,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK65"/>
+  <dimension ref="A1:BK69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1156,7 +1165,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1243,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AT2">
         <v>1.8</v>
@@ -1347,7 +1356,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -1437,7 +1446,7 @@
         <v>0.8</v>
       </c>
       <c r="AT3">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1729,7 +1738,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -1819,7 +1828,7 @@
         <v>1.83</v>
       </c>
       <c r="AT5">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1920,7 +1929,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2010,7 +2019,7 @@
         <v>1</v>
       </c>
       <c r="AT6">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2198,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT7">
         <v>0.2</v>
@@ -2302,7 +2311,7 @@
         <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2392,7 +2401,7 @@
         <v>1.67</v>
       </c>
       <c r="AT8">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2493,7 +2502,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2684,7 +2693,7 @@
         <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2771,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT10">
         <v>0.83</v>
@@ -2962,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT11">
         <v>1.83</v>
@@ -3066,7 +3075,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3257,7 +3266,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3535,10 +3544,10 @@
         <v>1</v>
       </c>
       <c r="AS14">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AT14">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU14">
         <v>1.21</v>
@@ -3639,7 +3648,7 @@
         <v>82</v>
       </c>
       <c r="P15" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q15">
         <v>9</v>
@@ -3830,7 +3839,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -3917,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT16">
         <v>1.33</v>
@@ -4021,7 +4030,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4212,7 +4221,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q18">
         <v>9</v>
@@ -4302,7 +4311,7 @@
         <v>1.83</v>
       </c>
       <c r="AT18">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU18">
         <v>1.02</v>
@@ -4403,7 +4412,7 @@
         <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q19">
         <v>7</v>
@@ -4493,7 +4502,7 @@
         <v>1.17</v>
       </c>
       <c r="AT19">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU19">
         <v>2.18</v>
@@ -4594,7 +4603,7 @@
         <v>92</v>
       </c>
       <c r="P20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -4681,7 +4690,7 @@
         <v>3</v>
       </c>
       <c r="AS20">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT20">
         <v>2.17</v>
@@ -4785,7 +4794,7 @@
         <v>93</v>
       </c>
       <c r="P21" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -4875,7 +4884,7 @@
         <v>1</v>
       </c>
       <c r="AT21">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU21">
         <v>1.07</v>
@@ -4976,7 +4985,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -5358,7 +5367,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q24">
         <v>2</v>
@@ -5549,7 +5558,7 @@
         <v>82</v>
       </c>
       <c r="P25" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5740,7 +5749,7 @@
         <v>97</v>
       </c>
       <c r="P26" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -5827,10 +5836,10 @@
         <v>1.5</v>
       </c>
       <c r="AS26">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AT26">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU26">
         <v>1.88</v>
@@ -5931,7 +5940,7 @@
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6122,7 +6131,7 @@
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6209,7 +6218,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT28">
         <v>1</v>
@@ -6313,7 +6322,7 @@
         <v>99</v>
       </c>
       <c r="P29" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -6400,10 +6409,10 @@
         <v>2</v>
       </c>
       <c r="AS29">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT29">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU29">
         <v>1.71</v>
@@ -6504,7 +6513,7 @@
         <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6695,7 +6704,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -6785,7 +6794,7 @@
         <v>1.67</v>
       </c>
       <c r="AT31">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU31">
         <v>1.12</v>
@@ -6886,7 +6895,7 @@
         <v>82</v>
       </c>
       <c r="P32" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q32">
         <v>7</v>
@@ -7077,7 +7086,7 @@
         <v>101</v>
       </c>
       <c r="P33" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7268,7 +7277,7 @@
         <v>102</v>
       </c>
       <c r="P34" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7459,7 +7468,7 @@
         <v>103</v>
       </c>
       <c r="P35" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q35">
         <v>14</v>
@@ -7546,10 +7555,10 @@
         <v>0.5</v>
       </c>
       <c r="AS35">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT35">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU35">
         <v>1.47</v>
@@ -7650,7 +7659,7 @@
         <v>79</v>
       </c>
       <c r="P36" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q36">
         <v>1</v>
@@ -7841,7 +7850,7 @@
         <v>82</v>
       </c>
       <c r="P37" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -7931,7 +7940,7 @@
         <v>1</v>
       </c>
       <c r="AT37">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU37">
         <v>1.77</v>
@@ -8032,7 +8041,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q38">
         <v>7</v>
@@ -8223,7 +8232,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8504,7 +8513,7 @@
         <v>1</v>
       </c>
       <c r="AT40">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU40">
         <v>1.88</v>
@@ -8883,10 +8892,10 @@
         <v>2</v>
       </c>
       <c r="AS42">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT42">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU42">
         <v>1.65</v>
@@ -8987,7 +8996,7 @@
         <v>108</v>
       </c>
       <c r="P43" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q43">
         <v>1</v>
@@ -9178,7 +9187,7 @@
         <v>109</v>
       </c>
       <c r="P44" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q44">
         <v>8</v>
@@ -9265,7 +9274,7 @@
         <v>1.67</v>
       </c>
       <c r="AS44">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT44">
         <v>0.83</v>
@@ -9369,7 +9378,7 @@
         <v>82</v>
       </c>
       <c r="P45" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q45">
         <v>9</v>
@@ -9456,7 +9465,7 @@
         <v>1.25</v>
       </c>
       <c r="AS45">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AT45">
         <v>1.33</v>
@@ -9838,7 +9847,7 @@
         <v>2.33</v>
       </c>
       <c r="AS47">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT47">
         <v>2</v>
@@ -10032,7 +10041,7 @@
         <v>2.4</v>
       </c>
       <c r="AT48">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU48">
         <v>2.17</v>
@@ -10133,7 +10142,7 @@
         <v>113</v>
       </c>
       <c r="P49" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10223,7 +10232,7 @@
         <v>1.83</v>
       </c>
       <c r="AT49">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU49">
         <v>0.75</v>
@@ -10324,7 +10333,7 @@
         <v>114</v>
       </c>
       <c r="P50" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10414,7 +10423,7 @@
         <v>1</v>
       </c>
       <c r="AT50">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU50">
         <v>1.18</v>
@@ -10515,7 +10524,7 @@
         <v>115</v>
       </c>
       <c r="P51" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q51">
         <v>1</v>
@@ -10602,7 +10611,7 @@
         <v>0.33</v>
       </c>
       <c r="AS51">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT51">
         <v>0.2</v>
@@ -10796,7 +10805,7 @@
         <v>0.8</v>
       </c>
       <c r="AT52">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU52">
         <v>1.19</v>
@@ -10897,7 +10906,7 @@
         <v>116</v>
       </c>
       <c r="P53" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q53">
         <v>10</v>
@@ -11088,7 +11097,7 @@
         <v>117</v>
       </c>
       <c r="P54" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11279,7 +11288,7 @@
         <v>118</v>
       </c>
       <c r="P55" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -11661,7 +11670,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -11852,7 +11861,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12043,7 +12052,7 @@
         <v>82</v>
       </c>
       <c r="P59" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12130,7 +12139,7 @@
         <v>1.6</v>
       </c>
       <c r="AS59">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT59">
         <v>1.83</v>
@@ -12234,7 +12243,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12321,7 +12330,7 @@
         <v>1.6</v>
       </c>
       <c r="AS60">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT60">
         <v>1.33</v>
@@ -12425,7 +12434,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -12616,7 +12625,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -12706,7 +12715,7 @@
         <v>1.67</v>
       </c>
       <c r="AT62">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU62">
         <v>1.25</v>
@@ -12807,7 +12816,7 @@
         <v>125</v>
       </c>
       <c r="P63" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q63">
         <v>7</v>
@@ -12998,7 +13007,7 @@
         <v>126</v>
       </c>
       <c r="P64" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q64">
         <v>6</v>
@@ -13085,7 +13094,7 @@
         <v>1.25</v>
       </c>
       <c r="AS64">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AT64">
         <v>1</v>
@@ -13189,7 +13198,7 @@
         <v>127</v>
       </c>
       <c r="P65" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13331,6 +13340,770 @@
       </c>
       <c r="BK65">
         <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:63">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>2578652</v>
+      </c>
+      <c r="C66" t="s">
+        <v>63</v>
+      </c>
+      <c r="D66" t="s">
+        <v>64</v>
+      </c>
+      <c r="E66" s="2">
+        <v>44864.5</v>
+      </c>
+      <c r="F66">
+        <v>11</v>
+      </c>
+      <c r="G66" t="s">
+        <v>74</v>
+      </c>
+      <c r="H66" t="s">
+        <v>76</v>
+      </c>
+      <c r="I66">
+        <v>2</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>2</v>
+      </c>
+      <c r="L66">
+        <v>3</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>3</v>
+      </c>
+      <c r="O66" t="s">
+        <v>128</v>
+      </c>
+      <c r="P66" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q66">
+        <v>4</v>
+      </c>
+      <c r="R66">
+        <v>10</v>
+      </c>
+      <c r="S66">
+        <v>14</v>
+      </c>
+      <c r="T66">
+        <v>2.25</v>
+      </c>
+      <c r="U66">
+        <v>2.45</v>
+      </c>
+      <c r="V66">
+        <v>3.7</v>
+      </c>
+      <c r="W66">
+        <v>1.29</v>
+      </c>
+      <c r="X66">
+        <v>3.5</v>
+      </c>
+      <c r="Y66">
+        <v>2.3</v>
+      </c>
+      <c r="Z66">
+        <v>1.57</v>
+      </c>
+      <c r="AA66">
+        <v>4.75</v>
+      </c>
+      <c r="AB66">
+        <v>1.15</v>
+      </c>
+      <c r="AC66">
+        <v>1.8</v>
+      </c>
+      <c r="AD66">
+        <v>4</v>
+      </c>
+      <c r="AE66">
+        <v>3.7</v>
+      </c>
+      <c r="AF66">
+        <v>1.02</v>
+      </c>
+      <c r="AG66">
+        <v>13</v>
+      </c>
+      <c r="AH66">
+        <v>1.15</v>
+      </c>
+      <c r="AI66">
+        <v>4.75</v>
+      </c>
+      <c r="AJ66">
+        <v>1.57</v>
+      </c>
+      <c r="AK66">
+        <v>2.25</v>
+      </c>
+      <c r="AL66">
+        <v>1.5</v>
+      </c>
+      <c r="AM66">
+        <v>2.5</v>
+      </c>
+      <c r="AN66">
+        <v>1.29</v>
+      </c>
+      <c r="AO66">
+        <v>1.22</v>
+      </c>
+      <c r="AP66">
+        <v>1.85</v>
+      </c>
+      <c r="AQ66">
+        <v>2.2</v>
+      </c>
+      <c r="AR66">
+        <v>1.4</v>
+      </c>
+      <c r="AS66">
+        <v>2.33</v>
+      </c>
+      <c r="AT66">
+        <v>1.17</v>
+      </c>
+      <c r="AU66">
+        <v>1.62</v>
+      </c>
+      <c r="AV66">
+        <v>1.55</v>
+      </c>
+      <c r="AW66">
+        <v>3.17</v>
+      </c>
+      <c r="AX66">
+        <v>1.36</v>
+      </c>
+      <c r="AY66">
+        <v>6.5</v>
+      </c>
+      <c r="AZ66">
+        <v>3.3</v>
+      </c>
+      <c r="BA66">
+        <v>1.2</v>
+      </c>
+      <c r="BB66">
+        <v>1.38</v>
+      </c>
+      <c r="BC66">
+        <v>1.65</v>
+      </c>
+      <c r="BD66">
+        <v>2.09</v>
+      </c>
+      <c r="BE66">
+        <v>2.72</v>
+      </c>
+      <c r="BF66">
+        <v>8</v>
+      </c>
+      <c r="BG66">
+        <v>8</v>
+      </c>
+      <c r="BH66">
+        <v>5</v>
+      </c>
+      <c r="BI66">
+        <v>10</v>
+      </c>
+      <c r="BJ66">
+        <v>13</v>
+      </c>
+      <c r="BK66">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:63">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>2578654</v>
+      </c>
+      <c r="C67" t="s">
+        <v>63</v>
+      </c>
+      <c r="D67" t="s">
+        <v>64</v>
+      </c>
+      <c r="E67" s="2">
+        <v>44864.66666666666</v>
+      </c>
+      <c r="F67">
+        <v>11</v>
+      </c>
+      <c r="G67" t="s">
+        <v>73</v>
+      </c>
+      <c r="H67" t="s">
+        <v>69</v>
+      </c>
+      <c r="I67">
+        <v>2</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>2</v>
+      </c>
+      <c r="L67">
+        <v>3</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>3</v>
+      </c>
+      <c r="O67" t="s">
+        <v>129</v>
+      </c>
+      <c r="P67" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q67">
+        <v>3</v>
+      </c>
+      <c r="R67">
+        <v>4</v>
+      </c>
+      <c r="S67">
+        <v>7</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>0</v>
+      </c>
+      <c r="AB67">
+        <v>0</v>
+      </c>
+      <c r="AC67">
+        <v>1.65</v>
+      </c>
+      <c r="AD67">
+        <v>4</v>
+      </c>
+      <c r="AE67">
+        <v>4.5</v>
+      </c>
+      <c r="AF67">
+        <v>0</v>
+      </c>
+      <c r="AG67">
+        <v>0</v>
+      </c>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
+      </c>
+      <c r="AJ67">
+        <v>1.54</v>
+      </c>
+      <c r="AK67">
+        <v>2.38</v>
+      </c>
+      <c r="AL67">
+        <v>0</v>
+      </c>
+      <c r="AM67">
+        <v>0</v>
+      </c>
+      <c r="AN67">
+        <v>0</v>
+      </c>
+      <c r="AO67">
+        <v>0</v>
+      </c>
+      <c r="AP67">
+        <v>0</v>
+      </c>
+      <c r="AQ67">
+        <v>2.5</v>
+      </c>
+      <c r="AR67">
+        <v>0.5</v>
+      </c>
+      <c r="AS67">
+        <v>2.6</v>
+      </c>
+      <c r="AT67">
+        <v>0.4</v>
+      </c>
+      <c r="AU67">
+        <v>1.91</v>
+      </c>
+      <c r="AV67">
+        <v>2.2</v>
+      </c>
+      <c r="AW67">
+        <v>4.11</v>
+      </c>
+      <c r="AX67">
+        <v>0</v>
+      </c>
+      <c r="AY67">
+        <v>0</v>
+      </c>
+      <c r="AZ67">
+        <v>0</v>
+      </c>
+      <c r="BA67">
+        <v>0</v>
+      </c>
+      <c r="BB67">
+        <v>0</v>
+      </c>
+      <c r="BC67">
+        <v>0</v>
+      </c>
+      <c r="BD67">
+        <v>0</v>
+      </c>
+      <c r="BE67">
+        <v>0</v>
+      </c>
+      <c r="BF67">
+        <v>7</v>
+      </c>
+      <c r="BG67">
+        <v>3</v>
+      </c>
+      <c r="BH67">
+        <v>6</v>
+      </c>
+      <c r="BI67">
+        <v>2</v>
+      </c>
+      <c r="BJ67">
+        <v>13</v>
+      </c>
+      <c r="BK67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:63">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>2578659</v>
+      </c>
+      <c r="C68" t="s">
+        <v>63</v>
+      </c>
+      <c r="D68" t="s">
+        <v>64</v>
+      </c>
+      <c r="E68" s="2">
+        <v>44869.66666666666</v>
+      </c>
+      <c r="F68">
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>65</v>
+      </c>
+      <c r="H68" t="s">
+        <v>74</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68" t="s">
+        <v>82</v>
+      </c>
+      <c r="P68" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q68">
+        <v>2</v>
+      </c>
+      <c r="R68">
+        <v>4</v>
+      </c>
+      <c r="S68">
+        <v>6</v>
+      </c>
+      <c r="T68">
+        <v>3.8</v>
+      </c>
+      <c r="U68">
+        <v>2.25</v>
+      </c>
+      <c r="V68">
+        <v>2.38</v>
+      </c>
+      <c r="W68">
+        <v>1.33</v>
+      </c>
+      <c r="X68">
+        <v>3.25</v>
+      </c>
+      <c r="Y68">
+        <v>2.5</v>
+      </c>
+      <c r="Z68">
+        <v>1.5</v>
+      </c>
+      <c r="AA68">
+        <v>5.5</v>
+      </c>
+      <c r="AB68">
+        <v>1.12</v>
+      </c>
+      <c r="AC68">
+        <v>3.1</v>
+      </c>
+      <c r="AD68">
+        <v>3.4</v>
+      </c>
+      <c r="AE68">
+        <v>2</v>
+      </c>
+      <c r="AF68">
+        <v>1.04</v>
+      </c>
+      <c r="AG68">
+        <v>10</v>
+      </c>
+      <c r="AH68">
+        <v>1.22</v>
+      </c>
+      <c r="AI68">
+        <v>4</v>
+      </c>
+      <c r="AJ68">
+        <v>1.7</v>
+      </c>
+      <c r="AK68">
+        <v>2</v>
+      </c>
+      <c r="AL68">
+        <v>1.62</v>
+      </c>
+      <c r="AM68">
+        <v>2.2</v>
+      </c>
+      <c r="AN68">
+        <v>1.83</v>
+      </c>
+      <c r="AO68">
+        <v>1.29</v>
+      </c>
+      <c r="AP68">
+        <v>1.25</v>
+      </c>
+      <c r="AQ68">
+        <v>0.6</v>
+      </c>
+      <c r="AR68">
+        <v>1.4</v>
+      </c>
+      <c r="AS68">
+        <v>0.5</v>
+      </c>
+      <c r="AT68">
+        <v>1.67</v>
+      </c>
+      <c r="AU68">
+        <v>1.79</v>
+      </c>
+      <c r="AV68">
+        <v>1.63</v>
+      </c>
+      <c r="AW68">
+        <v>3.42</v>
+      </c>
+      <c r="AX68">
+        <v>2.38</v>
+      </c>
+      <c r="AY68">
+        <v>7.8</v>
+      </c>
+      <c r="AZ68">
+        <v>1.84</v>
+      </c>
+      <c r="BA68">
+        <v>1.25</v>
+      </c>
+      <c r="BB68">
+        <v>1.47</v>
+      </c>
+      <c r="BC68">
+        <v>1.8</v>
+      </c>
+      <c r="BD68">
+        <v>2.38</v>
+      </c>
+      <c r="BE68">
+        <v>3.25</v>
+      </c>
+      <c r="BF68">
+        <v>5</v>
+      </c>
+      <c r="BG68">
+        <v>5</v>
+      </c>
+      <c r="BH68">
+        <v>6</v>
+      </c>
+      <c r="BI68">
+        <v>6</v>
+      </c>
+      <c r="BJ68">
+        <v>11</v>
+      </c>
+      <c r="BK68">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:63">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>2578663</v>
+      </c>
+      <c r="C69" t="s">
+        <v>63</v>
+      </c>
+      <c r="D69" t="s">
+        <v>64</v>
+      </c>
+      <c r="E69" s="2">
+        <v>44869.66666666666</v>
+      </c>
+      <c r="F69">
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>70</v>
+      </c>
+      <c r="H69" t="s">
+        <v>72</v>
+      </c>
+      <c r="I69">
+        <v>2</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>2</v>
+      </c>
+      <c r="L69">
+        <v>3</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>3</v>
+      </c>
+      <c r="O69" t="s">
+        <v>130</v>
+      </c>
+      <c r="P69" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q69">
+        <v>4</v>
+      </c>
+      <c r="R69">
+        <v>3</v>
+      </c>
+      <c r="S69">
+        <v>7</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>0</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>0</v>
+      </c>
+      <c r="AB69">
+        <v>0</v>
+      </c>
+      <c r="AC69">
+        <v>1.5</v>
+      </c>
+      <c r="AD69">
+        <v>4.2</v>
+      </c>
+      <c r="AE69">
+        <v>4.75</v>
+      </c>
+      <c r="AF69">
+        <v>0</v>
+      </c>
+      <c r="AG69">
+        <v>0</v>
+      </c>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
+      </c>
+      <c r="AJ69">
+        <v>1.45</v>
+      </c>
+      <c r="AK69">
+        <v>2.55</v>
+      </c>
+      <c r="AL69">
+        <v>0</v>
+      </c>
+      <c r="AM69">
+        <v>0</v>
+      </c>
+      <c r="AN69">
+        <v>0</v>
+      </c>
+      <c r="AO69">
+        <v>0</v>
+      </c>
+      <c r="AP69">
+        <v>0</v>
+      </c>
+      <c r="AQ69">
+        <v>1.2</v>
+      </c>
+      <c r="AR69">
+        <v>1.17</v>
+      </c>
+      <c r="AS69">
+        <v>1.5</v>
+      </c>
+      <c r="AT69">
+        <v>1</v>
+      </c>
+      <c r="AU69">
+        <v>1.73</v>
+      </c>
+      <c r="AV69">
+        <v>1.37</v>
+      </c>
+      <c r="AW69">
+        <v>3.1</v>
+      </c>
+      <c r="AX69">
+        <v>0</v>
+      </c>
+      <c r="AY69">
+        <v>0</v>
+      </c>
+      <c r="AZ69">
+        <v>0</v>
+      </c>
+      <c r="BA69">
+        <v>0</v>
+      </c>
+      <c r="BB69">
+        <v>0</v>
+      </c>
+      <c r="BC69">
+        <v>0</v>
+      </c>
+      <c r="BD69">
+        <v>0</v>
+      </c>
+      <c r="BE69">
+        <v>0</v>
+      </c>
+      <c r="BF69">
+        <v>3</v>
+      </c>
+      <c r="BG69">
+        <v>2</v>
+      </c>
+      <c r="BH69">
+        <v>5</v>
+      </c>
+      <c r="BI69">
+        <v>3</v>
+      </c>
+      <c r="BJ69">
+        <v>8</v>
+      </c>
+      <c r="BK69">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="202">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -409,6 +409,42 @@
     <t>['7', '11', '53']</t>
   </si>
   <si>
+    <t>['4']</t>
+  </si>
+  <si>
+    <t>['43', '45', '88', '90+6']</t>
+  </si>
+  <si>
+    <t>['25', '90+1']</t>
+  </si>
+  <si>
+    <t>['41']</t>
+  </si>
+  <si>
+    <t>['55', '70', '75']</t>
+  </si>
+  <si>
+    <t>['19']</t>
+  </si>
+  <si>
+    <t>['8', '36', '74', '77', '89']</t>
+  </si>
+  <si>
+    <t>['38', '60']</t>
+  </si>
+  <si>
+    <t>['21']</t>
+  </si>
+  <si>
+    <t>['45+1']</t>
+  </si>
+  <si>
+    <t>['34', '53']</t>
+  </si>
+  <si>
+    <t>['41', '66']</t>
+  </si>
+  <si>
     <t>['12', '15', '69', '90+3']</t>
   </si>
   <si>
@@ -553,13 +589,37 @@
     <t>['73']</t>
   </si>
   <si>
-    <t>['19']</t>
-  </si>
-  <si>
     <t>['22', '85']</t>
   </si>
   <si>
     <t>['22', '71']</t>
+  </si>
+  <si>
+    <t>['27']</t>
+  </si>
+  <si>
+    <t>['1', '68', '84']</t>
+  </si>
+  <si>
+    <t>['10', '80']</t>
+  </si>
+  <si>
+    <t>['33', '81']</t>
+  </si>
+  <si>
+    <t>['57', '72', '82', '88', '90+1']</t>
+  </si>
+  <si>
+    <t>['66', '73']</t>
+  </si>
+  <si>
+    <t>['69']</t>
+  </si>
+  <si>
+    <t>['56']</t>
+  </si>
+  <si>
+    <t>['31']</t>
   </si>
 </sst>
 </file>
@@ -921,7 +981,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK69"/>
+  <dimension ref="A1:BK85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1165,7 +1225,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1252,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AT2">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1356,7 +1416,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -1443,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.8</v>
+        <v>0.57</v>
       </c>
       <c r="AT3">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1634,10 +1694,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.17</v>
+        <v>1.63</v>
       </c>
       <c r="AT4">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1738,7 +1798,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -1825,10 +1885,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT5">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1929,7 +1989,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2019,7 +2079,7 @@
         <v>1</v>
       </c>
       <c r="AT6">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2210,7 +2270,7 @@
         <v>1.5</v>
       </c>
       <c r="AT7">
-        <v>0.2</v>
+        <v>0.71</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2311,7 +2371,7 @@
         <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2398,10 +2458,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT8">
-        <v>0.4</v>
+        <v>0.29</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2502,7 +2562,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2592,7 +2652,7 @@
         <v>1</v>
       </c>
       <c r="AT9">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2693,7 +2753,7 @@
         <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2780,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.6</v>
+        <v>2.43</v>
       </c>
       <c r="AT10">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2971,10 +3031,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT11">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3075,7 +3135,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3162,10 +3222,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT12">
-        <v>2.17</v>
+        <v>1.75</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3266,7 +3326,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3353,10 +3413,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2.4</v>
+        <v>2.14</v>
       </c>
       <c r="AT13">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3544,10 +3604,10 @@
         <v>1</v>
       </c>
       <c r="AS14">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AT14">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU14">
         <v>1.21</v>
@@ -3648,7 +3708,7 @@
         <v>82</v>
       </c>
       <c r="P15" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="Q15">
         <v>9</v>
@@ -3738,7 +3798,7 @@
         <v>1</v>
       </c>
       <c r="AT15">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AU15">
         <v>0.9399999999999999</v>
@@ -3839,7 +3899,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -3929,7 +3989,7 @@
         <v>1.5</v>
       </c>
       <c r="AT16">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU16">
         <v>1.51</v>
@@ -4030,7 +4090,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4117,10 +4177,10 @@
         <v>1</v>
       </c>
       <c r="AS17">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT17">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU17">
         <v>0.51</v>
@@ -4221,7 +4281,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="Q18">
         <v>9</v>
@@ -4308,10 +4368,10 @@
         <v>1</v>
       </c>
       <c r="AS18">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT18">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AU18">
         <v>1.02</v>
@@ -4412,7 +4472,7 @@
         <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="Q19">
         <v>7</v>
@@ -4499,10 +4559,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.17</v>
+        <v>1.63</v>
       </c>
       <c r="AT19">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU19">
         <v>2.18</v>
@@ -4603,7 +4663,7 @@
         <v>92</v>
       </c>
       <c r="P20" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -4690,10 +4750,10 @@
         <v>3</v>
       </c>
       <c r="AS20">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT20">
-        <v>2.17</v>
+        <v>1.75</v>
       </c>
       <c r="AU20">
         <v>1.76</v>
@@ -4794,7 +4854,7 @@
         <v>93</v>
       </c>
       <c r="P21" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -4884,7 +4944,7 @@
         <v>1</v>
       </c>
       <c r="AT21">
-        <v>0.4</v>
+        <v>0.29</v>
       </c>
       <c r="AU21">
         <v>1.07</v>
@@ -4985,7 +5045,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -5072,10 +5132,10 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT22">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU22">
         <v>1.02</v>
@@ -5263,10 +5323,10 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>2.4</v>
+        <v>2.14</v>
       </c>
       <c r="AT23">
-        <v>0.2</v>
+        <v>0.71</v>
       </c>
       <c r="AU23">
         <v>2.15</v>
@@ -5367,7 +5427,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="Q24">
         <v>2</v>
@@ -5454,10 +5514,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>0.8</v>
+        <v>0.57</v>
       </c>
       <c r="AT24">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU24">
         <v>1.25</v>
@@ -5558,7 +5618,7 @@
         <v>82</v>
       </c>
       <c r="P25" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5645,10 +5705,10 @@
         <v>0.5</v>
       </c>
       <c r="AS25">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT25">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU25">
         <v>1.76</v>
@@ -5749,7 +5809,7 @@
         <v>97</v>
       </c>
       <c r="P26" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -5836,10 +5896,10 @@
         <v>1.5</v>
       </c>
       <c r="AS26">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AT26">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU26">
         <v>1.88</v>
@@ -5940,7 +6000,7 @@
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6027,10 +6087,10 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>1.17</v>
+        <v>1.63</v>
       </c>
       <c r="AT27">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AU27">
         <v>2.17</v>
@@ -6131,7 +6191,7 @@
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6221,7 +6281,7 @@
         <v>1.5</v>
       </c>
       <c r="AT28">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AU28">
         <v>1.55</v>
@@ -6322,7 +6382,7 @@
         <v>99</v>
       </c>
       <c r="P29" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -6409,10 +6469,10 @@
         <v>2</v>
       </c>
       <c r="AS29">
-        <v>2.6</v>
+        <v>2.43</v>
       </c>
       <c r="AT29">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU29">
         <v>1.71</v>
@@ -6513,7 +6573,7 @@
         <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6603,7 +6663,7 @@
         <v>1</v>
       </c>
       <c r="AT30">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU30">
         <v>1.11</v>
@@ -6704,7 +6764,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -6791,10 +6851,10 @@
         <v>0.5</v>
       </c>
       <c r="AS31">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT31">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AU31">
         <v>1.12</v>
@@ -6895,7 +6955,7 @@
         <v>82</v>
       </c>
       <c r="P32" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="Q32">
         <v>7</v>
@@ -6982,10 +7042,10 @@
         <v>0.5</v>
       </c>
       <c r="AS32">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT32">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU32">
         <v>1.18</v>
@@ -7086,7 +7146,7 @@
         <v>101</v>
       </c>
       <c r="P33" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7173,10 +7233,10 @@
         <v>2</v>
       </c>
       <c r="AS33">
-        <v>2.4</v>
+        <v>2.14</v>
       </c>
       <c r="AT33">
-        <v>2.17</v>
+        <v>1.75</v>
       </c>
       <c r="AU33">
         <v>1.95</v>
@@ -7277,7 +7337,7 @@
         <v>102</v>
       </c>
       <c r="P34" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7364,10 +7424,10 @@
         <v>1.33</v>
       </c>
       <c r="AS34">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT34">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU34">
         <v>0.82</v>
@@ -7468,7 +7528,7 @@
         <v>103</v>
       </c>
       <c r="P35" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="Q35">
         <v>14</v>
@@ -7555,10 +7615,10 @@
         <v>0.5</v>
       </c>
       <c r="AS35">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT35">
-        <v>0.4</v>
+        <v>0.29</v>
       </c>
       <c r="AU35">
         <v>1.47</v>
@@ -7659,7 +7719,7 @@
         <v>79</v>
       </c>
       <c r="P36" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="Q36">
         <v>1</v>
@@ -7746,10 +7806,10 @@
         <v>2</v>
       </c>
       <c r="AS36">
-        <v>0.8</v>
+        <v>0.57</v>
       </c>
       <c r="AT36">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU36">
         <v>0.96</v>
@@ -7850,7 +7910,7 @@
         <v>82</v>
       </c>
       <c r="P37" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -7937,10 +7997,10 @@
         <v>1.33</v>
       </c>
       <c r="AS37">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT37">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU37">
         <v>1.77</v>
@@ -8041,7 +8101,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="Q38">
         <v>7</v>
@@ -8128,10 +8188,10 @@
         <v>0.5</v>
       </c>
       <c r="AS38">
-        <v>0.8</v>
+        <v>0.57</v>
       </c>
       <c r="AT38">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AU38">
         <v>1.04</v>
@@ -8232,7 +8292,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8322,7 +8382,7 @@
         <v>1</v>
       </c>
       <c r="AT39">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU39">
         <v>1.27</v>
@@ -8510,10 +8570,10 @@
         <v>1.33</v>
       </c>
       <c r="AS40">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT40">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AU40">
         <v>1.88</v>
@@ -8701,10 +8761,10 @@
         <v>0.5</v>
       </c>
       <c r="AS41">
-        <v>1.17</v>
+        <v>1.63</v>
       </c>
       <c r="AT41">
-        <v>0.2</v>
+        <v>0.71</v>
       </c>
       <c r="AU41">
         <v>1.88</v>
@@ -8892,10 +8952,10 @@
         <v>2</v>
       </c>
       <c r="AS42">
-        <v>2.6</v>
+        <v>2.43</v>
       </c>
       <c r="AT42">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU42">
         <v>1.65</v>
@@ -8996,7 +9056,7 @@
         <v>108</v>
       </c>
       <c r="P43" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="Q43">
         <v>1</v>
@@ -9086,7 +9146,7 @@
         <v>1</v>
       </c>
       <c r="AT43">
-        <v>2.17</v>
+        <v>1.75</v>
       </c>
       <c r="AU43">
         <v>1.14</v>
@@ -9187,7 +9247,7 @@
         <v>109</v>
       </c>
       <c r="P44" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="Q44">
         <v>8</v>
@@ -9277,7 +9337,7 @@
         <v>1.5</v>
       </c>
       <c r="AT44">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU44">
         <v>1.84</v>
@@ -9378,7 +9438,7 @@
         <v>82</v>
       </c>
       <c r="P45" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="Q45">
         <v>9</v>
@@ -9465,10 +9525,10 @@
         <v>1.25</v>
       </c>
       <c r="AS45">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AT45">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU45">
         <v>1.81</v>
@@ -9656,10 +9716,10 @@
         <v>3</v>
       </c>
       <c r="AS46">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT46">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AU46">
         <v>1.15</v>
@@ -9847,10 +9907,10 @@
         <v>2.33</v>
       </c>
       <c r="AS47">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT47">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU47">
         <v>1.96</v>
@@ -10038,10 +10098,10 @@
         <v>1.75</v>
       </c>
       <c r="AS48">
-        <v>2.4</v>
+        <v>2.14</v>
       </c>
       <c r="AT48">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU48">
         <v>2.17</v>
@@ -10142,7 +10202,7 @@
         <v>113</v>
       </c>
       <c r="P49" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10229,10 +10289,10 @@
         <v>0.67</v>
       </c>
       <c r="AS49">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT49">
-        <v>0.4</v>
+        <v>0.29</v>
       </c>
       <c r="AU49">
         <v>0.75</v>
@@ -10333,7 +10393,7 @@
         <v>114</v>
       </c>
       <c r="P50" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10423,7 +10483,7 @@
         <v>1</v>
       </c>
       <c r="AT50">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AU50">
         <v>1.18</v>
@@ -10524,7 +10584,7 @@
         <v>115</v>
       </c>
       <c r="P51" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="Q51">
         <v>1</v>
@@ -10611,10 +10671,10 @@
         <v>0.33</v>
       </c>
       <c r="AS51">
-        <v>2.6</v>
+        <v>2.43</v>
       </c>
       <c r="AT51">
-        <v>0.2</v>
+        <v>0.71</v>
       </c>
       <c r="AU51">
         <v>1.85</v>
@@ -10802,10 +10862,10 @@
         <v>1.5</v>
       </c>
       <c r="AS52">
-        <v>0.8</v>
+        <v>0.57</v>
       </c>
       <c r="AT52">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU52">
         <v>1.19</v>
@@ -10906,7 +10966,7 @@
         <v>116</v>
       </c>
       <c r="P53" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="Q53">
         <v>10</v>
@@ -10993,10 +11053,10 @@
         <v>0.67</v>
       </c>
       <c r="AS53">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT53">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AU53">
         <v>1.79</v>
@@ -11097,7 +11157,7 @@
         <v>117</v>
       </c>
       <c r="P54" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11187,7 +11247,7 @@
         <v>1</v>
       </c>
       <c r="AT54">
-        <v>2.17</v>
+        <v>1.75</v>
       </c>
       <c r="AU54">
         <v>1.36</v>
@@ -11288,7 +11348,7 @@
         <v>118</v>
       </c>
       <c r="P55" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -11375,10 +11435,10 @@
         <v>1.75</v>
       </c>
       <c r="AS55">
-        <v>1.17</v>
+        <v>1.63</v>
       </c>
       <c r="AT55">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU55">
         <v>2.04</v>
@@ -11566,10 +11626,10 @@
         <v>0.25</v>
       </c>
       <c r="AS56">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT56">
-        <v>0.2</v>
+        <v>0.71</v>
       </c>
       <c r="AU56">
         <v>1.05</v>
@@ -11670,7 +11730,7 @@
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -11760,7 +11820,7 @@
         <v>1</v>
       </c>
       <c r="AT57">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU57">
         <v>1.23</v>
@@ -11861,7 +11921,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -11951,7 +12011,7 @@
         <v>1</v>
       </c>
       <c r="AT58">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU58">
         <v>1.33</v>
@@ -12052,7 +12112,7 @@
         <v>82</v>
       </c>
       <c r="P59" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12142,7 +12202,7 @@
         <v>1.5</v>
       </c>
       <c r="AT59">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU59">
         <v>1.83</v>
@@ -12243,7 +12303,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12330,10 +12390,10 @@
         <v>1.6</v>
       </c>
       <c r="AS60">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT60">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU60">
         <v>1.74</v>
@@ -12434,7 +12494,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -12521,10 +12581,10 @@
         <v>2.25</v>
       </c>
       <c r="AS61">
-        <v>2.4</v>
+        <v>2.14</v>
       </c>
       <c r="AT61">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AU61">
         <v>1.9</v>
@@ -12625,7 +12685,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -12712,10 +12772,10 @@
         <v>1.4</v>
       </c>
       <c r="AS62">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT62">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU62">
         <v>1.25</v>
@@ -12816,7 +12876,7 @@
         <v>125</v>
       </c>
       <c r="P63" t="s">
-        <v>179</v>
+        <v>136</v>
       </c>
       <c r="Q63">
         <v>7</v>
@@ -12903,10 +12963,10 @@
         <v>1</v>
       </c>
       <c r="AS63">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT63">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU63">
         <v>1.79</v>
@@ -13007,7 +13067,7 @@
         <v>126</v>
       </c>
       <c r="P64" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="Q64">
         <v>6</v>
@@ -13094,10 +13154,10 @@
         <v>1.25</v>
       </c>
       <c r="AS64">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AT64">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AU64">
         <v>1.79</v>
@@ -13198,7 +13258,7 @@
         <v>127</v>
       </c>
       <c r="P65" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13285,10 +13345,10 @@
         <v>2</v>
       </c>
       <c r="AS65">
-        <v>1.17</v>
+        <v>1.63</v>
       </c>
       <c r="AT65">
-        <v>2.17</v>
+        <v>1.75</v>
       </c>
       <c r="AU65">
         <v>1.87</v>
@@ -13476,10 +13536,10 @@
         <v>1.4</v>
       </c>
       <c r="AS66">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT66">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU66">
         <v>1.62</v>
@@ -13667,10 +13727,10 @@
         <v>0.5</v>
       </c>
       <c r="AS67">
-        <v>2.6</v>
+        <v>2.43</v>
       </c>
       <c r="AT67">
-        <v>0.4</v>
+        <v>0.29</v>
       </c>
       <c r="AU67">
         <v>1.91</v>
@@ -13771,7 +13831,7 @@
         <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -13858,10 +13918,10 @@
         <v>1.4</v>
       </c>
       <c r="AS68">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AT68">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AU68">
         <v>1.79</v>
@@ -13965,13 +14025,13 @@
         <v>82</v>
       </c>
       <c r="Q69">
+        <v>5</v>
+      </c>
+      <c r="R69">
         <v>4</v>
       </c>
-      <c r="R69">
-        <v>3</v>
-      </c>
       <c r="S69">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T69">
         <v>0</v>
@@ -14052,7 +14112,7 @@
         <v>1.5</v>
       </c>
       <c r="AT69">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU69">
         <v>1.73</v>
@@ -14088,22 +14148,3078 @@
         <v>0</v>
       </c>
       <c r="BF69">
+        <v>5</v>
+      </c>
+      <c r="BG69">
         <v>3</v>
       </c>
-      <c r="BG69">
-        <v>2</v>
-      </c>
       <c r="BH69">
+        <v>8</v>
+      </c>
+      <c r="BI69">
+        <v>7</v>
+      </c>
+      <c r="BJ69">
+        <v>13</v>
+      </c>
+      <c r="BK69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:63">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>2578658</v>
+      </c>
+      <c r="C70" t="s">
+        <v>63</v>
+      </c>
+      <c r="D70" t="s">
+        <v>64</v>
+      </c>
+      <c r="E70" s="2">
+        <v>44870.5</v>
+      </c>
+      <c r="F70">
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>66</v>
+      </c>
+      <c r="H70" t="s">
+        <v>71</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70" t="s">
+        <v>82</v>
+      </c>
+      <c r="P70" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q70">
+        <v>2</v>
+      </c>
+      <c r="R70">
+        <v>3</v>
+      </c>
+      <c r="S70">
         <v>5</v>
       </c>
-      <c r="BI69">
+      <c r="T70">
+        <v>3.24</v>
+      </c>
+      <c r="U70">
+        <v>2.25</v>
+      </c>
+      <c r="V70">
+        <v>2.93</v>
+      </c>
+      <c r="W70">
+        <v>1.32</v>
+      </c>
+      <c r="X70">
+        <v>3.2</v>
+      </c>
+      <c r="Y70">
+        <v>2.51</v>
+      </c>
+      <c r="Z70">
+        <v>1.49</v>
+      </c>
+      <c r="AA70">
+        <v>5.1</v>
+      </c>
+      <c r="AB70">
+        <v>1.13</v>
+      </c>
+      <c r="AC70">
+        <v>2.35</v>
+      </c>
+      <c r="AD70">
+        <v>3.45</v>
+      </c>
+      <c r="AE70">
+        <v>2.55</v>
+      </c>
+      <c r="AF70">
+        <v>1</v>
+      </c>
+      <c r="AG70">
+        <v>10.5</v>
+      </c>
+      <c r="AH70">
+        <v>1.22</v>
+      </c>
+      <c r="AI70">
+        <v>4</v>
+      </c>
+      <c r="AJ70">
+        <v>1.7</v>
+      </c>
+      <c r="AK70">
+        <v>2</v>
+      </c>
+      <c r="AL70">
+        <v>1.59</v>
+      </c>
+      <c r="AM70">
+        <v>2.29</v>
+      </c>
+      <c r="AN70">
+        <v>1.55</v>
+      </c>
+      <c r="AO70">
+        <v>1.26</v>
+      </c>
+      <c r="AP70">
+        <v>1.49</v>
+      </c>
+      <c r="AQ70">
+        <v>0.8</v>
+      </c>
+      <c r="AR70">
+        <v>0.2</v>
+      </c>
+      <c r="AS70">
+        <v>0.57</v>
+      </c>
+      <c r="AT70">
+        <v>0.71</v>
+      </c>
+      <c r="AU70">
+        <v>1.16</v>
+      </c>
+      <c r="AV70">
+        <v>1.5</v>
+      </c>
+      <c r="AW70">
+        <v>2.66</v>
+      </c>
+      <c r="AX70">
+        <v>2.25</v>
+      </c>
+      <c r="AY70">
+        <v>5.75</v>
+      </c>
+      <c r="AZ70">
+        <v>1.8</v>
+      </c>
+      <c r="BA70">
+        <v>1.25</v>
+      </c>
+      <c r="BB70">
+        <v>1.47</v>
+      </c>
+      <c r="BC70">
+        <v>1.83</v>
+      </c>
+      <c r="BD70">
+        <v>2.38</v>
+      </c>
+      <c r="BE70">
+        <v>3.25</v>
+      </c>
+      <c r="BF70">
         <v>3</v>
       </c>
-      <c r="BJ69">
+      <c r="BG70">
+        <v>7</v>
+      </c>
+      <c r="BH70">
         <v>8</v>
       </c>
-      <c r="BK69">
+      <c r="BI70">
+        <v>4</v>
+      </c>
+      <c r="BJ70">
+        <v>11</v>
+      </c>
+      <c r="BK70">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:63">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>2578660</v>
+      </c>
+      <c r="C71" t="s">
+        <v>63</v>
+      </c>
+      <c r="D71" t="s">
+        <v>64</v>
+      </c>
+      <c r="E71" s="2">
+        <v>44870.66666666666</v>
+      </c>
+      <c r="F71">
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>73</v>
+      </c>
+      <c r="H71" t="s">
+        <v>68</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71" t="s">
+        <v>131</v>
+      </c>
+      <c r="P71" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q71">
+        <v>3</v>
+      </c>
+      <c r="R71">
+        <v>8</v>
+      </c>
+      <c r="S71">
+        <v>11</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>0</v>
+      </c>
+      <c r="AB71">
+        <v>0</v>
+      </c>
+      <c r="AC71">
+        <v>1.49</v>
+      </c>
+      <c r="AD71">
+        <v>4.7</v>
+      </c>
+      <c r="AE71">
+        <v>5.5</v>
+      </c>
+      <c r="AF71">
+        <v>0</v>
+      </c>
+      <c r="AG71">
+        <v>0</v>
+      </c>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>0</v>
+      </c>
+      <c r="AJ71">
+        <v>1.36</v>
+      </c>
+      <c r="AK71">
+        <v>2.89</v>
+      </c>
+      <c r="AL71">
+        <v>0</v>
+      </c>
+      <c r="AM71">
+        <v>0</v>
+      </c>
+      <c r="AN71">
+        <v>0</v>
+      </c>
+      <c r="AO71">
+        <v>0</v>
+      </c>
+      <c r="AP71">
+        <v>0</v>
+      </c>
+      <c r="AQ71">
+        <v>2.6</v>
+      </c>
+      <c r="AR71">
+        <v>1</v>
+      </c>
+      <c r="AS71">
+        <v>2.43</v>
+      </c>
+      <c r="AT71">
+        <v>0.71</v>
+      </c>
+      <c r="AU71">
+        <v>1.89</v>
+      </c>
+      <c r="AV71">
+        <v>1.02</v>
+      </c>
+      <c r="AW71">
+        <v>2.91</v>
+      </c>
+      <c r="AX71">
+        <v>0</v>
+      </c>
+      <c r="AY71">
+        <v>0</v>
+      </c>
+      <c r="AZ71">
+        <v>0</v>
+      </c>
+      <c r="BA71">
+        <v>0</v>
+      </c>
+      <c r="BB71">
+        <v>0</v>
+      </c>
+      <c r="BC71">
+        <v>0</v>
+      </c>
+      <c r="BD71">
+        <v>0</v>
+      </c>
+      <c r="BE71">
+        <v>0</v>
+      </c>
+      <c r="BF71">
+        <v>6</v>
+      </c>
+      <c r="BG71">
+        <v>4</v>
+      </c>
+      <c r="BH71">
+        <v>4</v>
+      </c>
+      <c r="BI71">
+        <v>8</v>
+      </c>
+      <c r="BJ71">
+        <v>10</v>
+      </c>
+      <c r="BK71">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:63">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>2578661</v>
+      </c>
+      <c r="C72" t="s">
+        <v>63</v>
+      </c>
+      <c r="D72" t="s">
+        <v>64</v>
+      </c>
+      <c r="E72" s="2">
+        <v>44871.5</v>
+      </c>
+      <c r="F72">
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>75</v>
+      </c>
+      <c r="H72" t="s">
+        <v>67</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>2</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>3</v>
+      </c>
+      <c r="N72">
+        <v>4</v>
+      </c>
+      <c r="O72" t="s">
+        <v>131</v>
+      </c>
+      <c r="P72" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q72">
+        <v>3</v>
+      </c>
+      <c r="R72">
+        <v>9</v>
+      </c>
+      <c r="S72">
+        <v>12</v>
+      </c>
+      <c r="T72">
+        <v>3.6</v>
+      </c>
+      <c r="U72">
+        <v>2.3</v>
+      </c>
+      <c r="V72">
+        <v>2.75</v>
+      </c>
+      <c r="W72">
+        <v>1.3</v>
+      </c>
+      <c r="X72">
+        <v>3.4</v>
+      </c>
+      <c r="Y72">
+        <v>2.5</v>
+      </c>
+      <c r="Z72">
+        <v>1.5</v>
+      </c>
+      <c r="AA72">
+        <v>6</v>
+      </c>
+      <c r="AB72">
+        <v>1.13</v>
+      </c>
+      <c r="AC72">
+        <v>2.54</v>
+      </c>
+      <c r="AD72">
+        <v>3.46</v>
+      </c>
+      <c r="AE72">
+        <v>2.28</v>
+      </c>
+      <c r="AF72">
+        <v>1.04</v>
+      </c>
+      <c r="AG72">
+        <v>8.5</v>
+      </c>
+      <c r="AH72">
+        <v>1.17</v>
+      </c>
+      <c r="AI72">
+        <v>4.3</v>
+      </c>
+      <c r="AJ72">
+        <v>1.62</v>
+      </c>
+      <c r="AK72">
+        <v>2.15</v>
+      </c>
+      <c r="AL72">
+        <v>1.57</v>
+      </c>
+      <c r="AM72">
+        <v>2.25</v>
+      </c>
+      <c r="AN72">
+        <v>1.57</v>
+      </c>
+      <c r="AO72">
+        <v>1.25</v>
+      </c>
+      <c r="AP72">
+        <v>1.32</v>
+      </c>
+      <c r="AQ72">
+        <v>1</v>
+      </c>
+      <c r="AR72">
+        <v>2</v>
+      </c>
+      <c r="AS72">
+        <v>1.13</v>
+      </c>
+      <c r="AT72">
+        <v>2.17</v>
+      </c>
+      <c r="AU72">
+        <v>1.86</v>
+      </c>
+      <c r="AV72">
+        <v>1.85</v>
+      </c>
+      <c r="AW72">
+        <v>3.71</v>
+      </c>
+      <c r="AX72">
+        <v>2.25</v>
+      </c>
+      <c r="AY72">
+        <v>5.5</v>
+      </c>
+      <c r="AZ72">
+        <v>1.8</v>
+      </c>
+      <c r="BA72">
+        <v>0</v>
+      </c>
+      <c r="BB72">
+        <v>1.29</v>
+      </c>
+      <c r="BC72">
+        <v>1.5</v>
+      </c>
+      <c r="BD72">
+        <v>1.85</v>
+      </c>
+      <c r="BE72">
+        <v>2.43</v>
+      </c>
+      <c r="BF72">
+        <v>3</v>
+      </c>
+      <c r="BG72">
+        <v>7</v>
+      </c>
+      <c r="BH72">
+        <v>8</v>
+      </c>
+      <c r="BI72">
+        <v>8</v>
+      </c>
+      <c r="BJ72">
+        <v>11</v>
+      </c>
+      <c r="BK72">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:63">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>2578662</v>
+      </c>
+      <c r="C73" t="s">
+        <v>63</v>
+      </c>
+      <c r="D73" t="s">
+        <v>64</v>
+      </c>
+      <c r="E73" s="2">
+        <v>44871.66666666666</v>
+      </c>
+      <c r="F73">
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>76</v>
+      </c>
+      <c r="H73" t="s">
+        <v>69</v>
+      </c>
+      <c r="I73">
+        <v>2</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>3</v>
+      </c>
+      <c r="L73">
+        <v>4</v>
+      </c>
+      <c r="M73">
+        <v>2</v>
+      </c>
+      <c r="N73">
+        <v>6</v>
+      </c>
+      <c r="O73" t="s">
+        <v>132</v>
+      </c>
+      <c r="P73" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q73">
+        <v>9</v>
+      </c>
+      <c r="R73">
+        <v>4</v>
+      </c>
+      <c r="S73">
+        <v>13</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>0</v>
+      </c>
+      <c r="AB73">
+        <v>0</v>
+      </c>
+      <c r="AC73">
+        <v>1.81</v>
+      </c>
+      <c r="AD73">
+        <v>3.95</v>
+      </c>
+      <c r="AE73">
+        <v>3.4</v>
+      </c>
+      <c r="AF73">
+        <v>0</v>
+      </c>
+      <c r="AG73">
+        <v>0</v>
+      </c>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
+      </c>
+      <c r="AJ73">
+        <v>1.43</v>
+      </c>
+      <c r="AK73">
+        <v>2.62</v>
+      </c>
+      <c r="AL73">
+        <v>0</v>
+      </c>
+      <c r="AM73">
+        <v>0</v>
+      </c>
+      <c r="AN73">
+        <v>0</v>
+      </c>
+      <c r="AO73">
+        <v>0</v>
+      </c>
+      <c r="AP73">
+        <v>0</v>
+      </c>
+      <c r="AQ73">
+        <v>2.4</v>
+      </c>
+      <c r="AR73">
+        <v>0.4</v>
+      </c>
+      <c r="AS73">
+        <v>2.14</v>
+      </c>
+      <c r="AT73">
+        <v>0.29</v>
+      </c>
+      <c r="AU73">
+        <v>1.89</v>
+      </c>
+      <c r="AV73">
+        <v>1.94</v>
+      </c>
+      <c r="AW73">
+        <v>3.83</v>
+      </c>
+      <c r="AX73">
+        <v>0</v>
+      </c>
+      <c r="AY73">
+        <v>0</v>
+      </c>
+      <c r="AZ73">
+        <v>0</v>
+      </c>
+      <c r="BA73">
+        <v>0</v>
+      </c>
+      <c r="BB73">
+        <v>0</v>
+      </c>
+      <c r="BC73">
+        <v>0</v>
+      </c>
+      <c r="BD73">
+        <v>0</v>
+      </c>
+      <c r="BE73">
+        <v>0</v>
+      </c>
+      <c r="BF73">
+        <v>6</v>
+      </c>
+      <c r="BG73">
+        <v>0</v>
+      </c>
+      <c r="BH73">
+        <v>11</v>
+      </c>
+      <c r="BI73">
         <v>5</v>
+      </c>
+      <c r="BJ73">
+        <v>17</v>
+      </c>
+      <c r="BK73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:63">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>2578667</v>
+      </c>
+      <c r="C74" t="s">
+        <v>63</v>
+      </c>
+      <c r="D74" t="s">
+        <v>64</v>
+      </c>
+      <c r="E74" s="2">
+        <v>44876.66666666666</v>
+      </c>
+      <c r="F74">
+        <v>13</v>
+      </c>
+      <c r="G74" t="s">
+        <v>68</v>
+      </c>
+      <c r="H74" t="s">
+        <v>70</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>2</v>
+      </c>
+      <c r="L74">
+        <v>2</v>
+      </c>
+      <c r="M74">
+        <v>2</v>
+      </c>
+      <c r="N74">
+        <v>4</v>
+      </c>
+      <c r="O74" t="s">
+        <v>133</v>
+      </c>
+      <c r="P74" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q74">
+        <v>2</v>
+      </c>
+      <c r="R74">
+        <v>3</v>
+      </c>
+      <c r="S74">
+        <v>5</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>0</v>
+      </c>
+      <c r="AB74">
+        <v>0</v>
+      </c>
+      <c r="AC74">
+        <v>2.83</v>
+      </c>
+      <c r="AD74">
+        <v>3.55</v>
+      </c>
+      <c r="AE74">
+        <v>2.2</v>
+      </c>
+      <c r="AF74">
+        <v>0</v>
+      </c>
+      <c r="AG74">
+        <v>0</v>
+      </c>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
+      </c>
+      <c r="AJ74">
+        <v>1.45</v>
+      </c>
+      <c r="AK74">
+        <v>2.56</v>
+      </c>
+      <c r="AL74">
+        <v>0</v>
+      </c>
+      <c r="AM74">
+        <v>0</v>
+      </c>
+      <c r="AN74">
+        <v>0</v>
+      </c>
+      <c r="AO74">
+        <v>0</v>
+      </c>
+      <c r="AP74">
+        <v>0</v>
+      </c>
+      <c r="AQ74">
+        <v>1.83</v>
+      </c>
+      <c r="AR74">
+        <v>2.17</v>
+      </c>
+      <c r="AS74">
+        <v>1.71</v>
+      </c>
+      <c r="AT74">
+        <v>1.75</v>
+      </c>
+      <c r="AU74">
+        <v>1.14</v>
+      </c>
+      <c r="AV74">
+        <v>1.18</v>
+      </c>
+      <c r="AW74">
+        <v>2.32</v>
+      </c>
+      <c r="AX74">
+        <v>0</v>
+      </c>
+      <c r="AY74">
+        <v>0</v>
+      </c>
+      <c r="AZ74">
+        <v>0</v>
+      </c>
+      <c r="BA74">
+        <v>0</v>
+      </c>
+      <c r="BB74">
+        <v>0</v>
+      </c>
+      <c r="BC74">
+        <v>0</v>
+      </c>
+      <c r="BD74">
+        <v>0</v>
+      </c>
+      <c r="BE74">
+        <v>0</v>
+      </c>
+      <c r="BF74">
+        <v>7</v>
+      </c>
+      <c r="BG74">
+        <v>4</v>
+      </c>
+      <c r="BH74">
+        <v>3</v>
+      </c>
+      <c r="BI74">
+        <v>4</v>
+      </c>
+      <c r="BJ74">
+        <v>10</v>
+      </c>
+      <c r="BK74">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:63">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>2578669</v>
+      </c>
+      <c r="C75" t="s">
+        <v>63</v>
+      </c>
+      <c r="D75" t="s">
+        <v>64</v>
+      </c>
+      <c r="E75" s="2">
+        <v>44876.66666666666</v>
+      </c>
+      <c r="F75">
+        <v>13</v>
+      </c>
+      <c r="G75" t="s">
+        <v>72</v>
+      </c>
+      <c r="H75" t="s">
+        <v>65</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>2</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>2</v>
+      </c>
+      <c r="O75" t="s">
+        <v>134</v>
+      </c>
+      <c r="P75" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q75">
+        <v>2</v>
+      </c>
+      <c r="R75">
+        <v>5</v>
+      </c>
+      <c r="S75">
+        <v>7</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>0</v>
+      </c>
+      <c r="AB75">
+        <v>0</v>
+      </c>
+      <c r="AC75">
+        <v>2.65</v>
+      </c>
+      <c r="AD75">
+        <v>3.6</v>
+      </c>
+      <c r="AE75">
+        <v>2.3</v>
+      </c>
+      <c r="AF75">
+        <v>0</v>
+      </c>
+      <c r="AG75">
+        <v>0</v>
+      </c>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
+      </c>
+      <c r="AJ75">
+        <v>1.54</v>
+      </c>
+      <c r="AK75">
+        <v>2.32</v>
+      </c>
+      <c r="AL75">
+        <v>0</v>
+      </c>
+      <c r="AM75">
+        <v>0</v>
+      </c>
+      <c r="AN75">
+        <v>0</v>
+      </c>
+      <c r="AO75">
+        <v>0</v>
+      </c>
+      <c r="AP75">
+        <v>0</v>
+      </c>
+      <c r="AQ75">
+        <v>1</v>
+      </c>
+      <c r="AR75">
+        <v>1.83</v>
+      </c>
+      <c r="AS75">
+        <v>1</v>
+      </c>
+      <c r="AT75">
+        <v>1.71</v>
+      </c>
+      <c r="AU75">
+        <v>1.27</v>
+      </c>
+      <c r="AV75">
+        <v>1.35</v>
+      </c>
+      <c r="AW75">
+        <v>2.62</v>
+      </c>
+      <c r="AX75">
+        <v>0</v>
+      </c>
+      <c r="AY75">
+        <v>0</v>
+      </c>
+      <c r="AZ75">
+        <v>0</v>
+      </c>
+      <c r="BA75">
+        <v>0</v>
+      </c>
+      <c r="BB75">
+        <v>0</v>
+      </c>
+      <c r="BC75">
+        <v>0</v>
+      </c>
+      <c r="BD75">
+        <v>0</v>
+      </c>
+      <c r="BE75">
+        <v>0</v>
+      </c>
+      <c r="BF75">
+        <v>7</v>
+      </c>
+      <c r="BG75">
+        <v>4</v>
+      </c>
+      <c r="BH75">
+        <v>5</v>
+      </c>
+      <c r="BI75">
+        <v>2</v>
+      </c>
+      <c r="BJ75">
+        <v>12</v>
+      </c>
+      <c r="BK75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:63">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>2578668</v>
+      </c>
+      <c r="C76" t="s">
+        <v>63</v>
+      </c>
+      <c r="D76" t="s">
+        <v>64</v>
+      </c>
+      <c r="E76" s="2">
+        <v>44877.5</v>
+      </c>
+      <c r="F76">
+        <v>13</v>
+      </c>
+      <c r="G76" t="s">
+        <v>69</v>
+      </c>
+      <c r="H76" t="s">
+        <v>71</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76" t="s">
+        <v>82</v>
+      </c>
+      <c r="P76" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q76">
+        <v>7</v>
+      </c>
+      <c r="R76">
+        <v>4</v>
+      </c>
+      <c r="S76">
+        <v>11</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>0</v>
+      </c>
+      <c r="AB76">
+        <v>0</v>
+      </c>
+      <c r="AC76">
+        <v>2.3</v>
+      </c>
+      <c r="AD76">
+        <v>3.78</v>
+      </c>
+      <c r="AE76">
+        <v>2.74</v>
+      </c>
+      <c r="AF76">
+        <v>0</v>
+      </c>
+      <c r="AG76">
+        <v>0</v>
+      </c>
+      <c r="AH76">
+        <v>0</v>
+      </c>
+      <c r="AI76">
+        <v>0</v>
+      </c>
+      <c r="AJ76">
+        <v>1.48</v>
+      </c>
+      <c r="AK76">
+        <v>2.31</v>
+      </c>
+      <c r="AL76">
+        <v>0</v>
+      </c>
+      <c r="AM76">
+        <v>0</v>
+      </c>
+      <c r="AN76">
+        <v>0</v>
+      </c>
+      <c r="AO76">
+        <v>0</v>
+      </c>
+      <c r="AP76">
+        <v>0</v>
+      </c>
+      <c r="AQ76">
+        <v>1</v>
+      </c>
+      <c r="AR76">
+        <v>0.67</v>
+      </c>
+      <c r="AS76">
+        <v>1</v>
+      </c>
+      <c r="AT76">
+        <v>0.71</v>
+      </c>
+      <c r="AU76">
+        <v>1.29</v>
+      </c>
+      <c r="AV76">
+        <v>1.51</v>
+      </c>
+      <c r="AW76">
+        <v>2.8</v>
+      </c>
+      <c r="AX76">
+        <v>0</v>
+      </c>
+      <c r="AY76">
+        <v>0</v>
+      </c>
+      <c r="AZ76">
+        <v>0</v>
+      </c>
+      <c r="BA76">
+        <v>0</v>
+      </c>
+      <c r="BB76">
+        <v>0</v>
+      </c>
+      <c r="BC76">
+        <v>0</v>
+      </c>
+      <c r="BD76">
+        <v>0</v>
+      </c>
+      <c r="BE76">
+        <v>0</v>
+      </c>
+      <c r="BF76">
+        <v>6</v>
+      </c>
+      <c r="BG76">
+        <v>8</v>
+      </c>
+      <c r="BH76">
+        <v>4</v>
+      </c>
+      <c r="BI76">
+        <v>4</v>
+      </c>
+      <c r="BJ76">
+        <v>10</v>
+      </c>
+      <c r="BK76">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:63">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>2578666</v>
+      </c>
+      <c r="C77" t="s">
+        <v>63</v>
+      </c>
+      <c r="D77" t="s">
+        <v>64</v>
+      </c>
+      <c r="E77" s="2">
+        <v>44877.66666666666</v>
+      </c>
+      <c r="F77">
+        <v>13</v>
+      </c>
+      <c r="G77" t="s">
+        <v>67</v>
+      </c>
+      <c r="H77" t="s">
+        <v>66</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>3</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>3</v>
+      </c>
+      <c r="O77" t="s">
+        <v>135</v>
+      </c>
+      <c r="P77" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q77">
+        <v>6</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>6</v>
+      </c>
+      <c r="T77">
+        <v>1.85</v>
+      </c>
+      <c r="U77">
+        <v>2.45</v>
+      </c>
+      <c r="V77">
+        <v>5.8</v>
+      </c>
+      <c r="W77">
+        <v>1.29</v>
+      </c>
+      <c r="X77">
+        <v>3.5</v>
+      </c>
+      <c r="Y77">
+        <v>2.25</v>
+      </c>
+      <c r="Z77">
+        <v>1.6</v>
+      </c>
+      <c r="AA77">
+        <v>4.75</v>
+      </c>
+      <c r="AB77">
+        <v>1.15</v>
+      </c>
+      <c r="AC77">
+        <v>1.5</v>
+      </c>
+      <c r="AD77">
+        <v>4.2</v>
+      </c>
+      <c r="AE77">
+        <v>6.5</v>
+      </c>
+      <c r="AF77">
+        <v>1.03</v>
+      </c>
+      <c r="AG77">
+        <v>11</v>
+      </c>
+      <c r="AH77">
+        <v>1.2</v>
+      </c>
+      <c r="AI77">
+        <v>4.33</v>
+      </c>
+      <c r="AJ77">
+        <v>1.67</v>
+      </c>
+      <c r="AK77">
+        <v>2.15</v>
+      </c>
+      <c r="AL77">
+        <v>1.8</v>
+      </c>
+      <c r="AM77">
+        <v>1.91</v>
+      </c>
+      <c r="AN77">
+        <v>1.1</v>
+      </c>
+      <c r="AO77">
+        <v>1.2</v>
+      </c>
+      <c r="AP77">
+        <v>2.62</v>
+      </c>
+      <c r="AQ77">
+        <v>1.17</v>
+      </c>
+      <c r="AR77">
+        <v>0.83</v>
+      </c>
+      <c r="AS77">
+        <v>1.63</v>
+      </c>
+      <c r="AT77">
+        <v>0.71</v>
+      </c>
+      <c r="AU77">
+        <v>1.86</v>
+      </c>
+      <c r="AV77">
+        <v>1.13</v>
+      </c>
+      <c r="AW77">
+        <v>2.99</v>
+      </c>
+      <c r="AX77">
+        <v>1.19</v>
+      </c>
+      <c r="AY77">
+        <v>8</v>
+      </c>
+      <c r="AZ77">
+        <v>5.75</v>
+      </c>
+      <c r="BA77">
+        <v>1.18</v>
+      </c>
+      <c r="BB77">
+        <v>1.34</v>
+      </c>
+      <c r="BC77">
+        <v>1.61</v>
+      </c>
+      <c r="BD77">
+        <v>2.02</v>
+      </c>
+      <c r="BE77">
+        <v>2.7</v>
+      </c>
+      <c r="BF77">
+        <v>9</v>
+      </c>
+      <c r="BG77">
+        <v>5</v>
+      </c>
+      <c r="BH77">
+        <v>6</v>
+      </c>
+      <c r="BI77">
+        <v>1</v>
+      </c>
+      <c r="BJ77">
+        <v>15</v>
+      </c>
+      <c r="BK77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:63">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>2578665</v>
+      </c>
+      <c r="C78" t="s">
+        <v>63</v>
+      </c>
+      <c r="D78" t="s">
+        <v>64</v>
+      </c>
+      <c r="E78" s="2">
+        <v>44878.5</v>
+      </c>
+      <c r="F78">
+        <v>13</v>
+      </c>
+      <c r="G78" t="s">
+        <v>76</v>
+      </c>
+      <c r="H78" t="s">
+        <v>73</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>5</v>
+      </c>
+      <c r="N78">
+        <v>6</v>
+      </c>
+      <c r="O78" t="s">
+        <v>136</v>
+      </c>
+      <c r="P78" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q78">
+        <v>1</v>
+      </c>
+      <c r="R78">
+        <v>10</v>
+      </c>
+      <c r="S78">
+        <v>11</v>
+      </c>
+      <c r="T78">
+        <v>3.15</v>
+      </c>
+      <c r="U78">
+        <v>2.47</v>
+      </c>
+      <c r="V78">
+        <v>2.95</v>
+      </c>
+      <c r="W78">
+        <v>1.24</v>
+      </c>
+      <c r="X78">
+        <v>3.6</v>
+      </c>
+      <c r="Y78">
+        <v>2.31</v>
+      </c>
+      <c r="Z78">
+        <v>1.6</v>
+      </c>
+      <c r="AA78">
+        <v>4.6</v>
+      </c>
+      <c r="AB78">
+        <v>1.16</v>
+      </c>
+      <c r="AC78">
+        <v>2.38</v>
+      </c>
+      <c r="AD78">
+        <v>3.5</v>
+      </c>
+      <c r="AE78">
+        <v>2.42</v>
+      </c>
+      <c r="AF78">
+        <v>1.02</v>
+      </c>
+      <c r="AG78">
+        <v>10</v>
+      </c>
+      <c r="AH78">
+        <v>1.13</v>
+      </c>
+      <c r="AI78">
+        <v>5</v>
+      </c>
+      <c r="AJ78">
+        <v>1.44</v>
+      </c>
+      <c r="AK78">
+        <v>2.41</v>
+      </c>
+      <c r="AL78">
+        <v>1.47</v>
+      </c>
+      <c r="AM78">
+        <v>2.61</v>
+      </c>
+      <c r="AN78">
+        <v>1.56</v>
+      </c>
+      <c r="AO78">
+        <v>1.26</v>
+      </c>
+      <c r="AP78">
+        <v>1.47</v>
+      </c>
+      <c r="AQ78">
+        <v>2.5</v>
+      </c>
+      <c r="AR78">
+        <v>1.33</v>
+      </c>
+      <c r="AS78">
+        <v>2.14</v>
+      </c>
+      <c r="AT78">
+        <v>1.57</v>
+      </c>
+      <c r="AU78">
+        <v>1.91</v>
+      </c>
+      <c r="AV78">
+        <v>1.79</v>
+      </c>
+      <c r="AW78">
+        <v>3.7</v>
+      </c>
+      <c r="AX78">
+        <v>2.2</v>
+      </c>
+      <c r="AY78">
+        <v>5.75</v>
+      </c>
+      <c r="AZ78">
+        <v>1.83</v>
+      </c>
+      <c r="BA78">
+        <v>1.22</v>
+      </c>
+      <c r="BB78">
+        <v>1.42</v>
+      </c>
+      <c r="BC78">
+        <v>1.74</v>
+      </c>
+      <c r="BD78">
+        <v>2.23</v>
+      </c>
+      <c r="BE78">
+        <v>3</v>
+      </c>
+      <c r="BF78">
+        <v>4</v>
+      </c>
+      <c r="BG78">
+        <v>8</v>
+      </c>
+      <c r="BH78">
+        <v>6</v>
+      </c>
+      <c r="BI78">
+        <v>11</v>
+      </c>
+      <c r="BJ78">
+        <v>10</v>
+      </c>
+      <c r="BK78">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:63">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>2578664</v>
+      </c>
+      <c r="C79" t="s">
+        <v>63</v>
+      </c>
+      <c r="D79" t="s">
+        <v>64</v>
+      </c>
+      <c r="E79" s="2">
+        <v>44878.66666666666</v>
+      </c>
+      <c r="F79">
+        <v>13</v>
+      </c>
+      <c r="G79" t="s">
+        <v>74</v>
+      </c>
+      <c r="H79" t="s">
+        <v>75</v>
+      </c>
+      <c r="I79">
+        <v>2</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>2</v>
+      </c>
+      <c r="L79">
+        <v>5</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>5</v>
+      </c>
+      <c r="O79" t="s">
+        <v>137</v>
+      </c>
+      <c r="P79" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q79">
+        <v>4</v>
+      </c>
+      <c r="R79">
+        <v>3</v>
+      </c>
+      <c r="S79">
+        <v>7</v>
+      </c>
+      <c r="T79">
+        <v>2.22</v>
+      </c>
+      <c r="U79">
+        <v>2.45</v>
+      </c>
+      <c r="V79">
+        <v>4.89</v>
+      </c>
+      <c r="W79">
+        <v>1.3</v>
+      </c>
+      <c r="X79">
+        <v>3.2</v>
+      </c>
+      <c r="Y79">
+        <v>2.52</v>
+      </c>
+      <c r="Z79">
+        <v>1.52</v>
+      </c>
+      <c r="AA79">
+        <v>5.2</v>
+      </c>
+      <c r="AB79">
+        <v>1.13</v>
+      </c>
+      <c r="AC79">
+        <v>1.66</v>
+      </c>
+      <c r="AD79">
+        <v>4.04</v>
+      </c>
+      <c r="AE79">
+        <v>4.62</v>
+      </c>
+      <c r="AF79">
+        <v>1.03</v>
+      </c>
+      <c r="AG79">
+        <v>9</v>
+      </c>
+      <c r="AH79">
+        <v>1.2</v>
+      </c>
+      <c r="AI79">
+        <v>4.38</v>
+      </c>
+      <c r="AJ79">
+        <v>1.65</v>
+      </c>
+      <c r="AK79">
+        <v>2.1</v>
+      </c>
+      <c r="AL79">
+        <v>1.69</v>
+      </c>
+      <c r="AM79">
+        <v>2.13</v>
+      </c>
+      <c r="AN79">
+        <v>1.19</v>
+      </c>
+      <c r="AO79">
+        <v>1.23</v>
+      </c>
+      <c r="AP79">
+        <v>2.25</v>
+      </c>
+      <c r="AQ79">
+        <v>2.33</v>
+      </c>
+      <c r="AR79">
+        <v>1.8</v>
+      </c>
+      <c r="AS79">
+        <v>2.43</v>
+      </c>
+      <c r="AT79">
+        <v>1.5</v>
+      </c>
+      <c r="AU79">
+        <v>1.64</v>
+      </c>
+      <c r="AV79">
+        <v>1.56</v>
+      </c>
+      <c r="AW79">
+        <v>3.2</v>
+      </c>
+      <c r="AX79">
+        <v>1.26</v>
+      </c>
+      <c r="AY79">
+        <v>7.25</v>
+      </c>
+      <c r="AZ79">
+        <v>4.4</v>
+      </c>
+      <c r="BA79">
+        <v>0</v>
+      </c>
+      <c r="BB79">
+        <v>1.3</v>
+      </c>
+      <c r="BC79">
+        <v>1.55</v>
+      </c>
+      <c r="BD79">
+        <v>2</v>
+      </c>
+      <c r="BE79">
+        <v>2.5</v>
+      </c>
+      <c r="BF79">
+        <v>9</v>
+      </c>
+      <c r="BG79">
+        <v>2</v>
+      </c>
+      <c r="BH79">
+        <v>6</v>
+      </c>
+      <c r="BI79">
+        <v>3</v>
+      </c>
+      <c r="BJ79">
+        <v>15</v>
+      </c>
+      <c r="BK79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:63">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>2578670</v>
+      </c>
+      <c r="C80" t="s">
+        <v>63</v>
+      </c>
+      <c r="D80" t="s">
+        <v>64</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44883.66666666666</v>
+      </c>
+      <c r="F80">
+        <v>14</v>
+      </c>
+      <c r="G80" t="s">
+        <v>66</v>
+      </c>
+      <c r="H80" t="s">
+        <v>72</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>2</v>
+      </c>
+      <c r="N80">
+        <v>2</v>
+      </c>
+      <c r="O80" t="s">
+        <v>82</v>
+      </c>
+      <c r="P80" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q80">
+        <v>2</v>
+      </c>
+      <c r="R80">
+        <v>5</v>
+      </c>
+      <c r="S80">
+        <v>7</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>0</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>0</v>
+      </c>
+      <c r="AB80">
+        <v>0</v>
+      </c>
+      <c r="AC80">
+        <v>2.09</v>
+      </c>
+      <c r="AD80">
+        <v>3.62</v>
+      </c>
+      <c r="AE80">
+        <v>3.18</v>
+      </c>
+      <c r="AF80">
+        <v>0</v>
+      </c>
+      <c r="AG80">
+        <v>0</v>
+      </c>
+      <c r="AH80">
+        <v>0</v>
+      </c>
+      <c r="AI80">
+        <v>0</v>
+      </c>
+      <c r="AJ80">
+        <v>1.62</v>
+      </c>
+      <c r="AK80">
+        <v>2.15</v>
+      </c>
+      <c r="AL80">
+        <v>0</v>
+      </c>
+      <c r="AM80">
+        <v>0</v>
+      </c>
+      <c r="AN80">
+        <v>0</v>
+      </c>
+      <c r="AO80">
+        <v>0</v>
+      </c>
+      <c r="AP80">
+        <v>0</v>
+      </c>
+      <c r="AQ80">
+        <v>0.67</v>
+      </c>
+      <c r="AR80">
+        <v>1</v>
+      </c>
+      <c r="AS80">
+        <v>0.57</v>
+      </c>
+      <c r="AT80">
+        <v>1.25</v>
+      </c>
+      <c r="AU80">
+        <v>1.2</v>
+      </c>
+      <c r="AV80">
+        <v>1.37</v>
+      </c>
+      <c r="AW80">
+        <v>2.57</v>
+      </c>
+      <c r="AX80">
+        <v>0</v>
+      </c>
+      <c r="AY80">
+        <v>0</v>
+      </c>
+      <c r="AZ80">
+        <v>0</v>
+      </c>
+      <c r="BA80">
+        <v>0</v>
+      </c>
+      <c r="BB80">
+        <v>0</v>
+      </c>
+      <c r="BC80">
+        <v>0</v>
+      </c>
+      <c r="BD80">
+        <v>0</v>
+      </c>
+      <c r="BE80">
+        <v>0</v>
+      </c>
+      <c r="BF80">
+        <v>4</v>
+      </c>
+      <c r="BG80">
+        <v>7</v>
+      </c>
+      <c r="BH80">
+        <v>1</v>
+      </c>
+      <c r="BI80">
+        <v>6</v>
+      </c>
+      <c r="BJ80">
+        <v>5</v>
+      </c>
+      <c r="BK80">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:63">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>2578674</v>
+      </c>
+      <c r="C81" t="s">
+        <v>63</v>
+      </c>
+      <c r="D81" t="s">
+        <v>64</v>
+      </c>
+      <c r="E81" s="2">
+        <v>44883.66666666666</v>
+      </c>
+      <c r="F81">
+        <v>14</v>
+      </c>
+      <c r="G81" t="s">
+        <v>75</v>
+      </c>
+      <c r="H81" t="s">
+        <v>69</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>2</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>3</v>
+      </c>
+      <c r="O81" t="s">
+        <v>138</v>
+      </c>
+      <c r="P81" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q81">
+        <v>2</v>
+      </c>
+      <c r="R81">
+        <v>10</v>
+      </c>
+      <c r="S81">
+        <v>12</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>0</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>0</v>
+      </c>
+      <c r="AB81">
+        <v>0</v>
+      </c>
+      <c r="AC81">
+        <v>1.93</v>
+      </c>
+      <c r="AD81">
+        <v>3.75</v>
+      </c>
+      <c r="AE81">
+        <v>3</v>
+      </c>
+      <c r="AF81">
+        <v>0</v>
+      </c>
+      <c r="AG81">
+        <v>0</v>
+      </c>
+      <c r="AH81">
+        <v>0</v>
+      </c>
+      <c r="AI81">
+        <v>0</v>
+      </c>
+      <c r="AJ81">
+        <v>1.52</v>
+      </c>
+      <c r="AK81">
+        <v>2.2</v>
+      </c>
+      <c r="AL81">
+        <v>0</v>
+      </c>
+      <c r="AM81">
+        <v>0</v>
+      </c>
+      <c r="AN81">
+        <v>0</v>
+      </c>
+      <c r="AO81">
+        <v>0</v>
+      </c>
+      <c r="AP81">
+        <v>0</v>
+      </c>
+      <c r="AQ81">
+        <v>0.86</v>
+      </c>
+      <c r="AR81">
+        <v>0.33</v>
+      </c>
+      <c r="AS81">
+        <v>1.13</v>
+      </c>
+      <c r="AT81">
+        <v>0.29</v>
+      </c>
+      <c r="AU81">
+        <v>1.74</v>
+      </c>
+      <c r="AV81">
+        <v>1.76</v>
+      </c>
+      <c r="AW81">
+        <v>3.5</v>
+      </c>
+      <c r="AX81">
+        <v>0</v>
+      </c>
+      <c r="AY81">
+        <v>0</v>
+      </c>
+      <c r="AZ81">
+        <v>0</v>
+      </c>
+      <c r="BA81">
+        <v>0</v>
+      </c>
+      <c r="BB81">
+        <v>0</v>
+      </c>
+      <c r="BC81">
+        <v>0</v>
+      </c>
+      <c r="BD81">
+        <v>0</v>
+      </c>
+      <c r="BE81">
+        <v>0</v>
+      </c>
+      <c r="BF81">
+        <v>6</v>
+      </c>
+      <c r="BG81">
+        <v>7</v>
+      </c>
+      <c r="BH81">
+        <v>5</v>
+      </c>
+      <c r="BI81">
+        <v>8</v>
+      </c>
+      <c r="BJ81">
+        <v>11</v>
+      </c>
+      <c r="BK81">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:63">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>2578675</v>
+      </c>
+      <c r="C82" t="s">
+        <v>63</v>
+      </c>
+      <c r="D82" t="s">
+        <v>64</v>
+      </c>
+      <c r="E82" s="2">
+        <v>44884.5</v>
+      </c>
+      <c r="F82">
+        <v>14</v>
+      </c>
+      <c r="G82" t="s">
+        <v>67</v>
+      </c>
+      <c r="H82" t="s">
+        <v>68</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82" t="s">
+        <v>139</v>
+      </c>
+      <c r="P82" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q82">
+        <v>11</v>
+      </c>
+      <c r="R82">
+        <v>3</v>
+      </c>
+      <c r="S82">
+        <v>14</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <v>0</v>
+      </c>
+      <c r="Y82">
+        <v>0</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
+        <v>0</v>
+      </c>
+      <c r="AB82">
+        <v>0</v>
+      </c>
+      <c r="AC82">
+        <v>1.39</v>
+      </c>
+      <c r="AD82">
+        <v>4.75</v>
+      </c>
+      <c r="AE82">
+        <v>5.8</v>
+      </c>
+      <c r="AF82">
+        <v>0</v>
+      </c>
+      <c r="AG82">
+        <v>0</v>
+      </c>
+      <c r="AH82">
+        <v>0</v>
+      </c>
+      <c r="AI82">
+        <v>0</v>
+      </c>
+      <c r="AJ82">
+        <v>1.6</v>
+      </c>
+      <c r="AK82">
+        <v>2.2</v>
+      </c>
+      <c r="AL82">
+        <v>0</v>
+      </c>
+      <c r="AM82">
+        <v>0</v>
+      </c>
+      <c r="AN82">
+        <v>0</v>
+      </c>
+      <c r="AO82">
+        <v>0</v>
+      </c>
+      <c r="AP82">
+        <v>0</v>
+      </c>
+      <c r="AQ82">
+        <v>1.43</v>
+      </c>
+      <c r="AR82">
+        <v>0.83</v>
+      </c>
+      <c r="AS82">
+        <v>1.63</v>
+      </c>
+      <c r="AT82">
+        <v>0.71</v>
+      </c>
+      <c r="AU82">
+        <v>1.89</v>
+      </c>
+      <c r="AV82">
+        <v>1.13</v>
+      </c>
+      <c r="AW82">
+        <v>3.02</v>
+      </c>
+      <c r="AX82">
+        <v>0</v>
+      </c>
+      <c r="AY82">
+        <v>0</v>
+      </c>
+      <c r="AZ82">
+        <v>0</v>
+      </c>
+      <c r="BA82">
+        <v>0</v>
+      </c>
+      <c r="BB82">
+        <v>0</v>
+      </c>
+      <c r="BC82">
+        <v>0</v>
+      </c>
+      <c r="BD82">
+        <v>0</v>
+      </c>
+      <c r="BE82">
+        <v>0</v>
+      </c>
+      <c r="BF82">
+        <v>10</v>
+      </c>
+      <c r="BG82">
+        <v>4</v>
+      </c>
+      <c r="BH82">
+        <v>10</v>
+      </c>
+      <c r="BI82">
+        <v>4</v>
+      </c>
+      <c r="BJ82">
+        <v>20</v>
+      </c>
+      <c r="BK82">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:63">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>2578672</v>
+      </c>
+      <c r="C83" t="s">
+        <v>63</v>
+      </c>
+      <c r="D83" t="s">
+        <v>64</v>
+      </c>
+      <c r="E83" s="2">
+        <v>44884.66666666666</v>
+      </c>
+      <c r="F83">
+        <v>14</v>
+      </c>
+      <c r="G83" t="s">
+        <v>73</v>
+      </c>
+      <c r="H83" t="s">
+        <v>74</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>2</v>
+      </c>
+      <c r="O83" t="s">
+        <v>140</v>
+      </c>
+      <c r="P83" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q83">
+        <v>4</v>
+      </c>
+      <c r="R83">
+        <v>4</v>
+      </c>
+      <c r="S83">
+        <v>8</v>
+      </c>
+      <c r="T83">
+        <v>2.51</v>
+      </c>
+      <c r="U83">
+        <v>2.32</v>
+      </c>
+      <c r="V83">
+        <v>3.9</v>
+      </c>
+      <c r="W83">
+        <v>1.3</v>
+      </c>
+      <c r="X83">
+        <v>3.32</v>
+      </c>
+      <c r="Y83">
+        <v>2.4</v>
+      </c>
+      <c r="Z83">
+        <v>1.53</v>
+      </c>
+      <c r="AA83">
+        <v>5.1</v>
+      </c>
+      <c r="AB83">
+        <v>1.13</v>
+      </c>
+      <c r="AC83">
+        <v>1.93</v>
+      </c>
+      <c r="AD83">
+        <v>3.5</v>
+      </c>
+      <c r="AE83">
+        <v>3.25</v>
+      </c>
+      <c r="AF83">
+        <v>1.04</v>
+      </c>
+      <c r="AG83">
+        <v>13</v>
+      </c>
+      <c r="AH83">
+        <v>1.18</v>
+      </c>
+      <c r="AI83">
+        <v>4.3</v>
+      </c>
+      <c r="AJ83">
+        <v>1.59</v>
+      </c>
+      <c r="AK83">
+        <v>2.09</v>
+      </c>
+      <c r="AL83">
+        <v>1.56</v>
+      </c>
+      <c r="AM83">
+        <v>2.36</v>
+      </c>
+      <c r="AN83">
+        <v>1.3</v>
+      </c>
+      <c r="AO83">
+        <v>1.25</v>
+      </c>
+      <c r="AP83">
+        <v>1.77</v>
+      </c>
+      <c r="AQ83">
+        <v>2.67</v>
+      </c>
+      <c r="AR83">
+        <v>1.67</v>
+      </c>
+      <c r="AS83">
+        <v>2.43</v>
+      </c>
+      <c r="AT83">
+        <v>1.57</v>
+      </c>
+      <c r="AU83">
+        <v>1.83</v>
+      </c>
+      <c r="AV83">
+        <v>1.63</v>
+      </c>
+      <c r="AW83">
+        <v>3.46</v>
+      </c>
+      <c r="AX83">
+        <v>1.57</v>
+      </c>
+      <c r="AY83">
+        <v>6</v>
+      </c>
+      <c r="AZ83">
+        <v>2.7</v>
+      </c>
+      <c r="BA83">
+        <v>1.2</v>
+      </c>
+      <c r="BB83">
+        <v>1.38</v>
+      </c>
+      <c r="BC83">
+        <v>1.67</v>
+      </c>
+      <c r="BD83">
+        <v>2.12</v>
+      </c>
+      <c r="BE83">
+        <v>2.85</v>
+      </c>
+      <c r="BF83">
+        <v>3</v>
+      </c>
+      <c r="BG83">
+        <v>3</v>
+      </c>
+      <c r="BH83">
+        <v>3</v>
+      </c>
+      <c r="BI83">
+        <v>3</v>
+      </c>
+      <c r="BJ83">
+        <v>6</v>
+      </c>
+      <c r="BK83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:63">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>2578673</v>
+      </c>
+      <c r="C84" t="s">
+        <v>63</v>
+      </c>
+      <c r="D84" t="s">
+        <v>64</v>
+      </c>
+      <c r="E84" s="2">
+        <v>44885.5</v>
+      </c>
+      <c r="F84">
+        <v>14</v>
+      </c>
+      <c r="G84" t="s">
+        <v>71</v>
+      </c>
+      <c r="H84" t="s">
+        <v>76</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>2</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>3</v>
+      </c>
+      <c r="O84" t="s">
+        <v>141</v>
+      </c>
+      <c r="P84" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q84">
+        <v>1</v>
+      </c>
+      <c r="R84">
+        <v>6</v>
+      </c>
+      <c r="S84">
+        <v>7</v>
+      </c>
+      <c r="T84">
+        <v>2.5</v>
+      </c>
+      <c r="U84">
+        <v>2.4</v>
+      </c>
+      <c r="V84">
+        <v>3.75</v>
+      </c>
+      <c r="W84">
+        <v>1.29</v>
+      </c>
+      <c r="X84">
+        <v>3.5</v>
+      </c>
+      <c r="Y84">
+        <v>2.25</v>
+      </c>
+      <c r="Z84">
+        <v>1.57</v>
+      </c>
+      <c r="AA84">
+        <v>5.5</v>
+      </c>
+      <c r="AB84">
+        <v>1.14</v>
+      </c>
+      <c r="AC84">
+        <v>2.05</v>
+      </c>
+      <c r="AD84">
+        <v>3.4</v>
+      </c>
+      <c r="AE84">
+        <v>3</v>
+      </c>
+      <c r="AF84">
+        <v>1.03</v>
+      </c>
+      <c r="AG84">
+        <v>11</v>
+      </c>
+      <c r="AH84">
+        <v>1.18</v>
+      </c>
+      <c r="AI84">
+        <v>4.75</v>
+      </c>
+      <c r="AJ84">
+        <v>1.56</v>
+      </c>
+      <c r="AK84">
+        <v>2.13</v>
+      </c>
+      <c r="AL84">
+        <v>1.5</v>
+      </c>
+      <c r="AM84">
+        <v>2.5</v>
+      </c>
+      <c r="AN84">
+        <v>1.3</v>
+      </c>
+      <c r="AO84">
+        <v>1.2</v>
+      </c>
+      <c r="AP84">
+        <v>1.78</v>
+      </c>
+      <c r="AQ84">
+        <v>1.67</v>
+      </c>
+      <c r="AR84">
+        <v>1.17</v>
+      </c>
+      <c r="AS84">
+        <v>1.86</v>
+      </c>
+      <c r="AT84">
+        <v>1</v>
+      </c>
+      <c r="AU84">
+        <v>1.21</v>
+      </c>
+      <c r="AV84">
+        <v>1.69</v>
+      </c>
+      <c r="AW84">
+        <v>2.9</v>
+      </c>
+      <c r="AX84">
+        <v>1.55</v>
+      </c>
+      <c r="AY84">
+        <v>6</v>
+      </c>
+      <c r="AZ84">
+        <v>2.7</v>
+      </c>
+      <c r="BA84">
+        <v>1.22</v>
+      </c>
+      <c r="BB84">
+        <v>1.42</v>
+      </c>
+      <c r="BC84">
+        <v>1.74</v>
+      </c>
+      <c r="BD84">
+        <v>2.23</v>
+      </c>
+      <c r="BE84">
+        <v>3</v>
+      </c>
+      <c r="BF84">
+        <v>7</v>
+      </c>
+      <c r="BG84">
+        <v>9</v>
+      </c>
+      <c r="BH84">
+        <v>5</v>
+      </c>
+      <c r="BI84">
+        <v>16</v>
+      </c>
+      <c r="BJ84">
+        <v>12</v>
+      </c>
+      <c r="BK84">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:63">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>2578671</v>
+      </c>
+      <c r="C85" t="s">
+        <v>63</v>
+      </c>
+      <c r="D85" t="s">
+        <v>64</v>
+      </c>
+      <c r="E85" s="2">
+        <v>44885.66666666666</v>
+      </c>
+      <c r="F85">
+        <v>14</v>
+      </c>
+      <c r="G85" t="s">
+        <v>65</v>
+      </c>
+      <c r="H85" t="s">
+        <v>70</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>2</v>
+      </c>
+      <c r="L85">
+        <v>2</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85">
+        <v>3</v>
+      </c>
+      <c r="O85" t="s">
+        <v>142</v>
+      </c>
+      <c r="P85" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q85">
+        <v>4</v>
+      </c>
+      <c r="R85">
+        <v>4</v>
+      </c>
+      <c r="S85">
+        <v>8</v>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>0</v>
+      </c>
+      <c r="V85">
+        <v>0</v>
+      </c>
+      <c r="W85">
+        <v>0</v>
+      </c>
+      <c r="X85">
+        <v>0</v>
+      </c>
+      <c r="Y85">
+        <v>0</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+      <c r="AA85">
+        <v>0</v>
+      </c>
+      <c r="AB85">
+        <v>0</v>
+      </c>
+      <c r="AC85">
+        <v>2.55</v>
+      </c>
+      <c r="AD85">
+        <v>3.7</v>
+      </c>
+      <c r="AE85">
+        <v>2.43</v>
+      </c>
+      <c r="AF85">
+        <v>0</v>
+      </c>
+      <c r="AG85">
+        <v>0</v>
+      </c>
+      <c r="AH85">
+        <v>0</v>
+      </c>
+      <c r="AI85">
+        <v>0</v>
+      </c>
+      <c r="AJ85">
+        <v>1.6</v>
+      </c>
+      <c r="AK85">
+        <v>2.28</v>
+      </c>
+      <c r="AL85">
+        <v>0</v>
+      </c>
+      <c r="AM85">
+        <v>0</v>
+      </c>
+      <c r="AN85">
+        <v>0</v>
+      </c>
+      <c r="AO85">
+        <v>0</v>
+      </c>
+      <c r="AP85">
+        <v>0</v>
+      </c>
+      <c r="AQ85">
+        <v>0.5</v>
+      </c>
+      <c r="AR85">
+        <v>2</v>
+      </c>
+      <c r="AS85">
+        <v>0.86</v>
+      </c>
+      <c r="AT85">
+        <v>1.75</v>
+      </c>
+      <c r="AU85">
+        <v>1.72</v>
+      </c>
+      <c r="AV85">
+        <v>1.19</v>
+      </c>
+      <c r="AW85">
+        <v>2.91</v>
+      </c>
+      <c r="AX85">
+        <v>0</v>
+      </c>
+      <c r="AY85">
+        <v>0</v>
+      </c>
+      <c r="AZ85">
+        <v>0</v>
+      </c>
+      <c r="BA85">
+        <v>0</v>
+      </c>
+      <c r="BB85">
+        <v>0</v>
+      </c>
+      <c r="BC85">
+        <v>0</v>
+      </c>
+      <c r="BD85">
+        <v>0</v>
+      </c>
+      <c r="BE85">
+        <v>0</v>
+      </c>
+      <c r="BF85">
+        <v>4</v>
+      </c>
+      <c r="BG85">
+        <v>6</v>
+      </c>
+      <c r="BH85">
+        <v>3</v>
+      </c>
+      <c r="BI85">
+        <v>2</v>
+      </c>
+      <c r="BJ85">
+        <v>7</v>
+      </c>
+      <c r="BK85">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK91"/>
+  <dimension ref="A1:BK97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT3" t="n">
         <v>1.38</v>
@@ -1309,7 +1309,7 @@
         <v>1.63</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>1.25</v>
       </c>
       <c r="AT6" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT7" t="n">
         <v>1</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AT11" t="n">
         <v>1.5</v>
@@ -3136,7 +3136,7 @@
         <v>2</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>1</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT14" t="n">
         <v>1.25</v>
@@ -3542,7 +3542,7 @@
         <v>1.25</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU15" t="n">
         <v>0.9399999999999999</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU16" t="n">
         <v>1.51</v>
@@ -3945,7 +3945,7 @@
         <v>1</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT17" t="n">
         <v>0.75</v>
@@ -4354,7 +4354,7 @@
         <v>1.63</v>
       </c>
       <c r="AT19" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU19" t="n">
         <v>2.18</v>
@@ -4554,7 +4554,7 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AT20" t="n">
         <v>1.75</v>
@@ -4757,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU21" t="n">
         <v>1.07</v>
@@ -4963,7 +4963,7 @@
         <v>1.88</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AU22" t="n">
         <v>1.02</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT24" t="n">
         <v>1.5</v>
@@ -5572,7 +5572,7 @@
         <v>1.13</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU25" t="n">
         <v>1.76</v>
@@ -5772,10 +5772,10 @@
         <v>1.5</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT26" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU26" t="n">
         <v>1.88</v>
@@ -5978,7 +5978,7 @@
         <v>1.63</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU27" t="n">
         <v>2.17</v>
@@ -6178,10 +6178,10 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU28" t="n">
         <v>1.55</v>
@@ -6787,7 +6787,7 @@
         <v>0.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT31" t="n">
         <v>1.38</v>
@@ -6990,7 +6990,7 @@
         <v>0.5</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT32" t="n">
         <v>1.5</v>
@@ -7399,7 +7399,7 @@
         <v>1.88</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU34" t="n">
         <v>0.82</v>
@@ -7599,10 +7599,10 @@
         <v>0.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU35" t="n">
         <v>1.47</v>
@@ -7802,10 +7802,10 @@
         <v>2</v>
       </c>
       <c r="AS36" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AU36" t="n">
         <v>0.96</v>
@@ -8208,10 +8208,10 @@
         <v>0.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU38" t="n">
         <v>1.04</v>
@@ -9023,7 +9023,7 @@
         <v>2.13</v>
       </c>
       <c r="AT42" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU42" t="n">
         <v>1.65</v>
@@ -9223,7 +9223,7 @@
         <v>2.33</v>
       </c>
       <c r="AS43" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT43" t="n">
         <v>1.75</v>
@@ -9426,7 +9426,7 @@
         <v>1.67</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT44" t="n">
         <v>0.75</v>
@@ -9629,10 +9629,10 @@
         <v>1.25</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU45" t="n">
         <v>1.81</v>
@@ -9832,10 +9832,10 @@
         <v>3</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU46" t="n">
         <v>1.15</v>
@@ -10035,10 +10035,10 @@
         <v>2.33</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AT47" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AU47" t="n">
         <v>1.96</v>
@@ -10444,7 +10444,7 @@
         <v>1.88</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU49" t="n">
         <v>0.75</v>
@@ -10644,7 +10644,7 @@
         <v>1</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT50" t="n">
         <v>1.38</v>
@@ -11050,10 +11050,10 @@
         <v>1.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT52" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU52" t="n">
         <v>1.19</v>
@@ -11256,7 +11256,7 @@
         <v>1.13</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU53" t="n">
         <v>1.79</v>
@@ -12065,7 +12065,7 @@
         <v>1.25</v>
       </c>
       <c r="AS57" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT57" t="n">
         <v>0.75</v>
@@ -12271,7 +12271,7 @@
         <v>1.25</v>
       </c>
       <c r="AT58" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AU58" t="n">
         <v>1.33</v>
@@ -12471,7 +12471,7 @@
         <v>1.6</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT59" t="n">
         <v>1.5</v>
@@ -12674,10 +12674,10 @@
         <v>1.6</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU60" t="n">
         <v>1.74</v>
@@ -12880,7 +12880,7 @@
         <v>2</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU61" t="n">
         <v>1.9</v>
@@ -13080,7 +13080,7 @@
         <v>1.4</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT62" t="n">
         <v>1.25</v>
@@ -13486,10 +13486,10 @@
         <v>1.25</v>
       </c>
       <c r="AS64" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU64" t="n">
         <v>1.79</v>
@@ -13892,10 +13892,10 @@
         <v>1.4</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AT66" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU66" t="n">
         <v>1.62</v>
@@ -14098,7 +14098,7 @@
         <v>2.13</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU67" t="n">
         <v>1.91</v>
@@ -14298,7 +14298,7 @@
         <v>1.4</v>
       </c>
       <c r="AS68" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT68" t="n">
         <v>1.38</v>
@@ -14501,7 +14501,7 @@
         <v>1.17</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT69" t="n">
         <v>1.25</v>
@@ -14704,7 +14704,7 @@
         <v>0.2</v>
       </c>
       <c r="AS70" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT70" t="n">
         <v>1</v>
@@ -14910,7 +14910,7 @@
         <v>2.13</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU71" t="n">
         <v>1.89</v>
@@ -15113,7 +15113,7 @@
         <v>1.13</v>
       </c>
       <c r="AT72" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AU72" t="n">
         <v>1.86</v>
@@ -15316,7 +15316,7 @@
         <v>2</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU73" t="n">
         <v>1.89</v>
@@ -15719,7 +15719,7 @@
         <v>1.83</v>
       </c>
       <c r="AS75" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT75" t="n">
         <v>1.5</v>
@@ -16331,7 +16331,7 @@
         <v>2</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AU78" t="n">
         <v>1.91</v>
@@ -16531,10 +16531,10 @@
         <v>1.8</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU79" t="n">
         <v>1.64</v>
@@ -16734,7 +16734,7 @@
         <v>1</v>
       </c>
       <c r="AS80" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT80" t="n">
         <v>1.25</v>
@@ -16940,7 +16940,7 @@
         <v>1.13</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU81" t="n">
         <v>1.74</v>
@@ -17143,7 +17143,7 @@
         <v>1.63</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU82" t="n">
         <v>1.89</v>
@@ -17546,10 +17546,10 @@
         <v>1.17</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT84" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU84" t="n">
         <v>1.21</v>
@@ -17749,7 +17749,7 @@
         <v>2</v>
       </c>
       <c r="AS85" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT85" t="n">
         <v>1.75</v>
@@ -18358,7 +18358,7 @@
         <v>0.71</v>
       </c>
       <c r="AS88" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT88" t="n">
         <v>1</v>
@@ -18561,10 +18561,10 @@
         <v>2.17</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT89" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AU89" t="n">
         <v>1.71</v>
@@ -18767,7 +18767,7 @@
         <v>2.13</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AU90" t="n">
         <v>1.72</v>
@@ -19022,6 +19022,1224 @@
       </c>
       <c r="BK91" t="n">
         <v>19</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>2578687</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>44897.66666666666</v>
+      </c>
+      <c r="F92" t="n">
+        <v>16</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Standard Liège II</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Lierse Kempenzonen</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>3</v>
+      </c>
+      <c r="K92" t="n">
+        <v>4</v>
+      </c>
+      <c r="L92" t="n">
+        <v>2</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="n">
+        <v>6</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>['17', '90+2']</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>['7', '24', '29', '89']</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>9</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>14</v>
+      </c>
+      <c r="T92" t="n">
+        <v>0</v>
+      </c>
+      <c r="U92" t="n">
+        <v>0</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="n">
+        <v>0</v>
+      </c>
+      <c r="X92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS92" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT92" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU92" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV92" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AW92" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF92" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG92" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH92" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI92" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ92" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>2578686</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>44897.66666666666</v>
+      </c>
+      <c r="F93" t="n">
+        <v>16</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>RSC Anderlecht II</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>KRC Genk II</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>2</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>2</v>
+      </c>
+      <c r="L93" t="n">
+        <v>2</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>2</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>['7', '26']</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>7</v>
+      </c>
+      <c r="S93" t="n">
+        <v>11</v>
+      </c>
+      <c r="T93" t="n">
+        <v>0</v>
+      </c>
+      <c r="U93" t="n">
+        <v>0</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="n">
+        <v>0</v>
+      </c>
+      <c r="X93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT93" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AX93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF93" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG93" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH93" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI93" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ93" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK93" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>2578683</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>44898.5</v>
+      </c>
+      <c r="F94" t="n">
+        <v>16</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Excelsior Virton</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Lommel United</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="n">
+        <v>1</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>6</v>
+      </c>
+      <c r="R94" t="n">
+        <v>2</v>
+      </c>
+      <c r="S94" t="n">
+        <v>8</v>
+      </c>
+      <c r="T94" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="U94" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="V94" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="W94" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X94" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ94" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AR94" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT94" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AU94" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AV94" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW94" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AX94" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AY94" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ94" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BA94" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB94" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC94" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD94" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE94" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF94" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG94" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH94" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI94" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ94" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>2578682</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>44898.66666666666</v>
+      </c>
+      <c r="F95" t="n">
+        <v>16</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>RWDM</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Club Brugge II</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>2</v>
+      </c>
+      <c r="N95" t="n">
+        <v>2</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>['7', '52']</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>10</v>
+      </c>
+      <c r="R95" t="n">
+        <v>7</v>
+      </c>
+      <c r="S95" t="n">
+        <v>17</v>
+      </c>
+      <c r="T95" t="n">
+        <v>0</v>
+      </c>
+      <c r="U95" t="n">
+        <v>0</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="n">
+        <v>0</v>
+      </c>
+      <c r="X95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AX95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF95" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG95" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH95" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI95" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ95" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>2578684</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>44899.39583333334</v>
+      </c>
+      <c r="F96" t="n">
+        <v>16</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>FCV Dender EH</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Beerschot-Wilrijk</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>2</v>
+      </c>
+      <c r="K96" t="n">
+        <v>2</v>
+      </c>
+      <c r="L96" t="n">
+        <v>2</v>
+      </c>
+      <c r="M96" t="n">
+        <v>3</v>
+      </c>
+      <c r="N96" t="n">
+        <v>5</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>['74', '76']</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>['16', '18', '59']</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>2</v>
+      </c>
+      <c r="S96" t="n">
+        <v>7</v>
+      </c>
+      <c r="T96" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U96" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V96" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W96" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X96" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AS96" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT96" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU96" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV96" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AW96" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AX96" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ96" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BA96" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB96" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC96" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD96" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE96" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF96" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG96" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH96" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI96" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ96" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>2578685</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>44899.58333333334</v>
+      </c>
+      <c r="F97" t="n">
+        <v>16</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>KMSK Deinze</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Waasland-Beveren</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="n">
+        <v>5</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>['35', '49', '72', '80']</t>
+        </is>
+      </c>
+      <c r="Q97" t="n">
+        <v>4</v>
+      </c>
+      <c r="R97" t="n">
+        <v>3</v>
+      </c>
+      <c r="S97" t="n">
+        <v>7</v>
+      </c>
+      <c r="T97" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U97" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V97" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W97" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X97" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AK97" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS97" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT97" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU97" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV97" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AW97" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX97" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AY97" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ97" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BA97" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB97" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC97" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD97" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE97" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF97" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG97" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH97" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI97" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ97" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK97" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK97"/>
+  <dimension ref="A1:BK99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT6" t="n">
         <v>1.25</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT10" t="n">
         <v>0.75</v>
@@ -2933,7 +2933,7 @@
         <v>1.13</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>2</v>
       </c>
       <c r="AT13" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>3</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT15" t="n">
         <v>1.88</v>
@@ -4557,7 +4557,7 @@
         <v>2.13</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU20" t="n">
         <v>1.76</v>
@@ -6181,7 +6181,7 @@
         <v>1.5</v>
       </c>
       <c r="AT28" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU28" t="n">
         <v>1.55</v>
@@ -6381,7 +6381,7 @@
         <v>2</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT29" t="n">
         <v>1.25</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT30" t="n">
         <v>0.75</v>
@@ -7196,7 +7196,7 @@
         <v>2</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU33" t="n">
         <v>1.95</v>
@@ -8211,7 +8211,7 @@
         <v>0.5</v>
       </c>
       <c r="AT38" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU38" t="n">
         <v>1.04</v>
@@ -8411,7 +8411,7 @@
         <v>1.33</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT39" t="n">
         <v>1.5</v>
@@ -9020,7 +9020,7 @@
         <v>2</v>
       </c>
       <c r="AS42" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT42" t="n">
         <v>1.25</v>
@@ -9226,7 +9226,7 @@
         <v>0.75</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU43" t="n">
         <v>1.14</v>
@@ -10847,7 +10847,7 @@
         <v>0.33</v>
       </c>
       <c r="AS51" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT51" t="n">
         <v>1</v>
@@ -11256,7 +11256,7 @@
         <v>1.13</v>
       </c>
       <c r="AT53" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU53" t="n">
         <v>1.79</v>
@@ -11456,10 +11456,10 @@
         <v>2.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU54" t="n">
         <v>1.36</v>
@@ -12268,7 +12268,7 @@
         <v>1.75</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT58" t="n">
         <v>2.38</v>
@@ -13489,7 +13489,7 @@
         <v>0.75</v>
       </c>
       <c r="AT64" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU64" t="n">
         <v>1.79</v>
@@ -13692,7 +13692,7 @@
         <v>1.63</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU65" t="n">
         <v>1.87</v>
@@ -14095,7 +14095,7 @@
         <v>0.5</v>
       </c>
       <c r="AS67" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT67" t="n">
         <v>0.25</v>
@@ -14907,10 +14907,10 @@
         <v>1</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT71" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU71" t="n">
         <v>1.89</v>
@@ -15519,7 +15519,7 @@
         <v>1.88</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU74" t="n">
         <v>1.14</v>
@@ -15922,7 +15922,7 @@
         <v>0.67</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT76" t="n">
         <v>1</v>
@@ -17143,7 +17143,7 @@
         <v>1.63</v>
       </c>
       <c r="AT82" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU82" t="n">
         <v>1.89</v>
@@ -17343,7 +17343,7 @@
         <v>1.67</v>
       </c>
       <c r="AS83" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT83" t="n">
         <v>1.38</v>
@@ -17752,7 +17752,7 @@
         <v>0.75</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU85" t="n">
         <v>1.72</v>
@@ -18155,7 +18155,7 @@
         <v>1.57</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT87" t="n">
         <v>1.38</v>
@@ -18764,7 +18764,7 @@
         <v>1.5</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT90" t="n">
         <v>1.88</v>
@@ -19782,7 +19782,7 @@
         <v>2.13</v>
       </c>
       <c r="AT95" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU95" t="n">
         <v>1.68</v>
@@ -20240,6 +20240,412 @@
       </c>
       <c r="BK97" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>2578693</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>44904.66666666666</v>
+      </c>
+      <c r="F98" t="n">
+        <v>17</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>KRC Genk II</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Club Brugge II</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>2</v>
+      </c>
+      <c r="K98" t="n">
+        <v>3</v>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="n">
+        <v>2</v>
+      </c>
+      <c r="N98" t="n">
+        <v>3</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>['5', '11']</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
+        <v>4</v>
+      </c>
+      <c r="R98" t="n">
+        <v>2</v>
+      </c>
+      <c r="S98" t="n">
+        <v>6</v>
+      </c>
+      <c r="T98" t="n">
+        <v>0</v>
+      </c>
+      <c r="U98" t="n">
+        <v>0</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="n">
+        <v>0</v>
+      </c>
+      <c r="X98" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ98" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS98" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT98" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AU98" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV98" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW98" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AX98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF98" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH98" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI98" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ98" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>2578689</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>44904.66666666666</v>
+      </c>
+      <c r="F99" t="n">
+        <v>17</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Waasland-Beveren</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>RSC Anderlecht II</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>2</v>
+      </c>
+      <c r="L99" t="n">
+        <v>4</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="n">
+        <v>5</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>['33', '45', '51', '77']</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>7</v>
+      </c>
+      <c r="S99" t="n">
+        <v>12</v>
+      </c>
+      <c r="T99" t="n">
+        <v>0</v>
+      </c>
+      <c r="U99" t="n">
+        <v>0</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="n">
+        <v>0</v>
+      </c>
+      <c r="X99" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ99" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR99" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS99" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AT99" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU99" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV99" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW99" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF99" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG99" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH99" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI99" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ99" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK99" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK99"/>
+  <dimension ref="A1:BK103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT4" t="n">
         <v>1.75</v>
@@ -1512,7 +1512,7 @@
         <v>1.88</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.5</v>
       </c>
       <c r="AT7" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>2.22</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT12" t="n">
         <v>1.56</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT13" t="n">
         <v>1.22</v>
@@ -3339,7 +3339,7 @@
         <v>0.75</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU14" t="n">
         <v>1.21</v>
@@ -3948,7 +3948,7 @@
         <v>1.63</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU17" t="n">
         <v>0.51</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT19" t="n">
         <v>1.25</v>
@@ -4554,7 +4554,7 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT20" t="n">
         <v>1.56</v>
@@ -5163,10 +5163,10 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT23" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU23" t="n">
         <v>2.15</v>
@@ -5369,7 +5369,7 @@
         <v>0.5</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU24" t="n">
         <v>1.25</v>
@@ -5569,7 +5569,7 @@
         <v>0.5</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT25" t="n">
         <v>1.75</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT27" t="n">
         <v>1.88</v>
@@ -6384,7 +6384,7 @@
         <v>2.22</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU29" t="n">
         <v>1.71</v>
@@ -6587,7 +6587,7 @@
         <v>1.11</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU30" t="n">
         <v>1.11</v>
@@ -6993,7 +6993,7 @@
         <v>1.63</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU32" t="n">
         <v>1.18</v>
@@ -7193,7 +7193,7 @@
         <v>2</v>
       </c>
       <c r="AS33" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT33" t="n">
         <v>1.56</v>
@@ -7599,7 +7599,7 @@
         <v>0.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT35" t="n">
         <v>0.25</v>
@@ -8005,10 +8005,10 @@
         <v>1.33</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU37" t="n">
         <v>1.77</v>
@@ -8414,7 +8414,7 @@
         <v>1.11</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU39" t="n">
         <v>1.27</v>
@@ -8614,7 +8614,7 @@
         <v>1.33</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT40" t="n">
         <v>1.38</v>
@@ -8817,10 +8817,10 @@
         <v>0.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT41" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU41" t="n">
         <v>1.88</v>
@@ -9429,7 +9429,7 @@
         <v>1.5</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU44" t="n">
         <v>1.84</v>
@@ -10035,7 +10035,7 @@
         <v>2.33</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT47" t="n">
         <v>2.38</v>
@@ -10238,10 +10238,10 @@
         <v>1.75</v>
       </c>
       <c r="AS48" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU48" t="n">
         <v>2.17</v>
@@ -10850,7 +10850,7 @@
         <v>2.22</v>
       </c>
       <c r="AT51" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU51" t="n">
         <v>1.85</v>
@@ -11253,7 +11253,7 @@
         <v>0.67</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT53" t="n">
         <v>1.22</v>
@@ -11659,10 +11659,10 @@
         <v>1.75</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU55" t="n">
         <v>2.04</v>
@@ -11865,7 +11865,7 @@
         <v>1.88</v>
       </c>
       <c r="AT56" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU56" t="n">
         <v>1.05</v>
@@ -12068,7 +12068,7 @@
         <v>0.75</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU57" t="n">
         <v>1.23</v>
@@ -12474,7 +12474,7 @@
         <v>1.5</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU59" t="n">
         <v>1.83</v>
@@ -12674,7 +12674,7 @@
         <v>1.6</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT60" t="n">
         <v>1.75</v>
@@ -12877,7 +12877,7 @@
         <v>2.25</v>
       </c>
       <c r="AS61" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT61" t="n">
         <v>1.88</v>
@@ -13083,7 +13083,7 @@
         <v>1.63</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU62" t="n">
         <v>1.25</v>
@@ -13283,10 +13283,10 @@
         <v>1</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU63" t="n">
         <v>1.79</v>
@@ -13689,7 +13689,7 @@
         <v>2</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT65" t="n">
         <v>1.56</v>
@@ -13892,7 +13892,7 @@
         <v>1.4</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT66" t="n">
         <v>1.25</v>
@@ -14504,7 +14504,7 @@
         <v>1.5</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU69" t="n">
         <v>1.73</v>
@@ -14707,7 +14707,7 @@
         <v>0.5</v>
       </c>
       <c r="AT70" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU70" t="n">
         <v>1.16</v>
@@ -15110,7 +15110,7 @@
         <v>2</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT72" t="n">
         <v>2.38</v>
@@ -15313,7 +15313,7 @@
         <v>0.4</v>
       </c>
       <c r="AS73" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT73" t="n">
         <v>0.25</v>
@@ -15722,7 +15722,7 @@
         <v>0.75</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU75" t="n">
         <v>1.27</v>
@@ -15925,7 +15925,7 @@
         <v>1.11</v>
       </c>
       <c r="AT76" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU76" t="n">
         <v>1.29</v>
@@ -16125,10 +16125,10 @@
         <v>0.83</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU77" t="n">
         <v>1.86</v>
@@ -16328,7 +16328,7 @@
         <v>1.33</v>
       </c>
       <c r="AS78" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT78" t="n">
         <v>1.75</v>
@@ -16531,7 +16531,7 @@
         <v>1.8</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT79" t="n">
         <v>1.88</v>
@@ -16737,7 +16737,7 @@
         <v>0.5</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU80" t="n">
         <v>1.2</v>
@@ -16937,7 +16937,7 @@
         <v>0.33</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT81" t="n">
         <v>0.25</v>
@@ -17140,7 +17140,7 @@
         <v>0.83</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT82" t="n">
         <v>1.22</v>
@@ -17955,7 +17955,7 @@
         <v>1.88</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU86" t="n">
         <v>1.24</v>
@@ -18361,7 +18361,7 @@
         <v>0.75</v>
       </c>
       <c r="AT88" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU88" t="n">
         <v>1.35</v>
@@ -18967,10 +18967,10 @@
         <v>0.71</v>
       </c>
       <c r="AS91" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU91" t="n">
         <v>1.82</v>
@@ -19779,7 +19779,7 @@
         <v>0.71</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT95" t="n">
         <v>1.22</v>
@@ -20304,13 +20304,13 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R98" t="n">
         <v>2</v>
       </c>
       <c r="S98" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T98" t="n">
         <v>0</v>
@@ -20646,6 +20646,818 @@
       </c>
       <c r="BK99" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>2578691</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>44905.66666666666</v>
+      </c>
+      <c r="F100" t="n">
+        <v>17</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Lierse Kempenzonen</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>FCV Dender EH</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>2</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>2</v>
+      </c>
+      <c r="L100" t="n">
+        <v>2</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="n">
+        <v>3</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>['31', '34']</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>4</v>
+      </c>
+      <c r="S100" t="n">
+        <v>9</v>
+      </c>
+      <c r="T100" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U100" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V100" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W100" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X100" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP100" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ100" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR100" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS100" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AT100" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU100" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AV100" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW100" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AX100" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AY100" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ100" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BA100" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB100" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC100" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD100" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE100" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF100" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG100" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH100" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI100" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ100" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK100" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>2578688</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>44906.39583333334</v>
+      </c>
+      <c r="F101" t="n">
+        <v>17</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>RWDM</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Excelsior Virton</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>2</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
+      <c r="K101" t="n">
+        <v>3</v>
+      </c>
+      <c r="L101" t="n">
+        <v>3</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="n">
+        <v>4</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>['19', '44', '62']</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
+        <v>7</v>
+      </c>
+      <c r="R101" t="n">
+        <v>3</v>
+      </c>
+      <c r="S101" t="n">
+        <v>10</v>
+      </c>
+      <c r="T101" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U101" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="V101" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="W101" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X101" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="AJ101" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK101" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL101" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP101" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AQ101" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR101" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS101" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AT101" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU101" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV101" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW101" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX101" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AY101" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AZ101" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="BA101" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB101" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC101" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD101" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BE101" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF101" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG101" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH101" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI101" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ101" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK101" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>2578692</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>44906.54166666666</v>
+      </c>
+      <c r="F102" t="n">
+        <v>17</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Beerschot-Wilrijk</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Standard Liège II</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N102" t="n">
+        <v>1</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
+        <v>8</v>
+      </c>
+      <c r="R102" t="n">
+        <v>3</v>
+      </c>
+      <c r="S102" t="n">
+        <v>11</v>
+      </c>
+      <c r="T102" t="n">
+        <v>0</v>
+      </c>
+      <c r="U102" t="n">
+        <v>0</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="n">
+        <v>0</v>
+      </c>
+      <c r="X102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ102" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR102" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS102" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AT102" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU102" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AV102" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW102" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AX102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF102" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG102" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH102" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI102" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ102" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK102" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>2578690</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>44906.6875</v>
+      </c>
+      <c r="F103" t="n">
+        <v>17</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Lommel United</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>KMSK Deinze</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>1</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q103" t="n">
+        <v>4</v>
+      </c>
+      <c r="R103" t="n">
+        <v>4</v>
+      </c>
+      <c r="S103" t="n">
+        <v>8</v>
+      </c>
+      <c r="T103" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U103" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V103" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W103" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X103" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP103" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ103" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR103" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS103" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT103" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU103" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV103" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW103" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AX103" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AY103" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AZ103" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="BA103" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB103" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC103" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE103" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF103" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG103" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH103" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI103" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ103" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK103" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK103"/>
+  <dimension ref="A1:BK106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>0.75</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>1.78</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT7" t="n">
         <v>0.89</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT9" t="n">
         <v>2.38</v>
@@ -3542,7 +3542,7 @@
         <v>1.11</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU15" t="n">
         <v>0.9399999999999999</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU16" t="n">
         <v>1.51</v>
@@ -4151,7 +4151,7 @@
         <v>1.88</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU18" t="n">
         <v>1.02</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT21" t="n">
         <v>0.25</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT24" t="n">
         <v>1.33</v>
@@ -5572,7 +5572,7 @@
         <v>1.33</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU25" t="n">
         <v>1.76</v>
@@ -5978,7 +5978,7 @@
         <v>1.78</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU27" t="n">
         <v>2.17</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT28" t="n">
         <v>1.22</v>
@@ -6790,7 +6790,7 @@
         <v>1.63</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU31" t="n">
         <v>1.12</v>
@@ -7399,7 +7399,7 @@
         <v>1.88</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU34" t="n">
         <v>0.82</v>
@@ -7802,7 +7802,7 @@
         <v>2</v>
       </c>
       <c r="AS36" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT36" t="n">
         <v>2.38</v>
@@ -8208,7 +8208,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT38" t="n">
         <v>1.22</v>
@@ -8617,7 +8617,7 @@
         <v>1.33</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU40" t="n">
         <v>1.88</v>
@@ -9223,7 +9223,7 @@
         <v>2.33</v>
       </c>
       <c r="AS43" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT43" t="n">
         <v>1.56</v>
@@ -9426,7 +9426,7 @@
         <v>1.67</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT44" t="n">
         <v>0.67</v>
@@ -9632,7 +9632,7 @@
         <v>0.75</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU45" t="n">
         <v>1.81</v>
@@ -9835,7 +9835,7 @@
         <v>1.63</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU46" t="n">
         <v>1.15</v>
@@ -10644,10 +10644,10 @@
         <v>1</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU50" t="n">
         <v>1.18</v>
@@ -11050,7 +11050,7 @@
         <v>1.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT52" t="n">
         <v>1.25</v>
@@ -12065,7 +12065,7 @@
         <v>1.25</v>
       </c>
       <c r="AS57" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT57" t="n">
         <v>0.67</v>
@@ -12471,7 +12471,7 @@
         <v>1.6</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT59" t="n">
         <v>1.33</v>
@@ -12677,7 +12677,7 @@
         <v>2.22</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU60" t="n">
         <v>1.74</v>
@@ -12880,7 +12880,7 @@
         <v>2.11</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU61" t="n">
         <v>1.9</v>
@@ -14301,7 +14301,7 @@
         <v>0.75</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU68" t="n">
         <v>1.79</v>
@@ -14501,7 +14501,7 @@
         <v>1.17</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT69" t="n">
         <v>1.11</v>
@@ -14704,7 +14704,7 @@
         <v>0.2</v>
       </c>
       <c r="AS70" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT70" t="n">
         <v>0.89</v>
@@ -15719,7 +15719,7 @@
         <v>1.83</v>
       </c>
       <c r="AS75" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT75" t="n">
         <v>1.33</v>
@@ -16331,7 +16331,7 @@
         <v>2.11</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU78" t="n">
         <v>1.91</v>
@@ -16534,7 +16534,7 @@
         <v>2.22</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU79" t="n">
         <v>1.64</v>
@@ -16734,7 +16734,7 @@
         <v>1</v>
       </c>
       <c r="AS80" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT80" t="n">
         <v>1.11</v>
@@ -17346,7 +17346,7 @@
         <v>2.22</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU83" t="n">
         <v>1.83</v>
@@ -18158,7 +18158,7 @@
         <v>1.11</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU87" t="n">
         <v>1.32</v>
@@ -18358,7 +18358,7 @@
         <v>0.71</v>
       </c>
       <c r="AS88" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT88" t="n">
         <v>0.89</v>
@@ -18561,7 +18561,7 @@
         <v>2.17</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT89" t="n">
         <v>2.38</v>
@@ -18767,7 +18767,7 @@
         <v>2.22</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU90" t="n">
         <v>1.72</v>
@@ -19170,7 +19170,7 @@
         <v>1</v>
       </c>
       <c r="AS92" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT92" t="n">
         <v>1.25</v>
@@ -19373,7 +19373,7 @@
         <v>0.29</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT93" t="n">
         <v>0.25</v>
@@ -19576,10 +19576,10 @@
         <v>1.71</v>
       </c>
       <c r="AS94" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU94" t="n">
         <v>1.14</v>
@@ -20188,7 +20188,7 @@
         <v>1.63</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU97" t="n">
         <v>1.27</v>
@@ -21458,6 +21458,615 @@
       </c>
       <c r="BK103" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>2578694</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>44912.5</v>
+      </c>
+      <c r="F104" t="n">
+        <v>18</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Excelsior Virton</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Waasland-Beveren</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q104" t="n">
+        <v>3</v>
+      </c>
+      <c r="R104" t="n">
+        <v>3</v>
+      </c>
+      <c r="S104" t="n">
+        <v>6</v>
+      </c>
+      <c r="T104" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U104" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V104" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W104" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X104" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ104" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL104" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AO104" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP104" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AQ104" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR104" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS104" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AT104" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU104" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AV104" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AW104" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX104" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AY104" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AZ104" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BA104" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB104" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC104" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD104" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE104" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF104" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG104" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH104" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI104" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ104" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>2578699</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>44912.58333333334</v>
+      </c>
+      <c r="F105" t="n">
+        <v>18</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Standard Liège II</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Lommel United</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" t="n">
+        <v>3</v>
+      </c>
+      <c r="N105" t="n">
+        <v>3</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>['41', '54', '90']</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
+        <v>6</v>
+      </c>
+      <c r="R105" t="n">
+        <v>5</v>
+      </c>
+      <c r="S105" t="n">
+        <v>11</v>
+      </c>
+      <c r="T105" t="n">
+        <v>0</v>
+      </c>
+      <c r="U105" t="n">
+        <v>0</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="n">
+        <v>0</v>
+      </c>
+      <c r="X105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ105" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AK105" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AL105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ105" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR105" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AS105" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT105" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU105" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV105" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW105" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF105" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG105" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH105" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI105" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ105" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>2578698</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>44913.39583333334</v>
+      </c>
+      <c r="F106" t="n">
+        <v>18</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>RSC Anderlecht II</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>RWDM</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="n">
+        <v>2</v>
+      </c>
+      <c r="N106" t="n">
+        <v>3</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>['46']</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>['48', '71']</t>
+        </is>
+      </c>
+      <c r="Q106" t="n">
+        <v>3</v>
+      </c>
+      <c r="R106" t="n">
+        <v>4</v>
+      </c>
+      <c r="S106" t="n">
+        <v>7</v>
+      </c>
+      <c r="T106" t="n">
+        <v>0</v>
+      </c>
+      <c r="U106" t="n">
+        <v>0</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="n">
+        <v>0</v>
+      </c>
+      <c r="X106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS106" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT106" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU106" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV106" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW106" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF106" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG106" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH106" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI106" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ106" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK106" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK106"/>
+  <dimension ref="A1:BK107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT8" t="n">
         <v>0.25</v>
@@ -2324,7 +2324,7 @@
         <v>0.67</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>1</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT17" t="n">
         <v>0.67</v>
@@ -4963,7 +4963,7 @@
         <v>1.88</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AU22" t="n">
         <v>1.02</v>
@@ -6787,7 +6787,7 @@
         <v>0.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT31" t="n">
         <v>1.56</v>
@@ -6990,7 +6990,7 @@
         <v>0.5</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT32" t="n">
         <v>1.33</v>
@@ -7805,7 +7805,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AU36" t="n">
         <v>0.96</v>
@@ -9832,7 +9832,7 @@
         <v>3</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT46" t="n">
         <v>2</v>
@@ -10038,7 +10038,7 @@
         <v>2.22</v>
       </c>
       <c r="AT47" t="n">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AU47" t="n">
         <v>1.96</v>
@@ -12271,7 +12271,7 @@
         <v>1.11</v>
       </c>
       <c r="AT58" t="n">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AU58" t="n">
         <v>1.33</v>
@@ -13080,7 +13080,7 @@
         <v>1.4</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT62" t="n">
         <v>1.11</v>
@@ -15113,7 +15113,7 @@
         <v>1.33</v>
       </c>
       <c r="AT72" t="n">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AU72" t="n">
         <v>1.86</v>
@@ -17546,7 +17546,7 @@
         <v>1.17</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT84" t="n">
         <v>1.25</v>
@@ -18564,7 +18564,7 @@
         <v>1.33</v>
       </c>
       <c r="AT89" t="n">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AU89" t="n">
         <v>1.71</v>
@@ -19985,7 +19985,7 @@
         <v>0.75</v>
       </c>
       <c r="AT96" t="n">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AU96" t="n">
         <v>1.64</v>
@@ -20185,7 +20185,7 @@
         <v>1.57</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT97" t="n">
         <v>1.67</v>
@@ -22067,6 +22067,209 @@
       </c>
       <c r="BK106" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="n">
+        <v>2578696</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>44941.5</v>
+      </c>
+      <c r="F107" t="n">
+        <v>18</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>KMSK Deinze</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Beerschot-Wilrijk</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>2</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>2</v>
+      </c>
+      <c r="L107" t="n">
+        <v>3</v>
+      </c>
+      <c r="M107" t="n">
+        <v>2</v>
+      </c>
+      <c r="N107" t="n">
+        <v>5</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>['26', '45', '90']</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>['71', '85']</t>
+        </is>
+      </c>
+      <c r="Q107" t="n">
+        <v>2</v>
+      </c>
+      <c r="R107" t="n">
+        <v>3</v>
+      </c>
+      <c r="S107" t="n">
+        <v>5</v>
+      </c>
+      <c r="T107" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U107" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V107" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W107" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X107" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR107" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AX107" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ107" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BA107" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB107" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC107" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD107" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE107" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF107" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG107" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH107" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI107" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ107" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK107" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK107"/>
+  <dimension ref="A1:BK108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>0.75</v>
       </c>
       <c r="AT2" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT5" t="n">
         <v>1.11</v>
@@ -3542,7 +3542,7 @@
         <v>1.11</v>
       </c>
       <c r="AT15" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU15" t="n">
         <v>0.9399999999999999</v>
@@ -4148,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT18" t="n">
         <v>1.56</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT22" t="n">
         <v>2.11</v>
@@ -5978,7 +5978,7 @@
         <v>1.78</v>
       </c>
       <c r="AT27" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU27" t="n">
         <v>2.17</v>
@@ -7396,7 +7396,7 @@
         <v>1.33</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT34" t="n">
         <v>1.67</v>
@@ -9835,7 +9835,7 @@
         <v>1.78</v>
       </c>
       <c r="AT46" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU46" t="n">
         <v>1.15</v>
@@ -10441,7 +10441,7 @@
         <v>0.67</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT49" t="n">
         <v>0.25</v>
@@ -11862,7 +11862,7 @@
         <v>0.25</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT56" t="n">
         <v>0.89</v>
@@ -12880,7 +12880,7 @@
         <v>2.11</v>
       </c>
       <c r="AT61" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU61" t="n">
         <v>1.9</v>
@@ -15516,7 +15516,7 @@
         <v>2.17</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT74" t="n">
         <v>1.56</v>
@@ -16534,7 +16534,7 @@
         <v>2.22</v>
       </c>
       <c r="AT79" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU79" t="n">
         <v>1.64</v>
@@ -17952,7 +17952,7 @@
         <v>1.71</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT86" t="n">
         <v>1.33</v>
@@ -18767,7 +18767,7 @@
         <v>2.22</v>
       </c>
       <c r="AT90" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU90" t="n">
         <v>1.72</v>
@@ -19579,7 +19579,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT94" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU94" t="n">
         <v>1.14</v>
@@ -21812,7 +21812,7 @@
         <v>0.67</v>
       </c>
       <c r="AT105" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AU105" t="n">
         <v>1.48</v>
@@ -22270,6 +22270,209 @@
       </c>
       <c r="BK107" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="n">
+        <v>2578703</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>44946.66666666666</v>
+      </c>
+      <c r="F108" t="n">
+        <v>19</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Club Brugge II</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Lommel United</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="n">
+        <v>2</v>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="n">
+        <v>3</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>['34', '63']</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="Q108" t="n">
+        <v>2</v>
+      </c>
+      <c r="R108" t="n">
+        <v>11</v>
+      </c>
+      <c r="S108" t="n">
+        <v>13</v>
+      </c>
+      <c r="T108" t="n">
+        <v>0</v>
+      </c>
+      <c r="U108" t="n">
+        <v>0</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="n">
+        <v>0</v>
+      </c>
+      <c r="X108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ108" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR108" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS108" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT108" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AU108" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV108" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW108" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AX108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF108" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG108" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH108" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI108" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ108" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK108" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK108"/>
+  <dimension ref="A1:BK111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT2" t="n">
         <v>1.8</v>
@@ -1918,7 +1918,7 @@
         <v>1.33</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>0.67</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT11" t="n">
         <v>1.33</v>
@@ -3336,7 +3336,7 @@
         <v>1</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT14" t="n">
         <v>1.11</v>
@@ -3948,7 +3948,7 @@
         <v>1.78</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU17" t="n">
         <v>0.51</v>
@@ -4554,7 +4554,7 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT20" t="n">
         <v>1.56</v>
@@ -4963,7 +4963,7 @@
         <v>2</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU22" t="n">
         <v>1.02</v>
@@ -5166,7 +5166,7 @@
         <v>2.11</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU23" t="n">
         <v>2.15</v>
@@ -5772,7 +5772,7 @@
         <v>1.5</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT26" t="n">
         <v>1.25</v>
@@ -6381,7 +6381,7 @@
         <v>2</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT29" t="n">
         <v>1.11</v>
@@ -6587,7 +6587,7 @@
         <v>1.11</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU30" t="n">
         <v>1.11</v>
@@ -7599,7 +7599,7 @@
         <v>0.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT35" t="n">
         <v>0.25</v>
@@ -7805,7 +7805,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU36" t="n">
         <v>0.96</v>
@@ -8820,7 +8820,7 @@
         <v>1.78</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU41" t="n">
         <v>1.88</v>
@@ -9020,7 +9020,7 @@
         <v>2</v>
       </c>
       <c r="AS42" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT42" t="n">
         <v>1.25</v>
@@ -9429,7 +9429,7 @@
         <v>1.33</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU44" t="n">
         <v>1.84</v>
@@ -9629,7 +9629,7 @@
         <v>1.25</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT45" t="n">
         <v>1.67</v>
@@ -10035,10 +10035,10 @@
         <v>2.33</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT47" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU47" t="n">
         <v>1.96</v>
@@ -10847,10 +10847,10 @@
         <v>0.33</v>
       </c>
       <c r="AS51" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU51" t="n">
         <v>1.85</v>
@@ -11865,7 +11865,7 @@
         <v>2</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU56" t="n">
         <v>1.05</v>
@@ -12068,7 +12068,7 @@
         <v>0.67</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU57" t="n">
         <v>1.23</v>
@@ -12271,7 +12271,7 @@
         <v>1.11</v>
       </c>
       <c r="AT58" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU58" t="n">
         <v>1.33</v>
@@ -12674,7 +12674,7 @@
         <v>1.6</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT60" t="n">
         <v>1.67</v>
@@ -13286,7 +13286,7 @@
         <v>1.33</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU63" t="n">
         <v>1.79</v>
@@ -13486,7 +13486,7 @@
         <v>1.25</v>
       </c>
       <c r="AS64" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT64" t="n">
         <v>1.22</v>
@@ -13892,7 +13892,7 @@
         <v>1.4</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT66" t="n">
         <v>1.25</v>
@@ -14095,7 +14095,7 @@
         <v>0.5</v>
       </c>
       <c r="AS67" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT67" t="n">
         <v>0.25</v>
@@ -14298,7 +14298,7 @@
         <v>1.4</v>
       </c>
       <c r="AS68" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT68" t="n">
         <v>1.56</v>
@@ -14707,7 +14707,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU70" t="n">
         <v>1.16</v>
@@ -14907,7 +14907,7 @@
         <v>1</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT71" t="n">
         <v>1.22</v>
@@ -15113,7 +15113,7 @@
         <v>1.33</v>
       </c>
       <c r="AT72" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU72" t="n">
         <v>1.86</v>
@@ -15925,7 +15925,7 @@
         <v>1.11</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU76" t="n">
         <v>1.29</v>
@@ -16128,7 +16128,7 @@
         <v>1.78</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU77" t="n">
         <v>1.86</v>
@@ -16531,7 +16531,7 @@
         <v>1.8</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT79" t="n">
         <v>1.8</v>
@@ -17343,7 +17343,7 @@
         <v>1.67</v>
       </c>
       <c r="AS83" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT83" t="n">
         <v>1.56</v>
@@ -17749,7 +17749,7 @@
         <v>2</v>
       </c>
       <c r="AS85" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT85" t="n">
         <v>1.56</v>
@@ -18361,7 +18361,7 @@
         <v>0.67</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU88" t="n">
         <v>1.35</v>
@@ -18564,7 +18564,7 @@
         <v>1.33</v>
       </c>
       <c r="AT89" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU89" t="n">
         <v>1.71</v>
@@ -18764,7 +18764,7 @@
         <v>1.5</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT90" t="n">
         <v>1.8</v>
@@ -18970,7 +18970,7 @@
         <v>2.11</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU91" t="n">
         <v>1.82</v>
@@ -19779,7 +19779,7 @@
         <v>0.71</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT95" t="n">
         <v>1.22</v>
@@ -19982,10 +19982,10 @@
         <v>2.29</v>
       </c>
       <c r="AS96" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT96" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU96" t="n">
         <v>1.64</v>
@@ -20591,7 +20591,7 @@
         <v>1.75</v>
       </c>
       <c r="AS99" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT99" t="n">
         <v>1.56</v>
@@ -20997,10 +20997,10 @@
         <v>0.75</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AU101" t="n">
         <v>1.68</v>
@@ -21406,7 +21406,7 @@
         <v>1.33</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU103" t="n">
         <v>1.69</v>
@@ -22218,7 +22218,7 @@
         <v>1.78</v>
       </c>
       <c r="AT107" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU107" t="n">
         <v>1.32</v>
@@ -22473,6 +22473,615 @@
       </c>
       <c r="BK108" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="n">
+        <v>2578700</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>44947.5</v>
+      </c>
+      <c r="F109" t="n">
+        <v>19</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>RWDM</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>KMSK Deinze</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="n">
+        <v>2</v>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="n">
+        <v>3</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>['4', '78']</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="Q109" t="n">
+        <v>5</v>
+      </c>
+      <c r="R109" t="n">
+        <v>4</v>
+      </c>
+      <c r="S109" t="n">
+        <v>9</v>
+      </c>
+      <c r="T109" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U109" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V109" t="n">
+        <v>5</v>
+      </c>
+      <c r="W109" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X109" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AR109" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AS109" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AT109" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU109" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV109" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW109" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AX109" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY109" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ109" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BA109" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB109" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC109" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD109" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE109" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF109" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG109" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH109" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI109" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ109" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK109" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="n">
+        <v>2578701</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>44947.66666666666</v>
+      </c>
+      <c r="F110" t="n">
+        <v>19</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>FCV Dender EH</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Excelsior Virton</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>2</v>
+      </c>
+      <c r="J110" t="n">
+        <v>2</v>
+      </c>
+      <c r="K110" t="n">
+        <v>4</v>
+      </c>
+      <c r="L110" t="n">
+        <v>3</v>
+      </c>
+      <c r="M110" t="n">
+        <v>4</v>
+      </c>
+      <c r="N110" t="n">
+        <v>7</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>['4', '42', '88']</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>['37', '40', '60', '69']</t>
+        </is>
+      </c>
+      <c r="Q110" t="n">
+        <v>4</v>
+      </c>
+      <c r="R110" t="n">
+        <v>7</v>
+      </c>
+      <c r="S110" t="n">
+        <v>11</v>
+      </c>
+      <c r="T110" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U110" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V110" t="n">
+        <v>4</v>
+      </c>
+      <c r="W110" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X110" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP110" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ110" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR110" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS110" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT110" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AU110" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV110" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW110" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX110" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY110" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ110" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BA110" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB110" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BC110" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD110" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BE110" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF110" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG110" t="n">
+        <v>13</v>
+      </c>
+      <c r="BH110" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI110" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ110" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK110" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="n">
+        <v>2578702</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>44948.5</v>
+      </c>
+      <c r="F111" t="n">
+        <v>19</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Waasland-Beveren</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Beerschot-Wilrijk</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="n">
+        <v>2</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>2</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>['7', '90+5']</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q111" t="n">
+        <v>2</v>
+      </c>
+      <c r="R111" t="n">
+        <v>14</v>
+      </c>
+      <c r="S111" t="n">
+        <v>16</v>
+      </c>
+      <c r="T111" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U111" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V111" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W111" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X111" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP111" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AR111" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AS111" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AT111" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AU111" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV111" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AW111" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="AX111" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY111" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AZ111" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BA111" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB111" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC111" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD111" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE111" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF111" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG111" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH111" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI111" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ111" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK111" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK111"/>
+  <dimension ref="A1:BK112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1715,7 +1715,7 @@
         <v>1.11</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT7" t="n">
         <v>0.8</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT16" t="n">
         <v>1.67</v>
@@ -4354,7 +4354,7 @@
         <v>1.78</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU19" t="n">
         <v>2.18</v>
@@ -5775,7 +5775,7 @@
         <v>0.67</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU26" t="n">
         <v>1.88</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT28" t="n">
         <v>1.22</v>
@@ -9023,7 +9023,7 @@
         <v>2.3</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU42" t="n">
         <v>1.65</v>
@@ -9426,7 +9426,7 @@
         <v>1.67</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT44" t="n">
         <v>0.9</v>
@@ -11053,7 +11053,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU52" t="n">
         <v>1.19</v>
@@ -12471,7 +12471,7 @@
         <v>1.6</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT59" t="n">
         <v>1.33</v>
@@ -13895,7 +13895,7 @@
         <v>2.3</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU66" t="n">
         <v>1.62</v>
@@ -14501,7 +14501,7 @@
         <v>1.17</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT69" t="n">
         <v>1.11</v>
@@ -17549,7 +17549,7 @@
         <v>1.78</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU84" t="n">
         <v>1.21</v>
@@ -18561,7 +18561,7 @@
         <v>2.17</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT89" t="n">
         <v>1.9</v>
@@ -19173,7 +19173,7 @@
         <v>0.67</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU92" t="n">
         <v>1.35</v>
@@ -19373,7 +19373,7 @@
         <v>0.29</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT93" t="n">
         <v>0.25</v>
@@ -22012,7 +22012,7 @@
         <v>1.38</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT106" t="n">
         <v>1.56</v>
@@ -23082,6 +23082,209 @@
       </c>
       <c r="BK111" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="n">
+        <v>2578704</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>44948.66666666666</v>
+      </c>
+      <c r="F112" t="n">
+        <v>19</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>RSC Anderlecht II</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Lierse Kempenzonen</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>2</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1</v>
+      </c>
+      <c r="K112" t="n">
+        <v>3</v>
+      </c>
+      <c r="L112" t="n">
+        <v>3</v>
+      </c>
+      <c r="M112" t="n">
+        <v>3</v>
+      </c>
+      <c r="N112" t="n">
+        <v>6</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>['3', '45', '86']</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>['31', '59', '62']</t>
+        </is>
+      </c>
+      <c r="Q112" t="n">
+        <v>11</v>
+      </c>
+      <c r="R112" t="n">
+        <v>6</v>
+      </c>
+      <c r="S112" t="n">
+        <v>17</v>
+      </c>
+      <c r="T112" t="n">
+        <v>0</v>
+      </c>
+      <c r="U112" t="n">
+        <v>0</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="n">
+        <v>0</v>
+      </c>
+      <c r="X112" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AK112" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AL112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ112" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR112" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS112" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT112" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AU112" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV112" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AW112" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF112" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG112" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH112" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI112" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ112" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK112" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK112"/>
+  <dimension ref="A1:BK113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT2" t="n">
         <v>1.8</v>
@@ -2121,7 +2121,7 @@
         <v>1.78</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>1</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT14" t="n">
         <v>1.11</v>
@@ -4760,7 +4760,7 @@
         <v>0.67</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU21" t="n">
         <v>1.07</v>
@@ -5772,7 +5772,7 @@
         <v>1.5</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT26" t="n">
         <v>1.22</v>
@@ -7602,7 +7602,7 @@
         <v>2.3</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU35" t="n">
         <v>1.47</v>
@@ -9629,7 +9629,7 @@
         <v>1.25</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT45" t="n">
         <v>1.67</v>
@@ -10444,7 +10444,7 @@
         <v>2</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU49" t="n">
         <v>0.75</v>
@@ -13486,7 +13486,7 @@
         <v>1.25</v>
       </c>
       <c r="AS64" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT64" t="n">
         <v>1.22</v>
@@ -14098,7 +14098,7 @@
         <v>2.3</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU67" t="n">
         <v>1.91</v>
@@ -14298,7 +14298,7 @@
         <v>1.4</v>
       </c>
       <c r="AS68" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT68" t="n">
         <v>1.56</v>
@@ -15316,7 +15316,7 @@
         <v>2.11</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU73" t="n">
         <v>1.89</v>
@@ -16940,7 +16940,7 @@
         <v>1.33</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU81" t="n">
         <v>1.74</v>
@@ -17749,7 +17749,7 @@
         <v>2</v>
       </c>
       <c r="AS85" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT85" t="n">
         <v>1.56</v>
@@ -19376,7 +19376,7 @@
         <v>1.3</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU93" t="n">
         <v>1.73</v>
@@ -19982,7 +19982,7 @@
         <v>2.29</v>
       </c>
       <c r="AS96" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT96" t="n">
         <v>1.9</v>
@@ -22824,7 +22824,7 @@
         <v>0.67</v>
       </c>
       <c r="AS110" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT110" t="n">
         <v>0.9</v>
@@ -23285,6 +23285,209 @@
       </c>
       <c r="BK112" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="n">
+        <v>2578695</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>44950.66666666666</v>
+      </c>
+      <c r="F113" t="n">
+        <v>18</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>FCV Dender EH</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>KRC Genk II</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1</v>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="n">
+        <v>1</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="Q113" t="n">
+        <v>1</v>
+      </c>
+      <c r="R113" t="n">
+        <v>4</v>
+      </c>
+      <c r="S113" t="n">
+        <v>5</v>
+      </c>
+      <c r="T113" t="n">
+        <v>0</v>
+      </c>
+      <c r="U113" t="n">
+        <v>0</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="n">
+        <v>0</v>
+      </c>
+      <c r="X113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ113" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK113" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AL113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ113" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR113" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS113" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AT113" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU113" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV113" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AW113" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF113" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG113" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH113" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI113" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ113" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK113" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
@@ -23349,13 +23349,13 @@
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R113" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S113" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T113" t="n">
         <v>0</v>

--- a/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK113"/>
+  <dimension ref="A1:BK117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AT3" t="n">
         <v>1.56</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT4" t="n">
         <v>1.67</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>2.3</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>2.11</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>1</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT17" t="n">
         <v>0.9</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT19" t="n">
         <v>1.22</v>
@@ -4557,7 +4557,7 @@
         <v>2.3</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU20" t="n">
         <v>1.76</v>
@@ -4760,7 +4760,7 @@
         <v>0.67</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU21" t="n">
         <v>1.07</v>
@@ -5366,10 +5366,10 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU24" t="n">
         <v>1.25</v>
@@ -5569,7 +5569,7 @@
         <v>0.5</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT25" t="n">
         <v>1.67</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT27" t="n">
         <v>1.8</v>
@@ -6181,7 +6181,7 @@
         <v>1.3</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU28" t="n">
         <v>1.55</v>
@@ -6787,7 +6787,7 @@
         <v>0.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT31" t="n">
         <v>1.56</v>
@@ -6990,10 +6990,10 @@
         <v>0.5</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU32" t="n">
         <v>1.18</v>
@@ -7196,7 +7196,7 @@
         <v>2.11</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU33" t="n">
         <v>1.95</v>
@@ -7602,7 +7602,7 @@
         <v>2.3</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU35" t="n">
         <v>1.47</v>
@@ -7802,7 +7802,7 @@
         <v>2</v>
       </c>
       <c r="AS36" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AT36" t="n">
         <v>1.9</v>
@@ -8005,7 +8005,7 @@
         <v>1.33</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT37" t="n">
         <v>1.11</v>
@@ -8208,10 +8208,10 @@
         <v>0.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU38" t="n">
         <v>1.04</v>
@@ -8414,7 +8414,7 @@
         <v>1.11</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU39" t="n">
         <v>1.27</v>
@@ -8614,7 +8614,7 @@
         <v>1.33</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT40" t="n">
         <v>1.56</v>
@@ -8817,7 +8817,7 @@
         <v>0.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT41" t="n">
         <v>0.8</v>
@@ -9226,7 +9226,7 @@
         <v>0.67</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU43" t="n">
         <v>1.14</v>
@@ -9832,7 +9832,7 @@
         <v>3</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT46" t="n">
         <v>1.8</v>
@@ -10444,7 +10444,7 @@
         <v>2</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU49" t="n">
         <v>0.75</v>
@@ -11050,7 +11050,7 @@
         <v>1.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AT52" t="n">
         <v>1.22</v>
@@ -11253,10 +11253,10 @@
         <v>0.67</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU53" t="n">
         <v>1.79</v>
@@ -11459,7 +11459,7 @@
         <v>1.11</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU54" t="n">
         <v>1.36</v>
@@ -11659,10 +11659,10 @@
         <v>1.75</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU55" t="n">
         <v>2.04</v>
@@ -12474,7 +12474,7 @@
         <v>1.3</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU59" t="n">
         <v>1.83</v>
@@ -13080,7 +13080,7 @@
         <v>1.4</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT62" t="n">
         <v>1.11</v>
@@ -13283,7 +13283,7 @@
         <v>1</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT63" t="n">
         <v>0.9</v>
@@ -13489,7 +13489,7 @@
         <v>0.6</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU64" t="n">
         <v>1.79</v>
@@ -13689,10 +13689,10 @@
         <v>2</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU65" t="n">
         <v>1.87</v>
@@ -14098,7 +14098,7 @@
         <v>2.3</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU67" t="n">
         <v>1.91</v>
@@ -14704,7 +14704,7 @@
         <v>0.2</v>
       </c>
       <c r="AS70" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AT70" t="n">
         <v>0.8</v>
@@ -14910,7 +14910,7 @@
         <v>2.3</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU71" t="n">
         <v>1.89</v>
@@ -15110,7 +15110,7 @@
         <v>2</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT72" t="n">
         <v>1.9</v>
@@ -15316,7 +15316,7 @@
         <v>2.11</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU73" t="n">
         <v>1.89</v>
@@ -15519,7 +15519,7 @@
         <v>2</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU74" t="n">
         <v>1.14</v>
@@ -15722,7 +15722,7 @@
         <v>0.67</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU75" t="n">
         <v>1.27</v>
@@ -16125,7 +16125,7 @@
         <v>0.83</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT77" t="n">
         <v>0.9</v>
@@ -16734,7 +16734,7 @@
         <v>1</v>
       </c>
       <c r="AS80" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AT80" t="n">
         <v>1.11</v>
@@ -16937,10 +16937,10 @@
         <v>0.33</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU81" t="n">
         <v>1.74</v>
@@ -17140,10 +17140,10 @@
         <v>0.83</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU82" t="n">
         <v>1.89</v>
@@ -17546,7 +17546,7 @@
         <v>1.17</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT84" t="n">
         <v>1.22</v>
@@ -17752,7 +17752,7 @@
         <v>0.6</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU85" t="n">
         <v>1.72</v>
@@ -17955,7 +17955,7 @@
         <v>2</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU86" t="n">
         <v>1.24</v>
@@ -19376,7 +19376,7 @@
         <v>1.3</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU93" t="n">
         <v>1.73</v>
@@ -19576,7 +19576,7 @@
         <v>1.71</v>
       </c>
       <c r="AS94" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AT94" t="n">
         <v>1.8</v>
@@ -19782,7 +19782,7 @@
         <v>2.3</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU95" t="n">
         <v>1.68</v>
@@ -20185,7 +20185,7 @@
         <v>1.57</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT97" t="n">
         <v>1.67</v>
@@ -20391,7 +20391,7 @@
         <v>1.11</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU98" t="n">
         <v>1.32</v>
@@ -20594,7 +20594,7 @@
         <v>2.3</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU99" t="n">
         <v>1.83</v>
@@ -20797,7 +20797,7 @@
         <v>2.11</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU100" t="n">
         <v>1.84</v>
@@ -21200,7 +21200,7 @@
         <v>1.25</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT102" t="n">
         <v>1.11</v>
@@ -21403,7 +21403,7 @@
         <v>1</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT103" t="n">
         <v>0.8</v>
@@ -21606,7 +21606,7 @@
         <v>1.75</v>
       </c>
       <c r="AS104" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AT104" t="n">
         <v>1.67</v>
@@ -22215,7 +22215,7 @@
         <v>2.38</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT107" t="n">
         <v>1.9</v>
@@ -23436,7 +23436,7 @@
         <v>0.6</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU113" t="n">
         <v>1.6</v>
@@ -23488,6 +23488,818 @@
       </c>
       <c r="BK113" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="n">
+        <v>2578707</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>44953.66666666666</v>
+      </c>
+      <c r="F114" t="n">
+        <v>20</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>KMSK Deinze</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Club Brugge II</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1</v>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="n">
+        <v>2</v>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="n">
+        <v>3</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>['48', '69']</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="Q114" t="n">
+        <v>8</v>
+      </c>
+      <c r="R114" t="n">
+        <v>5</v>
+      </c>
+      <c r="S114" t="n">
+        <v>13</v>
+      </c>
+      <c r="T114" t="n">
+        <v>0</v>
+      </c>
+      <c r="U114" t="n">
+        <v>0</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="n">
+        <v>0</v>
+      </c>
+      <c r="X114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ114" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR114" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS114" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AT114" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AU114" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV114" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AW114" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AX114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF114" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG114" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH114" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI114" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ114" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="n">
+        <v>2578710</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>44953.66666666666</v>
+      </c>
+      <c r="F115" t="n">
+        <v>20</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Beerschot-Wilrijk</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>KRC Genk II</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>2</v>
+      </c>
+      <c r="K115" t="n">
+        <v>3</v>
+      </c>
+      <c r="L115" t="n">
+        <v>3</v>
+      </c>
+      <c r="M115" t="n">
+        <v>2</v>
+      </c>
+      <c r="N115" t="n">
+        <v>5</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>['45+2', '87', '90+6']</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>['12', '25']</t>
+        </is>
+      </c>
+      <c r="Q115" t="n">
+        <v>7</v>
+      </c>
+      <c r="R115" t="n">
+        <v>5</v>
+      </c>
+      <c r="S115" t="n">
+        <v>12</v>
+      </c>
+      <c r="T115" t="n">
+        <v>0</v>
+      </c>
+      <c r="U115" t="n">
+        <v>0</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="n">
+        <v>0</v>
+      </c>
+      <c r="X115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AK115" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AL115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ115" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR115" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS115" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AT115" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU115" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AV115" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AW115" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF115" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG115" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH115" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI115" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ115" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK115" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="n">
+        <v>2578706</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>44954.5</v>
+      </c>
+      <c r="F116" t="n">
+        <v>20</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Excelsior Virton</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>RSC Anderlecht II</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>2</v>
+      </c>
+      <c r="K116" t="n">
+        <v>3</v>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="n">
+        <v>3</v>
+      </c>
+      <c r="N116" t="n">
+        <v>4</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>['18', '28', '48']</t>
+        </is>
+      </c>
+      <c r="Q116" t="n">
+        <v>4</v>
+      </c>
+      <c r="R116" t="n">
+        <v>4</v>
+      </c>
+      <c r="S116" t="n">
+        <v>8</v>
+      </c>
+      <c r="T116" t="n">
+        <v>0</v>
+      </c>
+      <c r="U116" t="n">
+        <v>0</v>
+      </c>
+      <c r="V116" t="n">
+        <v>0</v>
+      </c>
+      <c r="W116" t="n">
+        <v>0</v>
+      </c>
+      <c r="X116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK116" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ116" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR116" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS116" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT116" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AU116" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AV116" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW116" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AX116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF116" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG116" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH116" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI116" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ116" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK116" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="n">
+        <v>2578708</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>44954.66666666666</v>
+      </c>
+      <c r="F117" t="n">
+        <v>20</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Lommel United</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>FCV Dender EH</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="n">
+        <v>2</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="Q117" t="n">
+        <v>5</v>
+      </c>
+      <c r="R117" t="n">
+        <v>5</v>
+      </c>
+      <c r="S117" t="n">
+        <v>10</v>
+      </c>
+      <c r="T117" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U117" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V117" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W117" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X117" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AK117" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL117" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM117" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO117" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP117" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AQ117" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR117" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS117" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT117" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AU117" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV117" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW117" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX117" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AY117" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ117" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BA117" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB117" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC117" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD117" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE117" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF117" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG117" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH117" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI117" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ117" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK117" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK117"/>
+  <dimension ref="A1:BK118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>0.5</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT13" t="n">
         <v>1.1</v>
@@ -4151,7 +4151,7 @@
         <v>2</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU18" t="n">
         <v>1.02</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT23" t="n">
         <v>0.8</v>
@@ -6790,7 +6790,7 @@
         <v>1.9</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU31" t="n">
         <v>1.12</v>
@@ -7193,7 +7193,7 @@
         <v>2</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT33" t="n">
         <v>1.7</v>
@@ -8617,7 +8617,7 @@
         <v>1.3</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU40" t="n">
         <v>1.88</v>
@@ -10238,7 +10238,7 @@
         <v>1.75</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT48" t="n">
         <v>1.11</v>
@@ -10647,7 +10647,7 @@
         <v>0.67</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU50" t="n">
         <v>1.18</v>
@@ -12877,7 +12877,7 @@
         <v>2.25</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT61" t="n">
         <v>1.8</v>
@@ -14301,7 +14301,7 @@
         <v>0.6</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU68" t="n">
         <v>1.79</v>
@@ -15313,7 +15313,7 @@
         <v>0.4</v>
       </c>
       <c r="AS73" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT73" t="n">
         <v>0.5</v>
@@ -16328,7 +16328,7 @@
         <v>1.33</v>
       </c>
       <c r="AS78" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT78" t="n">
         <v>1.67</v>
@@ -17346,7 +17346,7 @@
         <v>2.3</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU83" t="n">
         <v>1.83</v>
@@ -18158,7 +18158,7 @@
         <v>1.11</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU87" t="n">
         <v>1.32</v>
@@ -18967,7 +18967,7 @@
         <v>0.71</v>
       </c>
       <c r="AS91" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT91" t="n">
         <v>0.9</v>
@@ -20794,7 +20794,7 @@
         <v>1.5</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT100" t="n">
         <v>1.3</v>
@@ -22015,7 +22015,7 @@
         <v>1.3</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU106" t="n">
         <v>1.73</v>
@@ -24300,6 +24300,209 @@
       </c>
       <c r="BK117" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="n">
+        <v>2578709</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>44955.5</v>
+      </c>
+      <c r="F118" t="n">
+        <v>20</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Lierse Kempenzonen</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>RWDM</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>2</v>
+      </c>
+      <c r="K118" t="n">
+        <v>2</v>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="n">
+        <v>2</v>
+      </c>
+      <c r="N118" t="n">
+        <v>3</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>['3', '12']</t>
+        </is>
+      </c>
+      <c r="Q118" t="n">
+        <v>6</v>
+      </c>
+      <c r="R118" t="n">
+        <v>11</v>
+      </c>
+      <c r="S118" t="n">
+        <v>17</v>
+      </c>
+      <c r="T118" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U118" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V118" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W118" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X118" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="AJ118" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK118" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AL118" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM118" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN118" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO118" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP118" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ118" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AR118" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS118" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AT118" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AU118" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AV118" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW118" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AX118" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AY118" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ118" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BA118" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB118" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC118" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD118" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE118" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF118" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG118" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH118" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI118" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ118" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK118" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK118"/>
+  <dimension ref="A1:BK119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>1.9</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AT9" t="n">
         <v>1.9</v>
@@ -3745,7 +3745,7 @@
         <v>1.3</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU16" t="n">
         <v>1.51</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AT21" t="n">
         <v>0.5</v>
@@ -5572,7 +5572,7 @@
         <v>1.3</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU25" t="n">
         <v>1.76</v>
@@ -7399,7 +7399,7 @@
         <v>2</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU34" t="n">
         <v>0.82</v>
@@ -9223,7 +9223,7 @@
         <v>2.33</v>
       </c>
       <c r="AS43" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AT43" t="n">
         <v>1.7</v>
@@ -9632,7 +9632,7 @@
         <v>0.6</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU45" t="n">
         <v>1.81</v>
@@ -10644,7 +10644,7 @@
         <v>1</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AT50" t="n">
         <v>1.7</v>
@@ -12065,7 +12065,7 @@
         <v>1.25</v>
       </c>
       <c r="AS57" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AT57" t="n">
         <v>0.9</v>
@@ -12677,7 +12677,7 @@
         <v>2.3</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU60" t="n">
         <v>1.74</v>
@@ -15719,7 +15719,7 @@
         <v>1.83</v>
       </c>
       <c r="AS75" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AT75" t="n">
         <v>1.3</v>
@@ -16331,7 +16331,7 @@
         <v>1.9</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU78" t="n">
         <v>1.91</v>
@@ -18358,7 +18358,7 @@
         <v>0.71</v>
       </c>
       <c r="AS88" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AT88" t="n">
         <v>0.8</v>
@@ -19170,7 +19170,7 @@
         <v>1</v>
       </c>
       <c r="AS92" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AT92" t="n">
         <v>1.22</v>
@@ -20188,7 +20188,7 @@
         <v>1.9</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU97" t="n">
         <v>1.27</v>
@@ -21609,7 +21609,7 @@
         <v>0.5</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU104" t="n">
         <v>1.16</v>
@@ -21809,7 +21809,7 @@
         <v>1.88</v>
       </c>
       <c r="AS105" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AT105" t="n">
         <v>1.8</v>
@@ -24503,6 +24503,209 @@
       </c>
       <c r="BK118" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="n">
+        <v>2578711</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>44955.66666666666</v>
+      </c>
+      <c r="F119" t="n">
+        <v>20</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Standard Liège II</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Waasland-Beveren</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="n">
+        <v>2</v>
+      </c>
+      <c r="M119" t="n">
+        <v>2</v>
+      </c>
+      <c r="N119" t="n">
+        <v>4</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>['2', '60']</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>['81', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q119" t="n">
+        <v>4</v>
+      </c>
+      <c r="R119" t="n">
+        <v>3</v>
+      </c>
+      <c r="S119" t="n">
+        <v>7</v>
+      </c>
+      <c r="T119" t="n">
+        <v>0</v>
+      </c>
+      <c r="U119" t="n">
+        <v>0</v>
+      </c>
+      <c r="V119" t="n">
+        <v>0</v>
+      </c>
+      <c r="W119" t="n">
+        <v>0</v>
+      </c>
+      <c r="X119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AE119" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AF119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ119" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AK119" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AL119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ119" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR119" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS119" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AT119" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU119" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV119" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AW119" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AX119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF119" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG119" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH119" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI119" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ119" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK119" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
@@ -24567,13 +24567,13 @@
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R119" t="n">
         <v>3</v>
       </c>
       <c r="S119" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T119" t="n">
         <v>0</v>

--- a/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK119"/>
+  <dimension ref="A1:BK120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT5" t="n">
         <v>1.11</v>
@@ -1715,7 +1715,7 @@
         <v>1.11</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT18" t="n">
         <v>1.7</v>
@@ -4354,7 +4354,7 @@
         <v>1.9</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU19" t="n">
         <v>2.18</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT22" t="n">
         <v>1.9</v>
@@ -5775,7 +5775,7 @@
         <v>0.6</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU26" t="n">
         <v>1.88</v>
@@ -7396,7 +7396,7 @@
         <v>1.33</v>
       </c>
       <c r="AS34" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT34" t="n">
         <v>1.6</v>
@@ -9023,7 +9023,7 @@
         <v>2.3</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU42" t="n">
         <v>1.65</v>
@@ -10441,7 +10441,7 @@
         <v>0.67</v>
       </c>
       <c r="AS49" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT49" t="n">
         <v>0.5</v>
@@ -11053,7 +11053,7 @@
         <v>0.5</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU52" t="n">
         <v>1.19</v>
@@ -11862,7 +11862,7 @@
         <v>0.25</v>
       </c>
       <c r="AS56" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT56" t="n">
         <v>0.8</v>
@@ -13895,7 +13895,7 @@
         <v>2.3</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU66" t="n">
         <v>1.62</v>
@@ -15516,7 +15516,7 @@
         <v>2.17</v>
       </c>
       <c r="AS74" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT74" t="n">
         <v>1.7</v>
@@ -17549,7 +17549,7 @@
         <v>1.9</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU84" t="n">
         <v>1.21</v>
@@ -17952,7 +17952,7 @@
         <v>1.71</v>
       </c>
       <c r="AS86" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT86" t="n">
         <v>1.3</v>
@@ -19173,7 +19173,7 @@
         <v>0.7</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU92" t="n">
         <v>1.35</v>
@@ -22418,7 +22418,7 @@
         <v>2</v>
       </c>
       <c r="AS108" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT108" t="n">
         <v>1.8</v>
@@ -23233,7 +23233,7 @@
         <v>1.3</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU112" t="n">
         <v>1.66</v>
@@ -23495,7 +23495,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>2578707</v>
+        <v>2578710</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -23515,50 +23515,50 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>KMSK Deinze</t>
+          <t>Beerschot-Wilrijk</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Club Brugge II</t>
+          <t>KRC Genk II</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K114" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L114" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N114" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>['48', '69']</t>
+          <t>['45+2', '87', '90+6']</t>
         </is>
       </c>
       <c r="P114" t="inlineStr">
         <is>
-          <t>['25']</t>
+          <t>['12', '25']</t>
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R114" t="n">
         <v>5</v>
       </c>
       <c r="S114" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T114" t="n">
         <v>0</v>
@@ -23588,13 +23588,13 @@
         <v>0</v>
       </c>
       <c r="AC114" t="n">
-        <v>1.8</v>
+        <v>1.36</v>
       </c>
       <c r="AD114" t="n">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="AE114" t="n">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="AF114" t="n">
         <v>0</v>
@@ -23609,10 +23609,10 @@
         <v>0</v>
       </c>
       <c r="AJ114" t="n">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="AK114" t="n">
-        <v>2.29</v>
+        <v>2.39</v>
       </c>
       <c r="AL114" t="n">
         <v>0</v>
@@ -23633,22 +23633,22 @@
         <v>1.78</v>
       </c>
       <c r="AR114" t="n">
-        <v>1.22</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AS114" t="n">
         <v>1.9</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="AU114" t="n">
-        <v>1.32</v>
+        <v>2.05</v>
       </c>
       <c r="AV114" t="n">
-        <v>1.04</v>
+        <v>1.7</v>
       </c>
       <c r="AW114" t="n">
-        <v>2.36</v>
+        <v>3.75</v>
       </c>
       <c r="AX114" t="n">
         <v>0</v>
@@ -23675,22 +23675,22 @@
         <v>0</v>
       </c>
       <c r="BF114" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG114" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH114" t="n">
         <v>5</v>
       </c>
-      <c r="BG114" t="n">
+      <c r="BI114" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ114" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK114" t="n">
         <v>6</v>
-      </c>
-      <c r="BH114" t="n">
-        <v>7</v>
-      </c>
-      <c r="BI114" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ114" t="n">
-        <v>12</v>
-      </c>
-      <c r="BK114" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="115">
@@ -23698,7 +23698,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>2578710</v>
+        <v>2578707</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -23718,50 +23718,50 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Beerschot-Wilrijk</t>
+          <t>KMSK Deinze</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>KRC Genk II</t>
+          <t>Club Brugge II</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="n">
+        <v>2</v>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="n">
         <v>3</v>
       </c>
-      <c r="L115" t="n">
-        <v>3</v>
-      </c>
-      <c r="M115" t="n">
-        <v>2</v>
-      </c>
-      <c r="N115" t="n">
-        <v>5</v>
-      </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>['45+2', '87', '90+6']</t>
+          <t>['48', '69']</t>
         </is>
       </c>
       <c r="P115" t="inlineStr">
         <is>
-          <t>['12', '25']</t>
+          <t>['25']</t>
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R115" t="n">
         <v>5</v>
       </c>
       <c r="S115" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T115" t="n">
         <v>0</v>
@@ -23791,13 +23791,13 @@
         <v>0</v>
       </c>
       <c r="AC115" t="n">
-        <v>1.36</v>
+        <v>1.8</v>
       </c>
       <c r="AD115" t="n">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="AE115" t="n">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="AF115" t="n">
         <v>0</v>
@@ -23812,10 +23812,10 @@
         <v>0</v>
       </c>
       <c r="AJ115" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="AK115" t="n">
-        <v>2.39</v>
+        <v>2.29</v>
       </c>
       <c r="AL115" t="n">
         <v>0</v>
@@ -23836,22 +23836,22 @@
         <v>1.78</v>
       </c>
       <c r="AR115" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.22</v>
       </c>
       <c r="AS115" t="n">
         <v>1.9</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AU115" t="n">
-        <v>2.05</v>
+        <v>1.32</v>
       </c>
       <c r="AV115" t="n">
-        <v>1.7</v>
+        <v>1.04</v>
       </c>
       <c r="AW115" t="n">
-        <v>3.75</v>
+        <v>2.36</v>
       </c>
       <c r="AX115" t="n">
         <v>0</v>
@@ -23878,22 +23878,22 @@
         <v>0</v>
       </c>
       <c r="BF115" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BG115" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BH115" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BI115" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BJ115" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BK115" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116">
@@ -24706,6 +24706,209 @@
       </c>
       <c r="BK119" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="n">
+        <v>2578697</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>44958.60416666666</v>
+      </c>
+      <c r="F120" t="n">
+        <v>18</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Club Brugge II</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Lierse Kempenzonen</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N120" t="n">
+        <v>1</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q120" t="n">
+        <v>6</v>
+      </c>
+      <c r="R120" t="n">
+        <v>11</v>
+      </c>
+      <c r="S120" t="n">
+        <v>17</v>
+      </c>
+      <c r="T120" t="n">
+        <v>0</v>
+      </c>
+      <c r="U120" t="n">
+        <v>0</v>
+      </c>
+      <c r="V120" t="n">
+        <v>0</v>
+      </c>
+      <c r="W120" t="n">
+        <v>0</v>
+      </c>
+      <c r="X120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC120" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE120" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ120" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK120" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AL120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ120" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR120" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS120" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AT120" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AU120" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV120" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AW120" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF120" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG120" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH120" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI120" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ120" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK120" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK120"/>
+  <dimension ref="A1:BK123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>0.6</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>1.9</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>2.1</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT6" t="n">
         <v>1.1</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT7" t="n">
         <v>0.8</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT11" t="n">
         <v>1.3</v>
@@ -3339,7 +3339,7 @@
         <v>0.6</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU14" t="n">
         <v>1.21</v>
@@ -3539,10 +3539,10 @@
         <v>3</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AU15" t="n">
         <v>0.9399999999999999</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU16" t="n">
         <v>1.51</v>
@@ -4554,7 +4554,7 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT20" t="n">
         <v>1.7</v>
@@ -5572,7 +5572,7 @@
         <v>1.3</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU25" t="n">
         <v>1.76</v>
@@ -5978,7 +5978,7 @@
         <v>1.9</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AU27" t="n">
         <v>2.17</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT28" t="n">
         <v>1.1</v>
@@ -6384,7 +6384,7 @@
         <v>2.3</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU29" t="n">
         <v>1.71</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT30" t="n">
         <v>0.9</v>
@@ -7399,7 +7399,7 @@
         <v>2.1</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU34" t="n">
         <v>0.82</v>
@@ -7599,7 +7599,7 @@
         <v>0.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT35" t="n">
         <v>0.5</v>
@@ -8008,7 +8008,7 @@
         <v>1.3</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU37" t="n">
         <v>1.77</v>
@@ -8411,7 +8411,7 @@
         <v>1.33</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT39" t="n">
         <v>1.3</v>
@@ -9426,7 +9426,7 @@
         <v>1.67</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT44" t="n">
         <v>0.9</v>
@@ -9632,7 +9632,7 @@
         <v>0.6</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU45" t="n">
         <v>1.81</v>
@@ -9835,7 +9835,7 @@
         <v>1.9</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AU46" t="n">
         <v>1.15</v>
@@ -10035,7 +10035,7 @@
         <v>2.33</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT47" t="n">
         <v>1.9</v>
@@ -10241,7 +10241,7 @@
         <v>1.9</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU48" t="n">
         <v>2.17</v>
@@ -11456,7 +11456,7 @@
         <v>2.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT54" t="n">
         <v>1.7</v>
@@ -12268,7 +12268,7 @@
         <v>1.75</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT58" t="n">
         <v>1.9</v>
@@ -12471,7 +12471,7 @@
         <v>1.6</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT59" t="n">
         <v>1.3</v>
@@ -12674,10 +12674,10 @@
         <v>1.6</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU60" t="n">
         <v>1.74</v>
@@ -12880,7 +12880,7 @@
         <v>1.9</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AU61" t="n">
         <v>1.9</v>
@@ -13083,7 +13083,7 @@
         <v>1.9</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU62" t="n">
         <v>1.25</v>
@@ -13892,7 +13892,7 @@
         <v>1.4</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT66" t="n">
         <v>1.1</v>
@@ -14501,10 +14501,10 @@
         <v>1.17</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU69" t="n">
         <v>1.73</v>
@@ -15922,7 +15922,7 @@
         <v>0.67</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT76" t="n">
         <v>0.8</v>
@@ -16331,7 +16331,7 @@
         <v>1.9</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU78" t="n">
         <v>1.91</v>
@@ -16531,10 +16531,10 @@
         <v>1.8</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AU79" t="n">
         <v>1.64</v>
@@ -16737,7 +16737,7 @@
         <v>0.5</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU80" t="n">
         <v>1.2</v>
@@ -18155,7 +18155,7 @@
         <v>1.57</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT87" t="n">
         <v>1.7</v>
@@ -18561,7 +18561,7 @@
         <v>2.17</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT89" t="n">
         <v>1.9</v>
@@ -18767,7 +18767,7 @@
         <v>2.3</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AU90" t="n">
         <v>1.72</v>
@@ -19373,7 +19373,7 @@
         <v>0.29</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT93" t="n">
         <v>0.5</v>
@@ -19579,7 +19579,7 @@
         <v>0.5</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AU94" t="n">
         <v>1.14</v>
@@ -19779,7 +19779,7 @@
         <v>0.71</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT95" t="n">
         <v>1.1</v>
@@ -20188,7 +20188,7 @@
         <v>1.9</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU97" t="n">
         <v>1.27</v>
@@ -20388,7 +20388,7 @@
         <v>1</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT98" t="n">
         <v>1.1</v>
@@ -20997,7 +20997,7 @@
         <v>0.75</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT101" t="n">
         <v>0.9</v>
@@ -21203,7 +21203,7 @@
         <v>1.9</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU102" t="n">
         <v>1.98</v>
@@ -21609,7 +21609,7 @@
         <v>0.5</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU104" t="n">
         <v>1.16</v>
@@ -21812,7 +21812,7 @@
         <v>0.7</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AU105" t="n">
         <v>1.48</v>
@@ -22012,7 +22012,7 @@
         <v>1.38</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT106" t="n">
         <v>1.7</v>
@@ -22421,7 +22421,7 @@
         <v>2.1</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AU108" t="n">
         <v>1.33</v>
@@ -22621,7 +22621,7 @@
         <v>0.89</v>
       </c>
       <c r="AS109" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT109" t="n">
         <v>0.8</v>
@@ -23230,7 +23230,7 @@
         <v>1.25</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT112" t="n">
         <v>1.1</v>
@@ -24654,7 +24654,7 @@
         <v>0.7</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU119" t="n">
         <v>1.49</v>
@@ -24909,6 +24909,615 @@
       </c>
       <c r="BK120" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="n">
+        <v>2578717</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>44960.66666666666</v>
+      </c>
+      <c r="F121" t="n">
+        <v>21</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>KRC Genk II</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Waasland-Beveren</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>1</v>
+      </c>
+      <c r="K121" t="n">
+        <v>2</v>
+      </c>
+      <c r="L121" t="n">
+        <v>2</v>
+      </c>
+      <c r="M121" t="n">
+        <v>2</v>
+      </c>
+      <c r="N121" t="n">
+        <v>4</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>['26', '64']</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>['5', '89']</t>
+        </is>
+      </c>
+      <c r="Q121" t="n">
+        <v>5</v>
+      </c>
+      <c r="R121" t="n">
+        <v>8</v>
+      </c>
+      <c r="S121" t="n">
+        <v>13</v>
+      </c>
+      <c r="T121" t="n">
+        <v>0</v>
+      </c>
+      <c r="U121" t="n">
+        <v>0</v>
+      </c>
+      <c r="V121" t="n">
+        <v>0</v>
+      </c>
+      <c r="W121" t="n">
+        <v>0</v>
+      </c>
+      <c r="X121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC121" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="AE121" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AF121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ121" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK121" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AL121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ121" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR121" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS121" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT121" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AU121" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV121" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AW121" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AX121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF121" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG121" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH121" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI121" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ121" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK121" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="n">
+        <v>2578716</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>44960.66666666666</v>
+      </c>
+      <c r="F122" t="n">
+        <v>21</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>RSC Anderlecht II</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Lommel United</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>2</v>
+      </c>
+      <c r="K122" t="n">
+        <v>2</v>
+      </c>
+      <c r="L122" t="n">
+        <v>2</v>
+      </c>
+      <c r="M122" t="n">
+        <v>2</v>
+      </c>
+      <c r="N122" t="n">
+        <v>4</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>['65', '90+3']</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>['16', '24']</t>
+        </is>
+      </c>
+      <c r="Q122" t="n">
+        <v>2</v>
+      </c>
+      <c r="R122" t="n">
+        <v>2</v>
+      </c>
+      <c r="S122" t="n">
+        <v>4</v>
+      </c>
+      <c r="T122" t="n">
+        <v>0</v>
+      </c>
+      <c r="U122" t="n">
+        <v>0</v>
+      </c>
+      <c r="V122" t="n">
+        <v>0</v>
+      </c>
+      <c r="W122" t="n">
+        <v>0</v>
+      </c>
+      <c r="X122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AE122" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AF122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ122" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK122" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AL122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ122" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AR122" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS122" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT122" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AU122" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV122" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW122" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF122" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG122" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH122" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ122" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK122" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="n">
+        <v>2578712</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>44961.5</v>
+      </c>
+      <c r="F123" t="n">
+        <v>21</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>RWDM</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Standard Liège II</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="n">
+        <v>3</v>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="n">
+        <v>4</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>['26', '69', '85']</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="Q123" t="n">
+        <v>7</v>
+      </c>
+      <c r="R123" t="n">
+        <v>8</v>
+      </c>
+      <c r="S123" t="n">
+        <v>15</v>
+      </c>
+      <c r="T123" t="n">
+        <v>0</v>
+      </c>
+      <c r="U123" t="n">
+        <v>0</v>
+      </c>
+      <c r="V123" t="n">
+        <v>0</v>
+      </c>
+      <c r="W123" t="n">
+        <v>0</v>
+      </c>
+      <c r="X123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC123" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AD123" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AE123" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ123" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AK123" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AL123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ123" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AR123" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS123" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AT123" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU123" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV123" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW123" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AX123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF123" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG123" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH123" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI123" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ123" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK123" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK123"/>
+  <dimension ref="A1:BK126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT2" t="n">
         <v>1.73</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT5" t="n">
         <v>1</v>
@@ -1918,7 +1918,7 @@
         <v>1.27</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>0.7</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>2.3</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT13" t="n">
         <v>1.1</v>
@@ -3336,7 +3336,7 @@
         <v>1</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -3948,7 +3948,7 @@
         <v>1.9</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU17" t="n">
         <v>0.51</v>
@@ -4148,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT18" t="n">
         <v>1.7</v>
@@ -4960,10 +4960,10 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU22" t="n">
         <v>1.02</v>
@@ -5163,10 +5163,10 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU23" t="n">
         <v>2.15</v>
@@ -5772,7 +5772,7 @@
         <v>1.5</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT26" t="n">
         <v>1.1</v>
@@ -6587,7 +6587,7 @@
         <v>1.1</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU30" t="n">
         <v>1.11</v>
@@ -7193,7 +7193,7 @@
         <v>2</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT33" t="n">
         <v>1.7</v>
@@ -7396,7 +7396,7 @@
         <v>1.33</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT34" t="n">
         <v>1.55</v>
@@ -7805,7 +7805,7 @@
         <v>0.5</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU36" t="n">
         <v>0.96</v>
@@ -8820,7 +8820,7 @@
         <v>1.9</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU41" t="n">
         <v>1.88</v>
@@ -9429,7 +9429,7 @@
         <v>1.27</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU44" t="n">
         <v>1.84</v>
@@ -9629,7 +9629,7 @@
         <v>1.25</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT45" t="n">
         <v>1.55</v>
@@ -10038,7 +10038,7 @@
         <v>2.36</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU47" t="n">
         <v>1.96</v>
@@ -10238,7 +10238,7 @@
         <v>1.75</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT48" t="n">
         <v>1</v>
@@ -10441,7 +10441,7 @@
         <v>0.67</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT49" t="n">
         <v>0.5</v>
@@ -10850,7 +10850,7 @@
         <v>2.3</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU51" t="n">
         <v>1.85</v>
@@ -11862,10 +11862,10 @@
         <v>0.25</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU56" t="n">
         <v>1.05</v>
@@ -12068,7 +12068,7 @@
         <v>0.7</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU57" t="n">
         <v>1.23</v>
@@ -12271,7 +12271,7 @@
         <v>1.1</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU58" t="n">
         <v>1.33</v>
@@ -12877,7 +12877,7 @@
         <v>2.25</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT61" t="n">
         <v>1.73</v>
@@ -13286,7 +13286,7 @@
         <v>1.3</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU63" t="n">
         <v>1.79</v>
@@ -13486,7 +13486,7 @@
         <v>1.25</v>
       </c>
       <c r="AS64" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT64" t="n">
         <v>1.1</v>
@@ -14298,7 +14298,7 @@
         <v>1.4</v>
       </c>
       <c r="AS68" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT68" t="n">
         <v>1.7</v>
@@ -14707,7 +14707,7 @@
         <v>0.5</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU70" t="n">
         <v>1.16</v>
@@ -15113,7 +15113,7 @@
         <v>1.3</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU72" t="n">
         <v>1.86</v>
@@ -15313,7 +15313,7 @@
         <v>0.4</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT73" t="n">
         <v>0.5</v>
@@ -15516,7 +15516,7 @@
         <v>2.17</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT74" t="n">
         <v>1.7</v>
@@ -15925,7 +15925,7 @@
         <v>1.1</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU76" t="n">
         <v>1.29</v>
@@ -16128,7 +16128,7 @@
         <v>1.9</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU77" t="n">
         <v>1.86</v>
@@ -16328,7 +16328,7 @@
         <v>1.33</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT78" t="n">
         <v>1.55</v>
@@ -17749,7 +17749,7 @@
         <v>2</v>
       </c>
       <c r="AS85" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT85" t="n">
         <v>1.7</v>
@@ -17952,7 +17952,7 @@
         <v>1.71</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT86" t="n">
         <v>1.3</v>
@@ -18361,7 +18361,7 @@
         <v>0.7</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU88" t="n">
         <v>1.35</v>
@@ -18564,7 +18564,7 @@
         <v>1.27</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU89" t="n">
         <v>1.71</v>
@@ -18967,10 +18967,10 @@
         <v>0.71</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU91" t="n">
         <v>1.82</v>
@@ -19982,10 +19982,10 @@
         <v>2.29</v>
       </c>
       <c r="AS96" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU96" t="n">
         <v>1.64</v>
@@ -20794,7 +20794,7 @@
         <v>1.5</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT100" t="n">
         <v>1.3</v>
@@ -21000,7 +21000,7 @@
         <v>2.36</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU101" t="n">
         <v>1.68</v>
@@ -21406,7 +21406,7 @@
         <v>1.3</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU103" t="n">
         <v>1.69</v>
@@ -22218,7 +22218,7 @@
         <v>1.9</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU107" t="n">
         <v>1.32</v>
@@ -22418,7 +22418,7 @@
         <v>2</v>
       </c>
       <c r="AS108" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT108" t="n">
         <v>1.73</v>
@@ -22624,7 +22624,7 @@
         <v>2.36</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU109" t="n">
         <v>1.81</v>
@@ -22824,10 +22824,10 @@
         <v>0.67</v>
       </c>
       <c r="AS110" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU110" t="n">
         <v>1.64</v>
@@ -23030,7 +23030,7 @@
         <v>2.3</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU111" t="n">
         <v>1.81</v>
@@ -23433,7 +23433,7 @@
         <v>0.25</v>
       </c>
       <c r="AS113" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT113" t="n">
         <v>0.5</v>
@@ -24448,7 +24448,7 @@
         <v>1.56</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT118" t="n">
         <v>1.7</v>
@@ -24854,7 +24854,7 @@
         <v>1.22</v>
       </c>
       <c r="AS120" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT120" t="n">
         <v>1.1</v>
@@ -25518,6 +25518,615 @@
       </c>
       <c r="BK123" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="n">
+        <v>2578714</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>44961.66666666666</v>
+      </c>
+      <c r="F124" t="n">
+        <v>21</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Lierse Kempenzonen</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Beerschot-Wilrijk</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N124" t="n">
+        <v>1</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q124" t="n">
+        <v>3</v>
+      </c>
+      <c r="R124" t="n">
+        <v>9</v>
+      </c>
+      <c r="S124" t="n">
+        <v>12</v>
+      </c>
+      <c r="T124" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U124" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V124" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W124" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X124" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC124" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE124" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF124" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG124" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="AH124" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI124" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="AJ124" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AK124" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL124" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AM124" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN124" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO124" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP124" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ124" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AR124" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AS124" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT124" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AU124" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AV124" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AW124" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX124" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY124" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ124" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BA124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB124" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC124" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD124" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE124" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF124" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG124" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH124" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI124" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ124" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK124" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="n">
+        <v>2578715</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>44962.5</v>
+      </c>
+      <c r="F125" t="n">
+        <v>21</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Club Brugge II</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Excelsior Virton</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N125" t="n">
+        <v>1</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q125" t="n">
+        <v>1</v>
+      </c>
+      <c r="R125" t="n">
+        <v>3</v>
+      </c>
+      <c r="S125" t="n">
+        <v>4</v>
+      </c>
+      <c r="T125" t="n">
+        <v>0</v>
+      </c>
+      <c r="U125" t="n">
+        <v>0</v>
+      </c>
+      <c r="V125" t="n">
+        <v>0</v>
+      </c>
+      <c r="W125" t="n">
+        <v>0</v>
+      </c>
+      <c r="X125" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC125" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AD125" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE125" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ125" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AK125" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AL125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ125" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AR125" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AS125" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AT125" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AU125" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV125" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW125" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AX125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF125" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG125" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH125" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI125" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ125" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK125" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="n">
+        <v>2578713</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>44962.63541666666</v>
+      </c>
+      <c r="F126" t="n">
+        <v>21</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>FCV Dender EH</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>KMSK Deinze</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="n">
+        <v>1</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="Q126" t="n">
+        <v>5</v>
+      </c>
+      <c r="R126" t="n">
+        <v>6</v>
+      </c>
+      <c r="S126" t="n">
+        <v>11</v>
+      </c>
+      <c r="T126" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U126" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V126" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="W126" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X126" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC126" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE126" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AF126" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG126" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH126" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI126" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AJ126" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK126" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL126" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM126" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AN126" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO126" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP126" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ126" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AR126" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS126" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AT126" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU126" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV126" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AW126" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AX126" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY126" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ126" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA126" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB126" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC126" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD126" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE126" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF126" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG126" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH126" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI126" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ126" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK126" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="261">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -547,6 +547,12 @@
     <t>['82']</t>
   </si>
   <si>
+    <t>['6', '9', '17', '55', '89']</t>
+  </si>
+  <si>
+    <t>['13', '76']</t>
+  </si>
+  <si>
     <t>['12', '15', '69', '90+3']</t>
   </si>
   <si>
@@ -782,6 +788,15 @@
   </si>
   <si>
     <t>['16', '24']</t>
+  </si>
+  <si>
+    <t>['57', '79']</t>
+  </si>
+  <si>
+    <t>['63', '66', '85']</t>
+  </si>
+  <si>
+    <t>['9', '18']</t>
   </si>
 </sst>
 </file>
@@ -1143,7 +1158,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK126"/>
+  <dimension ref="A1:BK131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1387,7 +1402,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1578,7 +1593,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -1665,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AT3">
         <v>1.7</v>
@@ -1960,7 +1975,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -2151,7 +2166,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2241,7 +2256,7 @@
         <v>1.1</v>
       </c>
       <c r="AT6">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2533,7 +2548,7 @@
         <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2620,10 +2635,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT8">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2724,7 +2739,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2811,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AT9">
         <v>1.73</v>
@@ -2915,7 +2930,7 @@
         <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3002,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT10">
         <v>0.82</v>
@@ -3196,7 +3211,7 @@
         <v>2.36</v>
       </c>
       <c r="AT11">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3297,7 +3312,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3384,10 +3399,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT12">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3488,7 +3503,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3578,7 +3593,7 @@
         <v>2</v>
       </c>
       <c r="AT13">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3870,7 +3885,7 @@
         <v>82</v>
       </c>
       <c r="P15" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q15">
         <v>9</v>
@@ -4061,7 +4076,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -4252,7 +4267,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4339,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="AS17">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT17">
         <v>0.82</v>
@@ -4443,7 +4458,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q18">
         <v>9</v>
@@ -4634,7 +4649,7 @@
         <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q19">
         <v>7</v>
@@ -4724,7 +4739,7 @@
         <v>1.9</v>
       </c>
       <c r="AT19">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU19">
         <v>2.18</v>
@@ -4825,7 +4840,7 @@
         <v>92</v>
       </c>
       <c r="P20" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -4915,7 +4930,7 @@
         <v>2.36</v>
       </c>
       <c r="AT20">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU20">
         <v>1.76</v>
@@ -5016,7 +5031,7 @@
         <v>93</v>
       </c>
       <c r="P21" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -5103,10 +5118,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AT21">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU21">
         <v>1.07</v>
@@ -5207,7 +5222,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -5589,7 +5604,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q24">
         <v>2</v>
@@ -5676,10 +5691,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AT24">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU24">
         <v>1.25</v>
@@ -5780,7 +5795,7 @@
         <v>82</v>
       </c>
       <c r="P25" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5867,7 +5882,7 @@
         <v>0.5</v>
       </c>
       <c r="AS25">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT25">
         <v>1.55</v>
@@ -5971,7 +5986,7 @@
         <v>97</v>
       </c>
       <c r="P26" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -6061,7 +6076,7 @@
         <v>0.55</v>
       </c>
       <c r="AT26">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU26">
         <v>1.88</v>
@@ -6162,7 +6177,7 @@
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6353,7 +6368,7 @@
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6443,7 +6458,7 @@
         <v>1.27</v>
       </c>
       <c r="AT28">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU28">
         <v>1.55</v>
@@ -6544,7 +6559,7 @@
         <v>99</v>
       </c>
       <c r="P29" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -6631,7 +6646,7 @@
         <v>2</v>
       </c>
       <c r="AS29">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT29">
         <v>1</v>
@@ -6735,7 +6750,7 @@
         <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6926,7 +6941,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7013,7 +7028,7 @@
         <v>0.5</v>
       </c>
       <c r="AS31">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT31">
         <v>1.7</v>
@@ -7117,7 +7132,7 @@
         <v>82</v>
       </c>
       <c r="P32" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q32">
         <v>7</v>
@@ -7204,10 +7219,10 @@
         <v>0.5</v>
       </c>
       <c r="AS32">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT32">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU32">
         <v>1.18</v>
@@ -7308,7 +7323,7 @@
         <v>101</v>
       </c>
       <c r="P33" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7398,7 +7413,7 @@
         <v>2</v>
       </c>
       <c r="AT33">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU33">
         <v>1.95</v>
@@ -7499,7 +7514,7 @@
         <v>102</v>
       </c>
       <c r="P34" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7690,7 +7705,7 @@
         <v>103</v>
       </c>
       <c r="P35" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q35">
         <v>14</v>
@@ -7780,7 +7795,7 @@
         <v>2.36</v>
       </c>
       <c r="AT35">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU35">
         <v>1.47</v>
@@ -7881,7 +7896,7 @@
         <v>79</v>
       </c>
       <c r="P36" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q36">
         <v>1</v>
@@ -7968,7 +7983,7 @@
         <v>2</v>
       </c>
       <c r="AS36">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AT36">
         <v>1.73</v>
@@ -8159,7 +8174,7 @@
         <v>1.33</v>
       </c>
       <c r="AS37">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT37">
         <v>1</v>
@@ -8263,7 +8278,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q38">
         <v>7</v>
@@ -8350,10 +8365,10 @@
         <v>0.5</v>
       </c>
       <c r="AS38">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AT38">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU38">
         <v>1.04</v>
@@ -8454,7 +8469,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8544,7 +8559,7 @@
         <v>1.1</v>
       </c>
       <c r="AT39">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU39">
         <v>1.27</v>
@@ -8732,7 +8747,7 @@
         <v>1.33</v>
       </c>
       <c r="AS40">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT40">
         <v>1.7</v>
@@ -9114,10 +9129,10 @@
         <v>2</v>
       </c>
       <c r="AS42">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT42">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU42">
         <v>1.65</v>
@@ -9218,7 +9233,7 @@
         <v>108</v>
       </c>
       <c r="P43" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q43">
         <v>1</v>
@@ -9305,10 +9320,10 @@
         <v>2.33</v>
       </c>
       <c r="AS43">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AT43">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU43">
         <v>1.14</v>
@@ -9409,7 +9424,7 @@
         <v>109</v>
       </c>
       <c r="P44" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q44">
         <v>8</v>
@@ -9600,7 +9615,7 @@
         <v>82</v>
       </c>
       <c r="P45" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q45">
         <v>9</v>
@@ -9878,7 +9893,7 @@
         <v>3</v>
       </c>
       <c r="AS46">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT46">
         <v>1.73</v>
@@ -10364,7 +10379,7 @@
         <v>113</v>
       </c>
       <c r="P49" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10454,7 +10469,7 @@
         <v>2.18</v>
       </c>
       <c r="AT49">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU49">
         <v>0.75</v>
@@ -10555,7 +10570,7 @@
         <v>114</v>
       </c>
       <c r="P50" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10642,7 +10657,7 @@
         <v>1</v>
       </c>
       <c r="AS50">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AT50">
         <v>1.7</v>
@@ -10746,7 +10761,7 @@
         <v>115</v>
       </c>
       <c r="P51" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q51">
         <v>1</v>
@@ -10833,7 +10848,7 @@
         <v>0.33</v>
       </c>
       <c r="AS51">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT51">
         <v>1</v>
@@ -11024,10 +11039,10 @@
         <v>1.5</v>
       </c>
       <c r="AS52">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AT52">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU52">
         <v>1.19</v>
@@ -11128,7 +11143,7 @@
         <v>116</v>
       </c>
       <c r="P53" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q53">
         <v>10</v>
@@ -11215,10 +11230,10 @@
         <v>0.67</v>
       </c>
       <c r="AS53">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT53">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU53">
         <v>1.79</v>
@@ -11319,7 +11334,7 @@
         <v>117</v>
       </c>
       <c r="P54" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11409,7 +11424,7 @@
         <v>1.1</v>
       </c>
       <c r="AT54">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU54">
         <v>1.36</v>
@@ -11510,7 +11525,7 @@
         <v>118</v>
       </c>
       <c r="P55" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -11600,7 +11615,7 @@
         <v>1.9</v>
       </c>
       <c r="AT55">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU55">
         <v>2.04</v>
@@ -11979,7 +11994,7 @@
         <v>1.25</v>
       </c>
       <c r="AS57">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AT57">
         <v>0.82</v>
@@ -12083,7 +12098,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12274,7 +12289,7 @@
         <v>82</v>
       </c>
       <c r="P59" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12364,7 +12379,7 @@
         <v>1.27</v>
       </c>
       <c r="AT59">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU59">
         <v>1.83</v>
@@ -12465,7 +12480,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12656,7 +12671,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -12847,7 +12862,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -12934,7 +12949,7 @@
         <v>1.4</v>
       </c>
       <c r="AS62">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT62">
         <v>1</v>
@@ -13125,7 +13140,7 @@
         <v>1</v>
       </c>
       <c r="AS63">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT63">
         <v>0.82</v>
@@ -13229,7 +13244,7 @@
         <v>126</v>
       </c>
       <c r="P64" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q64">
         <v>6</v>
@@ -13319,7 +13334,7 @@
         <v>0.55</v>
       </c>
       <c r="AT64">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU64">
         <v>1.79</v>
@@ -13420,7 +13435,7 @@
         <v>127</v>
       </c>
       <c r="P65" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13510,7 +13525,7 @@
         <v>1.9</v>
       </c>
       <c r="AT65">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU65">
         <v>1.87</v>
@@ -13701,7 +13716,7 @@
         <v>2.36</v>
       </c>
       <c r="AT66">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU66">
         <v>1.62</v>
@@ -13889,10 +13904,10 @@
         <v>0.5</v>
       </c>
       <c r="AS67">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT67">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU67">
         <v>1.91</v>
@@ -13993,7 +14008,7 @@
         <v>82</v>
       </c>
       <c r="P68" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -14375,7 +14390,7 @@
         <v>82</v>
       </c>
       <c r="P70" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14462,7 +14477,7 @@
         <v>0.2</v>
       </c>
       <c r="AS70">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AT70">
         <v>1</v>
@@ -14653,10 +14668,10 @@
         <v>1</v>
       </c>
       <c r="AS71">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT71">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU71">
         <v>1.89</v>
@@ -14757,7 +14772,7 @@
         <v>131</v>
       </c>
       <c r="P72" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -14844,7 +14859,7 @@
         <v>2</v>
       </c>
       <c r="AS72">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT72">
         <v>1.73</v>
@@ -14948,7 +14963,7 @@
         <v>132</v>
       </c>
       <c r="P73" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -15038,7 +15053,7 @@
         <v>2</v>
       </c>
       <c r="AT73">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU73">
         <v>1.89</v>
@@ -15139,7 +15154,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q74">
         <v>2</v>
@@ -15229,7 +15244,7 @@
         <v>2.18</v>
       </c>
       <c r="AT74">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU74">
         <v>1.14</v>
@@ -15330,7 +15345,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q75">
         <v>2</v>
@@ -15417,10 +15432,10 @@
         <v>1.83</v>
       </c>
       <c r="AS75">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AT75">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU75">
         <v>1.27</v>
@@ -15903,7 +15918,7 @@
         <v>136</v>
       </c>
       <c r="P78" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q78">
         <v>1</v>
@@ -16285,7 +16300,7 @@
         <v>82</v>
       </c>
       <c r="P80" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q80">
         <v>2</v>
@@ -16372,7 +16387,7 @@
         <v>1</v>
       </c>
       <c r="AS80">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AT80">
         <v>1</v>
@@ -16476,7 +16491,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -16563,10 +16578,10 @@
         <v>0.33</v>
       </c>
       <c r="AS81">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT81">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU81">
         <v>1.74</v>
@@ -16757,7 +16772,7 @@
         <v>1.9</v>
       </c>
       <c r="AT82">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU82">
         <v>1.89</v>
@@ -16858,7 +16873,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -16945,7 +16960,7 @@
         <v>1.67</v>
       </c>
       <c r="AS83">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT83">
         <v>1.7</v>
@@ -17136,10 +17151,10 @@
         <v>1.17</v>
       </c>
       <c r="AS84">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT84">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU84">
         <v>1.21</v>
@@ -17330,7 +17345,7 @@
         <v>0.55</v>
       </c>
       <c r="AT85">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU85">
         <v>1.72</v>
@@ -17521,7 +17536,7 @@
         <v>2.18</v>
       </c>
       <c r="AT86">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU86">
         <v>1.24</v>
@@ -17813,7 +17828,7 @@
         <v>145</v>
       </c>
       <c r="P88" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q88">
         <v>6</v>
@@ -17900,7 +17915,7 @@
         <v>0.71</v>
       </c>
       <c r="AS88">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AT88">
         <v>1</v>
@@ -18004,7 +18019,7 @@
         <v>146</v>
       </c>
       <c r="P89" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18195,7 +18210,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q90">
         <v>9</v>
@@ -18282,7 +18297,7 @@
         <v>1.5</v>
       </c>
       <c r="AS90">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT90">
         <v>1.73</v>
@@ -18386,7 +18401,7 @@
         <v>148</v>
       </c>
       <c r="P91" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q91">
         <v>6</v>
@@ -18577,7 +18592,7 @@
         <v>149</v>
       </c>
       <c r="P92" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q92">
         <v>9</v>
@@ -18664,10 +18679,10 @@
         <v>1</v>
       </c>
       <c r="AS92">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AT92">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU92">
         <v>1.35</v>
@@ -18858,7 +18873,7 @@
         <v>1.27</v>
       </c>
       <c r="AT93">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU93">
         <v>1.73</v>
@@ -18959,7 +18974,7 @@
         <v>82</v>
       </c>
       <c r="P94" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -19046,7 +19061,7 @@
         <v>1.71</v>
       </c>
       <c r="AS94">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AT94">
         <v>1.73</v>
@@ -19150,7 +19165,7 @@
         <v>82</v>
       </c>
       <c r="P95" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q95">
         <v>10</v>
@@ -19240,7 +19255,7 @@
         <v>2.36</v>
       </c>
       <c r="AT95">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU95">
         <v>1.68</v>
@@ -19341,7 +19356,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19532,7 +19547,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19619,7 +19634,7 @@
         <v>1.57</v>
       </c>
       <c r="AS97">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT97">
         <v>1.55</v>
@@ -19723,7 +19738,7 @@
         <v>153</v>
       </c>
       <c r="P98" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q98">
         <v>7</v>
@@ -19813,7 +19828,7 @@
         <v>1.1</v>
       </c>
       <c r="AT98">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU98">
         <v>1.32</v>
@@ -19914,7 +19929,7 @@
         <v>154</v>
       </c>
       <c r="P99" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20001,10 +20016,10 @@
         <v>1.75</v>
       </c>
       <c r="AS99">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT99">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU99">
         <v>1.83</v>
@@ -20105,7 +20120,7 @@
         <v>155</v>
       </c>
       <c r="P100" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -20195,7 +20210,7 @@
         <v>2</v>
       </c>
       <c r="AT100">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU100">
         <v>1.84</v>
@@ -20765,7 +20780,7 @@
         <v>1</v>
       </c>
       <c r="AS103">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT103">
         <v>1</v>
@@ -20956,7 +20971,7 @@
         <v>1.75</v>
       </c>
       <c r="AS104">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AT104">
         <v>1.55</v>
@@ -21060,7 +21075,7 @@
         <v>82</v>
       </c>
       <c r="P105" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q105">
         <v>6</v>
@@ -21147,7 +21162,7 @@
         <v>1.88</v>
       </c>
       <c r="AS105">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AT105">
         <v>1.73</v>
@@ -21251,7 +21266,7 @@
         <v>159</v>
       </c>
       <c r="P106" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -21442,7 +21457,7 @@
         <v>160</v>
       </c>
       <c r="P107" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q107">
         <v>2</v>
@@ -21529,7 +21544,7 @@
         <v>2.38</v>
       </c>
       <c r="AS107">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT107">
         <v>1.73</v>
@@ -21633,7 +21648,7 @@
         <v>161</v>
       </c>
       <c r="P108" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q108">
         <v>2</v>
@@ -21824,7 +21839,7 @@
         <v>162</v>
       </c>
       <c r="P109" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -22015,7 +22030,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22293,7 +22308,7 @@
         <v>2.11</v>
       </c>
       <c r="AS111">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT111">
         <v>1.73</v>
@@ -22397,7 +22412,7 @@
         <v>165</v>
       </c>
       <c r="P112" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q112">
         <v>11</v>
@@ -22487,7 +22502,7 @@
         <v>1.27</v>
       </c>
       <c r="AT112">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU112">
         <v>1.66</v>
@@ -22678,7 +22693,7 @@
         <v>0.55</v>
       </c>
       <c r="AT113">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU113">
         <v>1.6</v>
@@ -22779,7 +22794,7 @@
         <v>166</v>
       </c>
       <c r="P114" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -22869,7 +22884,7 @@
         <v>1.9</v>
       </c>
       <c r="AT114">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU114">
         <v>2.05</v>
@@ -22970,7 +22985,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -23057,10 +23072,10 @@
         <v>1.22</v>
       </c>
       <c r="AS115">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT115">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU115">
         <v>1.32</v>
@@ -23161,7 +23176,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -23248,10 +23263,10 @@
         <v>1.56</v>
       </c>
       <c r="AS116">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AT116">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU116">
         <v>1.14</v>
@@ -23439,10 +23454,10 @@
         <v>1.33</v>
       </c>
       <c r="AS117">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT117">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU117">
         <v>1.62</v>
@@ -23543,7 +23558,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -23734,7 +23749,7 @@
         <v>170</v>
       </c>
       <c r="P119" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q119">
         <v>5</v>
@@ -23821,7 +23836,7 @@
         <v>1.67</v>
       </c>
       <c r="AS119">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AT119">
         <v>1.55</v>
@@ -24015,7 +24030,7 @@
         <v>2.18</v>
       </c>
       <c r="AT120">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU120">
         <v>1.33</v>
@@ -24116,7 +24131,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q121">
         <v>5</v>
@@ -24307,7 +24322,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q122">
         <v>2</v>
@@ -24498,7 +24513,7 @@
         <v>174</v>
       </c>
       <c r="P123" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q123">
         <v>7</v>
@@ -25213,6 +25228,961 @@
       </c>
       <c r="BK126">
         <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:63">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>2578719</v>
+      </c>
+      <c r="C127" t="s">
+        <v>63</v>
+      </c>
+      <c r="D127" t="s">
+        <v>64</v>
+      </c>
+      <c r="E127" s="2">
+        <v>44968.5</v>
+      </c>
+      <c r="F127">
+        <v>22</v>
+      </c>
+      <c r="G127" t="s">
+        <v>73</v>
+      </c>
+      <c r="H127" t="s">
+        <v>65</v>
+      </c>
+      <c r="I127">
+        <v>3</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>3</v>
+      </c>
+      <c r="L127">
+        <v>5</v>
+      </c>
+      <c r="M127">
+        <v>2</v>
+      </c>
+      <c r="N127">
+        <v>7</v>
+      </c>
+      <c r="O127" t="s">
+        <v>177</v>
+      </c>
+      <c r="P127" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q127">
+        <v>5</v>
+      </c>
+      <c r="R127">
+        <v>1</v>
+      </c>
+      <c r="S127">
+        <v>6</v>
+      </c>
+      <c r="T127">
+        <v>1.75</v>
+      </c>
+      <c r="U127">
+        <v>2.7</v>
+      </c>
+      <c r="V127">
+        <v>6</v>
+      </c>
+      <c r="W127">
+        <v>1.24</v>
+      </c>
+      <c r="X127">
+        <v>3.7</v>
+      </c>
+      <c r="Y127">
+        <v>2.09</v>
+      </c>
+      <c r="Z127">
+        <v>1.67</v>
+      </c>
+      <c r="AA127">
+        <v>4.45</v>
+      </c>
+      <c r="AB127">
+        <v>1.17</v>
+      </c>
+      <c r="AC127">
+        <v>1.2</v>
+      </c>
+      <c r="AD127">
+        <v>5.5</v>
+      </c>
+      <c r="AE127">
+        <v>9.5</v>
+      </c>
+      <c r="AF127">
+        <v>1.02</v>
+      </c>
+      <c r="AG127">
+        <v>13</v>
+      </c>
+      <c r="AH127">
+        <v>1.14</v>
+      </c>
+      <c r="AI127">
+        <v>5</v>
+      </c>
+      <c r="AJ127">
+        <v>1.36</v>
+      </c>
+      <c r="AK127">
+        <v>2.55</v>
+      </c>
+      <c r="AL127">
+        <v>1.68</v>
+      </c>
+      <c r="AM127">
+        <v>2.1</v>
+      </c>
+      <c r="AN127">
+        <v>1.04</v>
+      </c>
+      <c r="AO127">
+        <v>1.11</v>
+      </c>
+      <c r="AP127">
+        <v>3.2</v>
+      </c>
+      <c r="AQ127">
+        <v>2.3</v>
+      </c>
+      <c r="AR127">
+        <v>1.3</v>
+      </c>
+      <c r="AS127">
+        <v>2.36</v>
+      </c>
+      <c r="AT127">
+        <v>1.18</v>
+      </c>
+      <c r="AU127">
+        <v>1.74</v>
+      </c>
+      <c r="AV127">
+        <v>1.36</v>
+      </c>
+      <c r="AW127">
+        <v>3.1</v>
+      </c>
+      <c r="AX127">
+        <v>1.23</v>
+      </c>
+      <c r="AY127">
+        <v>7.25</v>
+      </c>
+      <c r="AZ127">
+        <v>4.9</v>
+      </c>
+      <c r="BA127">
+        <v>1.29</v>
+      </c>
+      <c r="BB127">
+        <v>1.53</v>
+      </c>
+      <c r="BC127">
+        <v>2</v>
+      </c>
+      <c r="BD127">
+        <v>2.55</v>
+      </c>
+      <c r="BE127">
+        <v>3.5</v>
+      </c>
+      <c r="BF127">
+        <v>10</v>
+      </c>
+      <c r="BG127">
+        <v>9</v>
+      </c>
+      <c r="BH127">
+        <v>10</v>
+      </c>
+      <c r="BI127">
+        <v>3</v>
+      </c>
+      <c r="BJ127">
+        <v>20</v>
+      </c>
+      <c r="BK127">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:63">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>2578720</v>
+      </c>
+      <c r="C128" t="s">
+        <v>63</v>
+      </c>
+      <c r="D128" t="s">
+        <v>64</v>
+      </c>
+      <c r="E128" s="2">
+        <v>44968.69791666666</v>
+      </c>
+      <c r="F128">
+        <v>22</v>
+      </c>
+      <c r="G128" t="s">
+        <v>71</v>
+      </c>
+      <c r="H128" t="s">
+        <v>70</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128">
+        <v>2</v>
+      </c>
+      <c r="M128">
+        <v>3</v>
+      </c>
+      <c r="N128">
+        <v>5</v>
+      </c>
+      <c r="O128" t="s">
+        <v>178</v>
+      </c>
+      <c r="P128" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q128">
+        <v>4</v>
+      </c>
+      <c r="R128">
+        <v>4</v>
+      </c>
+      <c r="S128">
+        <v>8</v>
+      </c>
+      <c r="T128">
+        <v>0</v>
+      </c>
+      <c r="U128">
+        <v>0</v>
+      </c>
+      <c r="V128">
+        <v>0</v>
+      </c>
+      <c r="W128">
+        <v>0</v>
+      </c>
+      <c r="X128">
+        <v>0</v>
+      </c>
+      <c r="Y128">
+        <v>0</v>
+      </c>
+      <c r="Z128">
+        <v>0</v>
+      </c>
+      <c r="AA128">
+        <v>0</v>
+      </c>
+      <c r="AB128">
+        <v>0</v>
+      </c>
+      <c r="AC128">
+        <v>1.99</v>
+      </c>
+      <c r="AD128">
+        <v>3.78</v>
+      </c>
+      <c r="AE128">
+        <v>3.3</v>
+      </c>
+      <c r="AF128">
+        <v>0</v>
+      </c>
+      <c r="AG128">
+        <v>0</v>
+      </c>
+      <c r="AH128">
+        <v>0</v>
+      </c>
+      <c r="AI128">
+        <v>0</v>
+      </c>
+      <c r="AJ128">
+        <v>1.52</v>
+      </c>
+      <c r="AK128">
+        <v>2.11</v>
+      </c>
+      <c r="AL128">
+        <v>0</v>
+      </c>
+      <c r="AM128">
+        <v>0</v>
+      </c>
+      <c r="AN128">
+        <v>0</v>
+      </c>
+      <c r="AO128">
+        <v>0</v>
+      </c>
+      <c r="AP128">
+        <v>0</v>
+      </c>
+      <c r="AQ128">
+        <v>1.9</v>
+      </c>
+      <c r="AR128">
+        <v>1.7</v>
+      </c>
+      <c r="AS128">
+        <v>1.73</v>
+      </c>
+      <c r="AT128">
+        <v>1.82</v>
+      </c>
+      <c r="AU128">
+        <v>1.37</v>
+      </c>
+      <c r="AV128">
+        <v>1.23</v>
+      </c>
+      <c r="AW128">
+        <v>2.6</v>
+      </c>
+      <c r="AX128">
+        <v>0</v>
+      </c>
+      <c r="AY128">
+        <v>0</v>
+      </c>
+      <c r="AZ128">
+        <v>0</v>
+      </c>
+      <c r="BA128">
+        <v>0</v>
+      </c>
+      <c r="BB128">
+        <v>0</v>
+      </c>
+      <c r="BC128">
+        <v>0</v>
+      </c>
+      <c r="BD128">
+        <v>0</v>
+      </c>
+      <c r="BE128">
+        <v>0</v>
+      </c>
+      <c r="BF128">
+        <v>6</v>
+      </c>
+      <c r="BG128">
+        <v>3</v>
+      </c>
+      <c r="BH128">
+        <v>2</v>
+      </c>
+      <c r="BI128">
+        <v>2</v>
+      </c>
+      <c r="BJ128">
+        <v>8</v>
+      </c>
+      <c r="BK128">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:63">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>2578721</v>
+      </c>
+      <c r="C129" t="s">
+        <v>63</v>
+      </c>
+      <c r="D129" t="s">
+        <v>64</v>
+      </c>
+      <c r="E129" s="2">
+        <v>44968.69791666666</v>
+      </c>
+      <c r="F129">
+        <v>22</v>
+      </c>
+      <c r="G129" t="s">
+        <v>75</v>
+      </c>
+      <c r="H129" t="s">
+        <v>76</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>2</v>
+      </c>
+      <c r="K129">
+        <v>2</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>2</v>
+      </c>
+      <c r="N129">
+        <v>2</v>
+      </c>
+      <c r="O129" t="s">
+        <v>82</v>
+      </c>
+      <c r="P129" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q129">
+        <v>9</v>
+      </c>
+      <c r="R129">
+        <v>6</v>
+      </c>
+      <c r="S129">
+        <v>15</v>
+      </c>
+      <c r="T129">
+        <v>2.63</v>
+      </c>
+      <c r="U129">
+        <v>2.12</v>
+      </c>
+      <c r="V129">
+        <v>3.35</v>
+      </c>
+      <c r="W129">
+        <v>1.3</v>
+      </c>
+      <c r="X129">
+        <v>3.34</v>
+      </c>
+      <c r="Y129">
+        <v>2.4</v>
+      </c>
+      <c r="Z129">
+        <v>1.53</v>
+      </c>
+      <c r="AA129">
+        <v>5.55</v>
+      </c>
+      <c r="AB129">
+        <v>1.13</v>
+      </c>
+      <c r="AC129">
+        <v>2.37</v>
+      </c>
+      <c r="AD129">
+        <v>3.4</v>
+      </c>
+      <c r="AE129">
+        <v>2.6</v>
+      </c>
+      <c r="AF129">
+        <v>1.02</v>
+      </c>
+      <c r="AG129">
+        <v>15</v>
+      </c>
+      <c r="AH129">
+        <v>1.18</v>
+      </c>
+      <c r="AI129">
+        <v>4.33</v>
+      </c>
+      <c r="AJ129">
+        <v>1.83</v>
+      </c>
+      <c r="AK129">
+        <v>2.03</v>
+      </c>
+      <c r="AL129">
+        <v>1.5</v>
+      </c>
+      <c r="AM129">
+        <v>2.4</v>
+      </c>
+      <c r="AN129">
+        <v>1.4</v>
+      </c>
+      <c r="AO129">
+        <v>1.29</v>
+      </c>
+      <c r="AP129">
+        <v>1.65</v>
+      </c>
+      <c r="AQ129">
+        <v>1.3</v>
+      </c>
+      <c r="AR129">
+        <v>1.1</v>
+      </c>
+      <c r="AS129">
+        <v>1.18</v>
+      </c>
+      <c r="AT129">
+        <v>1.27</v>
+      </c>
+      <c r="AU129">
+        <v>1.55</v>
+      </c>
+      <c r="AV129">
+        <v>1.67</v>
+      </c>
+      <c r="AW129">
+        <v>3.22</v>
+      </c>
+      <c r="AX129">
+        <v>1.8</v>
+      </c>
+      <c r="AY129">
+        <v>5.75</v>
+      </c>
+      <c r="AZ129">
+        <v>2.25</v>
+      </c>
+      <c r="BA129">
+        <v>0</v>
+      </c>
+      <c r="BB129">
+        <v>1.29</v>
+      </c>
+      <c r="BC129">
+        <v>1.5</v>
+      </c>
+      <c r="BD129">
+        <v>1.95</v>
+      </c>
+      <c r="BE129">
+        <v>2.43</v>
+      </c>
+      <c r="BF129">
+        <v>8</v>
+      </c>
+      <c r="BG129">
+        <v>9</v>
+      </c>
+      <c r="BH129">
+        <v>7</v>
+      </c>
+      <c r="BI129">
+        <v>1</v>
+      </c>
+      <c r="BJ129">
+        <v>15</v>
+      </c>
+      <c r="BK129">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:63">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>2578723</v>
+      </c>
+      <c r="C130" t="s">
+        <v>63</v>
+      </c>
+      <c r="D130" t="s">
+        <v>64</v>
+      </c>
+      <c r="E130" s="2">
+        <v>44968.69791666666</v>
+      </c>
+      <c r="F130">
+        <v>22</v>
+      </c>
+      <c r="G130" t="s">
+        <v>72</v>
+      </c>
+      <c r="H130" t="s">
+        <v>68</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="O130" t="s">
+        <v>82</v>
+      </c>
+      <c r="P130" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q130">
+        <v>7</v>
+      </c>
+      <c r="R130">
+        <v>5</v>
+      </c>
+      <c r="S130">
+        <v>12</v>
+      </c>
+      <c r="T130">
+        <v>0</v>
+      </c>
+      <c r="U130">
+        <v>0</v>
+      </c>
+      <c r="V130">
+        <v>0</v>
+      </c>
+      <c r="W130">
+        <v>0</v>
+      </c>
+      <c r="X130">
+        <v>0</v>
+      </c>
+      <c r="Y130">
+        <v>0</v>
+      </c>
+      <c r="Z130">
+        <v>0</v>
+      </c>
+      <c r="AA130">
+        <v>0</v>
+      </c>
+      <c r="AB130">
+        <v>0</v>
+      </c>
+      <c r="AC130">
+        <v>3.32</v>
+      </c>
+      <c r="AD130">
+        <v>3.8</v>
+      </c>
+      <c r="AE130">
+        <v>1.98</v>
+      </c>
+      <c r="AF130">
+        <v>0</v>
+      </c>
+      <c r="AG130">
+        <v>0</v>
+      </c>
+      <c r="AH130">
+        <v>0</v>
+      </c>
+      <c r="AI130">
+        <v>0</v>
+      </c>
+      <c r="AJ130">
+        <v>1.56</v>
+      </c>
+      <c r="AK130">
+        <v>2.35</v>
+      </c>
+      <c r="AL130">
+        <v>0</v>
+      </c>
+      <c r="AM130">
+        <v>0</v>
+      </c>
+      <c r="AN130">
+        <v>0</v>
+      </c>
+      <c r="AO130">
+        <v>0</v>
+      </c>
+      <c r="AP130">
+        <v>0</v>
+      </c>
+      <c r="AQ130">
+        <v>0.7</v>
+      </c>
+      <c r="AR130">
+        <v>1.1</v>
+      </c>
+      <c r="AS130">
+        <v>0.73</v>
+      </c>
+      <c r="AT130">
+        <v>1.09</v>
+      </c>
+      <c r="AU130">
+        <v>1.56</v>
+      </c>
+      <c r="AV130">
+        <v>1.06</v>
+      </c>
+      <c r="AW130">
+        <v>2.62</v>
+      </c>
+      <c r="AX130">
+        <v>0</v>
+      </c>
+      <c r="AY130">
+        <v>0</v>
+      </c>
+      <c r="AZ130">
+        <v>0</v>
+      </c>
+      <c r="BA130">
+        <v>0</v>
+      </c>
+      <c r="BB130">
+        <v>0</v>
+      </c>
+      <c r="BC130">
+        <v>0</v>
+      </c>
+      <c r="BD130">
+        <v>0</v>
+      </c>
+      <c r="BE130">
+        <v>0</v>
+      </c>
+      <c r="BF130">
+        <v>3</v>
+      </c>
+      <c r="BG130">
+        <v>2</v>
+      </c>
+      <c r="BH130">
+        <v>4</v>
+      </c>
+      <c r="BI130">
+        <v>2</v>
+      </c>
+      <c r="BJ130">
+        <v>7</v>
+      </c>
+      <c r="BK130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:63">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>2578718</v>
+      </c>
+      <c r="C131" t="s">
+        <v>63</v>
+      </c>
+      <c r="D131" t="s">
+        <v>64</v>
+      </c>
+      <c r="E131" s="2">
+        <v>44969.5</v>
+      </c>
+      <c r="F131">
+        <v>22</v>
+      </c>
+      <c r="G131" t="s">
+        <v>66</v>
+      </c>
+      <c r="H131" t="s">
+        <v>69</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="N131">
+        <v>1</v>
+      </c>
+      <c r="O131" t="s">
+        <v>82</v>
+      </c>
+      <c r="P131" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q131">
+        <v>1</v>
+      </c>
+      <c r="R131">
+        <v>0</v>
+      </c>
+      <c r="S131">
+        <v>1</v>
+      </c>
+      <c r="T131">
+        <v>0</v>
+      </c>
+      <c r="U131">
+        <v>0</v>
+      </c>
+      <c r="V131">
+        <v>0</v>
+      </c>
+      <c r="W131">
+        <v>0</v>
+      </c>
+      <c r="X131">
+        <v>0</v>
+      </c>
+      <c r="Y131">
+        <v>0</v>
+      </c>
+      <c r="Z131">
+        <v>0</v>
+      </c>
+      <c r="AA131">
+        <v>0</v>
+      </c>
+      <c r="AB131">
+        <v>0</v>
+      </c>
+      <c r="AC131">
+        <v>2.5</v>
+      </c>
+      <c r="AD131">
+        <v>3.3</v>
+      </c>
+      <c r="AE131">
+        <v>2.5</v>
+      </c>
+      <c r="AF131">
+        <v>0</v>
+      </c>
+      <c r="AG131">
+        <v>0</v>
+      </c>
+      <c r="AH131">
+        <v>0</v>
+      </c>
+      <c r="AI131">
+        <v>0</v>
+      </c>
+      <c r="AJ131">
+        <v>1.75</v>
+      </c>
+      <c r="AK131">
+        <v>2.02</v>
+      </c>
+      <c r="AL131">
+        <v>0</v>
+      </c>
+      <c r="AM131">
+        <v>0</v>
+      </c>
+      <c r="AN131">
+        <v>0</v>
+      </c>
+      <c r="AO131">
+        <v>0</v>
+      </c>
+      <c r="AP131">
+        <v>0</v>
+      </c>
+      <c r="AQ131">
+        <v>0.5</v>
+      </c>
+      <c r="AR131">
+        <v>0.5</v>
+      </c>
+      <c r="AS131">
+        <v>0.45</v>
+      </c>
+      <c r="AT131">
+        <v>0.73</v>
+      </c>
+      <c r="AU131">
+        <v>1.17</v>
+      </c>
+      <c r="AV131">
+        <v>1.63</v>
+      </c>
+      <c r="AW131">
+        <v>2.8</v>
+      </c>
+      <c r="AX131">
+        <v>0</v>
+      </c>
+      <c r="AY131">
+        <v>0</v>
+      </c>
+      <c r="AZ131">
+        <v>0</v>
+      </c>
+      <c r="BA131">
+        <v>0</v>
+      </c>
+      <c r="BB131">
+        <v>0</v>
+      </c>
+      <c r="BC131">
+        <v>0</v>
+      </c>
+      <c r="BD131">
+        <v>0</v>
+      </c>
+      <c r="BE131">
+        <v>0</v>
+      </c>
+      <c r="BF131">
+        <v>0</v>
+      </c>
+      <c r="BG131">
+        <v>2</v>
+      </c>
+      <c r="BH131">
+        <v>7</v>
+      </c>
+      <c r="BI131">
+        <v>2</v>
+      </c>
+      <c r="BJ131">
+        <v>7</v>
+      </c>
+      <c r="BK131">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="261">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1158,7 +1158,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK131"/>
+  <dimension ref="A1:BK132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1683,7 +1683,7 @@
         <v>0.45</v>
       </c>
       <c r="AT3">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT4">
         <v>1.55</v>
@@ -4548,7 +4548,7 @@
         <v>2.18</v>
       </c>
       <c r="AT18">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU18">
         <v>1.02</v>
@@ -4736,7 +4736,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT19">
         <v>1.27</v>
@@ -6264,7 +6264,7 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT27">
         <v>1.73</v>
@@ -7031,7 +7031,7 @@
         <v>1.73</v>
       </c>
       <c r="AT31">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU31">
         <v>1.12</v>
@@ -8750,7 +8750,7 @@
         <v>1.18</v>
       </c>
       <c r="AT40">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU40">
         <v>1.88</v>
@@ -8938,7 +8938,7 @@
         <v>0.5</v>
       </c>
       <c r="AS41">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT41">
         <v>1</v>
@@ -10660,7 +10660,7 @@
         <v>0.73</v>
       </c>
       <c r="AT50">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU50">
         <v>1.18</v>
@@ -11612,7 +11612,7 @@
         <v>1.75</v>
       </c>
       <c r="AS55">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT55">
         <v>1.18</v>
@@ -13522,7 +13522,7 @@
         <v>2</v>
       </c>
       <c r="AS65">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT65">
         <v>1.82</v>
@@ -14098,7 +14098,7 @@
         <v>0.55</v>
       </c>
       <c r="AT68">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU68">
         <v>1.79</v>
@@ -15814,7 +15814,7 @@
         <v>0.83</v>
       </c>
       <c r="AS77">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT77">
         <v>0.82</v>
@@ -16769,7 +16769,7 @@
         <v>0.83</v>
       </c>
       <c r="AS82">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT82">
         <v>1.09</v>
@@ -16963,7 +16963,7 @@
         <v>2.36</v>
       </c>
       <c r="AT83">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU83">
         <v>1.83</v>
@@ -17727,7 +17727,7 @@
         <v>1.1</v>
       </c>
       <c r="AT87">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU87">
         <v>1.32</v>
@@ -20589,7 +20589,7 @@
         <v>1.25</v>
       </c>
       <c r="AS102">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT102">
         <v>1</v>
@@ -21356,7 +21356,7 @@
         <v>1.27</v>
       </c>
       <c r="AT106">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU106">
         <v>1.73</v>
@@ -22881,7 +22881,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS114">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT114">
         <v>0.73</v>
@@ -23648,7 +23648,7 @@
         <v>2</v>
       </c>
       <c r="AT118">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AU118">
         <v>1.77</v>
@@ -25471,13 +25471,13 @@
         <v>259</v>
       </c>
       <c r="Q128">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R128">
         <v>4</v>
       </c>
       <c r="S128">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T128">
         <v>0</v>
@@ -25856,10 +25856,10 @@
         <v>7</v>
       </c>
       <c r="R130">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S130">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T130">
         <v>0</v>
@@ -26044,13 +26044,13 @@
         <v>152</v>
       </c>
       <c r="Q131">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R131">
         <v>0</v>
       </c>
       <c r="S131">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T131">
         <v>0</v>
@@ -26183,6 +26183,197 @@
       </c>
       <c r="BK131">
         <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:63">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>2578722</v>
+      </c>
+      <c r="C132" t="s">
+        <v>63</v>
+      </c>
+      <c r="D132" t="s">
+        <v>64</v>
+      </c>
+      <c r="E132" s="2">
+        <v>44969.63541666666</v>
+      </c>
+      <c r="F132">
+        <v>22</v>
+      </c>
+      <c r="G132" t="s">
+        <v>67</v>
+      </c>
+      <c r="H132" t="s">
+        <v>74</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>1</v>
+      </c>
+      <c r="N132">
+        <v>1</v>
+      </c>
+      <c r="O132" t="s">
+        <v>82</v>
+      </c>
+      <c r="P132" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q132">
+        <v>6</v>
+      </c>
+      <c r="R132">
+        <v>3</v>
+      </c>
+      <c r="S132">
+        <v>9</v>
+      </c>
+      <c r="T132">
+        <v>2.75</v>
+      </c>
+      <c r="U132">
+        <v>2.25</v>
+      </c>
+      <c r="V132">
+        <v>3.25</v>
+      </c>
+      <c r="W132">
+        <v>1.29</v>
+      </c>
+      <c r="X132">
+        <v>3.3</v>
+      </c>
+      <c r="Y132">
+        <v>2.36</v>
+      </c>
+      <c r="Z132">
+        <v>1.54</v>
+      </c>
+      <c r="AA132">
+        <v>5.45</v>
+      </c>
+      <c r="AB132">
+        <v>1.12</v>
+      </c>
+      <c r="AC132">
+        <v>2.23</v>
+      </c>
+      <c r="AD132">
+        <v>3.64</v>
+      </c>
+      <c r="AE132">
+        <v>2.89</v>
+      </c>
+      <c r="AF132">
+        <v>1.03</v>
+      </c>
+      <c r="AG132">
+        <v>11</v>
+      </c>
+      <c r="AH132">
+        <v>1.18</v>
+      </c>
+      <c r="AI132">
+        <v>4.5</v>
+      </c>
+      <c r="AJ132">
+        <v>1.57</v>
+      </c>
+      <c r="AK132">
+        <v>2.26</v>
+      </c>
+      <c r="AL132">
+        <v>1.52</v>
+      </c>
+      <c r="AM132">
+        <v>2.45</v>
+      </c>
+      <c r="AN132">
+        <v>1.4</v>
+      </c>
+      <c r="AO132">
+        <v>1.22</v>
+      </c>
+      <c r="AP132">
+        <v>1.63</v>
+      </c>
+      <c r="AQ132">
+        <v>1.9</v>
+      </c>
+      <c r="AR132">
+        <v>1.7</v>
+      </c>
+      <c r="AS132">
+        <v>1.73</v>
+      </c>
+      <c r="AT132">
+        <v>1.82</v>
+      </c>
+      <c r="AU132">
+        <v>2.04</v>
+      </c>
+      <c r="AV132">
+        <v>1.5</v>
+      </c>
+      <c r="AW132">
+        <v>3.54</v>
+      </c>
+      <c r="AX132">
+        <v>1.6</v>
+      </c>
+      <c r="AY132">
+        <v>6</v>
+      </c>
+      <c r="AZ132">
+        <v>2.5</v>
+      </c>
+      <c r="BA132">
+        <v>0</v>
+      </c>
+      <c r="BB132">
+        <v>1.31</v>
+      </c>
+      <c r="BC132">
+        <v>1.65</v>
+      </c>
+      <c r="BD132">
+        <v>2</v>
+      </c>
+      <c r="BE132">
+        <v>2.7</v>
+      </c>
+      <c r="BF132">
+        <v>4</v>
+      </c>
+      <c r="BG132">
+        <v>5</v>
+      </c>
+      <c r="BH132">
+        <v>6</v>
+      </c>
+      <c r="BI132">
+        <v>2</v>
+      </c>
+      <c r="BJ132">
+        <v>10</v>
+      </c>
+      <c r="BK132">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
@@ -358,10 +358,10 @@
     <t>['38', '68', '80']</t>
   </si>
   <si>
-    <t>['74']</t>
+    <t>['9', '85']</t>
   </si>
   <si>
-    <t>['9', '85']</t>
+    <t>['74']</t>
   </si>
   <si>
     <t>['52', '69', '80']</t>
@@ -373,10 +373,10 @@
     <t>['50']</t>
   </si>
   <si>
-    <t>['27', '79']</t>
+    <t>['7', '55']</t>
   </si>
   <si>
-    <t>['7', '55']</t>
+    <t>['27', '79']</t>
   </si>
   <si>
     <t>['49']</t>
@@ -445,10 +445,10 @@
     <t>['41', '66']</t>
   </si>
   <si>
-    <t>['8', '24', '61', '69']</t>
+    <t>['25', '69']</t>
   </si>
   <si>
-    <t>['25', '69']</t>
+    <t>['8', '24', '61', '69']</t>
   </si>
   <si>
     <t>['31']</t>
@@ -463,10 +463,10 @@
     <t>['15', '90+6']</t>
   </si>
   <si>
-    <t>['17', '90+2']</t>
+    <t>['7', '26']</t>
   </si>
   <si>
-    <t>['7', '26']</t>
+    <t>['17', '90+2']</t>
   </si>
   <si>
     <t>['74', '76']</t>
@@ -475,10 +475,10 @@
     <t>['57']</t>
   </si>
   <si>
-    <t>['38']</t>
+    <t>['33', '45', '51', '77']</t>
   </si>
   <si>
-    <t>['33', '45', '51', '77']</t>
+    <t>['38']</t>
   </si>
   <si>
     <t>['31', '34']</t>
@@ -514,10 +514,10 @@
     <t>['3', '45', '86']</t>
   </si>
   <si>
-    <t>['45+2', '87', '90+6']</t>
+    <t>['48', '69']</t>
   </si>
   <si>
-    <t>['48', '69']</t>
+    <t>['45+2', '87', '90+6']</t>
   </si>
   <si>
     <t>['43']</t>
@@ -532,10 +532,10 @@
     <t>['29']</t>
   </si>
   <si>
-    <t>['26', '64']</t>
+    <t>['65', '90+3']</t>
   </si>
   <si>
-    <t>['65', '90+3']</t>
+    <t>['26', '64']</t>
   </si>
   <si>
     <t>['26', '69', '85']</t>
@@ -652,19 +652,19 @@
     <t>['30', '73', '76']</t>
   </si>
   <si>
-    <t>['61']</t>
+    <t>['5', '41', '85']</t>
   </si>
   <si>
-    <t>['5', '41', '85']</t>
+    <t>['61']</t>
   </si>
   <si>
     <t>['90+1']</t>
   </si>
   <si>
-    <t>['23', '67', '80', '90+1']</t>
+    <t>['79']</t>
   </si>
   <si>
-    <t>['79']</t>
+    <t>['23', '67', '80', '90+1']</t>
   </si>
   <si>
     <t>['8', '34', '82', '88']</t>
@@ -745,10 +745,10 @@
     <t>['35', '49', '72', '80']</t>
   </si>
   <si>
-    <t>['5', '11']</t>
+    <t>['68']</t>
   </si>
   <si>
-    <t>['68']</t>
+    <t>['5', '11']</t>
   </si>
   <si>
     <t>['41', '54', '90']</t>
@@ -769,10 +769,10 @@
     <t>['31', '59', '62']</t>
   </si>
   <si>
-    <t>['12', '25']</t>
+    <t>['25']</t>
   </si>
   <si>
-    <t>['25']</t>
+    <t>['12', '25']</t>
   </si>
   <si>
     <t>['18', '28', '48']</t>
@@ -784,10 +784,10 @@
     <t>['81', '90+1']</t>
   </si>
   <si>
-    <t>['5', '89']</t>
+    <t>['16', '24']</t>
   </si>
   <si>
-    <t>['16', '24']</t>
+    <t>['5', '89']</t>
   </si>
   <si>
     <t>['57', '79']</t>
@@ -3694,7 +3694,7 @@
         <v>82</v>
       </c>
       <c r="P14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -9382,7 +9382,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>2578634</v>
+        <v>2578630</v>
       </c>
       <c r="C44" t="s">
         <v>63</v>
@@ -9397,175 +9397,175 @@
         <v>8</v>
       </c>
       <c r="G44" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H44" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
         <v>3</v>
       </c>
-      <c r="M44">
-        <v>1</v>
-      </c>
       <c r="N44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O44" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="P44" t="s">
         <v>212</v>
       </c>
       <c r="Q44">
+        <v>9</v>
+      </c>
+      <c r="R44">
         <v>8</v>
       </c>
-      <c r="R44">
-        <v>5</v>
-      </c>
       <c r="S44">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="T44">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="U44">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="V44">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="W44">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="X44">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="Y44">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Z44">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AA44">
-        <v>0</v>
+        <v>5.95</v>
       </c>
       <c r="AB44">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AC44">
-        <v>2</v>
+        <v>2.73</v>
       </c>
       <c r="AD44">
+        <v>3.3</v>
+      </c>
+      <c r="AE44">
+        <v>2.26</v>
+      </c>
+      <c r="AF44">
+        <v>1.04</v>
+      </c>
+      <c r="AG44">
+        <v>10</v>
+      </c>
+      <c r="AH44">
+        <v>1.22</v>
+      </c>
+      <c r="AI44">
+        <v>4</v>
+      </c>
+      <c r="AJ44">
+        <v>1.64</v>
+      </c>
+      <c r="AK44">
+        <v>2</v>
+      </c>
+      <c r="AL44">
+        <v>1.57</v>
+      </c>
+      <c r="AM44">
+        <v>2.3</v>
+      </c>
+      <c r="AN44">
+        <v>1.62</v>
+      </c>
+      <c r="AO44">
+        <v>1.22</v>
+      </c>
+      <c r="AP44">
+        <v>1.4</v>
+      </c>
+      <c r="AQ44">
+        <v>0</v>
+      </c>
+      <c r="AR44">
+        <v>1.25</v>
+      </c>
+      <c r="AS44">
+        <v>0.55</v>
+      </c>
+      <c r="AT44">
+        <v>1.55</v>
+      </c>
+      <c r="AU44">
+        <v>1.81</v>
+      </c>
+      <c r="AV44">
+        <v>1.65</v>
+      </c>
+      <c r="AW44">
+        <v>3.46</v>
+      </c>
+      <c r="AX44">
+        <v>2.55</v>
+      </c>
+      <c r="AY44">
+        <v>7.2</v>
+      </c>
+      <c r="AZ44">
+        <v>1.78</v>
+      </c>
+      <c r="BA44">
+        <v>1.27</v>
+      </c>
+      <c r="BB44">
+        <v>1.5</v>
+      </c>
+      <c r="BC44">
+        <v>1.88</v>
+      </c>
+      <c r="BD44">
+        <v>2.45</v>
+      </c>
+      <c r="BE44">
         <v>3.4</v>
       </c>
-      <c r="AE44">
-        <v>3.25</v>
-      </c>
-      <c r="AF44">
-        <v>0</v>
-      </c>
-      <c r="AG44">
-        <v>0</v>
-      </c>
-      <c r="AH44">
-        <v>0</v>
-      </c>
-      <c r="AI44">
-        <v>0</v>
-      </c>
-      <c r="AJ44">
-        <v>1.94</v>
-      </c>
-      <c r="AK44">
-        <v>1.92</v>
-      </c>
-      <c r="AL44">
-        <v>0</v>
-      </c>
-      <c r="AM44">
-        <v>0</v>
-      </c>
-      <c r="AN44">
-        <v>0</v>
-      </c>
-      <c r="AO44">
-        <v>0</v>
-      </c>
-      <c r="AP44">
-        <v>0</v>
-      </c>
-      <c r="AQ44">
-        <v>1</v>
-      </c>
-      <c r="AR44">
-        <v>1.67</v>
-      </c>
-      <c r="AS44">
-        <v>1.27</v>
-      </c>
-      <c r="AT44">
-        <v>0.82</v>
-      </c>
-      <c r="AU44">
-        <v>1.84</v>
-      </c>
-      <c r="AV44">
-        <v>1.02</v>
-      </c>
-      <c r="AW44">
-        <v>2.86</v>
-      </c>
-      <c r="AX44">
-        <v>0</v>
-      </c>
-      <c r="AY44">
-        <v>0</v>
-      </c>
-      <c r="AZ44">
-        <v>0</v>
-      </c>
-      <c r="BA44">
-        <v>0</v>
-      </c>
-      <c r="BB44">
-        <v>0</v>
-      </c>
-      <c r="BC44">
-        <v>0</v>
-      </c>
-      <c r="BD44">
-        <v>0</v>
-      </c>
-      <c r="BE44">
-        <v>0</v>
-      </c>
       <c r="BF44">
+        <v>3</v>
+      </c>
+      <c r="BG44">
         <v>6</v>
       </c>
-      <c r="BG44">
-        <v>9</v>
-      </c>
       <c r="BH44">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="BI44">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BJ44">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BK44">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:63">
@@ -9573,7 +9573,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>2578630</v>
+        <v>2578634</v>
       </c>
       <c r="C45" t="s">
         <v>63</v>
@@ -9588,175 +9588,175 @@
         <v>8</v>
       </c>
       <c r="G45" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H45" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O45" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="P45" t="s">
         <v>213</v>
       </c>
       <c r="Q45">
+        <v>8</v>
+      </c>
+      <c r="R45">
+        <v>5</v>
+      </c>
+      <c r="S45">
+        <v>13</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+      <c r="AC45">
+        <v>2</v>
+      </c>
+      <c r="AD45">
+        <v>3.4</v>
+      </c>
+      <c r="AE45">
+        <v>3.25</v>
+      </c>
+      <c r="AF45">
+        <v>0</v>
+      </c>
+      <c r="AG45">
+        <v>0</v>
+      </c>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
+      </c>
+      <c r="AJ45">
+        <v>1.94</v>
+      </c>
+      <c r="AK45">
+        <v>1.92</v>
+      </c>
+      <c r="AL45">
+        <v>0</v>
+      </c>
+      <c r="AM45">
+        <v>0</v>
+      </c>
+      <c r="AN45">
+        <v>0</v>
+      </c>
+      <c r="AO45">
+        <v>0</v>
+      </c>
+      <c r="AP45">
+        <v>0</v>
+      </c>
+      <c r="AQ45">
+        <v>1</v>
+      </c>
+      <c r="AR45">
+        <v>1.67</v>
+      </c>
+      <c r="AS45">
+        <v>1.27</v>
+      </c>
+      <c r="AT45">
+        <v>0.82</v>
+      </c>
+      <c r="AU45">
+        <v>1.84</v>
+      </c>
+      <c r="AV45">
+        <v>1.02</v>
+      </c>
+      <c r="AW45">
+        <v>2.86</v>
+      </c>
+      <c r="AX45">
+        <v>0</v>
+      </c>
+      <c r="AY45">
+        <v>0</v>
+      </c>
+      <c r="AZ45">
+        <v>0</v>
+      </c>
+      <c r="BA45">
+        <v>0</v>
+      </c>
+      <c r="BB45">
+        <v>0</v>
+      </c>
+      <c r="BC45">
+        <v>0</v>
+      </c>
+      <c r="BD45">
+        <v>0</v>
+      </c>
+      <c r="BE45">
+        <v>0</v>
+      </c>
+      <c r="BF45">
+        <v>6</v>
+      </c>
+      <c r="BG45">
         <v>9</v>
       </c>
-      <c r="R45">
-        <v>8</v>
-      </c>
-      <c r="S45">
-        <v>17</v>
-      </c>
-      <c r="T45">
-        <v>3.3</v>
-      </c>
-      <c r="U45">
-        <v>2.2</v>
-      </c>
-      <c r="V45">
-        <v>2.8</v>
-      </c>
-      <c r="W45">
-        <v>1.33</v>
-      </c>
-      <c r="X45">
-        <v>3.05</v>
-      </c>
-      <c r="Y45">
-        <v>2.5</v>
-      </c>
-      <c r="Z45">
-        <v>1.47</v>
-      </c>
-      <c r="AA45">
-        <v>5.95</v>
-      </c>
-      <c r="AB45">
-        <v>1.1</v>
-      </c>
-      <c r="AC45">
-        <v>2.73</v>
-      </c>
-      <c r="AD45">
-        <v>3.3</v>
-      </c>
-      <c r="AE45">
-        <v>2.26</v>
-      </c>
-      <c r="AF45">
-        <v>1.04</v>
-      </c>
-      <c r="AG45">
-        <v>10</v>
-      </c>
-      <c r="AH45">
-        <v>1.22</v>
-      </c>
-      <c r="AI45">
-        <v>4</v>
-      </c>
-      <c r="AJ45">
-        <v>1.64</v>
-      </c>
-      <c r="AK45">
-        <v>2</v>
-      </c>
-      <c r="AL45">
-        <v>1.57</v>
-      </c>
-      <c r="AM45">
-        <v>2.3</v>
-      </c>
-      <c r="AN45">
-        <v>1.62</v>
-      </c>
-      <c r="AO45">
-        <v>1.22</v>
-      </c>
-      <c r="AP45">
-        <v>1.4</v>
-      </c>
-      <c r="AQ45">
-        <v>0</v>
-      </c>
-      <c r="AR45">
-        <v>1.25</v>
-      </c>
-      <c r="AS45">
-        <v>0.55</v>
-      </c>
-      <c r="AT45">
-        <v>1.55</v>
-      </c>
-      <c r="AU45">
-        <v>1.81</v>
-      </c>
-      <c r="AV45">
-        <v>1.65</v>
-      </c>
-      <c r="AW45">
-        <v>3.46</v>
-      </c>
-      <c r="AX45">
-        <v>2.55</v>
-      </c>
-      <c r="AY45">
-        <v>7.2</v>
-      </c>
-      <c r="AZ45">
-        <v>1.78</v>
-      </c>
-      <c r="BA45">
-        <v>1.27</v>
-      </c>
-      <c r="BB45">
-        <v>1.5</v>
-      </c>
-      <c r="BC45">
-        <v>1.88</v>
-      </c>
-      <c r="BD45">
-        <v>2.45</v>
-      </c>
-      <c r="BE45">
-        <v>3.4</v>
-      </c>
-      <c r="BF45">
+      <c r="BH45">
+        <v>7</v>
+      </c>
+      <c r="BI45">
         <v>3</v>
       </c>
-      <c r="BG45">
-        <v>6</v>
-      </c>
-      <c r="BH45">
-        <v>14</v>
-      </c>
-      <c r="BI45">
-        <v>10</v>
-      </c>
       <c r="BJ45">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="BK45">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:63">
@@ -10528,7 +10528,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>2578645</v>
+        <v>2578636</v>
       </c>
       <c r="C50" t="s">
         <v>63</v>
@@ -10543,28 +10543,28 @@
         <v>9</v>
       </c>
       <c r="G50" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H50" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50">
         <v>1</v>
       </c>
       <c r="L50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M50">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N50">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O50" t="s">
         <v>114</v>
@@ -10573,145 +10573,145 @@
         <v>215</v>
       </c>
       <c r="Q50">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R50">
         <v>5</v>
       </c>
       <c r="S50">
+        <v>6</v>
+      </c>
+      <c r="T50">
+        <v>2.15</v>
+      </c>
+      <c r="U50">
+        <v>2.38</v>
+      </c>
+      <c r="V50">
+        <v>4.2</v>
+      </c>
+      <c r="W50">
+        <v>1.29</v>
+      </c>
+      <c r="X50">
+        <v>3.5</v>
+      </c>
+      <c r="Y50">
+        <v>2.3</v>
+      </c>
+      <c r="Z50">
+        <v>1.57</v>
+      </c>
+      <c r="AA50">
+        <v>5</v>
+      </c>
+      <c r="AB50">
+        <v>1.14</v>
+      </c>
+      <c r="AC50">
+        <v>1.66</v>
+      </c>
+      <c r="AD50">
+        <v>4</v>
+      </c>
+      <c r="AE50">
+        <v>4.5</v>
+      </c>
+      <c r="AF50">
+        <v>1.03</v>
+      </c>
+      <c r="AG50">
         <v>11</v>
       </c>
-      <c r="T50">
-        <v>0</v>
-      </c>
-      <c r="U50">
-        <v>0</v>
-      </c>
-      <c r="V50">
-        <v>0</v>
-      </c>
-      <c r="W50">
-        <v>0</v>
-      </c>
-      <c r="X50">
-        <v>0</v>
-      </c>
-      <c r="Y50">
-        <v>0</v>
-      </c>
-      <c r="Z50">
-        <v>0</v>
-      </c>
-      <c r="AA50">
-        <v>0</v>
-      </c>
-      <c r="AB50">
-        <v>0</v>
-      </c>
-      <c r="AC50">
-        <v>4.5</v>
-      </c>
-      <c r="AD50">
-        <v>4.2</v>
-      </c>
-      <c r="AE50">
-        <v>1.65</v>
-      </c>
-      <c r="AF50">
-        <v>0</v>
-      </c>
-      <c r="AG50">
-        <v>0</v>
-      </c>
       <c r="AH50">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AI50">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="AJ50">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="AK50">
+        <v>2.25</v>
+      </c>
+      <c r="AL50">
+        <v>1.62</v>
+      </c>
+      <c r="AM50">
         <v>2.2</v>
       </c>
-      <c r="AL50">
-        <v>0</v>
-      </c>
-      <c r="AM50">
-        <v>0</v>
-      </c>
       <c r="AN50">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AO50">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AP50">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AQ50">
-        <v>0.67</v>
+        <v>2.33</v>
       </c>
       <c r="AR50">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AS50">
-        <v>0.73</v>
+        <v>2.36</v>
       </c>
       <c r="AT50">
-        <v>1.82</v>
+        <v>1</v>
       </c>
       <c r="AU50">
-        <v>1.18</v>
+        <v>1.85</v>
       </c>
       <c r="AV50">
         <v>1.58</v>
       </c>
       <c r="AW50">
-        <v>2.76</v>
+        <v>3.43</v>
       </c>
       <c r="AX50">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AY50">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AZ50">
-        <v>0</v>
+        <v>3.82</v>
       </c>
       <c r="BA50">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="BB50">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="BC50">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="BD50">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="BE50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BF50">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BG50">
         <v>5</v>
       </c>
       <c r="BH50">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BI50">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BJ50">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BK50">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:63">
@@ -10719,7 +10719,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>2578636</v>
+        <v>2578645</v>
       </c>
       <c r="C51" t="s">
         <v>63</v>
@@ -10734,28 +10734,28 @@
         <v>9</v>
       </c>
       <c r="G51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51">
         <v>1</v>
       </c>
       <c r="L51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M51">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O51" t="s">
         <v>115</v>
@@ -10764,145 +10764,145 @@
         <v>216</v>
       </c>
       <c r="Q51">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R51">
         <v>5</v>
       </c>
       <c r="S51">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="T51">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="U51">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>0</v>
+      </c>
+      <c r="AC51">
+        <v>4.5</v>
+      </c>
+      <c r="AD51">
         <v>4.2</v>
       </c>
-      <c r="W51">
-        <v>1.29</v>
-      </c>
-      <c r="X51">
-        <v>3.5</v>
-      </c>
-      <c r="Y51">
-        <v>2.3</v>
-      </c>
-      <c r="Z51">
-        <v>1.57</v>
-      </c>
-      <c r="AA51">
-        <v>5</v>
-      </c>
-      <c r="AB51">
-        <v>1.14</v>
-      </c>
-      <c r="AC51">
-        <v>1.66</v>
-      </c>
-      <c r="AD51">
-        <v>4</v>
-      </c>
       <c r="AE51">
-        <v>4.5</v>
+        <v>1.65</v>
       </c>
       <c r="AF51">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="AG51">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AH51">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AI51">
-        <v>4.33</v>
+        <v>0</v>
       </c>
       <c r="AJ51">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="AK51">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AL51">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="AM51">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="AN51">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="AO51">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AP51">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="AQ51">
-        <v>2.33</v>
+        <v>0.67</v>
       </c>
       <c r="AR51">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AS51">
-        <v>2.36</v>
+        <v>0.73</v>
       </c>
       <c r="AT51">
-        <v>1</v>
+        <v>1.82</v>
       </c>
       <c r="AU51">
-        <v>1.85</v>
+        <v>1.18</v>
       </c>
       <c r="AV51">
         <v>1.58</v>
       </c>
       <c r="AW51">
-        <v>3.43</v>
+        <v>2.76</v>
       </c>
       <c r="AX51">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="AY51">
-        <v>8.9</v>
+        <v>0</v>
       </c>
       <c r="AZ51">
-        <v>3.82</v>
+        <v>0</v>
       </c>
       <c r="BA51">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="BB51">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="BC51">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="BD51">
-        <v>2.23</v>
+        <v>0</v>
       </c>
       <c r="BE51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BF51">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BG51">
         <v>5</v>
       </c>
       <c r="BH51">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BI51">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BJ51">
+        <v>11</v>
+      </c>
+      <c r="BK51">
         <v>16</v>
-      </c>
-      <c r="BK51">
-        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:63">
@@ -11674,7 +11674,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>2578648</v>
+        <v>2578651</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -11689,10 +11689,10 @@
         <v>10</v>
       </c>
       <c r="G56" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H56" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I56">
         <v>1</v>
@@ -11707,22 +11707,22 @@
         <v>2</v>
       </c>
       <c r="M56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O56" t="s">
         <v>119</v>
       </c>
       <c r="P56" t="s">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="Q56">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R56">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S56">
         <v>13</v>
@@ -11755,13 +11755,13 @@
         <v>0</v>
       </c>
       <c r="AC56">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="AD56">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="AE56">
-        <v>2.77</v>
+        <v>2.55</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -11776,10 +11776,10 @@
         <v>0</v>
       </c>
       <c r="AJ56">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="AK56">
-        <v>2.14</v>
+        <v>2.09</v>
       </c>
       <c r="AL56">
         <v>0</v>
@@ -11797,25 +11797,25 @@
         <v>0</v>
       </c>
       <c r="AQ56">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR56">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="AS56">
-        <v>2.18</v>
+        <v>0.73</v>
       </c>
       <c r="AT56">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="AU56">
-        <v>1.05</v>
+        <v>1.23</v>
       </c>
       <c r="AV56">
-        <v>1.57</v>
+        <v>1.2</v>
       </c>
       <c r="AW56">
-        <v>2.62</v>
+        <v>2.43</v>
       </c>
       <c r="AX56">
         <v>0</v>
@@ -11848,16 +11848,16 @@
         <v>4</v>
       </c>
       <c r="BH56">
+        <v>2</v>
+      </c>
+      <c r="BI56">
+        <v>1</v>
+      </c>
+      <c r="BJ56">
+        <v>8</v>
+      </c>
+      <c r="BK56">
         <v>5</v>
-      </c>
-      <c r="BI56">
-        <v>5</v>
-      </c>
-      <c r="BJ56">
-        <v>11</v>
-      </c>
-      <c r="BK56">
-        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:63">
@@ -11865,7 +11865,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>2578651</v>
+        <v>2578648</v>
       </c>
       <c r="C57" t="s">
         <v>63</v>
@@ -11880,10 +11880,10 @@
         <v>10</v>
       </c>
       <c r="G57" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H57" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="I57">
         <v>1</v>
@@ -11898,22 +11898,22 @@
         <v>2</v>
       </c>
       <c r="M57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O57" t="s">
         <v>120</v>
       </c>
       <c r="P57" t="s">
-        <v>158</v>
+        <v>82</v>
       </c>
       <c r="Q57">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R57">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S57">
         <v>13</v>
@@ -11946,13 +11946,13 @@
         <v>0</v>
       </c>
       <c r="AC57">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="AD57">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="AE57">
-        <v>2.55</v>
+        <v>2.77</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -11967,10 +11967,10 @@
         <v>0</v>
       </c>
       <c r="AJ57">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="AK57">
-        <v>2.09</v>
+        <v>2.14</v>
       </c>
       <c r="AL57">
         <v>0</v>
@@ -11988,25 +11988,25 @@
         <v>0</v>
       </c>
       <c r="AQ57">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR57">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="AS57">
-        <v>0.73</v>
+        <v>2.18</v>
       </c>
       <c r="AT57">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU57">
-        <v>1.23</v>
+        <v>1.05</v>
       </c>
       <c r="AV57">
-        <v>1.2</v>
+        <v>1.57</v>
       </c>
       <c r="AW57">
-        <v>2.43</v>
+        <v>2.62</v>
       </c>
       <c r="AX57">
         <v>0</v>
@@ -12039,16 +12039,16 @@
         <v>4</v>
       </c>
       <c r="BH57">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BI57">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BJ57">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BK57">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:63">
@@ -13966,7 +13966,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>2578659</v>
+        <v>2578663</v>
       </c>
       <c r="C68" t="s">
         <v>63</v>
@@ -13981,175 +13981,175 @@
         <v>12</v>
       </c>
       <c r="G68" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H68" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L68">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O68" t="s">
+        <v>130</v>
+      </c>
+      <c r="P68" t="s">
         <v>82</v>
       </c>
-      <c r="P68" t="s">
-        <v>212</v>
-      </c>
       <c r="Q68">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R68">
         <v>4</v>
       </c>
       <c r="S68">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T68">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="U68">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="V68">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="W68">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="X68">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="Y68">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>0</v>
+      </c>
+      <c r="AB68">
+        <v>0</v>
+      </c>
+      <c r="AC68">
         <v>1.5</v>
       </c>
-      <c r="AA68">
-        <v>5.5</v>
-      </c>
-      <c r="AB68">
-        <v>1.12</v>
-      </c>
-      <c r="AC68">
+      <c r="AD68">
+        <v>4.2</v>
+      </c>
+      <c r="AE68">
+        <v>4.75</v>
+      </c>
+      <c r="AF68">
+        <v>0</v>
+      </c>
+      <c r="AG68">
+        <v>0</v>
+      </c>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
+      </c>
+      <c r="AJ68">
+        <v>1.45</v>
+      </c>
+      <c r="AK68">
+        <v>2.55</v>
+      </c>
+      <c r="AL68">
+        <v>0</v>
+      </c>
+      <c r="AM68">
+        <v>0</v>
+      </c>
+      <c r="AN68">
+        <v>0</v>
+      </c>
+      <c r="AO68">
+        <v>0</v>
+      </c>
+      <c r="AP68">
+        <v>0</v>
+      </c>
+      <c r="AQ68">
+        <v>1.2</v>
+      </c>
+      <c r="AR68">
+        <v>1.17</v>
+      </c>
+      <c r="AS68">
+        <v>1.27</v>
+      </c>
+      <c r="AT68">
+        <v>1</v>
+      </c>
+      <c r="AU68">
+        <v>1.73</v>
+      </c>
+      <c r="AV68">
+        <v>1.37</v>
+      </c>
+      <c r="AW68">
         <v>3.1</v>
       </c>
-      <c r="AD68">
-        <v>3.4</v>
-      </c>
-      <c r="AE68">
-        <v>2</v>
-      </c>
-      <c r="AF68">
-        <v>1.04</v>
-      </c>
-      <c r="AG68">
-        <v>10</v>
-      </c>
-      <c r="AH68">
-        <v>1.22</v>
-      </c>
-      <c r="AI68">
-        <v>4</v>
-      </c>
-      <c r="AJ68">
-        <v>1.7</v>
-      </c>
-      <c r="AK68">
-        <v>2</v>
-      </c>
-      <c r="AL68">
-        <v>1.62</v>
-      </c>
-      <c r="AM68">
-        <v>2.2</v>
-      </c>
-      <c r="AN68">
-        <v>1.83</v>
-      </c>
-      <c r="AO68">
-        <v>1.29</v>
-      </c>
-      <c r="AP68">
-        <v>1.25</v>
-      </c>
-      <c r="AQ68">
-        <v>0.6</v>
-      </c>
-      <c r="AR68">
-        <v>1.4</v>
-      </c>
-      <c r="AS68">
-        <v>0.55</v>
-      </c>
-      <c r="AT68">
-        <v>1.82</v>
-      </c>
-      <c r="AU68">
-        <v>1.79</v>
-      </c>
-      <c r="AV68">
-        <v>1.63</v>
-      </c>
-      <c r="AW68">
-        <v>3.42</v>
-      </c>
       <c r="AX68">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="AY68">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="AZ68">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="BA68">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="BB68">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="BC68">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="BD68">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="BE68">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="BF68">
         <v>5</v>
       </c>
       <c r="BG68">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BH68">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BI68">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BJ68">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BK68">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:63">
@@ -14157,7 +14157,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>2578663</v>
+        <v>2578659</v>
       </c>
       <c r="C69" t="s">
         <v>63</v>
@@ -14172,175 +14172,175 @@
         <v>12</v>
       </c>
       <c r="G69" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H69" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J69">
         <v>0</v>
       </c>
       <c r="K69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L69">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O69" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="P69" t="s">
-        <v>82</v>
+        <v>213</v>
       </c>
       <c r="Q69">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R69">
         <v>4</v>
       </c>
       <c r="S69">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="T69">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="U69">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="V69">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="W69">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="X69">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="Y69">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Z69">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AA69">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AB69">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AC69">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="AD69">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="AE69">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="AF69">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AG69">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AH69">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AI69">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ69">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="AK69">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="AL69">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AM69">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AN69">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AO69">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AP69">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AQ69">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="AR69">
-        <v>1.17</v>
+        <v>1.4</v>
       </c>
       <c r="AS69">
-        <v>1.27</v>
+        <v>0.55</v>
       </c>
       <c r="AT69">
-        <v>1</v>
+        <v>1.82</v>
       </c>
       <c r="AU69">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="AV69">
-        <v>1.37</v>
+        <v>1.63</v>
       </c>
       <c r="AW69">
-        <v>3.1</v>
+        <v>3.42</v>
       </c>
       <c r="AX69">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AY69">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AZ69">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="BA69">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="BB69">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="BC69">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="BD69">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="BE69">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="BF69">
         <v>5</v>
       </c>
       <c r="BG69">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH69">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BI69">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BJ69">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BK69">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:63">
@@ -17404,7 +17404,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>2578678</v>
+        <v>2578680</v>
       </c>
       <c r="C86" t="s">
         <v>63</v>
@@ -17419,175 +17419,175 @@
         <v>15</v>
       </c>
       <c r="G86" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H86" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L86">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N86">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O86" t="s">
         <v>143</v>
       </c>
       <c r="P86" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="Q86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R86">
         <v>4</v>
       </c>
       <c r="S86">
+        <v>7</v>
+      </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <v>0</v>
+      </c>
+      <c r="V86">
+        <v>0</v>
+      </c>
+      <c r="W86">
+        <v>0</v>
+      </c>
+      <c r="X86">
+        <v>0</v>
+      </c>
+      <c r="Y86">
+        <v>0</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+      <c r="AA86">
+        <v>0</v>
+      </c>
+      <c r="AB86">
+        <v>0</v>
+      </c>
+      <c r="AC86">
+        <v>3.28</v>
+      </c>
+      <c r="AD86">
+        <v>3.82</v>
+      </c>
+      <c r="AE86">
+        <v>2</v>
+      </c>
+      <c r="AF86">
+        <v>0</v>
+      </c>
+      <c r="AG86">
+        <v>0</v>
+      </c>
+      <c r="AH86">
+        <v>0</v>
+      </c>
+      <c r="AI86">
+        <v>0</v>
+      </c>
+      <c r="AJ86">
+        <v>1.55</v>
+      </c>
+      <c r="AK86">
+        <v>2.35</v>
+      </c>
+      <c r="AL86">
+        <v>0</v>
+      </c>
+      <c r="AM86">
+        <v>0</v>
+      </c>
+      <c r="AN86">
+        <v>0</v>
+      </c>
+      <c r="AO86">
+        <v>0</v>
+      </c>
+      <c r="AP86">
+        <v>0</v>
+      </c>
+      <c r="AQ86">
+        <v>1</v>
+      </c>
+      <c r="AR86">
+        <v>1.57</v>
+      </c>
+      <c r="AS86">
+        <v>1.1</v>
+      </c>
+      <c r="AT86">
+        <v>1.82</v>
+      </c>
+      <c r="AU86">
+        <v>1.32</v>
+      </c>
+      <c r="AV86">
+        <v>1.52</v>
+      </c>
+      <c r="AW86">
+        <v>2.84</v>
+      </c>
+      <c r="AX86">
+        <v>0</v>
+      </c>
+      <c r="AY86">
+        <v>0</v>
+      </c>
+      <c r="AZ86">
+        <v>0</v>
+      </c>
+      <c r="BA86">
+        <v>0</v>
+      </c>
+      <c r="BB86">
+        <v>0</v>
+      </c>
+      <c r="BC86">
+        <v>0</v>
+      </c>
+      <c r="BD86">
+        <v>0</v>
+      </c>
+      <c r="BE86">
+        <v>0</v>
+      </c>
+      <c r="BF86">
+        <v>4</v>
+      </c>
+      <c r="BG86">
+        <v>4</v>
+      </c>
+      <c r="BH86">
         <v>6</v>
       </c>
-      <c r="T86">
-        <v>0</v>
-      </c>
-      <c r="U86">
-        <v>0</v>
-      </c>
-      <c r="V86">
-        <v>0</v>
-      </c>
-      <c r="W86">
-        <v>0</v>
-      </c>
-      <c r="X86">
-        <v>0</v>
-      </c>
-      <c r="Y86">
-        <v>0</v>
-      </c>
-      <c r="Z86">
-        <v>0</v>
-      </c>
-      <c r="AA86">
-        <v>0</v>
-      </c>
-      <c r="AB86">
-        <v>0</v>
-      </c>
-      <c r="AC86">
-        <v>2.31</v>
-      </c>
-      <c r="AD86">
-        <v>3.7</v>
-      </c>
-      <c r="AE86">
-        <v>2.76</v>
-      </c>
-      <c r="AF86">
-        <v>0</v>
-      </c>
-      <c r="AG86">
-        <v>0</v>
-      </c>
-      <c r="AH86">
-        <v>0</v>
-      </c>
-      <c r="AI86">
-        <v>0</v>
-      </c>
-      <c r="AJ86">
-        <v>1.57</v>
-      </c>
-      <c r="AK86">
-        <v>2.3</v>
-      </c>
-      <c r="AL86">
-        <v>0</v>
-      </c>
-      <c r="AM86">
-        <v>0</v>
-      </c>
-      <c r="AN86">
-        <v>0</v>
-      </c>
-      <c r="AO86">
-        <v>0</v>
-      </c>
-      <c r="AP86">
-        <v>0</v>
-      </c>
-      <c r="AQ86">
-        <v>1.71</v>
-      </c>
-      <c r="AR86">
-        <v>1.71</v>
-      </c>
-      <c r="AS86">
-        <v>2.18</v>
-      </c>
-      <c r="AT86">
-        <v>1.18</v>
-      </c>
-      <c r="AU86">
-        <v>1.24</v>
-      </c>
-      <c r="AV86">
-        <v>1.32</v>
-      </c>
-      <c r="AW86">
-        <v>2.56</v>
-      </c>
-      <c r="AX86">
-        <v>0</v>
-      </c>
-      <c r="AY86">
-        <v>0</v>
-      </c>
-      <c r="AZ86">
-        <v>0</v>
-      </c>
-      <c r="BA86">
-        <v>0</v>
-      </c>
-      <c r="BB86">
-        <v>0</v>
-      </c>
-      <c r="BC86">
-        <v>0</v>
-      </c>
-      <c r="BD86">
-        <v>0</v>
-      </c>
-      <c r="BE86">
-        <v>0</v>
-      </c>
-      <c r="BF86">
-        <v>9</v>
-      </c>
-      <c r="BG86">
-        <v>5</v>
-      </c>
-      <c r="BH86">
-        <v>3</v>
-      </c>
       <c r="BI86">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BJ86">
+        <v>10</v>
+      </c>
+      <c r="BK86">
         <v>12</v>
-      </c>
-      <c r="BK86">
-        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:63">
@@ -17595,7 +17595,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>2578680</v>
+        <v>2578678</v>
       </c>
       <c r="C87" t="s">
         <v>63</v>
@@ -17610,43 +17610,43 @@
         <v>15</v>
       </c>
       <c r="G87" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H87" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L87">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N87">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O87" t="s">
         <v>144</v>
       </c>
       <c r="P87" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="Q87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R87">
         <v>4</v>
       </c>
       <c r="S87">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T87">
         <v>0</v>
@@ -17676,13 +17676,13 @@
         <v>0</v>
       </c>
       <c r="AC87">
-        <v>3.28</v>
+        <v>2.31</v>
       </c>
       <c r="AD87">
-        <v>3.82</v>
+        <v>3.7</v>
       </c>
       <c r="AE87">
-        <v>2</v>
+        <v>2.76</v>
       </c>
       <c r="AF87">
         <v>0</v>
@@ -17697,10 +17697,10 @@
         <v>0</v>
       </c>
       <c r="AJ87">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="AK87">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="AL87">
         <v>0</v>
@@ -17718,25 +17718,25 @@
         <v>0</v>
       </c>
       <c r="AQ87">
-        <v>1</v>
+        <v>1.71</v>
       </c>
       <c r="AR87">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AS87">
-        <v>1.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT87">
-        <v>1.82</v>
+        <v>1.18</v>
       </c>
       <c r="AU87">
+        <v>1.24</v>
+      </c>
+      <c r="AV87">
         <v>1.32</v>
       </c>
-      <c r="AV87">
-        <v>1.52</v>
-      </c>
       <c r="AW87">
-        <v>2.84</v>
+        <v>2.56</v>
       </c>
       <c r="AX87">
         <v>0</v>
@@ -17763,22 +17763,22 @@
         <v>0</v>
       </c>
       <c r="BF87">
+        <v>9</v>
+      </c>
+      <c r="BG87">
+        <v>5</v>
+      </c>
+      <c r="BH87">
+        <v>3</v>
+      </c>
+      <c r="BI87">
         <v>4</v>
       </c>
-      <c r="BG87">
-        <v>4</v>
-      </c>
-      <c r="BH87">
-        <v>6</v>
-      </c>
-      <c r="BI87">
-        <v>8</v>
-      </c>
       <c r="BJ87">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BK87">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:63">
@@ -18550,7 +18550,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>2578687</v>
+        <v>2578686</v>
       </c>
       <c r="C92" t="s">
         <v>63</v>
@@ -18565,175 +18565,175 @@
         <v>16</v>
       </c>
       <c r="G92" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H92" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J92">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K92">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L92">
         <v>2</v>
       </c>
       <c r="M92">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N92">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O92" t="s">
         <v>149</v>
       </c>
       <c r="P92" t="s">
-        <v>239</v>
+        <v>82</v>
       </c>
       <c r="Q92">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R92">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S92">
+        <v>11</v>
+      </c>
+      <c r="T92">
+        <v>0</v>
+      </c>
+      <c r="U92">
+        <v>0</v>
+      </c>
+      <c r="V92">
+        <v>0</v>
+      </c>
+      <c r="W92">
+        <v>0</v>
+      </c>
+      <c r="X92">
+        <v>0</v>
+      </c>
+      <c r="Y92">
+        <v>0</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+      <c r="AA92">
+        <v>0</v>
+      </c>
+      <c r="AB92">
+        <v>0</v>
+      </c>
+      <c r="AC92">
+        <v>2.05</v>
+      </c>
+      <c r="AD92">
+        <v>3.88</v>
+      </c>
+      <c r="AE92">
+        <v>3.08</v>
+      </c>
+      <c r="AF92">
+        <v>0</v>
+      </c>
+      <c r="AG92">
+        <v>0</v>
+      </c>
+      <c r="AH92">
+        <v>0</v>
+      </c>
+      <c r="AI92">
+        <v>0</v>
+      </c>
+      <c r="AJ92">
+        <v>1.45</v>
+      </c>
+      <c r="AK92">
+        <v>2.39</v>
+      </c>
+      <c r="AL92">
+        <v>0</v>
+      </c>
+      <c r="AM92">
+        <v>0</v>
+      </c>
+      <c r="AN92">
+        <v>0</v>
+      </c>
+      <c r="AO92">
+        <v>0</v>
+      </c>
+      <c r="AP92">
+        <v>0</v>
+      </c>
+      <c r="AQ92">
+        <v>1.29</v>
+      </c>
+      <c r="AR92">
+        <v>0.29</v>
+      </c>
+      <c r="AS92">
+        <v>1.27</v>
+      </c>
+      <c r="AT92">
+        <v>0.73</v>
+      </c>
+      <c r="AU92">
+        <v>1.73</v>
+      </c>
+      <c r="AV92">
+        <v>1.78</v>
+      </c>
+      <c r="AW92">
+        <v>3.51</v>
+      </c>
+      <c r="AX92">
+        <v>0</v>
+      </c>
+      <c r="AY92">
+        <v>0</v>
+      </c>
+      <c r="AZ92">
+        <v>0</v>
+      </c>
+      <c r="BA92">
+        <v>0</v>
+      </c>
+      <c r="BB92">
+        <v>0</v>
+      </c>
+      <c r="BC92">
+        <v>0</v>
+      </c>
+      <c r="BD92">
+        <v>0</v>
+      </c>
+      <c r="BE92">
+        <v>0</v>
+      </c>
+      <c r="BF92">
+        <v>8</v>
+      </c>
+      <c r="BG92">
+        <v>6</v>
+      </c>
+      <c r="BH92">
+        <v>3</v>
+      </c>
+      <c r="BI92">
+        <v>8</v>
+      </c>
+      <c r="BJ92">
+        <v>11</v>
+      </c>
+      <c r="BK92">
         <v>14</v>
-      </c>
-      <c r="T92">
-        <v>0</v>
-      </c>
-      <c r="U92">
-        <v>0</v>
-      </c>
-      <c r="V92">
-        <v>0</v>
-      </c>
-      <c r="W92">
-        <v>0</v>
-      </c>
-      <c r="X92">
-        <v>0</v>
-      </c>
-      <c r="Y92">
-        <v>0</v>
-      </c>
-      <c r="Z92">
-        <v>0</v>
-      </c>
-      <c r="AA92">
-        <v>0</v>
-      </c>
-      <c r="AB92">
-        <v>0</v>
-      </c>
-      <c r="AC92">
-        <v>3.2</v>
-      </c>
-      <c r="AD92">
-        <v>3.8</v>
-      </c>
-      <c r="AE92">
-        <v>1.9</v>
-      </c>
-      <c r="AF92">
-        <v>0</v>
-      </c>
-      <c r="AG92">
-        <v>0</v>
-      </c>
-      <c r="AH92">
-        <v>0</v>
-      </c>
-      <c r="AI92">
-        <v>0</v>
-      </c>
-      <c r="AJ92">
-        <v>1.47</v>
-      </c>
-      <c r="AK92">
-        <v>2.32</v>
-      </c>
-      <c r="AL92">
-        <v>0</v>
-      </c>
-      <c r="AM92">
-        <v>0</v>
-      </c>
-      <c r="AN92">
-        <v>0</v>
-      </c>
-      <c r="AO92">
-        <v>0</v>
-      </c>
-      <c r="AP92">
-        <v>0</v>
-      </c>
-      <c r="AQ92">
-        <v>0.86</v>
-      </c>
-      <c r="AR92">
-        <v>1</v>
-      </c>
-      <c r="AS92">
-        <v>0.73</v>
-      </c>
-      <c r="AT92">
-        <v>1.27</v>
-      </c>
-      <c r="AU92">
-        <v>1.35</v>
-      </c>
-      <c r="AV92">
-        <v>1.85</v>
-      </c>
-      <c r="AW92">
-        <v>3.2</v>
-      </c>
-      <c r="AX92">
-        <v>0</v>
-      </c>
-      <c r="AY92">
-        <v>0</v>
-      </c>
-      <c r="AZ92">
-        <v>0</v>
-      </c>
-      <c r="BA92">
-        <v>0</v>
-      </c>
-      <c r="BB92">
-        <v>0</v>
-      </c>
-      <c r="BC92">
-        <v>0</v>
-      </c>
-      <c r="BD92">
-        <v>0</v>
-      </c>
-      <c r="BE92">
-        <v>0</v>
-      </c>
-      <c r="BF92">
-        <v>9</v>
-      </c>
-      <c r="BG92">
-        <v>3</v>
-      </c>
-      <c r="BH92">
-        <v>8</v>
-      </c>
-      <c r="BI92">
-        <v>2</v>
-      </c>
-      <c r="BJ92">
-        <v>17</v>
-      </c>
-      <c r="BK92">
-        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:63">
@@ -18741,7 +18741,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>2578686</v>
+        <v>2578687</v>
       </c>
       <c r="C93" t="s">
         <v>63</v>
@@ -18756,43 +18756,43 @@
         <v>16</v>
       </c>
       <c r="G93" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H93" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J93">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K93">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L93">
         <v>2</v>
       </c>
       <c r="M93">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N93">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O93" t="s">
         <v>150</v>
       </c>
       <c r="P93" t="s">
-        <v>82</v>
+        <v>239</v>
       </c>
       <c r="Q93">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R93">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S93">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="T93">
         <v>0</v>
@@ -18822,13 +18822,13 @@
         <v>0</v>
       </c>
       <c r="AC93">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="AD93">
-        <v>3.88</v>
+        <v>3.8</v>
       </c>
       <c r="AE93">
-        <v>3.08</v>
+        <v>1.9</v>
       </c>
       <c r="AF93">
         <v>0</v>
@@ -18843,10 +18843,10 @@
         <v>0</v>
       </c>
       <c r="AJ93">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="AK93">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AL93">
         <v>0</v>
@@ -18864,25 +18864,25 @@
         <v>0</v>
       </c>
       <c r="AQ93">
-        <v>1.29</v>
+        <v>0.86</v>
       </c>
       <c r="AR93">
-        <v>0.29</v>
+        <v>1</v>
       </c>
       <c r="AS93">
+        <v>0.73</v>
+      </c>
+      <c r="AT93">
         <v>1.27</v>
       </c>
-      <c r="AT93">
-        <v>0.73</v>
-      </c>
       <c r="AU93">
-        <v>1.73</v>
+        <v>1.35</v>
       </c>
       <c r="AV93">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="AW93">
-        <v>3.51</v>
+        <v>3.2</v>
       </c>
       <c r="AX93">
         <v>0</v>
@@ -18909,22 +18909,22 @@
         <v>0</v>
       </c>
       <c r="BF93">
+        <v>9</v>
+      </c>
+      <c r="BG93">
+        <v>3</v>
+      </c>
+      <c r="BH93">
         <v>8</v>
       </c>
-      <c r="BG93">
-        <v>6</v>
-      </c>
-      <c r="BH93">
-        <v>3</v>
-      </c>
       <c r="BI93">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BJ93">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="BK93">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:63">
@@ -18974,7 +18974,7 @@
         <v>82</v>
       </c>
       <c r="P94" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -19696,7 +19696,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>2578693</v>
+        <v>2578689</v>
       </c>
       <c r="C98" t="s">
         <v>63</v>
@@ -19711,28 +19711,28 @@
         <v>17</v>
       </c>
       <c r="G98" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H98" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L98">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N98">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O98" t="s">
         <v>153</v>
@@ -19741,13 +19741,13 @@
         <v>243</v>
       </c>
       <c r="Q98">
+        <v>5</v>
+      </c>
+      <c r="R98">
         <v>7</v>
       </c>
-      <c r="R98">
-        <v>2</v>
-      </c>
       <c r="S98">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T98">
         <v>0</v>
@@ -19777,13 +19777,13 @@
         <v>0</v>
       </c>
       <c r="AC98">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="AD98">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="AE98">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="AF98">
         <v>0</v>
@@ -19798,10 +19798,10 @@
         <v>0</v>
       </c>
       <c r="AJ98">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="AK98">
-        <v>2.66</v>
+        <v>2.41</v>
       </c>
       <c r="AL98">
         <v>0</v>
@@ -19819,25 +19819,25 @@
         <v>0</v>
       </c>
       <c r="AQ98">
-        <v>1.25</v>
+        <v>2.13</v>
       </c>
       <c r="AR98">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AS98">
-        <v>1.1</v>
+        <v>2.36</v>
       </c>
       <c r="AT98">
-        <v>1.09</v>
+        <v>1.82</v>
       </c>
       <c r="AU98">
-        <v>1.32</v>
+        <v>1.83</v>
       </c>
       <c r="AV98">
-        <v>1.12</v>
+        <v>1.2</v>
       </c>
       <c r="AW98">
-        <v>2.44</v>
+        <v>3.03</v>
       </c>
       <c r="AX98">
         <v>0</v>
@@ -19864,22 +19864,22 @@
         <v>0</v>
       </c>
       <c r="BF98">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BG98">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BH98">
         <v>5</v>
       </c>
       <c r="BI98">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BJ98">
+        <v>12</v>
+      </c>
+      <c r="BK98">
         <v>10</v>
-      </c>
-      <c r="BK98">
-        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:63">
@@ -19887,7 +19887,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>2578689</v>
+        <v>2578693</v>
       </c>
       <c r="C99" t="s">
         <v>63</v>
@@ -19902,28 +19902,28 @@
         <v>17</v>
       </c>
       <c r="G99" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H99" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L99">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N99">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O99" t="s">
         <v>154</v>
@@ -19932,145 +19932,145 @@
         <v>244</v>
       </c>
       <c r="Q99">
+        <v>7</v>
+      </c>
+      <c r="R99">
+        <v>2</v>
+      </c>
+      <c r="S99">
+        <v>9</v>
+      </c>
+      <c r="T99">
+        <v>0</v>
+      </c>
+      <c r="U99">
+        <v>0</v>
+      </c>
+      <c r="V99">
+        <v>0</v>
+      </c>
+      <c r="W99">
+        <v>0</v>
+      </c>
+      <c r="X99">
+        <v>0</v>
+      </c>
+      <c r="Y99">
+        <v>0</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+      <c r="AA99">
+        <v>0</v>
+      </c>
+      <c r="AB99">
+        <v>0</v>
+      </c>
+      <c r="AC99">
+        <v>1.85</v>
+      </c>
+      <c r="AD99">
+        <v>3.8</v>
+      </c>
+      <c r="AE99">
+        <v>3.65</v>
+      </c>
+      <c r="AF99">
+        <v>0</v>
+      </c>
+      <c r="AG99">
+        <v>0</v>
+      </c>
+      <c r="AH99">
+        <v>0</v>
+      </c>
+      <c r="AI99">
+        <v>0</v>
+      </c>
+      <c r="AJ99">
+        <v>1.36</v>
+      </c>
+      <c r="AK99">
+        <v>2.66</v>
+      </c>
+      <c r="AL99">
+        <v>0</v>
+      </c>
+      <c r="AM99">
+        <v>0</v>
+      </c>
+      <c r="AN99">
+        <v>0</v>
+      </c>
+      <c r="AO99">
+        <v>0</v>
+      </c>
+      <c r="AP99">
+        <v>0</v>
+      </c>
+      <c r="AQ99">
+        <v>1.25</v>
+      </c>
+      <c r="AR99">
+        <v>1</v>
+      </c>
+      <c r="AS99">
+        <v>1.1</v>
+      </c>
+      <c r="AT99">
+        <v>1.09</v>
+      </c>
+      <c r="AU99">
+        <v>1.32</v>
+      </c>
+      <c r="AV99">
+        <v>1.12</v>
+      </c>
+      <c r="AW99">
+        <v>2.44</v>
+      </c>
+      <c r="AX99">
+        <v>0</v>
+      </c>
+      <c r="AY99">
+        <v>0</v>
+      </c>
+      <c r="AZ99">
+        <v>0</v>
+      </c>
+      <c r="BA99">
+        <v>0</v>
+      </c>
+      <c r="BB99">
+        <v>0</v>
+      </c>
+      <c r="BC99">
+        <v>0</v>
+      </c>
+      <c r="BD99">
+        <v>0</v>
+      </c>
+      <c r="BE99">
+        <v>0</v>
+      </c>
+      <c r="BF99">
         <v>5</v>
       </c>
-      <c r="R99">
-        <v>7</v>
-      </c>
-      <c r="S99">
-        <v>12</v>
-      </c>
-      <c r="T99">
-        <v>0</v>
-      </c>
-      <c r="U99">
-        <v>0</v>
-      </c>
-      <c r="V99">
-        <v>0</v>
-      </c>
-      <c r="W99">
-        <v>0</v>
-      </c>
-      <c r="X99">
-        <v>0</v>
-      </c>
-      <c r="Y99">
-        <v>0</v>
-      </c>
-      <c r="Z99">
-        <v>0</v>
-      </c>
-      <c r="AA99">
-        <v>0</v>
-      </c>
-      <c r="AB99">
-        <v>0</v>
-      </c>
-      <c r="AC99">
-        <v>1.65</v>
-      </c>
-      <c r="AD99">
-        <v>4.3</v>
-      </c>
-      <c r="AE99">
-        <v>4.2</v>
-      </c>
-      <c r="AF99">
-        <v>0</v>
-      </c>
-      <c r="AG99">
-        <v>0</v>
-      </c>
-      <c r="AH99">
-        <v>0</v>
-      </c>
-      <c r="AI99">
-        <v>0</v>
-      </c>
-      <c r="AJ99">
-        <v>1.44</v>
-      </c>
-      <c r="AK99">
-        <v>2.41</v>
-      </c>
-      <c r="AL99">
-        <v>0</v>
-      </c>
-      <c r="AM99">
-        <v>0</v>
-      </c>
-      <c r="AN99">
-        <v>0</v>
-      </c>
-      <c r="AO99">
-        <v>0</v>
-      </c>
-      <c r="AP99">
-        <v>0</v>
-      </c>
-      <c r="AQ99">
-        <v>2.13</v>
-      </c>
-      <c r="AR99">
-        <v>1.75</v>
-      </c>
-      <c r="AS99">
-        <v>2.36</v>
-      </c>
-      <c r="AT99">
-        <v>1.82</v>
-      </c>
-      <c r="AU99">
-        <v>1.83</v>
-      </c>
-      <c r="AV99">
-        <v>1.2</v>
-      </c>
-      <c r="AW99">
-        <v>3.03</v>
-      </c>
-      <c r="AX99">
-        <v>0</v>
-      </c>
-      <c r="AY99">
-        <v>0</v>
-      </c>
-      <c r="AZ99">
-        <v>0</v>
-      </c>
-      <c r="BA99">
-        <v>0</v>
-      </c>
-      <c r="BB99">
-        <v>0</v>
-      </c>
-      <c r="BC99">
-        <v>0</v>
-      </c>
-      <c r="BD99">
-        <v>0</v>
-      </c>
-      <c r="BE99">
-        <v>0</v>
-      </c>
-      <c r="BF99">
-        <v>7</v>
-      </c>
       <c r="BG99">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BH99">
         <v>5</v>
       </c>
       <c r="BI99">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BJ99">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BK99">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:63">
@@ -22752,7 +22752,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>2578710</v>
+        <v>2578707</v>
       </c>
       <c r="C114" t="s">
         <v>63</v>
@@ -22767,28 +22767,28 @@
         <v>20</v>
       </c>
       <c r="G114" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H114" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>2</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+      <c r="N114">
         <v>3</v>
-      </c>
-      <c r="L114">
-        <v>3</v>
-      </c>
-      <c r="M114">
-        <v>2</v>
-      </c>
-      <c r="N114">
-        <v>5</v>
       </c>
       <c r="O114" t="s">
         <v>166</v>
@@ -22797,13 +22797,13 @@
         <v>251</v>
       </c>
       <c r="Q114">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R114">
         <v>5</v>
       </c>
       <c r="S114">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T114">
         <v>0</v>
@@ -22833,13 +22833,13 @@
         <v>0</v>
       </c>
       <c r="AC114">
-        <v>1.36</v>
+        <v>1.8</v>
       </c>
       <c r="AD114">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="AE114">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="AF114">
         <v>0</v>
@@ -22854,10 +22854,10 @@
         <v>0</v>
       </c>
       <c r="AJ114">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="AK114">
-        <v>2.39</v>
+        <v>2.29</v>
       </c>
       <c r="AL114">
         <v>0</v>
@@ -22878,22 +22878,22 @@
         <v>1.78</v>
       </c>
       <c r="AR114">
-        <v>0.5600000000000001</v>
+        <v>1.22</v>
       </c>
       <c r="AS114">
         <v>1.73</v>
       </c>
       <c r="AT114">
-        <v>0.73</v>
+        <v>1.09</v>
       </c>
       <c r="AU114">
-        <v>2.05</v>
+        <v>1.32</v>
       </c>
       <c r="AV114">
-        <v>1.7</v>
+        <v>1.04</v>
       </c>
       <c r="AW114">
-        <v>3.75</v>
+        <v>2.36</v>
       </c>
       <c r="AX114">
         <v>0</v>
@@ -22920,22 +22920,22 @@
         <v>0</v>
       </c>
       <c r="BF114">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BG114">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BH114">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BI114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BJ114">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BK114">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:63">
@@ -22943,7 +22943,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>2578707</v>
+        <v>2578710</v>
       </c>
       <c r="C115" t="s">
         <v>63</v>
@@ -22958,28 +22958,28 @@
         <v>20</v>
       </c>
       <c r="G115" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H115" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K115">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N115">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O115" t="s">
         <v>167</v>
@@ -22988,13 +22988,13 @@
         <v>252</v>
       </c>
       <c r="Q115">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R115">
         <v>5</v>
       </c>
       <c r="S115">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T115">
         <v>0</v>
@@ -23024,13 +23024,13 @@
         <v>0</v>
       </c>
       <c r="AC115">
-        <v>1.8</v>
+        <v>1.36</v>
       </c>
       <c r="AD115">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="AE115">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="AF115">
         <v>0</v>
@@ -23045,10 +23045,10 @@
         <v>0</v>
       </c>
       <c r="AJ115">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="AK115">
-        <v>2.29</v>
+        <v>2.39</v>
       </c>
       <c r="AL115">
         <v>0</v>
@@ -23069,22 +23069,22 @@
         <v>1.78</v>
       </c>
       <c r="AR115">
-        <v>1.22</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AS115">
         <v>1.73</v>
       </c>
       <c r="AT115">
-        <v>1.09</v>
+        <v>0.73</v>
       </c>
       <c r="AU115">
-        <v>1.32</v>
+        <v>2.05</v>
       </c>
       <c r="AV115">
-        <v>1.04</v>
+        <v>1.7</v>
       </c>
       <c r="AW115">
-        <v>2.36</v>
+        <v>3.75</v>
       </c>
       <c r="AX115">
         <v>0</v>
@@ -23111,22 +23111,22 @@
         <v>0</v>
       </c>
       <c r="BF115">
+        <v>8</v>
+      </c>
+      <c r="BG115">
+        <v>3</v>
+      </c>
+      <c r="BH115">
         <v>5</v>
       </c>
-      <c r="BG115">
+      <c r="BI115">
+        <v>3</v>
+      </c>
+      <c r="BJ115">
+        <v>13</v>
+      </c>
+      <c r="BK115">
         <v>6</v>
-      </c>
-      <c r="BH115">
-        <v>7</v>
-      </c>
-      <c r="BI115">
-        <v>1</v>
-      </c>
-      <c r="BJ115">
-        <v>12</v>
-      </c>
-      <c r="BK115">
-        <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:63">
@@ -24089,7 +24089,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>2578717</v>
+        <v>2578716</v>
       </c>
       <c r="C121" t="s">
         <v>63</v>
@@ -24104,16 +24104,16 @@
         <v>21</v>
       </c>
       <c r="G121" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H121" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K121">
         <v>2</v>
@@ -24134,145 +24134,145 @@
         <v>256</v>
       </c>
       <c r="Q121">
+        <v>2</v>
+      </c>
+      <c r="R121">
+        <v>2</v>
+      </c>
+      <c r="S121">
+        <v>4</v>
+      </c>
+      <c r="T121">
+        <v>0</v>
+      </c>
+      <c r="U121">
+        <v>0</v>
+      </c>
+      <c r="V121">
+        <v>0</v>
+      </c>
+      <c r="W121">
+        <v>0</v>
+      </c>
+      <c r="X121">
+        <v>0</v>
+      </c>
+      <c r="Y121">
+        <v>0</v>
+      </c>
+      <c r="Z121">
+        <v>0</v>
+      </c>
+      <c r="AA121">
+        <v>0</v>
+      </c>
+      <c r="AB121">
+        <v>0</v>
+      </c>
+      <c r="AC121">
+        <v>2.34</v>
+      </c>
+      <c r="AD121">
+        <v>3.68</v>
+      </c>
+      <c r="AE121">
+        <v>2.69</v>
+      </c>
+      <c r="AF121">
+        <v>0</v>
+      </c>
+      <c r="AG121">
+        <v>0</v>
+      </c>
+      <c r="AH121">
+        <v>0</v>
+      </c>
+      <c r="AI121">
+        <v>0</v>
+      </c>
+      <c r="AJ121">
+        <v>1.65</v>
+      </c>
+      <c r="AK121">
+        <v>2.21</v>
+      </c>
+      <c r="AL121">
+        <v>0</v>
+      </c>
+      <c r="AM121">
+        <v>0</v>
+      </c>
+      <c r="AN121">
+        <v>0</v>
+      </c>
+      <c r="AO121">
+        <v>0</v>
+      </c>
+      <c r="AP121">
+        <v>0</v>
+      </c>
+      <c r="AQ121">
+        <v>1.3</v>
+      </c>
+      <c r="AR121">
+        <v>1.8</v>
+      </c>
+      <c r="AS121">
+        <v>1.27</v>
+      </c>
+      <c r="AT121">
+        <v>1.73</v>
+      </c>
+      <c r="AU121">
+        <v>1.67</v>
+      </c>
+      <c r="AV121">
+        <v>1.33</v>
+      </c>
+      <c r="AW121">
+        <v>3</v>
+      </c>
+      <c r="AX121">
+        <v>0</v>
+      </c>
+      <c r="AY121">
+        <v>0</v>
+      </c>
+      <c r="AZ121">
+        <v>0</v>
+      </c>
+      <c r="BA121">
+        <v>0</v>
+      </c>
+      <c r="BB121">
+        <v>0</v>
+      </c>
+      <c r="BC121">
+        <v>0</v>
+      </c>
+      <c r="BD121">
+        <v>0</v>
+      </c>
+      <c r="BE121">
+        <v>0</v>
+      </c>
+      <c r="BF121">
+        <v>3</v>
+      </c>
+      <c r="BG121">
         <v>5</v>
       </c>
-      <c r="R121">
+      <c r="BH121">
+        <v>5</v>
+      </c>
+      <c r="BI121">
+        <v>0</v>
+      </c>
+      <c r="BJ121">
         <v>8</v>
       </c>
-      <c r="S121">
-        <v>13</v>
-      </c>
-      <c r="T121">
-        <v>0</v>
-      </c>
-      <c r="U121">
-        <v>0</v>
-      </c>
-      <c r="V121">
-        <v>0</v>
-      </c>
-      <c r="W121">
-        <v>0</v>
-      </c>
-      <c r="X121">
-        <v>0</v>
-      </c>
-      <c r="Y121">
-        <v>0</v>
-      </c>
-      <c r="Z121">
-        <v>0</v>
-      </c>
-      <c r="AA121">
-        <v>0</v>
-      </c>
-      <c r="AB121">
-        <v>0</v>
-      </c>
-      <c r="AC121">
-        <v>5.1</v>
-      </c>
-      <c r="AD121">
-        <v>4.02</v>
-      </c>
-      <c r="AE121">
-        <v>1.6</v>
-      </c>
-      <c r="AF121">
-        <v>0</v>
-      </c>
-      <c r="AG121">
-        <v>0</v>
-      </c>
-      <c r="AH121">
-        <v>0</v>
-      </c>
-      <c r="AI121">
-        <v>0</v>
-      </c>
-      <c r="AJ121">
-        <v>1.57</v>
-      </c>
-      <c r="AK121">
-        <v>2.37</v>
-      </c>
-      <c r="AL121">
-        <v>0</v>
-      </c>
-      <c r="AM121">
-        <v>0</v>
-      </c>
-      <c r="AN121">
-        <v>0</v>
-      </c>
-      <c r="AO121">
-        <v>0</v>
-      </c>
-      <c r="AP121">
-        <v>0</v>
-      </c>
-      <c r="AQ121">
-        <v>1.11</v>
-      </c>
-      <c r="AR121">
-        <v>1.6</v>
-      </c>
-      <c r="AS121">
-        <v>1.1</v>
-      </c>
-      <c r="AT121">
-        <v>1.55</v>
-      </c>
-      <c r="AU121">
-        <v>1.34</v>
-      </c>
-      <c r="AV121">
-        <v>1.78</v>
-      </c>
-      <c r="AW121">
-        <v>3.12</v>
-      </c>
-      <c r="AX121">
-        <v>0</v>
-      </c>
-      <c r="AY121">
-        <v>0</v>
-      </c>
-      <c r="AZ121">
-        <v>0</v>
-      </c>
-      <c r="BA121">
-        <v>0</v>
-      </c>
-      <c r="BB121">
-        <v>0</v>
-      </c>
-      <c r="BC121">
-        <v>0</v>
-      </c>
-      <c r="BD121">
-        <v>0</v>
-      </c>
-      <c r="BE121">
-        <v>0</v>
-      </c>
-      <c r="BF121">
+      <c r="BK121">
         <v>5</v>
-      </c>
-      <c r="BG121">
-        <v>4</v>
-      </c>
-      <c r="BH121">
-        <v>2</v>
-      </c>
-      <c r="BI121">
-        <v>4</v>
-      </c>
-      <c r="BJ121">
-        <v>7</v>
-      </c>
-      <c r="BK121">
-        <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:63">
@@ -24280,7 +24280,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>2578716</v>
+        <v>2578717</v>
       </c>
       <c r="C122" t="s">
         <v>63</v>
@@ -24295,16 +24295,16 @@
         <v>21</v>
       </c>
       <c r="G122" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H122" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K122">
         <v>2</v>
@@ -24325,145 +24325,145 @@
         <v>257</v>
       </c>
       <c r="Q122">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R122">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S122">
+        <v>13</v>
+      </c>
+      <c r="T122">
+        <v>0</v>
+      </c>
+      <c r="U122">
+        <v>0</v>
+      </c>
+      <c r="V122">
+        <v>0</v>
+      </c>
+      <c r="W122">
+        <v>0</v>
+      </c>
+      <c r="X122">
+        <v>0</v>
+      </c>
+      <c r="Y122">
+        <v>0</v>
+      </c>
+      <c r="Z122">
+        <v>0</v>
+      </c>
+      <c r="AA122">
+        <v>0</v>
+      </c>
+      <c r="AB122">
+        <v>0</v>
+      </c>
+      <c r="AC122">
+        <v>5.1</v>
+      </c>
+      <c r="AD122">
+        <v>4.02</v>
+      </c>
+      <c r="AE122">
+        <v>1.6</v>
+      </c>
+      <c r="AF122">
+        <v>0</v>
+      </c>
+      <c r="AG122">
+        <v>0</v>
+      </c>
+      <c r="AH122">
+        <v>0</v>
+      </c>
+      <c r="AI122">
+        <v>0</v>
+      </c>
+      <c r="AJ122">
+        <v>1.57</v>
+      </c>
+      <c r="AK122">
+        <v>2.37</v>
+      </c>
+      <c r="AL122">
+        <v>0</v>
+      </c>
+      <c r="AM122">
+        <v>0</v>
+      </c>
+      <c r="AN122">
+        <v>0</v>
+      </c>
+      <c r="AO122">
+        <v>0</v>
+      </c>
+      <c r="AP122">
+        <v>0</v>
+      </c>
+      <c r="AQ122">
+        <v>1.11</v>
+      </c>
+      <c r="AR122">
+        <v>1.6</v>
+      </c>
+      <c r="AS122">
+        <v>1.1</v>
+      </c>
+      <c r="AT122">
+        <v>1.55</v>
+      </c>
+      <c r="AU122">
+        <v>1.34</v>
+      </c>
+      <c r="AV122">
+        <v>1.78</v>
+      </c>
+      <c r="AW122">
+        <v>3.12</v>
+      </c>
+      <c r="AX122">
+        <v>0</v>
+      </c>
+      <c r="AY122">
+        <v>0</v>
+      </c>
+      <c r="AZ122">
+        <v>0</v>
+      </c>
+      <c r="BA122">
+        <v>0</v>
+      </c>
+      <c r="BB122">
+        <v>0</v>
+      </c>
+      <c r="BC122">
+        <v>0</v>
+      </c>
+      <c r="BD122">
+        <v>0</v>
+      </c>
+      <c r="BE122">
+        <v>0</v>
+      </c>
+      <c r="BF122">
+        <v>5</v>
+      </c>
+      <c r="BG122">
         <v>4</v>
       </c>
-      <c r="T122">
-        <v>0</v>
-      </c>
-      <c r="U122">
-        <v>0</v>
-      </c>
-      <c r="V122">
-        <v>0</v>
-      </c>
-      <c r="W122">
-        <v>0</v>
-      </c>
-      <c r="X122">
-        <v>0</v>
-      </c>
-      <c r="Y122">
-        <v>0</v>
-      </c>
-      <c r="Z122">
-        <v>0</v>
-      </c>
-      <c r="AA122">
-        <v>0</v>
-      </c>
-      <c r="AB122">
-        <v>0</v>
-      </c>
-      <c r="AC122">
-        <v>2.34</v>
-      </c>
-      <c r="AD122">
-        <v>3.68</v>
-      </c>
-      <c r="AE122">
-        <v>2.69</v>
-      </c>
-      <c r="AF122">
-        <v>0</v>
-      </c>
-      <c r="AG122">
-        <v>0</v>
-      </c>
-      <c r="AH122">
-        <v>0</v>
-      </c>
-      <c r="AI122">
-        <v>0</v>
-      </c>
-      <c r="AJ122">
-        <v>1.65</v>
-      </c>
-      <c r="AK122">
-        <v>2.21</v>
-      </c>
-      <c r="AL122">
-        <v>0</v>
-      </c>
-      <c r="AM122">
-        <v>0</v>
-      </c>
-      <c r="AN122">
-        <v>0</v>
-      </c>
-      <c r="AO122">
-        <v>0</v>
-      </c>
-      <c r="AP122">
-        <v>0</v>
-      </c>
-      <c r="AQ122">
-        <v>1.3</v>
-      </c>
-      <c r="AR122">
-        <v>1.8</v>
-      </c>
-      <c r="AS122">
-        <v>1.27</v>
-      </c>
-      <c r="AT122">
-        <v>1.73</v>
-      </c>
-      <c r="AU122">
-        <v>1.67</v>
-      </c>
-      <c r="AV122">
-        <v>1.33</v>
-      </c>
-      <c r="AW122">
-        <v>3</v>
-      </c>
-      <c r="AX122">
-        <v>0</v>
-      </c>
-      <c r="AY122">
-        <v>0</v>
-      </c>
-      <c r="AZ122">
-        <v>0</v>
-      </c>
-      <c r="BA122">
-        <v>0</v>
-      </c>
-      <c r="BB122">
-        <v>0</v>
-      </c>
-      <c r="BC122">
-        <v>0</v>
-      </c>
-      <c r="BD122">
-        <v>0</v>
-      </c>
-      <c r="BE122">
-        <v>0</v>
-      </c>
-      <c r="BF122">
-        <v>3</v>
-      </c>
-      <c r="BG122">
-        <v>5</v>
-      </c>
       <c r="BH122">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BI122">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BJ122">
+        <v>7</v>
+      </c>
+      <c r="BK122">
         <v>8</v>
-      </c>
-      <c r="BK122">
-        <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:63">
@@ -25617,7 +25617,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>2578721</v>
+        <v>2578723</v>
       </c>
       <c r="C129" t="s">
         <v>63</v>
@@ -25632,175 +25632,175 @@
         <v>22</v>
       </c>
       <c r="G129" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H129" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="I129">
         <v>0</v>
       </c>
       <c r="J129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L129">
         <v>0</v>
       </c>
       <c r="M129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O129" t="s">
         <v>82</v>
       </c>
       <c r="P129" t="s">
-        <v>260</v>
+        <v>82</v>
       </c>
       <c r="Q129">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R129">
         <v>6</v>
       </c>
       <c r="S129">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="T129">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="U129">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="V129">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="W129">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="X129">
-        <v>3.34</v>
+        <v>0</v>
       </c>
       <c r="Y129">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="Z129">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="AA129">
-        <v>5.55</v>
+        <v>0</v>
       </c>
       <c r="AB129">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="AC129">
-        <v>2.37</v>
+        <v>3.32</v>
       </c>
       <c r="AD129">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="AE129">
-        <v>2.6</v>
+        <v>1.98</v>
       </c>
       <c r="AF129">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="AG129">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AH129">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AI129">
-        <v>4.33</v>
+        <v>0</v>
       </c>
       <c r="AJ129">
-        <v>1.83</v>
+        <v>1.56</v>
       </c>
       <c r="AK129">
-        <v>2.03</v>
+        <v>2.35</v>
       </c>
       <c r="AL129">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AM129">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="AN129">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AO129">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AP129">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="AQ129">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="AR129">
         <v>1.1</v>
       </c>
       <c r="AS129">
-        <v>1.18</v>
+        <v>0.73</v>
       </c>
       <c r="AT129">
-        <v>1.27</v>
+        <v>1.09</v>
       </c>
       <c r="AU129">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="AV129">
-        <v>1.67</v>
+        <v>1.06</v>
       </c>
       <c r="AW129">
-        <v>3.22</v>
+        <v>2.62</v>
       </c>
       <c r="AX129">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AY129">
-        <v>5.75</v>
+        <v>0</v>
       </c>
       <c r="AZ129">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="BA129">
         <v>0</v>
       </c>
       <c r="BB129">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="BC129">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="BD129">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="BE129">
-        <v>2.43</v>
+        <v>0</v>
       </c>
       <c r="BF129">
+        <v>3</v>
+      </c>
+      <c r="BG129">
+        <v>3</v>
+      </c>
+      <c r="BH129">
+        <v>5</v>
+      </c>
+      <c r="BI129">
+        <v>2</v>
+      </c>
+      <c r="BJ129">
         <v>8</v>
       </c>
-      <c r="BG129">
-        <v>9</v>
-      </c>
-      <c r="BH129">
-        <v>7</v>
-      </c>
-      <c r="BI129">
-        <v>1</v>
-      </c>
-      <c r="BJ129">
-        <v>15</v>
-      </c>
       <c r="BK129">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:63">
@@ -25808,7 +25808,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>2578723</v>
+        <v>2578721</v>
       </c>
       <c r="C130" t="s">
         <v>63</v>
@@ -25823,175 +25823,175 @@
         <v>22</v>
       </c>
       <c r="G130" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H130" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I130">
         <v>0</v>
       </c>
       <c r="J130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L130">
         <v>0</v>
       </c>
       <c r="M130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O130" t="s">
         <v>82</v>
       </c>
       <c r="P130" t="s">
-        <v>82</v>
+        <v>260</v>
       </c>
       <c r="Q130">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R130">
         <v>6</v>
       </c>
       <c r="S130">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="T130">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="U130">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="V130">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="W130">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="X130">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="Y130">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Z130">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AA130">
-        <v>0</v>
+        <v>5.55</v>
       </c>
       <c r="AB130">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AC130">
-        <v>3.32</v>
+        <v>2.37</v>
       </c>
       <c r="AD130">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="AE130">
-        <v>1.98</v>
+        <v>2.6</v>
       </c>
       <c r="AF130">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AG130">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH130">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AI130">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="AJ130">
-        <v>1.56</v>
+        <v>1.83</v>
       </c>
       <c r="AK130">
-        <v>2.35</v>
+        <v>2.03</v>
       </c>
       <c r="AL130">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AM130">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AN130">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AO130">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AP130">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AQ130">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="AR130">
         <v>1.1</v>
       </c>
       <c r="AS130">
-        <v>0.73</v>
+        <v>1.18</v>
       </c>
       <c r="AT130">
-        <v>1.09</v>
+        <v>1.27</v>
       </c>
       <c r="AU130">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="AV130">
-        <v>1.06</v>
+        <v>1.67</v>
       </c>
       <c r="AW130">
-        <v>2.62</v>
+        <v>3.22</v>
       </c>
       <c r="AX130">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AY130">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AZ130">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="BA130">
         <v>0</v>
       </c>
       <c r="BB130">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="BC130">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BD130">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="BE130">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="BF130">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BG130">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BH130">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BI130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BJ130">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="BK130">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131" spans="1:63">
@@ -26232,7 +26232,7 @@
         <v>82</v>
       </c>
       <c r="P132" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q132">
         <v>6</v>

--- a/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="263">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -553,6 +553,9 @@
     <t>['13', '76']</t>
   </si>
   <si>
+    <t>['3', '10']</t>
+  </si>
+  <si>
     <t>['12', '15', '69', '90+3']</t>
   </si>
   <si>
@@ -797,6 +800,9 @@
   </si>
   <si>
     <t>['9', '18']</t>
+  </si>
+  <si>
+    <t>['29', '79']</t>
   </si>
 </sst>
 </file>
@@ -1158,7 +1164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK132"/>
+  <dimension ref="A1:BK133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1402,7 +1408,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1593,7 +1599,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -1975,7 +1981,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -2166,7 +2172,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2253,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT6">
         <v>1.27</v>
@@ -2548,7 +2554,7 @@
         <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2739,7 +2745,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2930,7 +2936,7 @@
         <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3312,7 +3318,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3503,7 +3509,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3885,7 +3891,7 @@
         <v>82</v>
       </c>
       <c r="P15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q15">
         <v>9</v>
@@ -3972,7 +3978,7 @@
         <v>3</v>
       </c>
       <c r="AS15">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT15">
         <v>1.73</v>
@@ -4076,7 +4082,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -4267,7 +4273,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4458,7 +4464,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q18">
         <v>9</v>
@@ -4649,7 +4655,7 @@
         <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q19">
         <v>7</v>
@@ -4840,7 +4846,7 @@
         <v>92</v>
       </c>
       <c r="P20" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -5031,7 +5037,7 @@
         <v>93</v>
       </c>
       <c r="P21" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -5222,7 +5228,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -5604,7 +5610,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q24">
         <v>2</v>
@@ -5795,7 +5801,7 @@
         <v>82</v>
       </c>
       <c r="P25" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5986,7 +5992,7 @@
         <v>97</v>
       </c>
       <c r="P26" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -6177,7 +6183,7 @@
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6368,7 +6374,7 @@
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6559,7 +6565,7 @@
         <v>99</v>
       </c>
       <c r="P29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -6750,7 +6756,7 @@
         <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6837,7 +6843,7 @@
         <v>1</v>
       </c>
       <c r="AS30">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT30">
         <v>0.82</v>
@@ -6941,7 +6947,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7132,7 +7138,7 @@
         <v>82</v>
       </c>
       <c r="P32" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q32">
         <v>7</v>
@@ -7323,7 +7329,7 @@
         <v>101</v>
       </c>
       <c r="P33" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7514,7 +7520,7 @@
         <v>102</v>
       </c>
       <c r="P34" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7705,7 +7711,7 @@
         <v>103</v>
       </c>
       <c r="P35" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q35">
         <v>14</v>
@@ -7896,7 +7902,7 @@
         <v>79</v>
       </c>
       <c r="P36" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q36">
         <v>1</v>
@@ -8278,7 +8284,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q38">
         <v>7</v>
@@ -8469,7 +8475,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8556,7 +8562,7 @@
         <v>1.33</v>
       </c>
       <c r="AS39">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT39">
         <v>1.18</v>
@@ -9233,7 +9239,7 @@
         <v>108</v>
       </c>
       <c r="P43" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q43">
         <v>1</v>
@@ -9424,7 +9430,7 @@
         <v>82</v>
       </c>
       <c r="P44" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q44">
         <v>9</v>
@@ -9615,7 +9621,7 @@
         <v>109</v>
       </c>
       <c r="P45" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q45">
         <v>8</v>
@@ -10379,7 +10385,7 @@
         <v>113</v>
       </c>
       <c r="P49" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10570,7 +10576,7 @@
         <v>114</v>
       </c>
       <c r="P50" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q50">
         <v>1</v>
@@ -10761,7 +10767,7 @@
         <v>115</v>
       </c>
       <c r="P51" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11143,7 +11149,7 @@
         <v>116</v>
       </c>
       <c r="P53" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q53">
         <v>10</v>
@@ -11334,7 +11340,7 @@
         <v>117</v>
       </c>
       <c r="P54" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11421,7 +11427,7 @@
         <v>2.5</v>
       </c>
       <c r="AS54">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT54">
         <v>1.82</v>
@@ -11525,7 +11531,7 @@
         <v>118</v>
       </c>
       <c r="P55" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12098,7 +12104,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12185,7 +12191,7 @@
         <v>1.75</v>
       </c>
       <c r="AS58">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT58">
         <v>1.73</v>
@@ -12289,7 +12295,7 @@
         <v>82</v>
       </c>
       <c r="P59" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12480,7 +12486,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12671,7 +12677,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -12862,7 +12868,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13244,7 +13250,7 @@
         <v>126</v>
       </c>
       <c r="P64" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q64">
         <v>6</v>
@@ -13435,7 +13441,7 @@
         <v>127</v>
       </c>
       <c r="P65" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -14199,7 +14205,7 @@
         <v>82</v>
       </c>
       <c r="P69" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q69">
         <v>2</v>
@@ -14390,7 +14396,7 @@
         <v>82</v>
       </c>
       <c r="P70" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14772,7 +14778,7 @@
         <v>131</v>
       </c>
       <c r="P72" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -14963,7 +14969,7 @@
         <v>132</v>
       </c>
       <c r="P73" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -15154,7 +15160,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q74">
         <v>2</v>
@@ -15345,7 +15351,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q75">
         <v>2</v>
@@ -15623,7 +15629,7 @@
         <v>0.67</v>
       </c>
       <c r="AS76">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT76">
         <v>1</v>
@@ -15918,7 +15924,7 @@
         <v>136</v>
       </c>
       <c r="P78" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q78">
         <v>1</v>
@@ -16300,7 +16306,7 @@
         <v>82</v>
       </c>
       <c r="P80" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q80">
         <v>2</v>
@@ -16491,7 +16497,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -16873,7 +16879,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17533,7 +17539,7 @@
         <v>1.57</v>
       </c>
       <c r="AS86">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT86">
         <v>1.82</v>
@@ -17828,7 +17834,7 @@
         <v>145</v>
       </c>
       <c r="P88" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q88">
         <v>6</v>
@@ -18019,7 +18025,7 @@
         <v>146</v>
       </c>
       <c r="P89" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18210,7 +18216,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q90">
         <v>9</v>
@@ -18401,7 +18407,7 @@
         <v>148</v>
       </c>
       <c r="P91" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q91">
         <v>6</v>
@@ -18783,7 +18789,7 @@
         <v>150</v>
       </c>
       <c r="P93" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q93">
         <v>9</v>
@@ -18974,7 +18980,7 @@
         <v>82</v>
       </c>
       <c r="P94" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -19165,7 +19171,7 @@
         <v>82</v>
       </c>
       <c r="P95" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q95">
         <v>10</v>
@@ -19356,7 +19362,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19547,7 +19553,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19738,7 +19744,7 @@
         <v>153</v>
       </c>
       <c r="P98" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -19929,7 +19935,7 @@
         <v>154</v>
       </c>
       <c r="P99" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q99">
         <v>7</v>
@@ -20016,7 +20022,7 @@
         <v>1</v>
       </c>
       <c r="AS99">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT99">
         <v>1.09</v>
@@ -20120,7 +20126,7 @@
         <v>155</v>
       </c>
       <c r="P100" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -21075,7 +21081,7 @@
         <v>82</v>
       </c>
       <c r="P105" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q105">
         <v>6</v>
@@ -21266,7 +21272,7 @@
         <v>159</v>
       </c>
       <c r="P106" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -21457,7 +21463,7 @@
         <v>160</v>
       </c>
       <c r="P107" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q107">
         <v>2</v>
@@ -21648,7 +21654,7 @@
         <v>161</v>
       </c>
       <c r="P108" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q108">
         <v>2</v>
@@ -21839,7 +21845,7 @@
         <v>162</v>
       </c>
       <c r="P109" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -22030,7 +22036,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22412,7 +22418,7 @@
         <v>165</v>
       </c>
       <c r="P112" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q112">
         <v>11</v>
@@ -22794,7 +22800,7 @@
         <v>166</v>
       </c>
       <c r="P114" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q114">
         <v>8</v>
@@ -22985,7 +22991,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -23176,7 +23182,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -23558,7 +23564,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -23749,7 +23755,7 @@
         <v>170</v>
       </c>
       <c r="P119" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q119">
         <v>5</v>
@@ -24131,7 +24137,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24322,7 +24328,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q122">
         <v>5</v>
@@ -24409,7 +24415,7 @@
         <v>1.6</v>
       </c>
       <c r="AS122">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT122">
         <v>1.55</v>
@@ -24513,7 +24519,7 @@
         <v>174</v>
       </c>
       <c r="P123" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q123">
         <v>7</v>
@@ -25277,7 +25283,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q127">
         <v>5</v>
@@ -25468,7 +25474,7 @@
         <v>178</v>
       </c>
       <c r="P128" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q128">
         <v>5</v>
@@ -25850,7 +25856,7 @@
         <v>82</v>
       </c>
       <c r="P130" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q130">
         <v>9</v>
@@ -26232,7 +26238,7 @@
         <v>82</v>
       </c>
       <c r="P132" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q132">
         <v>6</v>
@@ -26373,6 +26379,197 @@
         <v>10</v>
       </c>
       <c r="BK132">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:63">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>2578705</v>
+      </c>
+      <c r="C133" t="s">
+        <v>63</v>
+      </c>
+      <c r="D133" t="s">
+        <v>64</v>
+      </c>
+      <c r="E133" s="2">
+        <v>44976.5</v>
+      </c>
+      <c r="F133">
+        <v>19</v>
+      </c>
+      <c r="G133" t="s">
+        <v>69</v>
+      </c>
+      <c r="H133" t="s">
+        <v>72</v>
+      </c>
+      <c r="I133">
+        <v>2</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+      <c r="K133">
+        <v>3</v>
+      </c>
+      <c r="L133">
+        <v>2</v>
+      </c>
+      <c r="M133">
+        <v>2</v>
+      </c>
+      <c r="N133">
+        <v>4</v>
+      </c>
+      <c r="O133" t="s">
+        <v>179</v>
+      </c>
+      <c r="P133" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q133">
+        <v>9</v>
+      </c>
+      <c r="R133">
+        <v>1</v>
+      </c>
+      <c r="S133">
+        <v>10</v>
+      </c>
+      <c r="T133">
+        <v>0</v>
+      </c>
+      <c r="U133">
+        <v>0</v>
+      </c>
+      <c r="V133">
+        <v>0</v>
+      </c>
+      <c r="W133">
+        <v>0</v>
+      </c>
+      <c r="X133">
+        <v>0</v>
+      </c>
+      <c r="Y133">
+        <v>0</v>
+      </c>
+      <c r="Z133">
+        <v>0</v>
+      </c>
+      <c r="AA133">
+        <v>0</v>
+      </c>
+      <c r="AB133">
+        <v>0</v>
+      </c>
+      <c r="AC133">
+        <v>1.88</v>
+      </c>
+      <c r="AD133">
+        <v>3.45</v>
+      </c>
+      <c r="AE133">
+        <v>3.37</v>
+      </c>
+      <c r="AF133">
+        <v>0</v>
+      </c>
+      <c r="AG133">
+        <v>0</v>
+      </c>
+      <c r="AH133">
+        <v>0</v>
+      </c>
+      <c r="AI133">
+        <v>0</v>
+      </c>
+      <c r="AJ133">
+        <v>1.57</v>
+      </c>
+      <c r="AK133">
+        <v>2.32</v>
+      </c>
+      <c r="AL133">
+        <v>0</v>
+      </c>
+      <c r="AM133">
+        <v>0</v>
+      </c>
+      <c r="AN133">
+        <v>0</v>
+      </c>
+      <c r="AO133">
+        <v>0</v>
+      </c>
+      <c r="AP133">
+        <v>0</v>
+      </c>
+      <c r="AQ133">
+        <v>1.1</v>
+      </c>
+      <c r="AR133">
+        <v>1</v>
+      </c>
+      <c r="AS133">
+        <v>1.09</v>
+      </c>
+      <c r="AT133">
+        <v>1</v>
+      </c>
+      <c r="AU133">
+        <v>1.32</v>
+      </c>
+      <c r="AV133">
+        <v>1.37</v>
+      </c>
+      <c r="AW133">
+        <v>2.69</v>
+      </c>
+      <c r="AX133">
+        <v>0</v>
+      </c>
+      <c r="AY133">
+        <v>0</v>
+      </c>
+      <c r="AZ133">
+        <v>0</v>
+      </c>
+      <c r="BA133">
+        <v>0</v>
+      </c>
+      <c r="BB133">
+        <v>0</v>
+      </c>
+      <c r="BC133">
+        <v>0</v>
+      </c>
+      <c r="BD133">
+        <v>0</v>
+      </c>
+      <c r="BE133">
+        <v>0</v>
+      </c>
+      <c r="BF133">
+        <v>2</v>
+      </c>
+      <c r="BG133">
+        <v>2</v>
+      </c>
+      <c r="BH133">
+        <v>8</v>
+      </c>
+      <c r="BI133">
+        <v>5</v>
+      </c>
+      <c r="BJ133">
+        <v>10</v>
+      </c>
+      <c r="BK133">
         <v>7</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
@@ -26432,13 +26432,13 @@
         <v>262</v>
       </c>
       <c r="Q133">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S133">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="T133">
         <v>0</v>

--- a/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="265">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -554,6 +554,12 @@
   </si>
   <si>
     <t>['3', '10']</t>
+  </si>
+  <si>
+    <t>['4', '24']</t>
+  </si>
+  <si>
+    <t>['51']</t>
   </si>
   <si>
     <t>['12', '15', '69', '90+3']</t>
@@ -1164,7 +1170,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK133"/>
+  <dimension ref="A1:BK135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1408,7 +1414,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1495,10 +1501,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT2">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1599,7 +1605,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -1981,7 +1987,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -2172,7 +2178,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2554,7 +2560,7 @@
         <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2745,7 +2751,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2832,7 +2838,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT9">
         <v>1.73</v>
@@ -2936,7 +2942,7 @@
         <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3026,7 +3032,7 @@
         <v>2.36</v>
       </c>
       <c r="AT10">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3318,7 +3324,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3509,7 +3515,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3787,7 +3793,7 @@
         <v>1</v>
       </c>
       <c r="AS14">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT14">
         <v>1</v>
@@ -3891,7 +3897,7 @@
         <v>82</v>
       </c>
       <c r="P15" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q15">
         <v>9</v>
@@ -3981,7 +3987,7 @@
         <v>1.09</v>
       </c>
       <c r="AT15">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU15">
         <v>0.9399999999999999</v>
@@ -4082,7 +4088,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -4273,7 +4279,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4363,7 +4369,7 @@
         <v>1.73</v>
       </c>
       <c r="AT17">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU17">
         <v>0.51</v>
@@ -4464,7 +4470,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q18">
         <v>9</v>
@@ -4655,7 +4661,7 @@
         <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q19">
         <v>7</v>
@@ -4846,7 +4852,7 @@
         <v>92</v>
       </c>
       <c r="P20" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -5037,7 +5043,7 @@
         <v>93</v>
       </c>
       <c r="P21" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -5124,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT21">
         <v>0.73</v>
@@ -5228,7 +5234,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -5610,7 +5616,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q24">
         <v>2</v>
@@ -5801,7 +5807,7 @@
         <v>82</v>
       </c>
       <c r="P25" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5992,7 +5998,7 @@
         <v>97</v>
       </c>
       <c r="P26" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -6079,7 +6085,7 @@
         <v>1.5</v>
       </c>
       <c r="AS26">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT26">
         <v>1.27</v>
@@ -6183,7 +6189,7 @@
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6273,7 +6279,7 @@
         <v>1.73</v>
       </c>
       <c r="AT27">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU27">
         <v>2.17</v>
@@ -6374,7 +6380,7 @@
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6565,7 +6571,7 @@
         <v>99</v>
       </c>
       <c r="P29" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -6756,7 +6762,7 @@
         <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6846,7 +6852,7 @@
         <v>1.09</v>
       </c>
       <c r="AT30">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU30">
         <v>1.11</v>
@@ -6947,7 +6953,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7138,7 +7144,7 @@
         <v>82</v>
       </c>
       <c r="P32" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q32">
         <v>7</v>
@@ -7329,7 +7335,7 @@
         <v>101</v>
       </c>
       <c r="P33" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7520,7 +7526,7 @@
         <v>102</v>
       </c>
       <c r="P34" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7711,7 +7717,7 @@
         <v>103</v>
       </c>
       <c r="P35" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q35">
         <v>14</v>
@@ -7902,7 +7908,7 @@
         <v>79</v>
       </c>
       <c r="P36" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q36">
         <v>1</v>
@@ -8284,7 +8290,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q38">
         <v>7</v>
@@ -8475,7 +8481,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -9239,7 +9245,7 @@
         <v>108</v>
       </c>
       <c r="P43" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q43">
         <v>1</v>
@@ -9326,7 +9332,7 @@
         <v>2.33</v>
       </c>
       <c r="AS43">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT43">
         <v>1.82</v>
@@ -9430,7 +9436,7 @@
         <v>82</v>
       </c>
       <c r="P44" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q44">
         <v>9</v>
@@ -9517,7 +9523,7 @@
         <v>1.25</v>
       </c>
       <c r="AS44">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT44">
         <v>1.55</v>
@@ -9621,7 +9627,7 @@
         <v>109</v>
       </c>
       <c r="P45" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q45">
         <v>8</v>
@@ -9711,7 +9717,7 @@
         <v>1.27</v>
       </c>
       <c r="AT45">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU45">
         <v>1.84</v>
@@ -9902,7 +9908,7 @@
         <v>1.73</v>
       </c>
       <c r="AT46">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU46">
         <v>1.15</v>
@@ -10385,7 +10391,7 @@
         <v>113</v>
       </c>
       <c r="P49" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10576,7 +10582,7 @@
         <v>114</v>
       </c>
       <c r="P50" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q50">
         <v>1</v>
@@ -10767,7 +10773,7 @@
         <v>115</v>
       </c>
       <c r="P51" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -10854,7 +10860,7 @@
         <v>1</v>
       </c>
       <c r="AS51">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT51">
         <v>1.82</v>
@@ -11149,7 +11155,7 @@
         <v>116</v>
       </c>
       <c r="P53" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q53">
         <v>10</v>
@@ -11340,7 +11346,7 @@
         <v>117</v>
       </c>
       <c r="P54" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11531,7 +11537,7 @@
         <v>118</v>
       </c>
       <c r="P55" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -11809,10 +11815,10 @@
         <v>1.25</v>
       </c>
       <c r="AS56">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT56">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU56">
         <v>1.23</v>
@@ -12104,7 +12110,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12295,7 +12301,7 @@
         <v>82</v>
       </c>
       <c r="P59" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12486,7 +12492,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12677,7 +12683,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -12767,7 +12773,7 @@
         <v>2</v>
       </c>
       <c r="AT61">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU61">
         <v>1.9</v>
@@ -12868,7 +12874,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13149,7 +13155,7 @@
         <v>1.18</v>
       </c>
       <c r="AT63">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU63">
         <v>1.79</v>
@@ -13250,7 +13256,7 @@
         <v>126</v>
       </c>
       <c r="P64" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q64">
         <v>6</v>
@@ -13337,7 +13343,7 @@
         <v>1.25</v>
       </c>
       <c r="AS64">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT64">
         <v>1.09</v>
@@ -13441,7 +13447,7 @@
         <v>127</v>
       </c>
       <c r="P65" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -14205,7 +14211,7 @@
         <v>82</v>
       </c>
       <c r="P69" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q69">
         <v>2</v>
@@ -14292,7 +14298,7 @@
         <v>1.4</v>
       </c>
       <c r="AS69">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT69">
         <v>1.82</v>
@@ -14396,7 +14402,7 @@
         <v>82</v>
       </c>
       <c r="P70" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14778,7 +14784,7 @@
         <v>131</v>
       </c>
       <c r="P72" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -14969,7 +14975,7 @@
         <v>132</v>
       </c>
       <c r="P73" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -15160,7 +15166,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q74">
         <v>2</v>
@@ -15351,7 +15357,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q75">
         <v>2</v>
@@ -15438,7 +15444,7 @@
         <v>1.83</v>
       </c>
       <c r="AS75">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT75">
         <v>1.18</v>
@@ -15823,7 +15829,7 @@
         <v>1.73</v>
       </c>
       <c r="AT77">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU77">
         <v>1.86</v>
@@ -15924,7 +15930,7 @@
         <v>136</v>
       </c>
       <c r="P78" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q78">
         <v>1</v>
@@ -16205,7 +16211,7 @@
         <v>2.36</v>
       </c>
       <c r="AT79">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU79">
         <v>1.64</v>
@@ -16306,7 +16312,7 @@
         <v>82</v>
       </c>
       <c r="P80" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q80">
         <v>2</v>
@@ -16497,7 +16503,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -16879,7 +16885,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17348,7 +17354,7 @@
         <v>2</v>
       </c>
       <c r="AS85">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT85">
         <v>1.82</v>
@@ -17834,7 +17840,7 @@
         <v>145</v>
       </c>
       <c r="P88" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q88">
         <v>6</v>
@@ -17921,7 +17927,7 @@
         <v>0.71</v>
       </c>
       <c r="AS88">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT88">
         <v>1</v>
@@ -18025,7 +18031,7 @@
         <v>146</v>
       </c>
       <c r="P89" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18216,7 +18222,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q90">
         <v>9</v>
@@ -18306,7 +18312,7 @@
         <v>2.36</v>
       </c>
       <c r="AT90">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU90">
         <v>1.72</v>
@@ -18407,7 +18413,7 @@
         <v>148</v>
       </c>
       <c r="P91" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q91">
         <v>6</v>
@@ -18497,7 +18503,7 @@
         <v>2</v>
       </c>
       <c r="AT91">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU91">
         <v>1.82</v>
@@ -18789,7 +18795,7 @@
         <v>150</v>
       </c>
       <c r="P93" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q93">
         <v>9</v>
@@ -18876,7 +18882,7 @@
         <v>1</v>
       </c>
       <c r="AS93">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT93">
         <v>1.27</v>
@@ -18980,7 +18986,7 @@
         <v>82</v>
       </c>
       <c r="P94" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -19070,7 +19076,7 @@
         <v>0.45</v>
       </c>
       <c r="AT94">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU94">
         <v>1.14</v>
@@ -19171,7 +19177,7 @@
         <v>82</v>
       </c>
       <c r="P95" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q95">
         <v>10</v>
@@ -19362,7 +19368,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19449,7 +19455,7 @@
         <v>2.29</v>
       </c>
       <c r="AS96">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT96">
         <v>1.73</v>
@@ -19553,7 +19559,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19744,7 +19750,7 @@
         <v>153</v>
       </c>
       <c r="P98" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -19935,7 +19941,7 @@
         <v>154</v>
       </c>
       <c r="P99" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q99">
         <v>7</v>
@@ -20126,7 +20132,7 @@
         <v>155</v>
       </c>
       <c r="P100" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -20407,7 +20413,7 @@
         <v>2.36</v>
       </c>
       <c r="AT101">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU101">
         <v>1.68</v>
@@ -21081,7 +21087,7 @@
         <v>82</v>
       </c>
       <c r="P105" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q105">
         <v>6</v>
@@ -21168,10 +21174,10 @@
         <v>1.88</v>
       </c>
       <c r="AS105">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT105">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU105">
         <v>1.48</v>
@@ -21272,7 +21278,7 @@
         <v>159</v>
       </c>
       <c r="P106" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -21463,7 +21469,7 @@
         <v>160</v>
       </c>
       <c r="P107" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q107">
         <v>2</v>
@@ -21654,7 +21660,7 @@
         <v>161</v>
       </c>
       <c r="P108" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q108">
         <v>2</v>
@@ -21744,7 +21750,7 @@
         <v>2.18</v>
       </c>
       <c r="AT108">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU108">
         <v>1.33</v>
@@ -21845,7 +21851,7 @@
         <v>162</v>
       </c>
       <c r="P109" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -22036,7 +22042,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22123,10 +22129,10 @@
         <v>0.67</v>
       </c>
       <c r="AS110">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT110">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU110">
         <v>1.64</v>
@@ -22418,7 +22424,7 @@
         <v>165</v>
       </c>
       <c r="P112" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q112">
         <v>11</v>
@@ -22696,7 +22702,7 @@
         <v>0.25</v>
       </c>
       <c r="AS113">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT113">
         <v>0.73</v>
@@ -22800,7 +22806,7 @@
         <v>166</v>
       </c>
       <c r="P114" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q114">
         <v>8</v>
@@ -22991,7 +22997,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -23182,7 +23188,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -23564,7 +23570,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -23755,7 +23761,7 @@
         <v>170</v>
       </c>
       <c r="P119" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q119">
         <v>5</v>
@@ -23842,7 +23848,7 @@
         <v>1.67</v>
       </c>
       <c r="AS119">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT119">
         <v>1.55</v>
@@ -24137,7 +24143,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24227,7 +24233,7 @@
         <v>1.27</v>
       </c>
       <c r="AT121">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU121">
         <v>1.67</v>
@@ -24328,7 +24334,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q122">
         <v>5</v>
@@ -24519,7 +24525,7 @@
         <v>174</v>
       </c>
       <c r="P123" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q123">
         <v>7</v>
@@ -24991,7 +24997,7 @@
         <v>2.18</v>
       </c>
       <c r="AT125">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU125">
         <v>1.28</v>
@@ -25179,7 +25185,7 @@
         <v>0.8</v>
       </c>
       <c r="AS126">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT126">
         <v>1</v>
@@ -25283,7 +25289,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q127">
         <v>5</v>
@@ -25474,7 +25480,7 @@
         <v>178</v>
       </c>
       <c r="P128" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q128">
         <v>5</v>
@@ -25752,7 +25758,7 @@
         <v>1.1</v>
       </c>
       <c r="AS129">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT129">
         <v>1.09</v>
@@ -25856,7 +25862,7 @@
         <v>82</v>
       </c>
       <c r="P130" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q130">
         <v>9</v>
@@ -26238,7 +26244,7 @@
         <v>82</v>
       </c>
       <c r="P132" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q132">
         <v>6</v>
@@ -26429,7 +26435,7 @@
         <v>179</v>
       </c>
       <c r="P133" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q133">
         <v>10</v>
@@ -26571,6 +26577,388 @@
       </c>
       <c r="BK133">
         <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:63">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>5396316</v>
+      </c>
+      <c r="C134" t="s">
+        <v>63</v>
+      </c>
+      <c r="D134" t="s">
+        <v>64</v>
+      </c>
+      <c r="E134" s="2">
+        <v>44981.66666666666</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134" t="s">
+        <v>65</v>
+      </c>
+      <c r="H134" t="s">
+        <v>66</v>
+      </c>
+      <c r="I134">
+        <v>2</v>
+      </c>
+      <c r="J134">
+        <v>1</v>
+      </c>
+      <c r="K134">
+        <v>3</v>
+      </c>
+      <c r="L134">
+        <v>2</v>
+      </c>
+      <c r="M134">
+        <v>1</v>
+      </c>
+      <c r="N134">
+        <v>3</v>
+      </c>
+      <c r="O134" t="s">
+        <v>180</v>
+      </c>
+      <c r="P134" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q134">
+        <v>7</v>
+      </c>
+      <c r="R134">
+        <v>8</v>
+      </c>
+      <c r="S134">
+        <v>15</v>
+      </c>
+      <c r="T134">
+        <v>2.8</v>
+      </c>
+      <c r="U134">
+        <v>2.15</v>
+      </c>
+      <c r="V134">
+        <v>3.4</v>
+      </c>
+      <c r="W134">
+        <v>1.35</v>
+      </c>
+      <c r="X134">
+        <v>2.95</v>
+      </c>
+      <c r="Y134">
+        <v>2.6</v>
+      </c>
+      <c r="Z134">
+        <v>1.45</v>
+      </c>
+      <c r="AA134">
+        <v>5.75</v>
+      </c>
+      <c r="AB134">
+        <v>1.1</v>
+      </c>
+      <c r="AC134">
+        <v>2.2</v>
+      </c>
+      <c r="AD134">
+        <v>3.21</v>
+      </c>
+      <c r="AE134">
+        <v>2.82</v>
+      </c>
+      <c r="AF134">
+        <v>1.04</v>
+      </c>
+      <c r="AG134">
+        <v>13.25</v>
+      </c>
+      <c r="AH134">
+        <v>1.23</v>
+      </c>
+      <c r="AI134">
+        <v>3.73</v>
+      </c>
+      <c r="AJ134">
+        <v>1.78</v>
+      </c>
+      <c r="AK134">
+        <v>2</v>
+      </c>
+      <c r="AL134">
+        <v>1.62</v>
+      </c>
+      <c r="AM134">
+        <v>2.15</v>
+      </c>
+      <c r="AN134">
+        <v>1.35</v>
+      </c>
+      <c r="AO134">
+        <v>1.27</v>
+      </c>
+      <c r="AP134">
+        <v>1.58</v>
+      </c>
+      <c r="AQ134">
+        <v>0.55</v>
+      </c>
+      <c r="AR134">
+        <v>0.82</v>
+      </c>
+      <c r="AS134">
+        <v>0.75</v>
+      </c>
+      <c r="AT134">
+        <v>0.75</v>
+      </c>
+      <c r="AU134">
+        <v>1.58</v>
+      </c>
+      <c r="AV134">
+        <v>1.34</v>
+      </c>
+      <c r="AW134">
+        <v>2.92</v>
+      </c>
+      <c r="AX134">
+        <v>1.85</v>
+      </c>
+      <c r="AY134">
+        <v>7.1</v>
+      </c>
+      <c r="AZ134">
+        <v>2.38</v>
+      </c>
+      <c r="BA134">
+        <v>1.51</v>
+      </c>
+      <c r="BB134">
+        <v>1.88</v>
+      </c>
+      <c r="BC134">
+        <v>2.38</v>
+      </c>
+      <c r="BD134">
+        <v>3.2</v>
+      </c>
+      <c r="BE134">
+        <v>4.4</v>
+      </c>
+      <c r="BF134">
+        <v>3</v>
+      </c>
+      <c r="BG134">
+        <v>5</v>
+      </c>
+      <c r="BH134">
+        <v>4</v>
+      </c>
+      <c r="BI134">
+        <v>5</v>
+      </c>
+      <c r="BJ134">
+        <v>7</v>
+      </c>
+      <c r="BK134">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:63">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>5396317</v>
+      </c>
+      <c r="C135" t="s">
+        <v>63</v>
+      </c>
+      <c r="D135" t="s">
+        <v>64</v>
+      </c>
+      <c r="E135" s="2">
+        <v>44981.66666666666</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135" t="s">
+        <v>72</v>
+      </c>
+      <c r="H135" t="s">
+        <v>75</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>1</v>
+      </c>
+      <c r="O135" t="s">
+        <v>181</v>
+      </c>
+      <c r="P135" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q135">
+        <v>3</v>
+      </c>
+      <c r="R135">
+        <v>5</v>
+      </c>
+      <c r="S135">
+        <v>8</v>
+      </c>
+      <c r="T135">
+        <v>0</v>
+      </c>
+      <c r="U135">
+        <v>0</v>
+      </c>
+      <c r="V135">
+        <v>0</v>
+      </c>
+      <c r="W135">
+        <v>0</v>
+      </c>
+      <c r="X135">
+        <v>0</v>
+      </c>
+      <c r="Y135">
+        <v>0</v>
+      </c>
+      <c r="Z135">
+        <v>0</v>
+      </c>
+      <c r="AA135">
+        <v>0</v>
+      </c>
+      <c r="AB135">
+        <v>0</v>
+      </c>
+      <c r="AC135">
+        <v>2.84</v>
+      </c>
+      <c r="AD135">
+        <v>3.19</v>
+      </c>
+      <c r="AE135">
+        <v>2.2</v>
+      </c>
+      <c r="AF135">
+        <v>0</v>
+      </c>
+      <c r="AG135">
+        <v>0</v>
+      </c>
+      <c r="AH135">
+        <v>0</v>
+      </c>
+      <c r="AI135">
+        <v>0</v>
+      </c>
+      <c r="AJ135">
+        <v>1.89</v>
+      </c>
+      <c r="AK135">
+        <v>1.95</v>
+      </c>
+      <c r="AL135">
+        <v>0</v>
+      </c>
+      <c r="AM135">
+        <v>0</v>
+      </c>
+      <c r="AN135">
+        <v>0</v>
+      </c>
+      <c r="AO135">
+        <v>0</v>
+      </c>
+      <c r="AP135">
+        <v>0</v>
+      </c>
+      <c r="AQ135">
+        <v>0.73</v>
+      </c>
+      <c r="AR135">
+        <v>1.73</v>
+      </c>
+      <c r="AS135">
+        <v>0.92</v>
+      </c>
+      <c r="AT135">
+        <v>1.58</v>
+      </c>
+      <c r="AU135">
+        <v>1.56</v>
+      </c>
+      <c r="AV135">
+        <v>1.29</v>
+      </c>
+      <c r="AW135">
+        <v>2.85</v>
+      </c>
+      <c r="AX135">
+        <v>0</v>
+      </c>
+      <c r="AY135">
+        <v>0</v>
+      </c>
+      <c r="AZ135">
+        <v>0</v>
+      </c>
+      <c r="BA135">
+        <v>0</v>
+      </c>
+      <c r="BB135">
+        <v>0</v>
+      </c>
+      <c r="BC135">
+        <v>0</v>
+      </c>
+      <c r="BD135">
+        <v>0</v>
+      </c>
+      <c r="BE135">
+        <v>0</v>
+      </c>
+      <c r="BF135">
+        <v>7</v>
+      </c>
+      <c r="BG135">
+        <v>9</v>
+      </c>
+      <c r="BH135">
+        <v>4</v>
+      </c>
+      <c r="BI135">
+        <v>3</v>
+      </c>
+      <c r="BJ135">
+        <v>11</v>
+      </c>
+      <c r="BK135">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="267">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -562,6 +562,9 @@
     <t>['51']</t>
   </si>
   <si>
+    <t>['39', '74', '90+2']</t>
+  </si>
+  <si>
     <t>['12', '15', '69', '90+3']</t>
   </si>
   <si>
@@ -809,6 +812,9 @@
   </si>
   <si>
     <t>['29', '79']</t>
+  </si>
+  <si>
+    <t>['37', '76', '89']</t>
   </si>
 </sst>
 </file>
@@ -1170,7 +1176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK135"/>
+  <dimension ref="A1:BK137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1414,7 +1420,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1605,7 +1611,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -1886,7 +1892,7 @@
         <v>1.73</v>
       </c>
       <c r="AT4">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1987,7 +1993,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -2074,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT5">
         <v>1</v>
@@ -2178,7 +2184,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2560,7 +2566,7 @@
         <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2647,10 +2653,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT8">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2751,7 +2757,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2942,7 +2948,7 @@
         <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3324,7 +3330,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3515,7 +3521,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3897,7 +3903,7 @@
         <v>82</v>
       </c>
       <c r="P15" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q15">
         <v>9</v>
@@ -4088,7 +4094,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -4178,7 +4184,7 @@
         <v>1.27</v>
       </c>
       <c r="AT16">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU16">
         <v>1.51</v>
@@ -4279,7 +4285,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4366,7 +4372,7 @@
         <v>1</v>
       </c>
       <c r="AS17">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT17">
         <v>0.75</v>
@@ -4470,7 +4476,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q18">
         <v>9</v>
@@ -4557,7 +4563,7 @@
         <v>1</v>
       </c>
       <c r="AS18">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT18">
         <v>1.82</v>
@@ -4661,7 +4667,7 @@
         <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q19">
         <v>7</v>
@@ -4852,7 +4858,7 @@
         <v>92</v>
       </c>
       <c r="P20" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -5043,7 +5049,7 @@
         <v>93</v>
       </c>
       <c r="P21" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -5133,7 +5139,7 @@
         <v>0.92</v>
       </c>
       <c r="AT21">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU21">
         <v>1.07</v>
@@ -5234,7 +5240,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -5321,7 +5327,7 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT22">
         <v>1.73</v>
@@ -5616,7 +5622,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q24">
         <v>2</v>
@@ -5807,7 +5813,7 @@
         <v>82</v>
       </c>
       <c r="P25" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5897,7 +5903,7 @@
         <v>1.18</v>
       </c>
       <c r="AT25">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU25">
         <v>1.76</v>
@@ -5998,7 +6004,7 @@
         <v>97</v>
       </c>
       <c r="P26" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -6189,7 +6195,7 @@
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6380,7 +6386,7 @@
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6571,7 +6577,7 @@
         <v>99</v>
       </c>
       <c r="P29" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -6762,7 +6768,7 @@
         <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6953,7 +6959,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7040,7 +7046,7 @@
         <v>0.5</v>
       </c>
       <c r="AS31">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT31">
         <v>1.82</v>
@@ -7144,7 +7150,7 @@
         <v>82</v>
       </c>
       <c r="P32" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q32">
         <v>7</v>
@@ -7231,7 +7237,7 @@
         <v>0.5</v>
       </c>
       <c r="AS32">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT32">
         <v>1.18</v>
@@ -7335,7 +7341,7 @@
         <v>101</v>
       </c>
       <c r="P33" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7526,7 +7532,7 @@
         <v>102</v>
       </c>
       <c r="P34" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7613,10 +7619,10 @@
         <v>1.33</v>
       </c>
       <c r="AS34">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT34">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU34">
         <v>0.82</v>
@@ -7717,7 +7723,7 @@
         <v>103</v>
       </c>
       <c r="P35" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q35">
         <v>14</v>
@@ -7807,7 +7813,7 @@
         <v>2.36</v>
       </c>
       <c r="AT35">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU35">
         <v>1.47</v>
@@ -7908,7 +7914,7 @@
         <v>79</v>
       </c>
       <c r="P36" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q36">
         <v>1</v>
@@ -8290,7 +8296,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q38">
         <v>7</v>
@@ -8481,7 +8487,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -9245,7 +9251,7 @@
         <v>108</v>
       </c>
       <c r="P43" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q43">
         <v>1</v>
@@ -9436,7 +9442,7 @@
         <v>82</v>
       </c>
       <c r="P44" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q44">
         <v>9</v>
@@ -9526,7 +9532,7 @@
         <v>0.75</v>
       </c>
       <c r="AT44">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU44">
         <v>1.81</v>
@@ -9627,7 +9633,7 @@
         <v>109</v>
       </c>
       <c r="P45" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q45">
         <v>8</v>
@@ -9905,7 +9911,7 @@
         <v>3</v>
       </c>
       <c r="AS46">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT46">
         <v>1.58</v>
@@ -10391,7 +10397,7 @@
         <v>113</v>
       </c>
       <c r="P49" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10478,10 +10484,10 @@
         <v>0.67</v>
       </c>
       <c r="AS49">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT49">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU49">
         <v>0.75</v>
@@ -10582,7 +10588,7 @@
         <v>114</v>
       </c>
       <c r="P50" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q50">
         <v>1</v>
@@ -10773,7 +10779,7 @@
         <v>115</v>
       </c>
       <c r="P51" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11155,7 +11161,7 @@
         <v>116</v>
       </c>
       <c r="P53" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q53">
         <v>10</v>
@@ -11346,7 +11352,7 @@
         <v>117</v>
       </c>
       <c r="P54" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11537,7 +11543,7 @@
         <v>118</v>
       </c>
       <c r="P55" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12006,7 +12012,7 @@
         <v>0.25</v>
       </c>
       <c r="AS57">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT57">
         <v>1</v>
@@ -12110,7 +12116,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12301,7 +12307,7 @@
         <v>82</v>
       </c>
       <c r="P59" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12492,7 +12498,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12582,7 +12588,7 @@
         <v>2.36</v>
       </c>
       <c r="AT60">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU60">
         <v>1.74</v>
@@ -12683,7 +12689,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -12874,7 +12880,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -12961,7 +12967,7 @@
         <v>1.4</v>
       </c>
       <c r="AS62">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT62">
         <v>1</v>
@@ -13256,7 +13262,7 @@
         <v>126</v>
       </c>
       <c r="P64" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q64">
         <v>6</v>
@@ -13447,7 +13453,7 @@
         <v>127</v>
       </c>
       <c r="P65" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13919,7 +13925,7 @@
         <v>2.36</v>
       </c>
       <c r="AT67">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU67">
         <v>1.91</v>
@@ -14211,7 +14217,7 @@
         <v>82</v>
       </c>
       <c r="P69" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q69">
         <v>2</v>
@@ -14402,7 +14408,7 @@
         <v>82</v>
       </c>
       <c r="P70" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14784,7 +14790,7 @@
         <v>131</v>
       </c>
       <c r="P72" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -14975,7 +14981,7 @@
         <v>132</v>
       </c>
       <c r="P73" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -15065,7 +15071,7 @@
         <v>2</v>
       </c>
       <c r="AT73">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU73">
         <v>1.89</v>
@@ -15166,7 +15172,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q74">
         <v>2</v>
@@ -15253,7 +15259,7 @@
         <v>2.17</v>
       </c>
       <c r="AS74">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT74">
         <v>1.82</v>
@@ -15357,7 +15363,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q75">
         <v>2</v>
@@ -15930,7 +15936,7 @@
         <v>136</v>
       </c>
       <c r="P78" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q78">
         <v>1</v>
@@ -16020,7 +16026,7 @@
         <v>2</v>
       </c>
       <c r="AT78">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU78">
         <v>1.91</v>
@@ -16312,7 +16318,7 @@
         <v>82</v>
       </c>
       <c r="P80" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q80">
         <v>2</v>
@@ -16503,7 +16509,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -16593,7 +16599,7 @@
         <v>1.18</v>
       </c>
       <c r="AT81">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU81">
         <v>1.74</v>
@@ -16885,7 +16891,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17163,7 +17169,7 @@
         <v>1.17</v>
       </c>
       <c r="AS84">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT84">
         <v>1.27</v>
@@ -17736,7 +17742,7 @@
         <v>1.71</v>
       </c>
       <c r="AS87">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT87">
         <v>1.18</v>
@@ -17840,7 +17846,7 @@
         <v>145</v>
       </c>
       <c r="P88" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q88">
         <v>6</v>
@@ -18031,7 +18037,7 @@
         <v>146</v>
       </c>
       <c r="P89" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18222,7 +18228,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q90">
         <v>9</v>
@@ -18413,7 +18419,7 @@
         <v>148</v>
       </c>
       <c r="P91" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q91">
         <v>6</v>
@@ -18694,7 +18700,7 @@
         <v>1.27</v>
       </c>
       <c r="AT92">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU92">
         <v>1.73</v>
@@ -18795,7 +18801,7 @@
         <v>150</v>
       </c>
       <c r="P93" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q93">
         <v>9</v>
@@ -18986,7 +18992,7 @@
         <v>82</v>
       </c>
       <c r="P94" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -19177,7 +19183,7 @@
         <v>82</v>
       </c>
       <c r="P95" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q95">
         <v>10</v>
@@ -19368,7 +19374,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19559,7 +19565,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19646,10 +19652,10 @@
         <v>1.57</v>
       </c>
       <c r="AS97">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT97">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU97">
         <v>1.27</v>
@@ -19750,7 +19756,7 @@
         <v>153</v>
       </c>
       <c r="P98" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -19941,7 +19947,7 @@
         <v>154</v>
       </c>
       <c r="P99" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q99">
         <v>7</v>
@@ -20132,7 +20138,7 @@
         <v>155</v>
       </c>
       <c r="P100" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -20986,7 +20992,7 @@
         <v>0.45</v>
       </c>
       <c r="AT104">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU104">
         <v>1.16</v>
@@ -21087,7 +21093,7 @@
         <v>82</v>
       </c>
       <c r="P105" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q105">
         <v>6</v>
@@ -21278,7 +21284,7 @@
         <v>159</v>
       </c>
       <c r="P106" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -21469,7 +21475,7 @@
         <v>160</v>
       </c>
       <c r="P107" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q107">
         <v>2</v>
@@ -21556,7 +21562,7 @@
         <v>2.38</v>
       </c>
       <c r="AS107">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT107">
         <v>1.73</v>
@@ -21660,7 +21666,7 @@
         <v>161</v>
       </c>
       <c r="P108" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q108">
         <v>2</v>
@@ -21747,7 +21753,7 @@
         <v>2</v>
       </c>
       <c r="AS108">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT108">
         <v>1.58</v>
@@ -21851,7 +21857,7 @@
         <v>162</v>
       </c>
       <c r="P109" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -22042,7 +22048,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22424,7 +22430,7 @@
         <v>165</v>
       </c>
       <c r="P112" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q112">
         <v>11</v>
@@ -22705,7 +22711,7 @@
         <v>0.75</v>
       </c>
       <c r="AT113">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU113">
         <v>1.6</v>
@@ -22806,7 +22812,7 @@
         <v>166</v>
       </c>
       <c r="P114" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q114">
         <v>8</v>
@@ -22893,7 +22899,7 @@
         <v>1.22</v>
       </c>
       <c r="AS114">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT114">
         <v>1.09</v>
@@ -22997,7 +23003,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -23087,7 +23093,7 @@
         <v>1.73</v>
       </c>
       <c r="AT115">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU115">
         <v>2.05</v>
@@ -23188,7 +23194,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -23570,7 +23576,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -23761,7 +23767,7 @@
         <v>170</v>
       </c>
       <c r="P119" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q119">
         <v>5</v>
@@ -23851,7 +23857,7 @@
         <v>0.92</v>
       </c>
       <c r="AT119">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU119">
         <v>1.49</v>
@@ -24039,7 +24045,7 @@
         <v>1.22</v>
       </c>
       <c r="AS120">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT120">
         <v>1.27</v>
@@ -24143,7 +24149,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24334,7 +24340,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q122">
         <v>5</v>
@@ -24424,7 +24430,7 @@
         <v>1.09</v>
       </c>
       <c r="AT122">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU122">
         <v>1.34</v>
@@ -24525,7 +24531,7 @@
         <v>174</v>
       </c>
       <c r="P123" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q123">
         <v>7</v>
@@ -24994,7 +25000,7 @@
         <v>0.9</v>
       </c>
       <c r="AS125">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT125">
         <v>0.75</v>
@@ -25289,7 +25295,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q127">
         <v>5</v>
@@ -25480,7 +25486,7 @@
         <v>178</v>
       </c>
       <c r="P128" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q128">
         <v>5</v>
@@ -25567,7 +25573,7 @@
         <v>1.7</v>
       </c>
       <c r="AS128">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT128">
         <v>1.82</v>
@@ -25862,7 +25868,7 @@
         <v>82</v>
       </c>
       <c r="P130" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q130">
         <v>9</v>
@@ -26143,7 +26149,7 @@
         <v>0.45</v>
       </c>
       <c r="AT131">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU131">
         <v>1.17</v>
@@ -26244,7 +26250,7 @@
         <v>82</v>
       </c>
       <c r="P132" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q132">
         <v>6</v>
@@ -26435,7 +26441,7 @@
         <v>179</v>
       </c>
       <c r="P133" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q133">
         <v>10</v>
@@ -26959,6 +26965,388 @@
       </c>
       <c r="BK135">
         <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:63">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>5396318</v>
+      </c>
+      <c r="C136" t="s">
+        <v>63</v>
+      </c>
+      <c r="D136" t="s">
+        <v>64</v>
+      </c>
+      <c r="E136" s="2">
+        <v>44982.5</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136" t="s">
+        <v>71</v>
+      </c>
+      <c r="H136" t="s">
+        <v>69</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+      <c r="M136">
+        <v>3</v>
+      </c>
+      <c r="N136">
+        <v>4</v>
+      </c>
+      <c r="O136" t="s">
+        <v>115</v>
+      </c>
+      <c r="P136" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q136">
+        <v>3</v>
+      </c>
+      <c r="R136">
+        <v>4</v>
+      </c>
+      <c r="S136">
+        <v>7</v>
+      </c>
+      <c r="T136">
+        <v>0</v>
+      </c>
+      <c r="U136">
+        <v>0</v>
+      </c>
+      <c r="V136">
+        <v>0</v>
+      </c>
+      <c r="W136">
+        <v>0</v>
+      </c>
+      <c r="X136">
+        <v>0</v>
+      </c>
+      <c r="Y136">
+        <v>0</v>
+      </c>
+      <c r="Z136">
+        <v>0</v>
+      </c>
+      <c r="AA136">
+        <v>0</v>
+      </c>
+      <c r="AB136">
+        <v>0</v>
+      </c>
+      <c r="AC136">
+        <v>1.94</v>
+      </c>
+      <c r="AD136">
+        <v>3.5</v>
+      </c>
+      <c r="AE136">
+        <v>3.15</v>
+      </c>
+      <c r="AF136">
+        <v>0</v>
+      </c>
+      <c r="AG136">
+        <v>0</v>
+      </c>
+      <c r="AH136">
+        <v>0</v>
+      </c>
+      <c r="AI136">
+        <v>0</v>
+      </c>
+      <c r="AJ136">
+        <v>1.62</v>
+      </c>
+      <c r="AK136">
+        <v>2.23</v>
+      </c>
+      <c r="AL136">
+        <v>0</v>
+      </c>
+      <c r="AM136">
+        <v>0</v>
+      </c>
+      <c r="AN136">
+        <v>0</v>
+      </c>
+      <c r="AO136">
+        <v>0</v>
+      </c>
+      <c r="AP136">
+        <v>0</v>
+      </c>
+      <c r="AQ136">
+        <v>1.73</v>
+      </c>
+      <c r="AR136">
+        <v>0.73</v>
+      </c>
+      <c r="AS136">
+        <v>1.58</v>
+      </c>
+      <c r="AT136">
+        <v>0.92</v>
+      </c>
+      <c r="AU136">
+        <v>1.37</v>
+      </c>
+      <c r="AV136">
+        <v>1.54</v>
+      </c>
+      <c r="AW136">
+        <v>2.91</v>
+      </c>
+      <c r="AX136">
+        <v>0</v>
+      </c>
+      <c r="AY136">
+        <v>0</v>
+      </c>
+      <c r="AZ136">
+        <v>0</v>
+      </c>
+      <c r="BA136">
+        <v>0</v>
+      </c>
+      <c r="BB136">
+        <v>0</v>
+      </c>
+      <c r="BC136">
+        <v>0</v>
+      </c>
+      <c r="BD136">
+        <v>0</v>
+      </c>
+      <c r="BE136">
+        <v>0</v>
+      </c>
+      <c r="BF136">
+        <v>5</v>
+      </c>
+      <c r="BG136">
+        <v>6</v>
+      </c>
+      <c r="BH136">
+        <v>7</v>
+      </c>
+      <c r="BI136">
+        <v>5</v>
+      </c>
+      <c r="BJ136">
+        <v>12</v>
+      </c>
+      <c r="BK136">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:63">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>5396319</v>
+      </c>
+      <c r="C137" t="s">
+        <v>63</v>
+      </c>
+      <c r="D137" t="s">
+        <v>64</v>
+      </c>
+      <c r="E137" s="2">
+        <v>44982.66666666666</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="G137" t="s">
+        <v>68</v>
+      </c>
+      <c r="H137" t="s">
+        <v>73</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137">
+        <v>3</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>3</v>
+      </c>
+      <c r="O137" t="s">
+        <v>182</v>
+      </c>
+      <c r="P137" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q137">
+        <v>2</v>
+      </c>
+      <c r="R137">
+        <v>6</v>
+      </c>
+      <c r="S137">
+        <v>8</v>
+      </c>
+      <c r="T137">
+        <v>0</v>
+      </c>
+      <c r="U137">
+        <v>0</v>
+      </c>
+      <c r="V137">
+        <v>0</v>
+      </c>
+      <c r="W137">
+        <v>0</v>
+      </c>
+      <c r="X137">
+        <v>0</v>
+      </c>
+      <c r="Y137">
+        <v>0</v>
+      </c>
+      <c r="Z137">
+        <v>0</v>
+      </c>
+      <c r="AA137">
+        <v>0</v>
+      </c>
+      <c r="AB137">
+        <v>0</v>
+      </c>
+      <c r="AC137">
+        <v>3.05</v>
+      </c>
+      <c r="AD137">
+        <v>3.45</v>
+      </c>
+      <c r="AE137">
+        <v>2.05</v>
+      </c>
+      <c r="AF137">
+        <v>0</v>
+      </c>
+      <c r="AG137">
+        <v>0</v>
+      </c>
+      <c r="AH137">
+        <v>0</v>
+      </c>
+      <c r="AI137">
+        <v>0</v>
+      </c>
+      <c r="AJ137">
+        <v>1.52</v>
+      </c>
+      <c r="AK137">
+        <v>2.36</v>
+      </c>
+      <c r="AL137">
+        <v>0</v>
+      </c>
+      <c r="AM137">
+        <v>0</v>
+      </c>
+      <c r="AN137">
+        <v>0</v>
+      </c>
+      <c r="AO137">
+        <v>0</v>
+      </c>
+      <c r="AP137">
+        <v>0</v>
+      </c>
+      <c r="AQ137">
+        <v>2.18</v>
+      </c>
+      <c r="AR137">
+        <v>1.55</v>
+      </c>
+      <c r="AS137">
+        <v>2.25</v>
+      </c>
+      <c r="AT137">
+        <v>1.42</v>
+      </c>
+      <c r="AU137">
+        <v>1.22</v>
+      </c>
+      <c r="AV137">
+        <v>1.73</v>
+      </c>
+      <c r="AW137">
+        <v>2.95</v>
+      </c>
+      <c r="AX137">
+        <v>0</v>
+      </c>
+      <c r="AY137">
+        <v>0</v>
+      </c>
+      <c r="AZ137">
+        <v>0</v>
+      </c>
+      <c r="BA137">
+        <v>0</v>
+      </c>
+      <c r="BB137">
+        <v>0</v>
+      </c>
+      <c r="BC137">
+        <v>0</v>
+      </c>
+      <c r="BD137">
+        <v>0</v>
+      </c>
+      <c r="BE137">
+        <v>0</v>
+      </c>
+      <c r="BF137">
+        <v>3</v>
+      </c>
+      <c r="BG137">
+        <v>3</v>
+      </c>
+      <c r="BH137">
+        <v>5</v>
+      </c>
+      <c r="BI137">
+        <v>6</v>
+      </c>
+      <c r="BJ137">
+        <v>8</v>
+      </c>
+      <c r="BK137">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="268">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -563,6 +563,9 @@
   </si>
   <si>
     <t>['39', '74', '90+2']</t>
+  </si>
+  <si>
+    <t>['47', '57', '83']</t>
   </si>
   <si>
     <t>['12', '15', '69', '90+3']</t>
@@ -1176,7 +1179,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK137"/>
+  <dimension ref="A1:BK139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1420,7 +1423,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1611,7 +1614,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -1889,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT4">
         <v>1.42</v>
@@ -1993,7 +1996,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -2184,7 +2187,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2274,7 +2277,7 @@
         <v>1.09</v>
       </c>
       <c r="AT6">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2566,7 +2569,7 @@
         <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2757,7 +2760,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2948,7 +2951,7 @@
         <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3226,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT11">
         <v>1.18</v>
@@ -3330,7 +3333,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3420,7 +3423,7 @@
         <v>1.18</v>
       </c>
       <c r="AT12">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3521,7 +3524,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3903,7 +3906,7 @@
         <v>82</v>
       </c>
       <c r="P15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q15">
         <v>9</v>
@@ -4094,7 +4097,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -4285,7 +4288,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4476,7 +4479,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q18">
         <v>9</v>
@@ -4667,7 +4670,7 @@
         <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q19">
         <v>7</v>
@@ -4754,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT19">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU19">
         <v>2.18</v>
@@ -4858,7 +4861,7 @@
         <v>92</v>
       </c>
       <c r="P20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -4945,10 +4948,10 @@
         <v>3</v>
       </c>
       <c r="AS20">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT20">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU20">
         <v>1.76</v>
@@ -5049,7 +5052,7 @@
         <v>93</v>
       </c>
       <c r="P21" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -5240,7 +5243,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -5622,7 +5625,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q24">
         <v>2</v>
@@ -5813,7 +5816,7 @@
         <v>82</v>
       </c>
       <c r="P25" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -6004,7 +6007,7 @@
         <v>97</v>
       </c>
       <c r="P26" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -6094,7 +6097,7 @@
         <v>0.75</v>
       </c>
       <c r="AT26">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU26">
         <v>1.88</v>
@@ -6195,7 +6198,7 @@
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6282,7 +6285,7 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT27">
         <v>1.58</v>
@@ -6386,7 +6389,7 @@
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6577,7 +6580,7 @@
         <v>99</v>
       </c>
       <c r="P29" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -6768,7 +6771,7 @@
         <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6959,7 +6962,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7150,7 +7153,7 @@
         <v>82</v>
       </c>
       <c r="P32" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q32">
         <v>7</v>
@@ -7341,7 +7344,7 @@
         <v>101</v>
       </c>
       <c r="P33" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7431,7 +7434,7 @@
         <v>2</v>
       </c>
       <c r="AT33">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU33">
         <v>1.95</v>
@@ -7532,7 +7535,7 @@
         <v>102</v>
       </c>
       <c r="P34" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7723,7 +7726,7 @@
         <v>103</v>
       </c>
       <c r="P35" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q35">
         <v>14</v>
@@ -7810,7 +7813,7 @@
         <v>0.5</v>
       </c>
       <c r="AS35">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT35">
         <v>0.92</v>
@@ -7914,7 +7917,7 @@
         <v>79</v>
       </c>
       <c r="P36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q36">
         <v>1</v>
@@ -8296,7 +8299,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q38">
         <v>7</v>
@@ -8487,7 +8490,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8956,7 +8959,7 @@
         <v>0.5</v>
       </c>
       <c r="AS41">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT41">
         <v>1</v>
@@ -9150,7 +9153,7 @@
         <v>2.36</v>
       </c>
       <c r="AT42">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU42">
         <v>1.65</v>
@@ -9251,7 +9254,7 @@
         <v>108</v>
       </c>
       <c r="P43" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q43">
         <v>1</v>
@@ -9341,7 +9344,7 @@
         <v>0.92</v>
       </c>
       <c r="AT43">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU43">
         <v>1.14</v>
@@ -9442,7 +9445,7 @@
         <v>82</v>
       </c>
       <c r="P44" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q44">
         <v>9</v>
@@ -9633,7 +9636,7 @@
         <v>109</v>
       </c>
       <c r="P45" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q45">
         <v>8</v>
@@ -10102,7 +10105,7 @@
         <v>2.33</v>
       </c>
       <c r="AS47">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT47">
         <v>1.73</v>
@@ -10397,7 +10400,7 @@
         <v>113</v>
       </c>
       <c r="P49" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10588,7 +10591,7 @@
         <v>114</v>
       </c>
       <c r="P50" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q50">
         <v>1</v>
@@ -10779,7 +10782,7 @@
         <v>115</v>
       </c>
       <c r="P51" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11060,7 +11063,7 @@
         <v>0.45</v>
       </c>
       <c r="AT52">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU52">
         <v>1.19</v>
@@ -11161,7 +11164,7 @@
         <v>116</v>
       </c>
       <c r="P53" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q53">
         <v>10</v>
@@ -11352,7 +11355,7 @@
         <v>117</v>
       </c>
       <c r="P54" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11442,7 +11445,7 @@
         <v>1.09</v>
       </c>
       <c r="AT54">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU54">
         <v>1.36</v>
@@ -11543,7 +11546,7 @@
         <v>118</v>
       </c>
       <c r="P55" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -11630,7 +11633,7 @@
         <v>1.75</v>
       </c>
       <c r="AS55">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT55">
         <v>1.18</v>
@@ -12116,7 +12119,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12307,7 +12310,7 @@
         <v>82</v>
       </c>
       <c r="P59" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12498,7 +12501,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12585,7 +12588,7 @@
         <v>1.6</v>
       </c>
       <c r="AS60">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT60">
         <v>1.42</v>
@@ -12689,7 +12692,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -12880,7 +12883,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13262,7 +13265,7 @@
         <v>126</v>
       </c>
       <c r="P64" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q64">
         <v>6</v>
@@ -13453,7 +13456,7 @@
         <v>127</v>
       </c>
       <c r="P65" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13540,10 +13543,10 @@
         <v>2</v>
       </c>
       <c r="AS65">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT65">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU65">
         <v>1.87</v>
@@ -13731,10 +13734,10 @@
         <v>1.4</v>
       </c>
       <c r="AS66">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT66">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU66">
         <v>1.62</v>
@@ -14217,7 +14220,7 @@
         <v>82</v>
       </c>
       <c r="P69" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q69">
         <v>2</v>
@@ -14408,7 +14411,7 @@
         <v>82</v>
       </c>
       <c r="P70" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14790,7 +14793,7 @@
         <v>131</v>
       </c>
       <c r="P72" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -14981,7 +14984,7 @@
         <v>132</v>
       </c>
       <c r="P73" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -15172,7 +15175,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q74">
         <v>2</v>
@@ -15262,7 +15265,7 @@
         <v>2.25</v>
       </c>
       <c r="AT74">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU74">
         <v>1.14</v>
@@ -15363,7 +15366,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q75">
         <v>2</v>
@@ -15832,7 +15835,7 @@
         <v>0.83</v>
       </c>
       <c r="AS77">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT77">
         <v>0.75</v>
@@ -15936,7 +15939,7 @@
         <v>136</v>
       </c>
       <c r="P78" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q78">
         <v>1</v>
@@ -16214,7 +16217,7 @@
         <v>1.8</v>
       </c>
       <c r="AS79">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT79">
         <v>1.58</v>
@@ -16318,7 +16321,7 @@
         <v>82</v>
       </c>
       <c r="P80" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q80">
         <v>2</v>
@@ -16509,7 +16512,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -16787,7 +16790,7 @@
         <v>0.83</v>
       </c>
       <c r="AS82">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT82">
         <v>1.09</v>
@@ -16891,7 +16894,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17172,7 +17175,7 @@
         <v>1.58</v>
       </c>
       <c r="AT84">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU84">
         <v>1.21</v>
@@ -17363,7 +17366,7 @@
         <v>0.75</v>
       </c>
       <c r="AT85">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU85">
         <v>1.72</v>
@@ -17846,7 +17849,7 @@
         <v>145</v>
       </c>
       <c r="P88" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q88">
         <v>6</v>
@@ -18037,7 +18040,7 @@
         <v>146</v>
       </c>
       <c r="P89" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18228,7 +18231,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q90">
         <v>9</v>
@@ -18419,7 +18422,7 @@
         <v>148</v>
       </c>
       <c r="P91" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q91">
         <v>6</v>
@@ -18801,7 +18804,7 @@
         <v>150</v>
       </c>
       <c r="P93" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q93">
         <v>9</v>
@@ -18891,7 +18894,7 @@
         <v>0.92</v>
       </c>
       <c r="AT93">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU93">
         <v>1.35</v>
@@ -18992,7 +18995,7 @@
         <v>82</v>
       </c>
       <c r="P94" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -19183,7 +19186,7 @@
         <v>82</v>
       </c>
       <c r="P95" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q95">
         <v>10</v>
@@ -19270,7 +19273,7 @@
         <v>0.71</v>
       </c>
       <c r="AS95">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT95">
         <v>1.09</v>
@@ -19374,7 +19377,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19565,7 +19568,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19756,7 +19759,7 @@
         <v>153</v>
       </c>
       <c r="P98" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -19846,7 +19849,7 @@
         <v>2.36</v>
       </c>
       <c r="AT98">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU98">
         <v>1.83</v>
@@ -19947,7 +19950,7 @@
         <v>154</v>
       </c>
       <c r="P99" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q99">
         <v>7</v>
@@ -20138,7 +20141,7 @@
         <v>155</v>
       </c>
       <c r="P100" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -20416,7 +20419,7 @@
         <v>0.75</v>
       </c>
       <c r="AS101">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT101">
         <v>0.75</v>
@@ -20607,7 +20610,7 @@
         <v>1.25</v>
       </c>
       <c r="AS102">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT102">
         <v>1</v>
@@ -21093,7 +21096,7 @@
         <v>82</v>
       </c>
       <c r="P105" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q105">
         <v>6</v>
@@ -21284,7 +21287,7 @@
         <v>159</v>
       </c>
       <c r="P106" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -21475,7 +21478,7 @@
         <v>160</v>
       </c>
       <c r="P107" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q107">
         <v>2</v>
@@ -21666,7 +21669,7 @@
         <v>161</v>
       </c>
       <c r="P108" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q108">
         <v>2</v>
@@ -21857,7 +21860,7 @@
         <v>162</v>
       </c>
       <c r="P109" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -21944,7 +21947,7 @@
         <v>0.89</v>
       </c>
       <c r="AS109">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT109">
         <v>1</v>
@@ -22048,7 +22051,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22430,7 +22433,7 @@
         <v>165</v>
       </c>
       <c r="P112" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q112">
         <v>11</v>
@@ -22520,7 +22523,7 @@
         <v>1.27</v>
       </c>
       <c r="AT112">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU112">
         <v>1.66</v>
@@ -22812,7 +22815,7 @@
         <v>166</v>
       </c>
       <c r="P114" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q114">
         <v>8</v>
@@ -23003,7 +23006,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -23090,7 +23093,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS115">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT115">
         <v>0.92</v>
@@ -23194,7 +23197,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -23284,7 +23287,7 @@
         <v>0.45</v>
       </c>
       <c r="AT116">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU116">
         <v>1.14</v>
@@ -23576,7 +23579,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -23767,7 +23770,7 @@
         <v>170</v>
       </c>
       <c r="P119" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q119">
         <v>5</v>
@@ -24048,7 +24051,7 @@
         <v>2.25</v>
       </c>
       <c r="AT120">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU120">
         <v>1.33</v>
@@ -24149,7 +24152,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24340,7 +24343,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q122">
         <v>5</v>
@@ -24531,7 +24534,7 @@
         <v>174</v>
       </c>
       <c r="P123" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q123">
         <v>7</v>
@@ -24618,7 +24621,7 @@
         <v>1.11</v>
       </c>
       <c r="AS123">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT123">
         <v>1</v>
@@ -25295,7 +25298,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q127">
         <v>5</v>
@@ -25486,7 +25489,7 @@
         <v>178</v>
       </c>
       <c r="P128" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q128">
         <v>5</v>
@@ -25576,7 +25579,7 @@
         <v>1.58</v>
       </c>
       <c r="AT128">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU128">
         <v>1.37</v>
@@ -25868,7 +25871,7 @@
         <v>82</v>
       </c>
       <c r="P130" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q130">
         <v>9</v>
@@ -25958,7 +25961,7 @@
         <v>1.18</v>
       </c>
       <c r="AT130">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU130">
         <v>1.55</v>
@@ -26250,7 +26253,7 @@
         <v>82</v>
       </c>
       <c r="P132" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q132">
         <v>6</v>
@@ -26337,7 +26340,7 @@
         <v>1.7</v>
       </c>
       <c r="AS132">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT132">
         <v>1.82</v>
@@ -26441,7 +26444,7 @@
         <v>179</v>
       </c>
       <c r="P133" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q133">
         <v>10</v>
@@ -27014,16 +27017,16 @@
         <v>115</v>
       </c>
       <c r="P136" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q136">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R136">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S136">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T136">
         <v>0</v>
@@ -27140,7 +27143,7 @@
         <v>0</v>
       </c>
       <c r="BF136">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG136">
         <v>6</v>
@@ -27149,13 +27152,13 @@
         <v>7</v>
       </c>
       <c r="BI136">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BJ136">
+        <v>13</v>
+      </c>
+      <c r="BK136">
         <v>12</v>
-      </c>
-      <c r="BK136">
-        <v>11</v>
       </c>
     </row>
     <row r="137" spans="1:63">
@@ -27347,6 +27350,388 @@
       </c>
       <c r="BK137">
         <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:63">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>5396320</v>
+      </c>
+      <c r="C138" t="s">
+        <v>63</v>
+      </c>
+      <c r="D138" t="s">
+        <v>64</v>
+      </c>
+      <c r="E138" s="2">
+        <v>44983.5</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138" t="s">
+        <v>67</v>
+      </c>
+      <c r="H138" t="s">
+        <v>70</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+      <c r="O138" t="s">
+        <v>82</v>
+      </c>
+      <c r="P138" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q138">
+        <v>-1</v>
+      </c>
+      <c r="R138">
+        <v>-1</v>
+      </c>
+      <c r="S138">
+        <v>-1</v>
+      </c>
+      <c r="T138">
+        <v>0</v>
+      </c>
+      <c r="U138">
+        <v>0</v>
+      </c>
+      <c r="V138">
+        <v>0</v>
+      </c>
+      <c r="W138">
+        <v>0</v>
+      </c>
+      <c r="X138">
+        <v>0</v>
+      </c>
+      <c r="Y138">
+        <v>0</v>
+      </c>
+      <c r="Z138">
+        <v>0</v>
+      </c>
+      <c r="AA138">
+        <v>0</v>
+      </c>
+      <c r="AB138">
+        <v>0</v>
+      </c>
+      <c r="AC138">
+        <v>1.71</v>
+      </c>
+      <c r="AD138">
+        <v>3.85</v>
+      </c>
+      <c r="AE138">
+        <v>4.1</v>
+      </c>
+      <c r="AF138">
+        <v>0</v>
+      </c>
+      <c r="AG138">
+        <v>0</v>
+      </c>
+      <c r="AH138">
+        <v>0</v>
+      </c>
+      <c r="AI138">
+        <v>0</v>
+      </c>
+      <c r="AJ138">
+        <v>1.68</v>
+      </c>
+      <c r="AK138">
+        <v>2.1</v>
+      </c>
+      <c r="AL138">
+        <v>0</v>
+      </c>
+      <c r="AM138">
+        <v>0</v>
+      </c>
+      <c r="AN138">
+        <v>0</v>
+      </c>
+      <c r="AO138">
+        <v>0</v>
+      </c>
+      <c r="AP138">
+        <v>0</v>
+      </c>
+      <c r="AQ138">
+        <v>1.73</v>
+      </c>
+      <c r="AR138">
+        <v>1.82</v>
+      </c>
+      <c r="AS138">
+        <v>1.67</v>
+      </c>
+      <c r="AT138">
+        <v>1.75</v>
+      </c>
+      <c r="AU138">
+        <v>1.98</v>
+      </c>
+      <c r="AV138">
+        <v>1.22</v>
+      </c>
+      <c r="AW138">
+        <v>3.2</v>
+      </c>
+      <c r="AX138">
+        <v>0</v>
+      </c>
+      <c r="AY138">
+        <v>0</v>
+      </c>
+      <c r="AZ138">
+        <v>0</v>
+      </c>
+      <c r="BA138">
+        <v>0</v>
+      </c>
+      <c r="BB138">
+        <v>0</v>
+      </c>
+      <c r="BC138">
+        <v>0</v>
+      </c>
+      <c r="BD138">
+        <v>0</v>
+      </c>
+      <c r="BE138">
+        <v>0</v>
+      </c>
+      <c r="BF138">
+        <v>-1</v>
+      </c>
+      <c r="BG138">
+        <v>-1</v>
+      </c>
+      <c r="BH138">
+        <v>-1</v>
+      </c>
+      <c r="BI138">
+        <v>-1</v>
+      </c>
+      <c r="BJ138">
+        <v>-1</v>
+      </c>
+      <c r="BK138">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:63">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>5396321</v>
+      </c>
+      <c r="C139" t="s">
+        <v>63</v>
+      </c>
+      <c r="D139" t="s">
+        <v>64</v>
+      </c>
+      <c r="E139" s="2">
+        <v>44983.63541666666</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="G139" t="s">
+        <v>74</v>
+      </c>
+      <c r="H139" t="s">
+        <v>76</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>3</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+      <c r="N139">
+        <v>4</v>
+      </c>
+      <c r="O139" t="s">
+        <v>183</v>
+      </c>
+      <c r="P139" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q139">
+        <v>5</v>
+      </c>
+      <c r="R139">
+        <v>6</v>
+      </c>
+      <c r="S139">
+        <v>11</v>
+      </c>
+      <c r="T139">
+        <v>2.22</v>
+      </c>
+      <c r="U139">
+        <v>2.4</v>
+      </c>
+      <c r="V139">
+        <v>4.78</v>
+      </c>
+      <c r="W139">
+        <v>1.29</v>
+      </c>
+      <c r="X139">
+        <v>3.24</v>
+      </c>
+      <c r="Y139">
+        <v>2.38</v>
+      </c>
+      <c r="Z139">
+        <v>1.53</v>
+      </c>
+      <c r="AA139">
+        <v>5.5</v>
+      </c>
+      <c r="AB139">
+        <v>1.12</v>
+      </c>
+      <c r="AC139">
+        <v>1.55</v>
+      </c>
+      <c r="AD139">
+        <v>4.3</v>
+      </c>
+      <c r="AE139">
+        <v>5.15</v>
+      </c>
+      <c r="AF139">
+        <v>1.03</v>
+      </c>
+      <c r="AG139">
+        <v>11</v>
+      </c>
+      <c r="AH139">
+        <v>1.2</v>
+      </c>
+      <c r="AI139">
+        <v>4.33</v>
+      </c>
+      <c r="AJ139">
+        <v>1.62</v>
+      </c>
+      <c r="AK139">
+        <v>2.16</v>
+      </c>
+      <c r="AL139">
+        <v>1.67</v>
+      </c>
+      <c r="AM139">
+        <v>2.15</v>
+      </c>
+      <c r="AN139">
+        <v>1.18</v>
+      </c>
+      <c r="AO139">
+        <v>1.22</v>
+      </c>
+      <c r="AP139">
+        <v>2.2</v>
+      </c>
+      <c r="AQ139">
+        <v>2.36</v>
+      </c>
+      <c r="AR139">
+        <v>1.27</v>
+      </c>
+      <c r="AS139">
+        <v>2.42</v>
+      </c>
+      <c r="AT139">
+        <v>1.17</v>
+      </c>
+      <c r="AU139">
+        <v>1.79</v>
+      </c>
+      <c r="AV139">
+        <v>1.66</v>
+      </c>
+      <c r="AW139">
+        <v>3.45</v>
+      </c>
+      <c r="AX139">
+        <v>1.28</v>
+      </c>
+      <c r="AY139">
+        <v>7</v>
+      </c>
+      <c r="AZ139">
+        <v>4.15</v>
+      </c>
+      <c r="BA139">
+        <v>1.17</v>
+      </c>
+      <c r="BB139">
+        <v>1.29</v>
+      </c>
+      <c r="BC139">
+        <v>1.5</v>
+      </c>
+      <c r="BD139">
+        <v>1.93</v>
+      </c>
+      <c r="BE139">
+        <v>2.43</v>
+      </c>
+      <c r="BF139">
+        <v>8</v>
+      </c>
+      <c r="BG139">
+        <v>4</v>
+      </c>
+      <c r="BH139">
+        <v>6</v>
+      </c>
+      <c r="BI139">
+        <v>11</v>
+      </c>
+      <c r="BJ139">
+        <v>14</v>
+      </c>
+      <c r="BK139">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
@@ -27402,13 +27402,13 @@
         <v>82</v>
       </c>
       <c r="Q138">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="R138">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S138">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="T138">
         <v>0</v>
@@ -27525,22 +27525,22 @@
         <v>0</v>
       </c>
       <c r="BF138">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BG138">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BH138">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BI138">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BJ138">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BK138">
-        <v>-1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139" spans="1:63">

--- a/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="270">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -568,6 +568,9 @@
     <t>['47', '57', '83']</t>
   </si>
   <si>
+    <t>['65']</t>
+  </si>
+  <si>
     <t>['12', '15', '69', '90+3']</t>
   </si>
   <si>
@@ -818,6 +821,9 @@
   </si>
   <si>
     <t>['37', '76', '89']</t>
+  </si>
+  <si>
+    <t>['14', '60']</t>
   </si>
 </sst>
 </file>
@@ -1179,7 +1185,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK139"/>
+  <dimension ref="A1:BK141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1423,7 +1429,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1614,7 +1620,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -1996,7 +2002,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -2187,7 +2193,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2465,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT7">
         <v>1</v>
@@ -2569,7 +2575,7 @@
         <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2760,7 +2766,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2951,7 +2957,7 @@
         <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3232,7 +3238,7 @@
         <v>2.42</v>
       </c>
       <c r="AT11">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3333,7 +3339,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3420,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT12">
         <v>1.75</v>
@@ -3524,7 +3530,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3614,7 +3620,7 @@
         <v>2</v>
       </c>
       <c r="AT13">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3906,7 +3912,7 @@
         <v>82</v>
       </c>
       <c r="P15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q15">
         <v>9</v>
@@ -4097,7 +4103,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -4184,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT16">
         <v>1.42</v>
@@ -4288,7 +4294,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4479,7 +4485,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q18">
         <v>9</v>
@@ -4670,7 +4676,7 @@
         <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q19">
         <v>7</v>
@@ -4861,7 +4867,7 @@
         <v>92</v>
       </c>
       <c r="P20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -5052,7 +5058,7 @@
         <v>93</v>
       </c>
       <c r="P21" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -5243,7 +5249,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -5625,7 +5631,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q24">
         <v>2</v>
@@ -5715,7 +5721,7 @@
         <v>0.45</v>
       </c>
       <c r="AT24">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU24">
         <v>1.25</v>
@@ -5816,7 +5822,7 @@
         <v>82</v>
       </c>
       <c r="P25" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5903,7 +5909,7 @@
         <v>0.5</v>
       </c>
       <c r="AS25">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT25">
         <v>1.42</v>
@@ -6007,7 +6013,7 @@
         <v>97</v>
       </c>
       <c r="P26" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -6198,7 +6204,7 @@
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6389,7 +6395,7 @@
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6476,10 +6482,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT28">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU28">
         <v>1.55</v>
@@ -6580,7 +6586,7 @@
         <v>99</v>
       </c>
       <c r="P29" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -6771,7 +6777,7 @@
         <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6962,7 +6968,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7153,7 +7159,7 @@
         <v>82</v>
       </c>
       <c r="P32" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q32">
         <v>7</v>
@@ -7243,7 +7249,7 @@
         <v>1.58</v>
       </c>
       <c r="AT32">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU32">
         <v>1.18</v>
@@ -7344,7 +7350,7 @@
         <v>101</v>
       </c>
       <c r="P33" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7535,7 +7541,7 @@
         <v>102</v>
       </c>
       <c r="P34" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7726,7 +7732,7 @@
         <v>103</v>
       </c>
       <c r="P35" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q35">
         <v>14</v>
@@ -7917,7 +7923,7 @@
         <v>79</v>
       </c>
       <c r="P36" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q36">
         <v>1</v>
@@ -8195,7 +8201,7 @@
         <v>1.33</v>
       </c>
       <c r="AS37">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT37">
         <v>1</v>
@@ -8299,7 +8305,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q38">
         <v>7</v>
@@ -8389,7 +8395,7 @@
         <v>0.45</v>
       </c>
       <c r="AT38">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU38">
         <v>1.04</v>
@@ -8490,7 +8496,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8580,7 +8586,7 @@
         <v>1.09</v>
       </c>
       <c r="AT39">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU39">
         <v>1.27</v>
@@ -8768,7 +8774,7 @@
         <v>1.33</v>
       </c>
       <c r="AS40">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT40">
         <v>1.82</v>
@@ -9254,7 +9260,7 @@
         <v>108</v>
       </c>
       <c r="P43" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q43">
         <v>1</v>
@@ -9445,7 +9451,7 @@
         <v>82</v>
       </c>
       <c r="P44" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q44">
         <v>9</v>
@@ -9636,7 +9642,7 @@
         <v>109</v>
       </c>
       <c r="P45" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q45">
         <v>8</v>
@@ -9723,7 +9729,7 @@
         <v>1.67</v>
       </c>
       <c r="AS45">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT45">
         <v>0.75</v>
@@ -10400,7 +10406,7 @@
         <v>113</v>
       </c>
       <c r="P49" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10591,7 +10597,7 @@
         <v>114</v>
       </c>
       <c r="P50" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q50">
         <v>1</v>
@@ -10782,7 +10788,7 @@
         <v>115</v>
       </c>
       <c r="P51" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11164,7 +11170,7 @@
         <v>116</v>
       </c>
       <c r="P53" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q53">
         <v>10</v>
@@ -11251,10 +11257,10 @@
         <v>0.67</v>
       </c>
       <c r="AS53">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT53">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU53">
         <v>1.79</v>
@@ -11355,7 +11361,7 @@
         <v>117</v>
       </c>
       <c r="P54" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11546,7 +11552,7 @@
         <v>118</v>
       </c>
       <c r="P55" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -11636,7 +11642,7 @@
         <v>1.67</v>
       </c>
       <c r="AT55">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU55">
         <v>2.04</v>
@@ -12119,7 +12125,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12310,7 +12316,7 @@
         <v>82</v>
       </c>
       <c r="P59" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12397,10 +12403,10 @@
         <v>1.6</v>
       </c>
       <c r="AS59">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT59">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU59">
         <v>1.83</v>
@@ -12501,7 +12507,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12692,7 +12698,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -12883,7 +12889,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13161,7 +13167,7 @@
         <v>1</v>
       </c>
       <c r="AS63">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT63">
         <v>0.75</v>
@@ -13265,7 +13271,7 @@
         <v>126</v>
       </c>
       <c r="P64" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q64">
         <v>6</v>
@@ -13355,7 +13361,7 @@
         <v>0.75</v>
       </c>
       <c r="AT64">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU64">
         <v>1.79</v>
@@ -13456,7 +13462,7 @@
         <v>127</v>
       </c>
       <c r="P65" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -14116,7 +14122,7 @@
         <v>1.17</v>
       </c>
       <c r="AS68">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT68">
         <v>1</v>
@@ -14220,7 +14226,7 @@
         <v>82</v>
       </c>
       <c r="P69" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q69">
         <v>2</v>
@@ -14411,7 +14417,7 @@
         <v>82</v>
       </c>
       <c r="P70" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14692,7 +14698,7 @@
         <v>2.36</v>
       </c>
       <c r="AT71">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU71">
         <v>1.89</v>
@@ -14793,7 +14799,7 @@
         <v>131</v>
       </c>
       <c r="P72" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -14880,7 +14886,7 @@
         <v>2</v>
       </c>
       <c r="AS72">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT72">
         <v>1.73</v>
@@ -14984,7 +14990,7 @@
         <v>132</v>
       </c>
       <c r="P73" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -15175,7 +15181,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q74">
         <v>2</v>
@@ -15366,7 +15372,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q75">
         <v>2</v>
@@ -15456,7 +15462,7 @@
         <v>0.92</v>
       </c>
       <c r="AT75">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU75">
         <v>1.27</v>
@@ -15939,7 +15945,7 @@
         <v>136</v>
       </c>
       <c r="P78" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q78">
         <v>1</v>
@@ -16321,7 +16327,7 @@
         <v>82</v>
       </c>
       <c r="P80" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q80">
         <v>2</v>
@@ -16512,7 +16518,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -16599,7 +16605,7 @@
         <v>0.33</v>
       </c>
       <c r="AS81">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT81">
         <v>0.92</v>
@@ -16793,7 +16799,7 @@
         <v>1.67</v>
       </c>
       <c r="AT82">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU82">
         <v>1.89</v>
@@ -16894,7 +16900,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17748,7 +17754,7 @@
         <v>2.25</v>
       </c>
       <c r="AT87">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU87">
         <v>1.24</v>
@@ -17849,7 +17855,7 @@
         <v>145</v>
       </c>
       <c r="P88" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q88">
         <v>6</v>
@@ -18040,7 +18046,7 @@
         <v>146</v>
       </c>
       <c r="P89" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18127,7 +18133,7 @@
         <v>2.17</v>
       </c>
       <c r="AS89">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT89">
         <v>1.73</v>
@@ -18231,7 +18237,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q90">
         <v>9</v>
@@ -18422,7 +18428,7 @@
         <v>148</v>
       </c>
       <c r="P91" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q91">
         <v>6</v>
@@ -18700,7 +18706,7 @@
         <v>0.29</v>
       </c>
       <c r="AS92">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT92">
         <v>0.92</v>
@@ -18804,7 +18810,7 @@
         <v>150</v>
       </c>
       <c r="P93" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q93">
         <v>9</v>
@@ -18995,7 +19001,7 @@
         <v>82</v>
       </c>
       <c r="P94" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -19186,7 +19192,7 @@
         <v>82</v>
       </c>
       <c r="P95" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q95">
         <v>10</v>
@@ -19276,7 +19282,7 @@
         <v>2.42</v>
       </c>
       <c r="AT95">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU95">
         <v>1.68</v>
@@ -19377,7 +19383,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19568,7 +19574,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19759,7 +19765,7 @@
         <v>153</v>
       </c>
       <c r="P98" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -19950,7 +19956,7 @@
         <v>154</v>
       </c>
       <c r="P99" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q99">
         <v>7</v>
@@ -20040,7 +20046,7 @@
         <v>1.09</v>
       </c>
       <c r="AT99">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU99">
         <v>1.32</v>
@@ -20141,7 +20147,7 @@
         <v>155</v>
       </c>
       <c r="P100" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -20231,7 +20237,7 @@
         <v>2</v>
       </c>
       <c r="AT100">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU100">
         <v>1.84</v>
@@ -20801,7 +20807,7 @@
         <v>1</v>
       </c>
       <c r="AS103">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT103">
         <v>1</v>
@@ -21096,7 +21102,7 @@
         <v>82</v>
       </c>
       <c r="P105" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q105">
         <v>6</v>
@@ -21287,7 +21293,7 @@
         <v>159</v>
       </c>
       <c r="P106" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -21374,7 +21380,7 @@
         <v>1.38</v>
       </c>
       <c r="AS106">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT106">
         <v>1.82</v>
@@ -21478,7 +21484,7 @@
         <v>160</v>
       </c>
       <c r="P107" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q107">
         <v>2</v>
@@ -21669,7 +21675,7 @@
         <v>161</v>
       </c>
       <c r="P108" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q108">
         <v>2</v>
@@ -21860,7 +21866,7 @@
         <v>162</v>
       </c>
       <c r="P109" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -22051,7 +22057,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22433,7 +22439,7 @@
         <v>165</v>
       </c>
       <c r="P112" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q112">
         <v>11</v>
@@ -22520,7 +22526,7 @@
         <v>1.25</v>
       </c>
       <c r="AS112">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT112">
         <v>1.17</v>
@@ -22815,7 +22821,7 @@
         <v>166</v>
       </c>
       <c r="P114" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q114">
         <v>8</v>
@@ -22905,7 +22911,7 @@
         <v>1.58</v>
       </c>
       <c r="AT114">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU114">
         <v>1.32</v>
@@ -23006,7 +23012,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -23197,7 +23203,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -23475,10 +23481,10 @@
         <v>1.33</v>
       </c>
       <c r="AS117">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT117">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU117">
         <v>1.62</v>
@@ -23579,7 +23585,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -23770,7 +23776,7 @@
         <v>170</v>
       </c>
       <c r="P119" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q119">
         <v>5</v>
@@ -24152,7 +24158,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24239,7 +24245,7 @@
         <v>1.8</v>
       </c>
       <c r="AS121">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT121">
         <v>1.58</v>
@@ -24343,7 +24349,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q122">
         <v>5</v>
@@ -24534,7 +24540,7 @@
         <v>174</v>
       </c>
       <c r="P123" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q123">
         <v>7</v>
@@ -25298,7 +25304,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q127">
         <v>5</v>
@@ -25388,7 +25394,7 @@
         <v>2.36</v>
       </c>
       <c r="AT127">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU127">
         <v>1.74</v>
@@ -25489,7 +25495,7 @@
         <v>178</v>
       </c>
       <c r="P128" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q128">
         <v>5</v>
@@ -25770,7 +25776,7 @@
         <v>0.92</v>
       </c>
       <c r="AT129">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU129">
         <v>1.56</v>
@@ -25871,7 +25877,7 @@
         <v>82</v>
       </c>
       <c r="P130" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q130">
         <v>9</v>
@@ -25958,7 +25964,7 @@
         <v>1.1</v>
       </c>
       <c r="AS130">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT130">
         <v>1.17</v>
@@ -26253,7 +26259,7 @@
         <v>82</v>
       </c>
       <c r="P132" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q132">
         <v>6</v>
@@ -26444,7 +26450,7 @@
         <v>179</v>
       </c>
       <c r="P133" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q133">
         <v>10</v>
@@ -27017,7 +27023,7 @@
         <v>115</v>
       </c>
       <c r="P136" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27732,6 +27738,388 @@
       </c>
       <c r="BK139">
         <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:63">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>5396323</v>
+      </c>
+      <c r="C140" t="s">
+        <v>63</v>
+      </c>
+      <c r="D140" t="s">
+        <v>64</v>
+      </c>
+      <c r="E140" s="2">
+        <v>44988.66666666666</v>
+      </c>
+      <c r="F140">
+        <v>2</v>
+      </c>
+      <c r="G140" t="s">
+        <v>75</v>
+      </c>
+      <c r="H140" t="s">
+        <v>65</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>1</v>
+      </c>
+      <c r="O140" t="s">
+        <v>184</v>
+      </c>
+      <c r="P140" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q140">
+        <v>8</v>
+      </c>
+      <c r="R140">
+        <v>3</v>
+      </c>
+      <c r="S140">
+        <v>11</v>
+      </c>
+      <c r="T140">
+        <v>2.55</v>
+      </c>
+      <c r="U140">
+        <v>2.2</v>
+      </c>
+      <c r="V140">
+        <v>3.8</v>
+      </c>
+      <c r="W140">
+        <v>1.35</v>
+      </c>
+      <c r="X140">
+        <v>3</v>
+      </c>
+      <c r="Y140">
+        <v>2.5</v>
+      </c>
+      <c r="Z140">
+        <v>1.48</v>
+      </c>
+      <c r="AA140">
+        <v>5.5</v>
+      </c>
+      <c r="AB140">
+        <v>1.11</v>
+      </c>
+      <c r="AC140">
+        <v>2.09</v>
+      </c>
+      <c r="AD140">
+        <v>3.45</v>
+      </c>
+      <c r="AE140">
+        <v>3</v>
+      </c>
+      <c r="AF140">
+        <v>1.03</v>
+      </c>
+      <c r="AG140">
+        <v>13.75</v>
+      </c>
+      <c r="AH140">
+        <v>1.22</v>
+      </c>
+      <c r="AI140">
+        <v>3.87</v>
+      </c>
+      <c r="AJ140">
+        <v>1.94</v>
+      </c>
+      <c r="AK140">
+        <v>1.92</v>
+      </c>
+      <c r="AL140">
+        <v>1.62</v>
+      </c>
+      <c r="AM140">
+        <v>2.15</v>
+      </c>
+      <c r="AN140">
+        <v>1.28</v>
+      </c>
+      <c r="AO140">
+        <v>1.27</v>
+      </c>
+      <c r="AP140">
+        <v>1.72</v>
+      </c>
+      <c r="AQ140">
+        <v>1.18</v>
+      </c>
+      <c r="AR140">
+        <v>1.18</v>
+      </c>
+      <c r="AS140">
+        <v>1.33</v>
+      </c>
+      <c r="AT140">
+        <v>1.08</v>
+      </c>
+      <c r="AU140">
+        <v>1.6</v>
+      </c>
+      <c r="AV140">
+        <v>1.4</v>
+      </c>
+      <c r="AW140">
+        <v>3</v>
+      </c>
+      <c r="AX140">
+        <v>1.59</v>
+      </c>
+      <c r="AY140">
+        <v>7.9</v>
+      </c>
+      <c r="AZ140">
+        <v>2.86</v>
+      </c>
+      <c r="BA140">
+        <v>1.22</v>
+      </c>
+      <c r="BB140">
+        <v>1.42</v>
+      </c>
+      <c r="BC140">
+        <v>1.74</v>
+      </c>
+      <c r="BD140">
+        <v>2.23</v>
+      </c>
+      <c r="BE140">
+        <v>3</v>
+      </c>
+      <c r="BF140">
+        <v>5</v>
+      </c>
+      <c r="BG140">
+        <v>3</v>
+      </c>
+      <c r="BH140">
+        <v>7</v>
+      </c>
+      <c r="BI140">
+        <v>6</v>
+      </c>
+      <c r="BJ140">
+        <v>12</v>
+      </c>
+      <c r="BK140">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:63">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>5396322</v>
+      </c>
+      <c r="C141" t="s">
+        <v>63</v>
+      </c>
+      <c r="D141" t="s">
+        <v>64</v>
+      </c>
+      <c r="E141" s="2">
+        <v>44988.66666666666</v>
+      </c>
+      <c r="F141">
+        <v>2</v>
+      </c>
+      <c r="G141" t="s">
+        <v>70</v>
+      </c>
+      <c r="H141" t="s">
+        <v>68</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>1</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+      <c r="M141">
+        <v>2</v>
+      </c>
+      <c r="N141">
+        <v>3</v>
+      </c>
+      <c r="O141" t="s">
+        <v>94</v>
+      </c>
+      <c r="P141" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q141">
+        <v>4</v>
+      </c>
+      <c r="R141">
+        <v>1</v>
+      </c>
+      <c r="S141">
+        <v>5</v>
+      </c>
+      <c r="T141">
+        <v>0</v>
+      </c>
+      <c r="U141">
+        <v>0</v>
+      </c>
+      <c r="V141">
+        <v>0</v>
+      </c>
+      <c r="W141">
+        <v>0</v>
+      </c>
+      <c r="X141">
+        <v>0</v>
+      </c>
+      <c r="Y141">
+        <v>0</v>
+      </c>
+      <c r="Z141">
+        <v>0</v>
+      </c>
+      <c r="AA141">
+        <v>0</v>
+      </c>
+      <c r="AB141">
+        <v>0</v>
+      </c>
+      <c r="AC141">
+        <v>1.86</v>
+      </c>
+      <c r="AD141">
+        <v>3.75</v>
+      </c>
+      <c r="AE141">
+        <v>3.4</v>
+      </c>
+      <c r="AF141">
+        <v>0</v>
+      </c>
+      <c r="AG141">
+        <v>0</v>
+      </c>
+      <c r="AH141">
+        <v>0</v>
+      </c>
+      <c r="AI141">
+        <v>0</v>
+      </c>
+      <c r="AJ141">
+        <v>1.55</v>
+      </c>
+      <c r="AK141">
+        <v>2.35</v>
+      </c>
+      <c r="AL141">
+        <v>0</v>
+      </c>
+      <c r="AM141">
+        <v>0</v>
+      </c>
+      <c r="AN141">
+        <v>0</v>
+      </c>
+      <c r="AO141">
+        <v>0</v>
+      </c>
+      <c r="AP141">
+        <v>0</v>
+      </c>
+      <c r="AQ141">
+        <v>1.27</v>
+      </c>
+      <c r="AR141">
+        <v>1.09</v>
+      </c>
+      <c r="AS141">
+        <v>1.17</v>
+      </c>
+      <c r="AT141">
+        <v>1.25</v>
+      </c>
+      <c r="AU141">
+        <v>1.63</v>
+      </c>
+      <c r="AV141">
+        <v>1.06</v>
+      </c>
+      <c r="AW141">
+        <v>2.69</v>
+      </c>
+      <c r="AX141">
+        <v>0</v>
+      </c>
+      <c r="AY141">
+        <v>0</v>
+      </c>
+      <c r="AZ141">
+        <v>0</v>
+      </c>
+      <c r="BA141">
+        <v>0</v>
+      </c>
+      <c r="BB141">
+        <v>0</v>
+      </c>
+      <c r="BC141">
+        <v>0</v>
+      </c>
+      <c r="BD141">
+        <v>0</v>
+      </c>
+      <c r="BE141">
+        <v>0</v>
+      </c>
+      <c r="BF141">
+        <v>6</v>
+      </c>
+      <c r="BG141">
+        <v>2</v>
+      </c>
+      <c r="BH141">
+        <v>5</v>
+      </c>
+      <c r="BI141">
+        <v>0</v>
+      </c>
+      <c r="BJ141">
+        <v>11</v>
+      </c>
+      <c r="BK141">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="274">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -571,6 +571,15 @@
     <t>['65']</t>
   </si>
   <si>
+    <t>['30']</t>
+  </si>
+  <si>
+    <t>['50', '56']</t>
+  </si>
+  <si>
+    <t>['11']</t>
+  </si>
+  <si>
     <t>['12', '15', '69', '90+3']</t>
   </si>
   <si>
@@ -635,9 +644,6 @@
   </si>
   <si>
     <t>['3']</t>
-  </si>
-  <si>
-    <t>['11']</t>
   </si>
   <si>
     <t>['75']</t>
@@ -824,6 +830,12 @@
   </si>
   <si>
     <t>['14', '60']</t>
+  </si>
+  <si>
+    <t>['17', '89']</t>
+  </si>
+  <si>
+    <t>['13']</t>
   </si>
 </sst>
 </file>
@@ -1185,7 +1197,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK141"/>
+  <dimension ref="A1:BK145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1429,7 +1441,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1620,7 +1632,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -1707,10 +1719,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AT3">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2002,7 +2014,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -2193,7 +2205,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2280,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT6">
         <v>1.17</v>
@@ -2474,7 +2486,7 @@
         <v>1.17</v>
       </c>
       <c r="AT7">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2575,7 +2587,7 @@
         <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2766,7 +2778,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2856,7 +2868,7 @@
         <v>0.92</v>
       </c>
       <c r="AT9">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2957,7 +2969,7 @@
         <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3044,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT10">
         <v>0.75</v>
@@ -3339,7 +3351,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3530,7 +3542,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3617,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT13">
         <v>1.25</v>
@@ -3912,7 +3924,7 @@
         <v>82</v>
       </c>
       <c r="P15" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q15">
         <v>9</v>
@@ -3999,7 +4011,7 @@
         <v>3</v>
       </c>
       <c r="AS15">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT15">
         <v>1.58</v>
@@ -4103,7 +4115,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -4294,7 +4306,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4485,7 +4497,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q18">
         <v>9</v>
@@ -4575,7 +4587,7 @@
         <v>2.25</v>
       </c>
       <c r="AT18">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU18">
         <v>1.02</v>
@@ -4676,7 +4688,7 @@
         <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q19">
         <v>7</v>
@@ -4867,7 +4879,7 @@
         <v>92</v>
       </c>
       <c r="P20" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -5058,7 +5070,7 @@
         <v>93</v>
       </c>
       <c r="P21" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -5249,7 +5261,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -5339,7 +5351,7 @@
         <v>2.25</v>
       </c>
       <c r="AT22">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU22">
         <v>1.02</v>
@@ -5527,10 +5539,10 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT23">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU23">
         <v>2.15</v>
@@ -5631,7 +5643,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q24">
         <v>2</v>
@@ -5718,7 +5730,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AT24">
         <v>1.08</v>
@@ -5822,7 +5834,7 @@
         <v>82</v>
       </c>
       <c r="P25" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -6013,7 +6025,7 @@
         <v>97</v>
       </c>
       <c r="P26" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -6204,7 +6216,7 @@
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6395,7 +6407,7 @@
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6586,7 +6598,7 @@
         <v>99</v>
       </c>
       <c r="P29" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -6673,7 +6685,7 @@
         <v>2</v>
       </c>
       <c r="AS29">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT29">
         <v>1</v>
@@ -6777,7 +6789,7 @@
         <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6864,7 +6876,7 @@
         <v>1</v>
       </c>
       <c r="AS30">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT30">
         <v>0.75</v>
@@ -6968,7 +6980,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7058,7 +7070,7 @@
         <v>1.58</v>
       </c>
       <c r="AT31">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU31">
         <v>1.12</v>
@@ -7159,7 +7171,7 @@
         <v>82</v>
       </c>
       <c r="P32" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q32">
         <v>7</v>
@@ -7350,7 +7362,7 @@
         <v>101</v>
       </c>
       <c r="P33" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7437,7 +7449,7 @@
         <v>2</v>
       </c>
       <c r="AS33">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT33">
         <v>1.75</v>
@@ -7541,7 +7553,7 @@
         <v>102</v>
       </c>
       <c r="P34" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7732,7 +7744,7 @@
         <v>103</v>
       </c>
       <c r="P35" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q35">
         <v>14</v>
@@ -7923,7 +7935,7 @@
         <v>79</v>
       </c>
       <c r="P36" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q36">
         <v>1</v>
@@ -8010,10 +8022,10 @@
         <v>2</v>
       </c>
       <c r="AS36">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AT36">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU36">
         <v>0.96</v>
@@ -8305,7 +8317,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q38">
         <v>7</v>
@@ -8392,7 +8404,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AT38">
         <v>1.25</v>
@@ -8496,7 +8508,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8583,7 +8595,7 @@
         <v>1.33</v>
       </c>
       <c r="AS39">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT39">
         <v>1.08</v>
@@ -8777,7 +8789,7 @@
         <v>1.33</v>
       </c>
       <c r="AT40">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU40">
         <v>1.88</v>
@@ -8968,7 +8980,7 @@
         <v>1.67</v>
       </c>
       <c r="AT41">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU41">
         <v>1.88</v>
@@ -9156,7 +9168,7 @@
         <v>2</v>
       </c>
       <c r="AS42">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT42">
         <v>1.17</v>
@@ -9260,7 +9272,7 @@
         <v>108</v>
       </c>
       <c r="P43" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q43">
         <v>1</v>
@@ -9451,7 +9463,7 @@
         <v>82</v>
       </c>
       <c r="P44" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q44">
         <v>9</v>
@@ -9642,7 +9654,7 @@
         <v>109</v>
       </c>
       <c r="P45" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q45">
         <v>8</v>
@@ -10114,7 +10126,7 @@
         <v>2.42</v>
       </c>
       <c r="AT47">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU47">
         <v>1.96</v>
@@ -10302,7 +10314,7 @@
         <v>1.75</v>
       </c>
       <c r="AS48">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT48">
         <v>1</v>
@@ -10406,7 +10418,7 @@
         <v>113</v>
       </c>
       <c r="P49" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10597,7 +10609,7 @@
         <v>114</v>
       </c>
       <c r="P50" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q50">
         <v>1</v>
@@ -10684,10 +10696,10 @@
         <v>0.33</v>
       </c>
       <c r="AS50">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT50">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU50">
         <v>1.85</v>
@@ -10788,7 +10800,7 @@
         <v>115</v>
       </c>
       <c r="P51" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -10878,7 +10890,7 @@
         <v>0.92</v>
       </c>
       <c r="AT51">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU51">
         <v>1.18</v>
@@ -11066,7 +11078,7 @@
         <v>1.5</v>
       </c>
       <c r="AS52">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AT52">
         <v>1.17</v>
@@ -11170,7 +11182,7 @@
         <v>116</v>
       </c>
       <c r="P53" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q53">
         <v>10</v>
@@ -11361,7 +11373,7 @@
         <v>117</v>
       </c>
       <c r="P54" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11448,7 +11460,7 @@
         <v>2.5</v>
       </c>
       <c r="AS54">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT54">
         <v>1.75</v>
@@ -11552,7 +11564,7 @@
         <v>118</v>
       </c>
       <c r="P55" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12024,7 +12036,7 @@
         <v>2.25</v>
       </c>
       <c r="AT57">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU57">
         <v>1.05</v>
@@ -12125,7 +12137,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12212,10 +12224,10 @@
         <v>1.75</v>
       </c>
       <c r="AS58">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT58">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU58">
         <v>1.33</v>
@@ -12316,7 +12328,7 @@
         <v>82</v>
       </c>
       <c r="P59" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12507,7 +12519,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12698,7 +12710,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -12785,7 +12797,7 @@
         <v>2.25</v>
       </c>
       <c r="AS61">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT61">
         <v>1.58</v>
@@ -12889,7 +12901,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13271,7 +13283,7 @@
         <v>126</v>
       </c>
       <c r="P64" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q64">
         <v>6</v>
@@ -13462,7 +13474,7 @@
         <v>127</v>
       </c>
       <c r="P65" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13931,7 +13943,7 @@
         <v>0.5</v>
       </c>
       <c r="AS67">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT67">
         <v>0.92</v>
@@ -14226,7 +14238,7 @@
         <v>82</v>
       </c>
       <c r="P69" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q69">
         <v>2</v>
@@ -14316,7 +14328,7 @@
         <v>0.75</v>
       </c>
       <c r="AT69">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU69">
         <v>1.79</v>
@@ -14417,7 +14429,7 @@
         <v>82</v>
       </c>
       <c r="P70" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14504,10 +14516,10 @@
         <v>0.2</v>
       </c>
       <c r="AS70">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AT70">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU70">
         <v>1.16</v>
@@ -14695,7 +14707,7 @@
         <v>1</v>
       </c>
       <c r="AS71">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT71">
         <v>1.25</v>
@@ -14799,7 +14811,7 @@
         <v>131</v>
       </c>
       <c r="P72" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -14889,7 +14901,7 @@
         <v>1.33</v>
       </c>
       <c r="AT72">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU72">
         <v>1.86</v>
@@ -14990,7 +15002,7 @@
         <v>132</v>
       </c>
       <c r="P73" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -15077,7 +15089,7 @@
         <v>0.4</v>
       </c>
       <c r="AS73">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT73">
         <v>0.92</v>
@@ -15181,7 +15193,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q74">
         <v>2</v>
@@ -15372,7 +15384,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q75">
         <v>2</v>
@@ -15650,10 +15662,10 @@
         <v>0.67</v>
       </c>
       <c r="AS76">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT76">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU76">
         <v>1.29</v>
@@ -15945,7 +15957,7 @@
         <v>136</v>
       </c>
       <c r="P78" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q78">
         <v>1</v>
@@ -16032,7 +16044,7 @@
         <v>1.33</v>
       </c>
       <c r="AS78">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT78">
         <v>1.42</v>
@@ -16327,7 +16339,7 @@
         <v>82</v>
       </c>
       <c r="P80" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q80">
         <v>2</v>
@@ -16414,7 +16426,7 @@
         <v>1</v>
       </c>
       <c r="AS80">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AT80">
         <v>1</v>
@@ -16518,7 +16530,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -16900,7 +16912,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -16987,10 +16999,10 @@
         <v>1.67</v>
       </c>
       <c r="AS83">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT83">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU83">
         <v>1.83</v>
@@ -17560,10 +17572,10 @@
         <v>1.57</v>
       </c>
       <c r="AS86">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT86">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU86">
         <v>1.32</v>
@@ -17855,7 +17867,7 @@
         <v>145</v>
       </c>
       <c r="P88" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q88">
         <v>6</v>
@@ -17945,7 +17957,7 @@
         <v>0.92</v>
       </c>
       <c r="AT88">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU88">
         <v>1.35</v>
@@ -18046,7 +18058,7 @@
         <v>146</v>
       </c>
       <c r="P89" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18136,7 +18148,7 @@
         <v>1.17</v>
       </c>
       <c r="AT89">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU89">
         <v>1.71</v>
@@ -18237,7 +18249,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q90">
         <v>9</v>
@@ -18324,7 +18336,7 @@
         <v>1.5</v>
       </c>
       <c r="AS90">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT90">
         <v>1.58</v>
@@ -18428,7 +18440,7 @@
         <v>148</v>
       </c>
       <c r="P91" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q91">
         <v>6</v>
@@ -18515,7 +18527,7 @@
         <v>0.71</v>
       </c>
       <c r="AS91">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT91">
         <v>0.75</v>
@@ -18810,7 +18822,7 @@
         <v>150</v>
       </c>
       <c r="P93" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q93">
         <v>9</v>
@@ -19001,7 +19013,7 @@
         <v>82</v>
       </c>
       <c r="P94" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -19088,7 +19100,7 @@
         <v>1.71</v>
       </c>
       <c r="AS94">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AT94">
         <v>1.58</v>
@@ -19192,7 +19204,7 @@
         <v>82</v>
       </c>
       <c r="P95" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q95">
         <v>10</v>
@@ -19383,7 +19395,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19473,7 +19485,7 @@
         <v>0.75</v>
       </c>
       <c r="AT96">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU96">
         <v>1.64</v>
@@ -19574,7 +19586,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19765,7 +19777,7 @@
         <v>153</v>
       </c>
       <c r="P98" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -19852,7 +19864,7 @@
         <v>1.75</v>
       </c>
       <c r="AS98">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT98">
         <v>1.75</v>
@@ -19956,7 +19968,7 @@
         <v>154</v>
       </c>
       <c r="P99" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q99">
         <v>7</v>
@@ -20043,7 +20055,7 @@
         <v>1</v>
       </c>
       <c r="AS99">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT99">
         <v>1.25</v>
@@ -20147,7 +20159,7 @@
         <v>155</v>
       </c>
       <c r="P100" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -20234,7 +20246,7 @@
         <v>1.5</v>
       </c>
       <c r="AS100">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT100">
         <v>1.08</v>
@@ -20810,7 +20822,7 @@
         <v>1.33</v>
       </c>
       <c r="AT103">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU103">
         <v>1.69</v>
@@ -20998,7 +21010,7 @@
         <v>1.75</v>
       </c>
       <c r="AS104">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AT104">
         <v>1.42</v>
@@ -21102,7 +21114,7 @@
         <v>82</v>
       </c>
       <c r="P105" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q105">
         <v>6</v>
@@ -21293,7 +21305,7 @@
         <v>159</v>
       </c>
       <c r="P106" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -21383,7 +21395,7 @@
         <v>1.17</v>
       </c>
       <c r="AT106">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU106">
         <v>1.73</v>
@@ -21484,7 +21496,7 @@
         <v>160</v>
       </c>
       <c r="P107" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q107">
         <v>2</v>
@@ -21574,7 +21586,7 @@
         <v>1.58</v>
       </c>
       <c r="AT107">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU107">
         <v>1.32</v>
@@ -21675,7 +21687,7 @@
         <v>161</v>
       </c>
       <c r="P108" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q108">
         <v>2</v>
@@ -21866,7 +21878,7 @@
         <v>162</v>
       </c>
       <c r="P109" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -21956,7 +21968,7 @@
         <v>2.42</v>
       </c>
       <c r="AT109">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU109">
         <v>1.81</v>
@@ -22057,7 +22069,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22335,10 +22347,10 @@
         <v>2.11</v>
       </c>
       <c r="AS111">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT111">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU111">
         <v>1.81</v>
@@ -22439,7 +22451,7 @@
         <v>165</v>
       </c>
       <c r="P112" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q112">
         <v>11</v>
@@ -22821,7 +22833,7 @@
         <v>166</v>
       </c>
       <c r="P114" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q114">
         <v>8</v>
@@ -23012,7 +23024,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -23203,7 +23215,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -23290,7 +23302,7 @@
         <v>1.56</v>
       </c>
       <c r="AS116">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AT116">
         <v>1.75</v>
@@ -23585,7 +23597,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -23672,10 +23684,10 @@
         <v>1.56</v>
       </c>
       <c r="AS118">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT118">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU118">
         <v>1.77</v>
@@ -23776,7 +23788,7 @@
         <v>170</v>
       </c>
       <c r="P119" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q119">
         <v>5</v>
@@ -24158,7 +24170,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24349,7 +24361,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q122">
         <v>5</v>
@@ -24436,7 +24448,7 @@
         <v>1.6</v>
       </c>
       <c r="AS122">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT122">
         <v>1.42</v>
@@ -24540,7 +24552,7 @@
         <v>174</v>
       </c>
       <c r="P123" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q123">
         <v>7</v>
@@ -24818,10 +24830,10 @@
         <v>1.9</v>
       </c>
       <c r="AS124">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT124">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU124">
         <v>1.77</v>
@@ -25203,7 +25215,7 @@
         <v>0.75</v>
       </c>
       <c r="AT126">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU126">
         <v>1.54</v>
@@ -25304,7 +25316,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q127">
         <v>5</v>
@@ -25391,7 +25403,7 @@
         <v>1.3</v>
       </c>
       <c r="AS127">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT127">
         <v>1.08</v>
@@ -25495,7 +25507,7 @@
         <v>178</v>
       </c>
       <c r="P128" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q128">
         <v>5</v>
@@ -25877,7 +25889,7 @@
         <v>82</v>
       </c>
       <c r="P130" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q130">
         <v>9</v>
@@ -26155,7 +26167,7 @@
         <v>0.5</v>
       </c>
       <c r="AS131">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AT131">
         <v>0.92</v>
@@ -26259,7 +26271,7 @@
         <v>82</v>
       </c>
       <c r="P132" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q132">
         <v>6</v>
@@ -26349,7 +26361,7 @@
         <v>1.67</v>
       </c>
       <c r="AT132">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AU132">
         <v>2.04</v>
@@ -26450,7 +26462,7 @@
         <v>179</v>
       </c>
       <c r="P133" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q133">
         <v>10</v>
@@ -26537,7 +26549,7 @@
         <v>1</v>
       </c>
       <c r="AS133">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT133">
         <v>1</v>
@@ -27023,7 +27035,7 @@
         <v>115</v>
       </c>
       <c r="P136" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27978,16 +27990,16 @@
         <v>94</v>
       </c>
       <c r="P141" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q141">
         <v>4</v>
       </c>
       <c r="R141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S141">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T141">
         <v>0</v>
@@ -28110,16 +28122,780 @@
         <v>2</v>
       </c>
       <c r="BH141">
+        <v>6</v>
+      </c>
+      <c r="BI141">
+        <v>1</v>
+      </c>
+      <c r="BJ141">
+        <v>12</v>
+      </c>
+      <c r="BK141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:63">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>5396324</v>
+      </c>
+      <c r="C142" t="s">
+        <v>63</v>
+      </c>
+      <c r="D142" t="s">
+        <v>64</v>
+      </c>
+      <c r="E142" s="2">
+        <v>44989.5</v>
+      </c>
+      <c r="F142">
+        <v>2</v>
+      </c>
+      <c r="G142" t="s">
+        <v>66</v>
+      </c>
+      <c r="H142" t="s">
+        <v>71</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142">
+        <v>1</v>
+      </c>
+      <c r="K142">
+        <v>2</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142">
+        <v>2</v>
+      </c>
+      <c r="N142">
+        <v>3</v>
+      </c>
+      <c r="O142" t="s">
+        <v>185</v>
+      </c>
+      <c r="P142" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q142">
+        <v>7</v>
+      </c>
+      <c r="R142">
+        <v>4</v>
+      </c>
+      <c r="S142">
+        <v>11</v>
+      </c>
+      <c r="T142">
+        <v>3.1</v>
+      </c>
+      <c r="U142">
+        <v>2.15</v>
+      </c>
+      <c r="V142">
+        <v>3.1</v>
+      </c>
+      <c r="W142">
+        <v>1.37</v>
+      </c>
+      <c r="X142">
+        <v>2.85</v>
+      </c>
+      <c r="Y142">
+        <v>2.7</v>
+      </c>
+      <c r="Z142">
+        <v>1.41</v>
+      </c>
+      <c r="AA142">
+        <v>6.45</v>
+      </c>
+      <c r="AB142">
+        <v>1.09</v>
+      </c>
+      <c r="AC142">
+        <v>2.6</v>
+      </c>
+      <c r="AD142">
+        <v>3.2</v>
+      </c>
+      <c r="AE142">
+        <v>2.45</v>
+      </c>
+      <c r="AF142">
+        <v>1.04</v>
+      </c>
+      <c r="AG142">
+        <v>11.75</v>
+      </c>
+      <c r="AH142">
+        <v>1.28</v>
+      </c>
+      <c r="AI142">
+        <v>3.5</v>
+      </c>
+      <c r="AJ142">
+        <v>1.79</v>
+      </c>
+      <c r="AK142">
+        <v>1.82</v>
+      </c>
+      <c r="AL142">
+        <v>1.68</v>
+      </c>
+      <c r="AM142">
+        <v>2.1</v>
+      </c>
+      <c r="AN142">
+        <v>1.5</v>
+      </c>
+      <c r="AO142">
+        <v>1.25</v>
+      </c>
+      <c r="AP142">
+        <v>1.47</v>
+      </c>
+      <c r="AQ142">
+        <v>0.45</v>
+      </c>
+      <c r="AR142">
+        <v>1</v>
+      </c>
+      <c r="AS142">
+        <v>0.42</v>
+      </c>
+      <c r="AT142">
+        <v>1.17</v>
+      </c>
+      <c r="AU142">
+        <v>1.15</v>
+      </c>
+      <c r="AV142">
+        <v>1.58</v>
+      </c>
+      <c r="AW142">
+        <v>2.73</v>
+      </c>
+      <c r="AX142">
+        <v>2.25</v>
+      </c>
+      <c r="AY142">
+        <v>5.5</v>
+      </c>
+      <c r="AZ142">
+        <v>1.83</v>
+      </c>
+      <c r="BA142">
+        <v>1.27</v>
+      </c>
+      <c r="BB142">
+        <v>1.5</v>
+      </c>
+      <c r="BC142">
+        <v>1.95</v>
+      </c>
+      <c r="BD142">
+        <v>2.45</v>
+      </c>
+      <c r="BE142">
+        <v>3.4</v>
+      </c>
+      <c r="BF142">
+        <v>6</v>
+      </c>
+      <c r="BG142">
+        <v>4</v>
+      </c>
+      <c r="BH142">
+        <v>7</v>
+      </c>
+      <c r="BI142">
+        <v>6</v>
+      </c>
+      <c r="BJ142">
+        <v>13</v>
+      </c>
+      <c r="BK142">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:63">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>5396325</v>
+      </c>
+      <c r="C143" t="s">
+        <v>63</v>
+      </c>
+      <c r="D143" t="s">
+        <v>64</v>
+      </c>
+      <c r="E143" s="2">
+        <v>44989.66666666666</v>
+      </c>
+      <c r="F143">
+        <v>2</v>
+      </c>
+      <c r="G143" t="s">
+        <v>73</v>
+      </c>
+      <c r="H143" t="s">
+        <v>74</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="L143">
+        <v>2</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+      <c r="N143">
+        <v>3</v>
+      </c>
+      <c r="O143" t="s">
+        <v>186</v>
+      </c>
+      <c r="P143" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q143">
+        <v>0</v>
+      </c>
+      <c r="R143">
+        <v>3</v>
+      </c>
+      <c r="S143">
+        <v>3</v>
+      </c>
+      <c r="T143">
+        <v>2.62</v>
+      </c>
+      <c r="U143">
+        <v>2.38</v>
+      </c>
+      <c r="V143">
+        <v>3.2</v>
+      </c>
+      <c r="W143">
+        <v>1.3</v>
+      </c>
+      <c r="X143">
+        <v>3.25</v>
+      </c>
+      <c r="Y143">
+        <v>2.25</v>
+      </c>
+      <c r="Z143">
+        <v>1.57</v>
+      </c>
+      <c r="AA143">
+        <v>4.75</v>
+      </c>
+      <c r="AB143">
+        <v>1.15</v>
+      </c>
+      <c r="AC143">
+        <v>2.15</v>
+      </c>
+      <c r="AD143">
+        <v>3.45</v>
+      </c>
+      <c r="AE143">
+        <v>2.85</v>
+      </c>
+      <c r="AF143">
+        <v>1.02</v>
+      </c>
+      <c r="AG143">
+        <v>15</v>
+      </c>
+      <c r="AH143">
+        <v>1.18</v>
+      </c>
+      <c r="AI143">
+        <v>4.5</v>
+      </c>
+      <c r="AJ143">
+        <v>1.56</v>
+      </c>
+      <c r="AK143">
+        <v>2.13</v>
+      </c>
+      <c r="AL143">
+        <v>1.5</v>
+      </c>
+      <c r="AM143">
+        <v>2.51</v>
+      </c>
+      <c r="AN143">
+        <v>1.4</v>
+      </c>
+      <c r="AO143">
+        <v>1.25</v>
+      </c>
+      <c r="AP143">
+        <v>1.62</v>
+      </c>
+      <c r="AQ143">
+        <v>2.36</v>
+      </c>
+      <c r="AR143">
+        <v>1.82</v>
+      </c>
+      <c r="AS143">
+        <v>2.42</v>
+      </c>
+      <c r="AT143">
+        <v>1.67</v>
+      </c>
+      <c r="AU143">
+        <v>1.81</v>
+      </c>
+      <c r="AV143">
+        <v>1.47</v>
+      </c>
+      <c r="AW143">
+        <v>3.28</v>
+      </c>
+      <c r="AX143">
+        <v>1.82</v>
+      </c>
+      <c r="AY143">
+        <v>7.6</v>
+      </c>
+      <c r="AZ143">
+        <v>2.36</v>
+      </c>
+      <c r="BA143">
+        <v>1.18</v>
+      </c>
+      <c r="BB143">
+        <v>1.34</v>
+      </c>
+      <c r="BC143">
+        <v>1.61</v>
+      </c>
+      <c r="BD143">
+        <v>2.02</v>
+      </c>
+      <c r="BE143">
+        <v>2.7</v>
+      </c>
+      <c r="BF143">
+        <v>4</v>
+      </c>
+      <c r="BG143">
+        <v>4</v>
+      </c>
+      <c r="BH143">
         <v>5</v>
       </c>
-      <c r="BI141">
-        <v>0</v>
-      </c>
-      <c r="BJ141">
+      <c r="BI143">
+        <v>7</v>
+      </c>
+      <c r="BJ143">
+        <v>9</v>
+      </c>
+      <c r="BK143">
         <v>11</v>
       </c>
-      <c r="BK141">
-        <v>2</v>
+    </row>
+    <row r="144" spans="1:63">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>5396326</v>
+      </c>
+      <c r="C144" t="s">
+        <v>63</v>
+      </c>
+      <c r="D144" t="s">
+        <v>64</v>
+      </c>
+      <c r="E144" s="2">
+        <v>44990.5</v>
+      </c>
+      <c r="F144">
+        <v>2</v>
+      </c>
+      <c r="G144" t="s">
+        <v>76</v>
+      </c>
+      <c r="H144" t="s">
+        <v>67</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>1</v>
+      </c>
+      <c r="N144">
+        <v>1</v>
+      </c>
+      <c r="O144" t="s">
+        <v>82</v>
+      </c>
+      <c r="P144" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q144">
+        <v>0</v>
+      </c>
+      <c r="R144">
+        <v>1</v>
+      </c>
+      <c r="S144">
+        <v>1</v>
+      </c>
+      <c r="T144">
+        <v>3.62</v>
+      </c>
+      <c r="U144">
+        <v>2.24</v>
+      </c>
+      <c r="V144">
+        <v>2.68</v>
+      </c>
+      <c r="W144">
+        <v>1.32</v>
+      </c>
+      <c r="X144">
+        <v>3.22</v>
+      </c>
+      <c r="Y144">
+        <v>2.49</v>
+      </c>
+      <c r="Z144">
+        <v>1.5</v>
+      </c>
+      <c r="AA144">
+        <v>5.95</v>
+      </c>
+      <c r="AB144">
+        <v>1.11</v>
+      </c>
+      <c r="AC144">
+        <v>2.88</v>
+      </c>
+      <c r="AD144">
+        <v>3.5</v>
+      </c>
+      <c r="AE144">
+        <v>2.05</v>
+      </c>
+      <c r="AF144">
+        <v>1.03</v>
+      </c>
+      <c r="AG144">
+        <v>11</v>
+      </c>
+      <c r="AH144">
+        <v>1.2</v>
+      </c>
+      <c r="AI144">
+        <v>4.33</v>
+      </c>
+      <c r="AJ144">
+        <v>1.57</v>
+      </c>
+      <c r="AK144">
+        <v>2.06</v>
+      </c>
+      <c r="AL144">
+        <v>1.58</v>
+      </c>
+      <c r="AM144">
+        <v>2.32</v>
+      </c>
+      <c r="AN144">
+        <v>1.65</v>
+      </c>
+      <c r="AO144">
+        <v>1.26</v>
+      </c>
+      <c r="AP144">
+        <v>1.35</v>
+      </c>
+      <c r="AQ144">
+        <v>2</v>
+      </c>
+      <c r="AR144">
+        <v>1.73</v>
+      </c>
+      <c r="AS144">
+        <v>1.83</v>
+      </c>
+      <c r="AT144">
+        <v>1.83</v>
+      </c>
+      <c r="AU144">
+        <v>1.73</v>
+      </c>
+      <c r="AV144">
+        <v>1.72</v>
+      </c>
+      <c r="AW144">
+        <v>3.45</v>
+      </c>
+      <c r="AX144">
+        <v>3.04</v>
+      </c>
+      <c r="AY144">
+        <v>8.1</v>
+      </c>
+      <c r="AZ144">
+        <v>1.53</v>
+      </c>
+      <c r="BA144">
+        <v>1.14</v>
+      </c>
+      <c r="BB144">
+        <v>1.29</v>
+      </c>
+      <c r="BC144">
+        <v>1.5</v>
+      </c>
+      <c r="BD144">
+        <v>1.88</v>
+      </c>
+      <c r="BE144">
+        <v>2.43</v>
+      </c>
+      <c r="BF144">
+        <v>2</v>
+      </c>
+      <c r="BG144">
+        <v>2</v>
+      </c>
+      <c r="BH144">
+        <v>2</v>
+      </c>
+      <c r="BI144">
+        <v>4</v>
+      </c>
+      <c r="BJ144">
+        <v>4</v>
+      </c>
+      <c r="BK144">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:63">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>5396327</v>
+      </c>
+      <c r="C145" t="s">
+        <v>63</v>
+      </c>
+      <c r="D145" t="s">
+        <v>64</v>
+      </c>
+      <c r="E145" s="2">
+        <v>44990.63541666666</v>
+      </c>
+      <c r="F145">
+        <v>2</v>
+      </c>
+      <c r="G145" t="s">
+        <v>69</v>
+      </c>
+      <c r="H145" t="s">
+        <v>72</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145">
+        <v>1</v>
+      </c>
+      <c r="N145">
+        <v>2</v>
+      </c>
+      <c r="O145" t="s">
+        <v>187</v>
+      </c>
+      <c r="P145" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q145">
+        <v>5</v>
+      </c>
+      <c r="R145">
+        <v>6</v>
+      </c>
+      <c r="S145">
+        <v>11</v>
+      </c>
+      <c r="T145">
+        <v>0</v>
+      </c>
+      <c r="U145">
+        <v>0</v>
+      </c>
+      <c r="V145">
+        <v>0</v>
+      </c>
+      <c r="W145">
+        <v>0</v>
+      </c>
+      <c r="X145">
+        <v>0</v>
+      </c>
+      <c r="Y145">
+        <v>0</v>
+      </c>
+      <c r="Z145">
+        <v>0</v>
+      </c>
+      <c r="AA145">
+        <v>0</v>
+      </c>
+      <c r="AB145">
+        <v>0</v>
+      </c>
+      <c r="AC145">
+        <v>1.72</v>
+      </c>
+      <c r="AD145">
+        <v>3.7</v>
+      </c>
+      <c r="AE145">
+        <v>3.75</v>
+      </c>
+      <c r="AF145">
+        <v>0</v>
+      </c>
+      <c r="AG145">
+        <v>0</v>
+      </c>
+      <c r="AH145">
+        <v>0</v>
+      </c>
+      <c r="AI145">
+        <v>0</v>
+      </c>
+      <c r="AJ145">
+        <v>1.57</v>
+      </c>
+      <c r="AK145">
+        <v>2.33</v>
+      </c>
+      <c r="AL145">
+        <v>0</v>
+      </c>
+      <c r="AM145">
+        <v>0</v>
+      </c>
+      <c r="AN145">
+        <v>0</v>
+      </c>
+      <c r="AO145">
+        <v>0</v>
+      </c>
+      <c r="AP145">
+        <v>0</v>
+      </c>
+      <c r="AQ145">
+        <v>1.09</v>
+      </c>
+      <c r="AR145">
+        <v>1</v>
+      </c>
+      <c r="AS145">
+        <v>1.08</v>
+      </c>
+      <c r="AT145">
+        <v>1</v>
+      </c>
+      <c r="AU145">
+        <v>1.31</v>
+      </c>
+      <c r="AV145">
+        <v>1.34</v>
+      </c>
+      <c r="AW145">
+        <v>2.65</v>
+      </c>
+      <c r="AX145">
+        <v>0</v>
+      </c>
+      <c r="AY145">
+        <v>0</v>
+      </c>
+      <c r="AZ145">
+        <v>0</v>
+      </c>
+      <c r="BA145">
+        <v>0</v>
+      </c>
+      <c r="BB145">
+        <v>0</v>
+      </c>
+      <c r="BC145">
+        <v>0</v>
+      </c>
+      <c r="BD145">
+        <v>0</v>
+      </c>
+      <c r="BE145">
+        <v>0</v>
+      </c>
+      <c r="BF145">
+        <v>6</v>
+      </c>
+      <c r="BG145">
+        <v>7</v>
+      </c>
+      <c r="BH145">
+        <v>6</v>
+      </c>
+      <c r="BI145">
+        <v>5</v>
+      </c>
+      <c r="BJ145">
+        <v>12</v>
+      </c>
+      <c r="BK145">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="274">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1197,7 +1197,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK145"/>
+  <dimension ref="A1:BK147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT2">
         <v>1.58</v>
@@ -1910,10 +1910,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT4">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2486,7 +2486,7 @@
         <v>1.17</v>
       </c>
       <c r="AT7">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -3820,7 +3820,7 @@
         <v>1</v>
       </c>
       <c r="AS14">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT14">
         <v>1</v>
@@ -4205,7 +4205,7 @@
         <v>1.17</v>
       </c>
       <c r="AT16">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU16">
         <v>1.51</v>
@@ -4775,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT19">
         <v>1.17</v>
@@ -5542,7 +5542,7 @@
         <v>1.83</v>
       </c>
       <c r="AT23">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU23">
         <v>2.15</v>
@@ -5924,7 +5924,7 @@
         <v>1.33</v>
       </c>
       <c r="AT25">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU25">
         <v>1.76</v>
@@ -6112,7 +6112,7 @@
         <v>1.5</v>
       </c>
       <c r="AS26">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT26">
         <v>1.17</v>
@@ -6303,7 +6303,7 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT27">
         <v>1.58</v>
@@ -7643,7 +7643,7 @@
         <v>2.25</v>
       </c>
       <c r="AT34">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU34">
         <v>0.82</v>
@@ -8977,10 +8977,10 @@
         <v>0.5</v>
       </c>
       <c r="AS41">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT41">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU41">
         <v>1.88</v>
@@ -9550,10 +9550,10 @@
         <v>1.25</v>
       </c>
       <c r="AS44">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT44">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU44">
         <v>1.81</v>
@@ -10699,7 +10699,7 @@
         <v>2.42</v>
       </c>
       <c r="AT50">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU50">
         <v>1.85</v>
@@ -11651,7 +11651,7 @@
         <v>1.75</v>
       </c>
       <c r="AS55">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT55">
         <v>1.08</v>
@@ -12036,7 +12036,7 @@
         <v>2.25</v>
       </c>
       <c r="AT57">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU57">
         <v>1.05</v>
@@ -12609,7 +12609,7 @@
         <v>2.42</v>
       </c>
       <c r="AT60">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU60">
         <v>1.74</v>
@@ -13370,7 +13370,7 @@
         <v>1.25</v>
       </c>
       <c r="AS64">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT64">
         <v>1.25</v>
@@ -13561,7 +13561,7 @@
         <v>2</v>
       </c>
       <c r="AS65">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT65">
         <v>1.75</v>
@@ -14325,7 +14325,7 @@
         <v>1.4</v>
       </c>
       <c r="AS69">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT69">
         <v>1.67</v>
@@ -14519,7 +14519,7 @@
         <v>0.42</v>
       </c>
       <c r="AT70">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU70">
         <v>1.16</v>
@@ -15665,7 +15665,7 @@
         <v>1.08</v>
       </c>
       <c r="AT76">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU76">
         <v>1.29</v>
@@ -15853,7 +15853,7 @@
         <v>0.83</v>
       </c>
       <c r="AS77">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT77">
         <v>0.75</v>
@@ -16047,7 +16047,7 @@
         <v>1.83</v>
       </c>
       <c r="AT78">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU78">
         <v>1.91</v>
@@ -16808,7 +16808,7 @@
         <v>0.83</v>
       </c>
       <c r="AS82">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT82">
         <v>1.25</v>
@@ -17381,7 +17381,7 @@
         <v>2</v>
       </c>
       <c r="AS85">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT85">
         <v>1.75</v>
@@ -17957,7 +17957,7 @@
         <v>0.92</v>
       </c>
       <c r="AT88">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU88">
         <v>1.35</v>
@@ -19482,7 +19482,7 @@
         <v>2.29</v>
       </c>
       <c r="AS96">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT96">
         <v>1.83</v>
@@ -19676,7 +19676,7 @@
         <v>1.58</v>
       </c>
       <c r="AT97">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU97">
         <v>1.27</v>
@@ -20628,7 +20628,7 @@
         <v>1.25</v>
       </c>
       <c r="AS102">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT102">
         <v>1</v>
@@ -20822,7 +20822,7 @@
         <v>1.33</v>
       </c>
       <c r="AT103">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU103">
         <v>1.69</v>
@@ -21013,7 +21013,7 @@
         <v>0.42</v>
       </c>
       <c r="AT104">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU104">
         <v>1.16</v>
@@ -21968,7 +21968,7 @@
         <v>2.42</v>
       </c>
       <c r="AT109">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU109">
         <v>1.81</v>
@@ -22156,7 +22156,7 @@
         <v>0.67</v>
       </c>
       <c r="AS110">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT110">
         <v>0.75</v>
@@ -22729,7 +22729,7 @@
         <v>0.25</v>
       </c>
       <c r="AS113">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT113">
         <v>0.92</v>
@@ -23111,7 +23111,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS115">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT115">
         <v>0.92</v>
@@ -23878,7 +23878,7 @@
         <v>0.92</v>
       </c>
       <c r="AT119">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU119">
         <v>1.49</v>
@@ -24451,7 +24451,7 @@
         <v>1.08</v>
       </c>
       <c r="AT122">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU122">
         <v>1.34</v>
@@ -25212,10 +25212,10 @@
         <v>0.8</v>
       </c>
       <c r="AS126">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT126">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU126">
         <v>1.54</v>
@@ -26358,7 +26358,7 @@
         <v>1.7</v>
       </c>
       <c r="AS132">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT132">
         <v>1.67</v>
@@ -26740,7 +26740,7 @@
         <v>0.82</v>
       </c>
       <c r="AS134">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT134">
         <v>0.75</v>
@@ -27316,7 +27316,7 @@
         <v>2.25</v>
       </c>
       <c r="AT137">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU137">
         <v>1.22</v>
@@ -27504,7 +27504,7 @@
         <v>1.82</v>
       </c>
       <c r="AS138">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT138">
         <v>1.75</v>
@@ -28271,7 +28271,7 @@
         <v>0.42</v>
       </c>
       <c r="AT142">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU142">
         <v>1.15</v>
@@ -28896,6 +28896,388 @@
       </c>
       <c r="BK145">
         <v>12</v>
+      </c>
+    </row>
+    <row r="146" spans="1:63">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>5396328</v>
+      </c>
+      <c r="C146" t="s">
+        <v>63</v>
+      </c>
+      <c r="D146" t="s">
+        <v>64</v>
+      </c>
+      <c r="E146" s="2">
+        <v>44995.66666666666</v>
+      </c>
+      <c r="F146">
+        <v>3</v>
+      </c>
+      <c r="G146" t="s">
+        <v>67</v>
+      </c>
+      <c r="H146" t="s">
+        <v>73</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>1</v>
+      </c>
+      <c r="N146">
+        <v>1</v>
+      </c>
+      <c r="O146" t="s">
+        <v>82</v>
+      </c>
+      <c r="P146" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q146">
+        <v>7</v>
+      </c>
+      <c r="R146">
+        <v>4</v>
+      </c>
+      <c r="S146">
+        <v>11</v>
+      </c>
+      <c r="T146">
+        <v>2.7</v>
+      </c>
+      <c r="U146">
+        <v>2.2</v>
+      </c>
+      <c r="V146">
+        <v>3.4</v>
+      </c>
+      <c r="W146">
+        <v>1.36</v>
+      </c>
+      <c r="X146">
+        <v>3</v>
+      </c>
+      <c r="Y146">
+        <v>2.5</v>
+      </c>
+      <c r="Z146">
+        <v>1.5</v>
+      </c>
+      <c r="AA146">
+        <v>6</v>
+      </c>
+      <c r="AB146">
+        <v>1.11</v>
+      </c>
+      <c r="AC146">
+        <v>2.3</v>
+      </c>
+      <c r="AD146">
+        <v>3.3</v>
+      </c>
+      <c r="AE146">
+        <v>3</v>
+      </c>
+      <c r="AF146">
+        <v>1.05</v>
+      </c>
+      <c r="AG146">
+        <v>9</v>
+      </c>
+      <c r="AH146">
+        <v>1.25</v>
+      </c>
+      <c r="AI146">
+        <v>3.75</v>
+      </c>
+      <c r="AJ146">
+        <v>1.78</v>
+      </c>
+      <c r="AK146">
+        <v>2</v>
+      </c>
+      <c r="AL146">
+        <v>1.67</v>
+      </c>
+      <c r="AM146">
+        <v>2.1</v>
+      </c>
+      <c r="AN146">
+        <v>1.35</v>
+      </c>
+      <c r="AO146">
+        <v>1.29</v>
+      </c>
+      <c r="AP146">
+        <v>1.65</v>
+      </c>
+      <c r="AQ146">
+        <v>1.67</v>
+      </c>
+      <c r="AR146">
+        <v>1.42</v>
+      </c>
+      <c r="AS146">
+        <v>1.54</v>
+      </c>
+      <c r="AT146">
+        <v>1.54</v>
+      </c>
+      <c r="AU146">
+        <v>1.91</v>
+      </c>
+      <c r="AV146">
+        <v>1.7</v>
+      </c>
+      <c r="AW146">
+        <v>3.61</v>
+      </c>
+      <c r="AX146">
+        <v>1.71</v>
+      </c>
+      <c r="AY146">
+        <v>5.75</v>
+      </c>
+      <c r="AZ146">
+        <v>2.45</v>
+      </c>
+      <c r="BA146">
+        <v>1.2</v>
+      </c>
+      <c r="BB146">
+        <v>1.38</v>
+      </c>
+      <c r="BC146">
+        <v>1.67</v>
+      </c>
+      <c r="BD146">
+        <v>2.12</v>
+      </c>
+      <c r="BE146">
+        <v>2.85</v>
+      </c>
+      <c r="BF146">
+        <v>9</v>
+      </c>
+      <c r="BG146">
+        <v>8</v>
+      </c>
+      <c r="BH146">
+        <v>8</v>
+      </c>
+      <c r="BI146">
+        <v>8</v>
+      </c>
+      <c r="BJ146">
+        <v>17</v>
+      </c>
+      <c r="BK146">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" spans="1:63">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>5396329</v>
+      </c>
+      <c r="C147" t="s">
+        <v>63</v>
+      </c>
+      <c r="D147" t="s">
+        <v>64</v>
+      </c>
+      <c r="E147" s="2">
+        <v>44995.66666666666</v>
+      </c>
+      <c r="F147">
+        <v>3</v>
+      </c>
+      <c r="G147" t="s">
+        <v>65</v>
+      </c>
+      <c r="H147" t="s">
+        <v>71</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>1</v>
+      </c>
+      <c r="O147" t="s">
+        <v>108</v>
+      </c>
+      <c r="P147" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q147">
+        <v>5</v>
+      </c>
+      <c r="R147">
+        <v>6</v>
+      </c>
+      <c r="S147">
+        <v>11</v>
+      </c>
+      <c r="T147">
+        <v>3.3</v>
+      </c>
+      <c r="U147">
+        <v>2.15</v>
+      </c>
+      <c r="V147">
+        <v>2.95</v>
+      </c>
+      <c r="W147">
+        <v>1.36</v>
+      </c>
+      <c r="X147">
+        <v>2.9</v>
+      </c>
+      <c r="Y147">
+        <v>2.6</v>
+      </c>
+      <c r="Z147">
+        <v>1.44</v>
+      </c>
+      <c r="AA147">
+        <v>6.45</v>
+      </c>
+      <c r="AB147">
+        <v>1.09</v>
+      </c>
+      <c r="AC147">
+        <v>2.9</v>
+      </c>
+      <c r="AD147">
+        <v>3.3</v>
+      </c>
+      <c r="AE147">
+        <v>2.4</v>
+      </c>
+      <c r="AF147">
+        <v>1.05</v>
+      </c>
+      <c r="AG147">
+        <v>9</v>
+      </c>
+      <c r="AH147">
+        <v>1.25</v>
+      </c>
+      <c r="AI147">
+        <v>3.75</v>
+      </c>
+      <c r="AJ147">
+        <v>1.8</v>
+      </c>
+      <c r="AK147">
+        <v>1.95</v>
+      </c>
+      <c r="AL147">
+        <v>1.63</v>
+      </c>
+      <c r="AM147">
+        <v>2.2</v>
+      </c>
+      <c r="AN147">
+        <v>1.55</v>
+      </c>
+      <c r="AO147">
+        <v>1.25</v>
+      </c>
+      <c r="AP147">
+        <v>1.42</v>
+      </c>
+      <c r="AQ147">
+        <v>0.75</v>
+      </c>
+      <c r="AR147">
+        <v>1.17</v>
+      </c>
+      <c r="AS147">
+        <v>0.92</v>
+      </c>
+      <c r="AT147">
+        <v>1.08</v>
+      </c>
+      <c r="AU147">
+        <v>1.53</v>
+      </c>
+      <c r="AV147">
+        <v>1.55</v>
+      </c>
+      <c r="AW147">
+        <v>3.08</v>
+      </c>
+      <c r="AX147">
+        <v>2.15</v>
+      </c>
+      <c r="AY147">
+        <v>5.5</v>
+      </c>
+      <c r="AZ147">
+        <v>1.9</v>
+      </c>
+      <c r="BA147">
+        <v>1.27</v>
+      </c>
+      <c r="BB147">
+        <v>1.5</v>
+      </c>
+      <c r="BC147">
+        <v>1.88</v>
+      </c>
+      <c r="BD147">
+        <v>2.45</v>
+      </c>
+      <c r="BE147">
+        <v>3.4</v>
+      </c>
+      <c r="BF147">
+        <v>8</v>
+      </c>
+      <c r="BG147">
+        <v>2</v>
+      </c>
+      <c r="BH147">
+        <v>7</v>
+      </c>
+      <c r="BI147">
+        <v>6</v>
+      </c>
+      <c r="BJ147">
+        <v>15</v>
+      </c>
+      <c r="BK147">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="278">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -580,6 +580,15 @@
     <t>['11']</t>
   </si>
   <si>
+    <t>['46', '73']</t>
+  </si>
+  <si>
+    <t>['49', '58', '90+5']</t>
+  </si>
+  <si>
+    <t>['67', '70']</t>
+  </si>
+  <si>
     <t>['12', '15', '69', '90+3']</t>
   </si>
   <si>
@@ -836,6 +845,9 @@
   </si>
   <si>
     <t>['13']</t>
+  </si>
+  <si>
+    <t>['26', '60']</t>
   </si>
 </sst>
 </file>
@@ -1197,7 +1209,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK147"/>
+  <dimension ref="A1:BK151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1441,7 +1453,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1632,7 +1644,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -1719,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AT3">
         <v>1.67</v>
@@ -2014,7 +2026,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -2104,7 +2116,7 @@
         <v>2.25</v>
       </c>
       <c r="AT5">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2205,7 +2217,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -2587,7 +2599,7 @@
         <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2677,7 +2689,7 @@
         <v>1.58</v>
       </c>
       <c r="AT8">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2778,7 +2790,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2969,7 +2981,7 @@
         <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3247,7 +3259,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT11">
         <v>1.08</v>
@@ -3351,7 +3363,7 @@
         <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3438,10 +3450,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT12">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3542,7 +3554,7 @@
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3629,10 +3641,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT13">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3823,7 +3835,7 @@
         <v>0.92</v>
       </c>
       <c r="AT14">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU14">
         <v>1.21</v>
@@ -3924,7 +3936,7 @@
         <v>82</v>
       </c>
       <c r="P15" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q15">
         <v>9</v>
@@ -4115,7 +4127,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -4306,7 +4318,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4497,7 +4509,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q18">
         <v>9</v>
@@ -4688,7 +4700,7 @@
         <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q19">
         <v>7</v>
@@ -4879,7 +4891,7 @@
         <v>92</v>
       </c>
       <c r="P20" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -4966,10 +4978,10 @@
         <v>3</v>
       </c>
       <c r="AS20">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT20">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU20">
         <v>1.76</v>
@@ -5070,7 +5082,7 @@
         <v>93</v>
       </c>
       <c r="P21" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -5160,7 +5172,7 @@
         <v>0.92</v>
       </c>
       <c r="AT21">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU21">
         <v>1.07</v>
@@ -5261,7 +5273,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -5539,7 +5551,7 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT23">
         <v>1.08</v>
@@ -5643,7 +5655,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q24">
         <v>2</v>
@@ -5730,7 +5742,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AT24">
         <v>1.08</v>
@@ -5834,7 +5846,7 @@
         <v>82</v>
       </c>
       <c r="P25" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5921,7 +5933,7 @@
         <v>0.5</v>
       </c>
       <c r="AS25">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT25">
         <v>1.54</v>
@@ -6025,7 +6037,7 @@
         <v>97</v>
       </c>
       <c r="P26" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -6216,7 +6228,7 @@
         <v>82</v>
       </c>
       <c r="P27" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6407,7 +6419,7 @@
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6497,7 +6509,7 @@
         <v>1.17</v>
       </c>
       <c r="AT28">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU28">
         <v>1.55</v>
@@ -6688,7 +6700,7 @@
         <v>2.42</v>
       </c>
       <c r="AT29">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU29">
         <v>1.71</v>
@@ -6789,7 +6801,7 @@
         <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6980,7 +6992,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7171,7 +7183,7 @@
         <v>82</v>
       </c>
       <c r="P32" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q32">
         <v>7</v>
@@ -7362,7 +7374,7 @@
         <v>101</v>
       </c>
       <c r="P33" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7449,10 +7461,10 @@
         <v>2</v>
       </c>
       <c r="AS33">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT33">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU33">
         <v>1.95</v>
@@ -7553,7 +7565,7 @@
         <v>102</v>
       </c>
       <c r="P34" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7744,7 +7756,7 @@
         <v>103</v>
       </c>
       <c r="P35" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q35">
         <v>14</v>
@@ -7831,10 +7843,10 @@
         <v>0.5</v>
       </c>
       <c r="AS35">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT35">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU35">
         <v>1.47</v>
@@ -7935,7 +7947,7 @@
         <v>79</v>
       </c>
       <c r="P36" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q36">
         <v>1</v>
@@ -8022,7 +8034,7 @@
         <v>2</v>
       </c>
       <c r="AS36">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AT36">
         <v>1.83</v>
@@ -8213,10 +8225,10 @@
         <v>1.33</v>
       </c>
       <c r="AS37">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT37">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU37">
         <v>1.77</v>
@@ -8317,7 +8329,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q38">
         <v>7</v>
@@ -8404,10 +8416,10 @@
         <v>0.5</v>
       </c>
       <c r="AS38">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AT38">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU38">
         <v>1.04</v>
@@ -8508,7 +8520,7 @@
         <v>82</v>
       </c>
       <c r="P39" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8786,7 +8798,7 @@
         <v>1.33</v>
       </c>
       <c r="AS40">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT40">
         <v>1.67</v>
@@ -9272,7 +9284,7 @@
         <v>108</v>
       </c>
       <c r="P43" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q43">
         <v>1</v>
@@ -9362,7 +9374,7 @@
         <v>0.92</v>
       </c>
       <c r="AT43">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU43">
         <v>1.14</v>
@@ -9463,7 +9475,7 @@
         <v>82</v>
       </c>
       <c r="P44" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q44">
         <v>9</v>
@@ -9654,7 +9666,7 @@
         <v>109</v>
       </c>
       <c r="P45" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q45">
         <v>8</v>
@@ -10123,7 +10135,7 @@
         <v>2.33</v>
       </c>
       <c r="AS47">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT47">
         <v>1.83</v>
@@ -10314,10 +10326,10 @@
         <v>1.75</v>
       </c>
       <c r="AS48">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT48">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU48">
         <v>2.17</v>
@@ -10418,7 +10430,7 @@
         <v>113</v>
       </c>
       <c r="P49" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10508,7 +10520,7 @@
         <v>2.25</v>
       </c>
       <c r="AT49">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU49">
         <v>0.75</v>
@@ -10609,7 +10621,7 @@
         <v>114</v>
       </c>
       <c r="P50" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q50">
         <v>1</v>
@@ -10800,7 +10812,7 @@
         <v>115</v>
       </c>
       <c r="P51" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11078,7 +11090,7 @@
         <v>1.5</v>
       </c>
       <c r="AS52">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AT52">
         <v>1.17</v>
@@ -11182,7 +11194,7 @@
         <v>116</v>
       </c>
       <c r="P53" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q53">
         <v>10</v>
@@ -11269,10 +11281,10 @@
         <v>0.67</v>
       </c>
       <c r="AS53">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT53">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU53">
         <v>1.79</v>
@@ -11373,7 +11385,7 @@
         <v>117</v>
       </c>
       <c r="P54" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11463,7 +11475,7 @@
         <v>1.08</v>
       </c>
       <c r="AT54">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU54">
         <v>1.36</v>
@@ -11564,7 +11576,7 @@
         <v>118</v>
       </c>
       <c r="P55" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -12137,7 +12149,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12328,7 +12340,7 @@
         <v>82</v>
       </c>
       <c r="P59" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12519,7 +12531,7 @@
         <v>122</v>
       </c>
       <c r="P60" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12606,7 +12618,7 @@
         <v>1.6</v>
       </c>
       <c r="AS60">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT60">
         <v>1.54</v>
@@ -12710,7 +12722,7 @@
         <v>123</v>
       </c>
       <c r="P61" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -12797,7 +12809,7 @@
         <v>2.25</v>
       </c>
       <c r="AS61">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT61">
         <v>1.58</v>
@@ -12901,7 +12913,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -12991,7 +13003,7 @@
         <v>1.58</v>
       </c>
       <c r="AT62">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU62">
         <v>1.25</v>
@@ -13179,7 +13191,7 @@
         <v>1</v>
       </c>
       <c r="AS63">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT63">
         <v>0.75</v>
@@ -13283,7 +13295,7 @@
         <v>126</v>
       </c>
       <c r="P64" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q64">
         <v>6</v>
@@ -13373,7 +13385,7 @@
         <v>0.92</v>
       </c>
       <c r="AT64">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU64">
         <v>1.79</v>
@@ -13474,7 +13486,7 @@
         <v>127</v>
       </c>
       <c r="P65" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13564,7 +13576,7 @@
         <v>1.54</v>
       </c>
       <c r="AT65">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU65">
         <v>1.87</v>
@@ -13752,7 +13764,7 @@
         <v>1.4</v>
       </c>
       <c r="AS66">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT66">
         <v>1.17</v>
@@ -13946,7 +13958,7 @@
         <v>2.42</v>
       </c>
       <c r="AT67">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU67">
         <v>1.91</v>
@@ -14137,7 +14149,7 @@
         <v>1.17</v>
       </c>
       <c r="AT68">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU68">
         <v>1.73</v>
@@ -14238,7 +14250,7 @@
         <v>82</v>
       </c>
       <c r="P69" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q69">
         <v>2</v>
@@ -14429,7 +14441,7 @@
         <v>82</v>
       </c>
       <c r="P70" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14516,7 +14528,7 @@
         <v>0.2</v>
       </c>
       <c r="AS70">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AT70">
         <v>1.08</v>
@@ -14710,7 +14722,7 @@
         <v>2.42</v>
       </c>
       <c r="AT71">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU71">
         <v>1.89</v>
@@ -14811,7 +14823,7 @@
         <v>131</v>
       </c>
       <c r="P72" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q72">
         <v>3</v>
@@ -14898,7 +14910,7 @@
         <v>2</v>
       </c>
       <c r="AS72">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT72">
         <v>1.83</v>
@@ -15002,7 +15014,7 @@
         <v>132</v>
       </c>
       <c r="P73" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -15089,10 +15101,10 @@
         <v>0.4</v>
       </c>
       <c r="AS73">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT73">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU73">
         <v>1.89</v>
@@ -15193,7 +15205,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q74">
         <v>2</v>
@@ -15283,7 +15295,7 @@
         <v>2.25</v>
       </c>
       <c r="AT74">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU74">
         <v>1.14</v>
@@ -15384,7 +15396,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q75">
         <v>2</v>
@@ -15957,7 +15969,7 @@
         <v>136</v>
       </c>
       <c r="P78" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q78">
         <v>1</v>
@@ -16044,7 +16056,7 @@
         <v>1.33</v>
       </c>
       <c r="AS78">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT78">
         <v>1.54</v>
@@ -16235,7 +16247,7 @@
         <v>1.8</v>
       </c>
       <c r="AS79">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT79">
         <v>1.58</v>
@@ -16339,7 +16351,7 @@
         <v>82</v>
       </c>
       <c r="P80" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q80">
         <v>2</v>
@@ -16426,10 +16438,10 @@
         <v>1</v>
       </c>
       <c r="AS80">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AT80">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU80">
         <v>1.2</v>
@@ -16530,7 +16542,7 @@
         <v>138</v>
       </c>
       <c r="P81" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -16617,10 +16629,10 @@
         <v>0.33</v>
       </c>
       <c r="AS81">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT81">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU81">
         <v>1.74</v>
@@ -16811,7 +16823,7 @@
         <v>1.54</v>
       </c>
       <c r="AT82">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU82">
         <v>1.89</v>
@@ -16912,7 +16924,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17384,7 +17396,7 @@
         <v>0.92</v>
       </c>
       <c r="AT85">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU85">
         <v>1.72</v>
@@ -17867,7 +17879,7 @@
         <v>145</v>
       </c>
       <c r="P88" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q88">
         <v>6</v>
@@ -18058,7 +18070,7 @@
         <v>146</v>
       </c>
       <c r="P89" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18249,7 +18261,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q90">
         <v>9</v>
@@ -18440,7 +18452,7 @@
         <v>148</v>
       </c>
       <c r="P91" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q91">
         <v>6</v>
@@ -18527,7 +18539,7 @@
         <v>0.71</v>
       </c>
       <c r="AS91">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT91">
         <v>0.75</v>
@@ -18721,7 +18733,7 @@
         <v>1.17</v>
       </c>
       <c r="AT92">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU92">
         <v>1.73</v>
@@ -18822,7 +18834,7 @@
         <v>150</v>
       </c>
       <c r="P93" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q93">
         <v>9</v>
@@ -19013,7 +19025,7 @@
         <v>82</v>
       </c>
       <c r="P94" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -19100,7 +19112,7 @@
         <v>1.71</v>
       </c>
       <c r="AS94">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AT94">
         <v>1.58</v>
@@ -19204,7 +19216,7 @@
         <v>82</v>
       </c>
       <c r="P95" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q95">
         <v>10</v>
@@ -19291,10 +19303,10 @@
         <v>0.71</v>
       </c>
       <c r="AS95">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT95">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU95">
         <v>1.68</v>
@@ -19395,7 +19407,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19586,7 +19598,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19777,7 +19789,7 @@
         <v>153</v>
       </c>
       <c r="P98" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -19867,7 +19879,7 @@
         <v>2.42</v>
       </c>
       <c r="AT98">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU98">
         <v>1.83</v>
@@ -19968,7 +19980,7 @@
         <v>154</v>
       </c>
       <c r="P99" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q99">
         <v>7</v>
@@ -20058,7 +20070,7 @@
         <v>1.08</v>
       </c>
       <c r="AT99">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU99">
         <v>1.32</v>
@@ -20159,7 +20171,7 @@
         <v>155</v>
       </c>
       <c r="P100" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -20246,7 +20258,7 @@
         <v>1.5</v>
       </c>
       <c r="AS100">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT100">
         <v>1.08</v>
@@ -20437,7 +20449,7 @@
         <v>0.75</v>
       </c>
       <c r="AS101">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT101">
         <v>0.75</v>
@@ -20631,7 +20643,7 @@
         <v>1.54</v>
       </c>
       <c r="AT102">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU102">
         <v>1.98</v>
@@ -20819,7 +20831,7 @@
         <v>1</v>
       </c>
       <c r="AS103">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT103">
         <v>1.08</v>
@@ -21010,7 +21022,7 @@
         <v>1.75</v>
       </c>
       <c r="AS104">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AT104">
         <v>1.54</v>
@@ -21114,7 +21126,7 @@
         <v>82</v>
       </c>
       <c r="P105" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q105">
         <v>6</v>
@@ -21305,7 +21317,7 @@
         <v>159</v>
       </c>
       <c r="P106" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -21496,7 +21508,7 @@
         <v>160</v>
       </c>
       <c r="P107" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q107">
         <v>2</v>
@@ -21687,7 +21699,7 @@
         <v>161</v>
       </c>
       <c r="P108" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q108">
         <v>2</v>
@@ -21878,7 +21890,7 @@
         <v>162</v>
       </c>
       <c r="P109" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -21965,7 +21977,7 @@
         <v>0.89</v>
       </c>
       <c r="AS109">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT109">
         <v>1.08</v>
@@ -22069,7 +22081,7 @@
         <v>163</v>
       </c>
       <c r="P110" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22451,7 +22463,7 @@
         <v>165</v>
       </c>
       <c r="P112" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q112">
         <v>11</v>
@@ -22732,7 +22744,7 @@
         <v>0.92</v>
       </c>
       <c r="AT113">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU113">
         <v>1.6</v>
@@ -22833,7 +22845,7 @@
         <v>166</v>
       </c>
       <c r="P114" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q114">
         <v>8</v>
@@ -22923,7 +22935,7 @@
         <v>1.58</v>
       </c>
       <c r="AT114">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU114">
         <v>1.32</v>
@@ -23024,7 +23036,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q115">
         <v>7</v>
@@ -23114,7 +23126,7 @@
         <v>1.54</v>
       </c>
       <c r="AT115">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU115">
         <v>2.05</v>
@@ -23215,7 +23227,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -23302,10 +23314,10 @@
         <v>1.56</v>
       </c>
       <c r="AS116">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AT116">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU116">
         <v>1.14</v>
@@ -23493,7 +23505,7 @@
         <v>1.33</v>
       </c>
       <c r="AS117">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT117">
         <v>1.08</v>
@@ -23597,7 +23609,7 @@
         <v>169</v>
       </c>
       <c r="P118" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -23684,7 +23696,7 @@
         <v>1.56</v>
       </c>
       <c r="AS118">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT118">
         <v>1.67</v>
@@ -23788,7 +23800,7 @@
         <v>170</v>
       </c>
       <c r="P119" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q119">
         <v>5</v>
@@ -24170,7 +24182,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24361,7 +24373,7 @@
         <v>173</v>
       </c>
       <c r="P122" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q122">
         <v>5</v>
@@ -24552,7 +24564,7 @@
         <v>174</v>
       </c>
       <c r="P123" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q123">
         <v>7</v>
@@ -24639,10 +24651,10 @@
         <v>1.11</v>
       </c>
       <c r="AS123">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT123">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU123">
         <v>1.83</v>
@@ -24830,7 +24842,7 @@
         <v>1.9</v>
       </c>
       <c r="AS124">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT124">
         <v>1.83</v>
@@ -25316,7 +25328,7 @@
         <v>177</v>
       </c>
       <c r="P127" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q127">
         <v>5</v>
@@ -25507,7 +25519,7 @@
         <v>178</v>
       </c>
       <c r="P128" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q128">
         <v>5</v>
@@ -25597,7 +25609,7 @@
         <v>1.58</v>
       </c>
       <c r="AT128">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU128">
         <v>1.37</v>
@@ -25788,7 +25800,7 @@
         <v>0.92</v>
       </c>
       <c r="AT129">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU129">
         <v>1.56</v>
@@ -25889,7 +25901,7 @@
         <v>82</v>
       </c>
       <c r="P130" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q130">
         <v>9</v>
@@ -25976,7 +25988,7 @@
         <v>1.1</v>
       </c>
       <c r="AS130">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT130">
         <v>1.17</v>
@@ -26167,10 +26179,10 @@
         <v>0.5</v>
       </c>
       <c r="AS131">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AT131">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU131">
         <v>1.17</v>
@@ -26271,7 +26283,7 @@
         <v>82</v>
       </c>
       <c r="P132" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q132">
         <v>6</v>
@@ -26462,7 +26474,7 @@
         <v>179</v>
       </c>
       <c r="P133" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q133">
         <v>10</v>
@@ -26552,7 +26564,7 @@
         <v>1.08</v>
       </c>
       <c r="AT133">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU133">
         <v>1.32</v>
@@ -27035,7 +27047,7 @@
         <v>115</v>
       </c>
       <c r="P136" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27125,7 +27137,7 @@
         <v>1.58</v>
       </c>
       <c r="AT136">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AU136">
         <v>1.37</v>
@@ -27507,7 +27519,7 @@
         <v>1.54</v>
       </c>
       <c r="AT138">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AU138">
         <v>1.98</v>
@@ -27695,7 +27707,7 @@
         <v>1.27</v>
       </c>
       <c r="AS139">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT139">
         <v>1.17</v>
@@ -27886,7 +27898,7 @@
         <v>1.18</v>
       </c>
       <c r="AS140">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT140">
         <v>1.08</v>
@@ -27990,7 +28002,7 @@
         <v>94</v>
       </c>
       <c r="P141" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -28080,7 +28092,7 @@
         <v>1.17</v>
       </c>
       <c r="AT141">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU141">
         <v>1.63</v>
@@ -28181,7 +28193,7 @@
         <v>185</v>
       </c>
       <c r="P142" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q142">
         <v>7</v>
@@ -28268,7 +28280,7 @@
         <v>1</v>
       </c>
       <c r="AS142">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AT142">
         <v>1.08</v>
@@ -28372,7 +28384,7 @@
         <v>186</v>
       </c>
       <c r="P143" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q143">
         <v>0</v>
@@ -28650,7 +28662,7 @@
         <v>1.73</v>
       </c>
       <c r="AS144">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT144">
         <v>1.83</v>
@@ -28754,7 +28766,7 @@
         <v>187</v>
       </c>
       <c r="P145" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q145">
         <v>5</v>
@@ -28844,7 +28856,7 @@
         <v>1.08</v>
       </c>
       <c r="AT145">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU145">
         <v>1.31</v>
@@ -29278,6 +29290,770 @@
       </c>
       <c r="BK147">
         <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:63">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>5396330</v>
+      </c>
+      <c r="C148" t="s">
+        <v>63</v>
+      </c>
+      <c r="D148" t="s">
+        <v>64</v>
+      </c>
+      <c r="E148" s="2">
+        <v>44996.5</v>
+      </c>
+      <c r="F148">
+        <v>3</v>
+      </c>
+      <c r="G148" t="s">
+        <v>66</v>
+      </c>
+      <c r="H148" t="s">
+        <v>72</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>1</v>
+      </c>
+      <c r="O148" t="s">
+        <v>136</v>
+      </c>
+      <c r="P148" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q148">
+        <v>-1</v>
+      </c>
+      <c r="R148">
+        <v>-1</v>
+      </c>
+      <c r="S148">
+        <v>-1</v>
+      </c>
+      <c r="T148">
+        <v>0</v>
+      </c>
+      <c r="U148">
+        <v>0</v>
+      </c>
+      <c r="V148">
+        <v>0</v>
+      </c>
+      <c r="W148">
+        <v>0</v>
+      </c>
+      <c r="X148">
+        <v>0</v>
+      </c>
+      <c r="Y148">
+        <v>0</v>
+      </c>
+      <c r="Z148">
+        <v>0</v>
+      </c>
+      <c r="AA148">
+        <v>0</v>
+      </c>
+      <c r="AB148">
+        <v>0</v>
+      </c>
+      <c r="AC148">
+        <v>2.1</v>
+      </c>
+      <c r="AD148">
+        <v>3.25</v>
+      </c>
+      <c r="AE148">
+        <v>3.1</v>
+      </c>
+      <c r="AF148">
+        <v>0</v>
+      </c>
+      <c r="AG148">
+        <v>0</v>
+      </c>
+      <c r="AH148">
+        <v>0</v>
+      </c>
+      <c r="AI148">
+        <v>0</v>
+      </c>
+      <c r="AJ148">
+        <v>1.8</v>
+      </c>
+      <c r="AK148">
+        <v>1.9</v>
+      </c>
+      <c r="AL148">
+        <v>0</v>
+      </c>
+      <c r="AM148">
+        <v>0</v>
+      </c>
+      <c r="AN148">
+        <v>0</v>
+      </c>
+      <c r="AO148">
+        <v>0</v>
+      </c>
+      <c r="AP148">
+        <v>0</v>
+      </c>
+      <c r="AQ148">
+        <v>0.42</v>
+      </c>
+      <c r="AR148">
+        <v>1</v>
+      </c>
+      <c r="AS148">
+        <v>0.62</v>
+      </c>
+      <c r="AT148">
+        <v>0.92</v>
+      </c>
+      <c r="AU148">
+        <v>1.18</v>
+      </c>
+      <c r="AV148">
+        <v>1.38</v>
+      </c>
+      <c r="AW148">
+        <v>2.56</v>
+      </c>
+      <c r="AX148">
+        <v>0</v>
+      </c>
+      <c r="AY148">
+        <v>0</v>
+      </c>
+      <c r="AZ148">
+        <v>0</v>
+      </c>
+      <c r="BA148">
+        <v>0</v>
+      </c>
+      <c r="BB148">
+        <v>0</v>
+      </c>
+      <c r="BC148">
+        <v>0</v>
+      </c>
+      <c r="BD148">
+        <v>0</v>
+      </c>
+      <c r="BE148">
+        <v>0</v>
+      </c>
+      <c r="BF148">
+        <v>-1</v>
+      </c>
+      <c r="BG148">
+        <v>-1</v>
+      </c>
+      <c r="BH148">
+        <v>-1</v>
+      </c>
+      <c r="BI148">
+        <v>-1</v>
+      </c>
+      <c r="BJ148">
+        <v>-1</v>
+      </c>
+      <c r="BK148">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:63">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>5396331</v>
+      </c>
+      <c r="C149" t="s">
+        <v>63</v>
+      </c>
+      <c r="D149" t="s">
+        <v>64</v>
+      </c>
+      <c r="E149" s="2">
+        <v>44996.66666666666</v>
+      </c>
+      <c r="F149">
+        <v>3</v>
+      </c>
+      <c r="G149" t="s">
+        <v>76</v>
+      </c>
+      <c r="H149" t="s">
+        <v>70</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>2</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>2</v>
+      </c>
+      <c r="O149" t="s">
+        <v>188</v>
+      </c>
+      <c r="P149" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q149">
+        <v>9</v>
+      </c>
+      <c r="R149">
+        <v>9</v>
+      </c>
+      <c r="S149">
+        <v>18</v>
+      </c>
+      <c r="T149">
+        <v>0</v>
+      </c>
+      <c r="U149">
+        <v>0</v>
+      </c>
+      <c r="V149">
+        <v>0</v>
+      </c>
+      <c r="W149">
+        <v>0</v>
+      </c>
+      <c r="X149">
+        <v>0</v>
+      </c>
+      <c r="Y149">
+        <v>0</v>
+      </c>
+      <c r="Z149">
+        <v>0</v>
+      </c>
+      <c r="AA149">
+        <v>0</v>
+      </c>
+      <c r="AB149">
+        <v>0</v>
+      </c>
+      <c r="AC149">
+        <v>2.14</v>
+      </c>
+      <c r="AD149">
+        <v>3.5</v>
+      </c>
+      <c r="AE149">
+        <v>2.89</v>
+      </c>
+      <c r="AF149">
+        <v>0</v>
+      </c>
+      <c r="AG149">
+        <v>0</v>
+      </c>
+      <c r="AH149">
+        <v>0</v>
+      </c>
+      <c r="AI149">
+        <v>0</v>
+      </c>
+      <c r="AJ149">
+        <v>1.49</v>
+      </c>
+      <c r="AK149">
+        <v>2.32</v>
+      </c>
+      <c r="AL149">
+        <v>0</v>
+      </c>
+      <c r="AM149">
+        <v>0</v>
+      </c>
+      <c r="AN149">
+        <v>0</v>
+      </c>
+      <c r="AO149">
+        <v>0</v>
+      </c>
+      <c r="AP149">
+        <v>0</v>
+      </c>
+      <c r="AQ149">
+        <v>1.83</v>
+      </c>
+      <c r="AR149">
+        <v>1.75</v>
+      </c>
+      <c r="AS149">
+        <v>1.92</v>
+      </c>
+      <c r="AT149">
+        <v>1.62</v>
+      </c>
+      <c r="AU149">
+        <v>1.63</v>
+      </c>
+      <c r="AV149">
+        <v>1.25</v>
+      </c>
+      <c r="AW149">
+        <v>2.88</v>
+      </c>
+      <c r="AX149">
+        <v>0</v>
+      </c>
+      <c r="AY149">
+        <v>0</v>
+      </c>
+      <c r="AZ149">
+        <v>0</v>
+      </c>
+      <c r="BA149">
+        <v>0</v>
+      </c>
+      <c r="BB149">
+        <v>0</v>
+      </c>
+      <c r="BC149">
+        <v>0</v>
+      </c>
+      <c r="BD149">
+        <v>0</v>
+      </c>
+      <c r="BE149">
+        <v>0</v>
+      </c>
+      <c r="BF149">
+        <v>7</v>
+      </c>
+      <c r="BG149">
+        <v>6</v>
+      </c>
+      <c r="BH149">
+        <v>5</v>
+      </c>
+      <c r="BI149">
+        <v>5</v>
+      </c>
+      <c r="BJ149">
+        <v>12</v>
+      </c>
+      <c r="BK149">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="1:63">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>5396332</v>
+      </c>
+      <c r="C150" t="s">
+        <v>63</v>
+      </c>
+      <c r="D150" t="s">
+        <v>64</v>
+      </c>
+      <c r="E150" s="2">
+        <v>44997.5</v>
+      </c>
+      <c r="F150">
+        <v>3</v>
+      </c>
+      <c r="G150" t="s">
+        <v>74</v>
+      </c>
+      <c r="H150" t="s">
+        <v>68</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+      <c r="K150">
+        <v>1</v>
+      </c>
+      <c r="L150">
+        <v>3</v>
+      </c>
+      <c r="M150">
+        <v>2</v>
+      </c>
+      <c r="N150">
+        <v>5</v>
+      </c>
+      <c r="O150" t="s">
+        <v>189</v>
+      </c>
+      <c r="P150" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q150">
+        <v>13</v>
+      </c>
+      <c r="R150">
+        <v>2</v>
+      </c>
+      <c r="S150">
+        <v>15</v>
+      </c>
+      <c r="T150">
+        <v>0</v>
+      </c>
+      <c r="U150">
+        <v>0</v>
+      </c>
+      <c r="V150">
+        <v>0</v>
+      </c>
+      <c r="W150">
+        <v>0</v>
+      </c>
+      <c r="X150">
+        <v>0</v>
+      </c>
+      <c r="Y150">
+        <v>0</v>
+      </c>
+      <c r="Z150">
+        <v>0</v>
+      </c>
+      <c r="AA150">
+        <v>0</v>
+      </c>
+      <c r="AB150">
+        <v>0</v>
+      </c>
+      <c r="AC150">
+        <v>1.35</v>
+      </c>
+      <c r="AD150">
+        <v>5</v>
+      </c>
+      <c r="AE150">
+        <v>7</v>
+      </c>
+      <c r="AF150">
+        <v>0</v>
+      </c>
+      <c r="AG150">
+        <v>0</v>
+      </c>
+      <c r="AH150">
+        <v>0</v>
+      </c>
+      <c r="AI150">
+        <v>0</v>
+      </c>
+      <c r="AJ150">
+        <v>1.44</v>
+      </c>
+      <c r="AK150">
+        <v>2.59</v>
+      </c>
+      <c r="AL150">
+        <v>0</v>
+      </c>
+      <c r="AM150">
+        <v>0</v>
+      </c>
+      <c r="AN150">
+        <v>0</v>
+      </c>
+      <c r="AO150">
+        <v>0</v>
+      </c>
+      <c r="AP150">
+        <v>0</v>
+      </c>
+      <c r="AQ150">
+        <v>2.42</v>
+      </c>
+      <c r="AR150">
+        <v>1.25</v>
+      </c>
+      <c r="AS150">
+        <v>2.46</v>
+      </c>
+      <c r="AT150">
+        <v>1.15</v>
+      </c>
+      <c r="AU150">
+        <v>1.8</v>
+      </c>
+      <c r="AV150">
+        <v>1</v>
+      </c>
+      <c r="AW150">
+        <v>2.8</v>
+      </c>
+      <c r="AX150">
+        <v>0</v>
+      </c>
+      <c r="AY150">
+        <v>0</v>
+      </c>
+      <c r="AZ150">
+        <v>0</v>
+      </c>
+      <c r="BA150">
+        <v>0</v>
+      </c>
+      <c r="BB150">
+        <v>0</v>
+      </c>
+      <c r="BC150">
+        <v>0</v>
+      </c>
+      <c r="BD150">
+        <v>0</v>
+      </c>
+      <c r="BE150">
+        <v>0</v>
+      </c>
+      <c r="BF150">
+        <v>8</v>
+      </c>
+      <c r="BG150">
+        <v>4</v>
+      </c>
+      <c r="BH150">
+        <v>10</v>
+      </c>
+      <c r="BI150">
+        <v>2</v>
+      </c>
+      <c r="BJ150">
+        <v>18</v>
+      </c>
+      <c r="BK150">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:63">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>5396333</v>
+      </c>
+      <c r="C151" t="s">
+        <v>63</v>
+      </c>
+      <c r="D151" t="s">
+        <v>64</v>
+      </c>
+      <c r="E151" s="2">
+        <v>44997.63541666666</v>
+      </c>
+      <c r="F151">
+        <v>3</v>
+      </c>
+      <c r="G151" t="s">
+        <v>75</v>
+      </c>
+      <c r="H151" t="s">
+        <v>69</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>2</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>2</v>
+      </c>
+      <c r="O151" t="s">
+        <v>190</v>
+      </c>
+      <c r="P151" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q151">
+        <v>7</v>
+      </c>
+      <c r="R151">
+        <v>6</v>
+      </c>
+      <c r="S151">
+        <v>13</v>
+      </c>
+      <c r="T151">
+        <v>0</v>
+      </c>
+      <c r="U151">
+        <v>0</v>
+      </c>
+      <c r="V151">
+        <v>0</v>
+      </c>
+      <c r="W151">
+        <v>0</v>
+      </c>
+      <c r="X151">
+        <v>0</v>
+      </c>
+      <c r="Y151">
+        <v>0</v>
+      </c>
+      <c r="Z151">
+        <v>0</v>
+      </c>
+      <c r="AA151">
+        <v>0</v>
+      </c>
+      <c r="AB151">
+        <v>0</v>
+      </c>
+      <c r="AC151">
+        <v>1.8</v>
+      </c>
+      <c r="AD151">
+        <v>3.6</v>
+      </c>
+      <c r="AE151">
+        <v>3.4</v>
+      </c>
+      <c r="AF151">
+        <v>0</v>
+      </c>
+      <c r="AG151">
+        <v>0</v>
+      </c>
+      <c r="AH151">
+        <v>0</v>
+      </c>
+      <c r="AI151">
+        <v>0</v>
+      </c>
+      <c r="AJ151">
+        <v>1.46</v>
+      </c>
+      <c r="AK151">
+        <v>2.24</v>
+      </c>
+      <c r="AL151">
+        <v>0</v>
+      </c>
+      <c r="AM151">
+        <v>0</v>
+      </c>
+      <c r="AN151">
+        <v>0</v>
+      </c>
+      <c r="AO151">
+        <v>0</v>
+      </c>
+      <c r="AP151">
+        <v>0</v>
+      </c>
+      <c r="AQ151">
+        <v>1.33</v>
+      </c>
+      <c r="AR151">
+        <v>0.92</v>
+      </c>
+      <c r="AS151">
+        <v>1.46</v>
+      </c>
+      <c r="AT151">
+        <v>0.85</v>
+      </c>
+      <c r="AU151">
+        <v>1.58</v>
+      </c>
+      <c r="AV151">
+        <v>1.56</v>
+      </c>
+      <c r="AW151">
+        <v>3.14</v>
+      </c>
+      <c r="AX151">
+        <v>0</v>
+      </c>
+      <c r="AY151">
+        <v>0</v>
+      </c>
+      <c r="AZ151">
+        <v>0</v>
+      </c>
+      <c r="BA151">
+        <v>0</v>
+      </c>
+      <c r="BB151">
+        <v>0</v>
+      </c>
+      <c r="BC151">
+        <v>0</v>
+      </c>
+      <c r="BD151">
+        <v>0</v>
+      </c>
+      <c r="BE151">
+        <v>0</v>
+      </c>
+      <c r="BF151">
+        <v>8</v>
+      </c>
+      <c r="BG151">
+        <v>12</v>
+      </c>
+      <c r="BH151">
+        <v>11</v>
+      </c>
+      <c r="BI151">
+        <v>6</v>
+      </c>
+      <c r="BJ151">
+        <v>19</v>
+      </c>
+      <c r="BK151">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
@@ -29342,13 +29342,13 @@
         <v>82</v>
       </c>
       <c r="Q148">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="R148">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S148">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="T148">
         <v>0</v>
@@ -29465,22 +29465,22 @@
         <v>0</v>
       </c>
       <c r="BF148">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BG148">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BH148">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BI148">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BJ148">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BK148">
-        <v>-1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="149" spans="1:63">

--- a/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK151"/>
+  <dimension ref="A1:BK155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>0.92</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0.62</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>1.08</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT7" t="n">
         <v>1.08</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT8" t="n">
         <v>0.85</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1.08</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU15" t="n">
         <v>0.9399999999999999</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT16" t="n">
         <v>1.54</v>
@@ -3945,10 +3945,10 @@
         <v>1</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU17" t="n">
         <v>0.51</v>
@@ -4151,7 +4151,7 @@
         <v>2.25</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU18" t="n">
         <v>1.02</v>
@@ -4354,7 +4354,7 @@
         <v>1.54</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU19" t="n">
         <v>2.18</v>
@@ -5775,7 +5775,7 @@
         <v>0.92</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU26" t="n">
         <v>1.88</v>
@@ -5978,7 +5978,7 @@
         <v>1.54</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU27" t="n">
         <v>2.17</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT28" t="n">
         <v>1.15</v>
@@ -6381,7 +6381,7 @@
         <v>2</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT29" t="n">
         <v>0.92</v>
@@ -6587,7 +6587,7 @@
         <v>1.08</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU30" t="n">
         <v>1.11</v>
@@ -6787,10 +6787,10 @@
         <v>0.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU31" t="n">
         <v>1.12</v>
@@ -6990,7 +6990,7 @@
         <v>0.5</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT32" t="n">
         <v>1.08</v>
@@ -8617,7 +8617,7 @@
         <v>1.46</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU40" t="n">
         <v>1.88</v>
@@ -9020,10 +9020,10 @@
         <v>2</v>
       </c>
       <c r="AS42" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU42" t="n">
         <v>1.65</v>
@@ -9629,10 +9629,10 @@
         <v>1.67</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU45" t="n">
         <v>1.84</v>
@@ -9832,10 +9832,10 @@
         <v>3</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU46" t="n">
         <v>1.15</v>
@@ -10644,7 +10644,7 @@
         <v>0.33</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT50" t="n">
         <v>1.08</v>
@@ -10850,7 +10850,7 @@
         <v>0.92</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU51" t="n">
         <v>1.18</v>
@@ -11053,7 +11053,7 @@
         <v>0.62</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU52" t="n">
         <v>1.19</v>
@@ -11865,7 +11865,7 @@
         <v>0.92</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU56" t="n">
         <v>1.23</v>
@@ -12471,7 +12471,7 @@
         <v>1.6</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT59" t="n">
         <v>1.08</v>
@@ -12880,7 +12880,7 @@
         <v>1.92</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU61" t="n">
         <v>1.9</v>
@@ -13080,7 +13080,7 @@
         <v>1.4</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT62" t="n">
         <v>0.92</v>
@@ -13286,7 +13286,7 @@
         <v>1.46</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU63" t="n">
         <v>1.79</v>
@@ -13895,7 +13895,7 @@
         <v>2.46</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU66" t="n">
         <v>1.62</v>
@@ -14095,7 +14095,7 @@
         <v>0.5</v>
       </c>
       <c r="AS67" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT67" t="n">
         <v>0.85</v>
@@ -14298,7 +14298,7 @@
         <v>1.17</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT68" t="n">
         <v>0.92</v>
@@ -14504,7 +14504,7 @@
         <v>0.92</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU69" t="n">
         <v>1.79</v>
@@ -14907,7 +14907,7 @@
         <v>1</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT71" t="n">
         <v>1.15</v>
@@ -16128,7 +16128,7 @@
         <v>1.54</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU77" t="n">
         <v>1.86</v>
@@ -16534,7 +16534,7 @@
         <v>2.46</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU79" t="n">
         <v>1.64</v>
@@ -17343,10 +17343,10 @@
         <v>1.67</v>
       </c>
       <c r="AS83" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU83" t="n">
         <v>1.83</v>
@@ -17546,10 +17546,10 @@
         <v>1.17</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU84" t="n">
         <v>1.21</v>
@@ -17955,7 +17955,7 @@
         <v>1.08</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU86" t="n">
         <v>1.32</v>
@@ -18561,7 +18561,7 @@
         <v>2.17</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT89" t="n">
         <v>1.83</v>
@@ -18764,10 +18764,10 @@
         <v>1.5</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU90" t="n">
         <v>1.72</v>
@@ -18970,7 +18970,7 @@
         <v>1.92</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU91" t="n">
         <v>1.82</v>
@@ -19170,7 +19170,7 @@
         <v>0.29</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT92" t="n">
         <v>0.85</v>
@@ -19376,7 +19376,7 @@
         <v>0.92</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU93" t="n">
         <v>1.35</v>
@@ -19579,7 +19579,7 @@
         <v>0.62</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU94" t="n">
         <v>1.14</v>
@@ -20185,7 +20185,7 @@
         <v>1.57</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT97" t="n">
         <v>1.54</v>
@@ -20388,7 +20388,7 @@
         <v>1.75</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT98" t="n">
         <v>1.62</v>
@@ -21000,7 +21000,7 @@
         <v>2.46</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU101" t="n">
         <v>1.68</v>
@@ -21812,7 +21812,7 @@
         <v>0.92</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU105" t="n">
         <v>1.48</v>
@@ -22012,10 +22012,10 @@
         <v>1.38</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU106" t="n">
         <v>1.73</v>
@@ -22215,7 +22215,7 @@
         <v>2.38</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT107" t="n">
         <v>1.83</v>
@@ -22421,7 +22421,7 @@
         <v>2.25</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU108" t="n">
         <v>1.33</v>
@@ -22827,7 +22827,7 @@
         <v>0.92</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU110" t="n">
         <v>1.64</v>
@@ -23027,7 +23027,7 @@
         <v>2.11</v>
       </c>
       <c r="AS111" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT111" t="n">
         <v>1.83</v>
@@ -23230,10 +23230,10 @@
         <v>1.25</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU112" t="n">
         <v>1.66</v>
@@ -23636,7 +23636,7 @@
         <v>1.22</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT114" t="n">
         <v>1.15</v>
@@ -24451,7 +24451,7 @@
         <v>1.92</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU118" t="n">
         <v>1.77</v>
@@ -24857,7 +24857,7 @@
         <v>2.25</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU120" t="n">
         <v>1.33</v>
@@ -25057,10 +25057,10 @@
         <v>1.8</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU121" t="n">
         <v>1.67</v>
@@ -25872,7 +25872,7 @@
         <v>2.25</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU125" t="n">
         <v>1.28</v>
@@ -26275,7 +26275,7 @@
         <v>1.3</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT127" t="n">
         <v>1.08</v>
@@ -26478,7 +26478,7 @@
         <v>1.7</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT128" t="n">
         <v>1.62</v>
@@ -26887,7 +26887,7 @@
         <v>1.46</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU130" t="n">
         <v>1.55</v>
@@ -27293,7 +27293,7 @@
         <v>1.54</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU132" t="n">
         <v>2.04</v>
@@ -27699,7 +27699,7 @@
         <v>0.92</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU134" t="n">
         <v>1.58</v>
@@ -27902,7 +27902,7 @@
         <v>0.92</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU135" t="n">
         <v>1.56</v>
@@ -28102,7 +28102,7 @@
         <v>0.73</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT136" t="n">
         <v>0.85</v>
@@ -28714,7 +28714,7 @@
         <v>2.46</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU139" t="n">
         <v>1.79</v>
@@ -29117,7 +29117,7 @@
         <v>1.09</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT141" t="n">
         <v>1.15</v>
@@ -29523,10 +29523,10 @@
         <v>1.82</v>
       </c>
       <c r="AS143" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU143" t="n">
         <v>1.81</v>
@@ -31202,6 +31202,818 @@
       </c>
       <c r="BK151" t="n">
         <v>18</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>5396334</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>45002.66666666666</v>
+      </c>
+      <c r="F152" t="n">
+        <v>4</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Waasland-Beveren</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Lierse Kempenzonen</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="n">
+        <v>2</v>
+      </c>
+      <c r="M152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N152" t="n">
+        <v>2</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>['8', '81']</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q152" t="n">
+        <v>5</v>
+      </c>
+      <c r="R152" t="n">
+        <v>4</v>
+      </c>
+      <c r="S152" t="n">
+        <v>9</v>
+      </c>
+      <c r="T152" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U152" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V152" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W152" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X152" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AD152" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI152" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ152" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AK152" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AL152" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM152" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN152" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO152" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP152" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ152" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AR152" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS152" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AT152" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AU152" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AV152" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AW152" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AX152" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AY152" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ152" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="BA152" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB152" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC152" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD152" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE152" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF152" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG152" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH152" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI152" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ152" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK152" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>5396335</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>45002.66666666666</v>
+      </c>
+      <c r="F153" t="n">
+        <v>4</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>KRC Genk II</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Excelsior Virton</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>1</v>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="n">
+        <v>2</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="Q153" t="n">
+        <v>9</v>
+      </c>
+      <c r="R153" t="n">
+        <v>5</v>
+      </c>
+      <c r="S153" t="n">
+        <v>14</v>
+      </c>
+      <c r="T153" t="n">
+        <v>0</v>
+      </c>
+      <c r="U153" t="n">
+        <v>0</v>
+      </c>
+      <c r="V153" t="n">
+        <v>0</v>
+      </c>
+      <c r="W153" t="n">
+        <v>0</v>
+      </c>
+      <c r="X153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AD153" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE153" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ153" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK153" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ153" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR153" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS153" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT153" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AU153" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV153" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW153" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF153" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG153" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH153" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI153" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ153" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK153" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>5396336</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>45003.5</v>
+      </c>
+      <c r="F154" t="n">
+        <v>4</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>KMSK Deinze</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Lommel United</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="n">
+        <v>2</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="Q154" t="n">
+        <v>9</v>
+      </c>
+      <c r="R154" t="n">
+        <v>2</v>
+      </c>
+      <c r="S154" t="n">
+        <v>11</v>
+      </c>
+      <c r="T154" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U154" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V154" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W154" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X154" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI154" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ154" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL154" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO154" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP154" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ154" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AR154" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS154" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT154" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AU154" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV154" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW154" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AX154" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY154" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ154" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA154" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB154" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC154" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BD154" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE154" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF154" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG154" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH154" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI154" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ154" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK154" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>5396337</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>45003.66666666666</v>
+      </c>
+      <c r="F155" t="n">
+        <v>4</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>RSC Anderlecht II</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>RWDM</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>1</v>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M155" t="n">
+        <v>4</v>
+      </c>
+      <c r="N155" t="n">
+        <v>4</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>['6', '48', '58', '67']</t>
+        </is>
+      </c>
+      <c r="Q155" t="n">
+        <v>6</v>
+      </c>
+      <c r="R155" t="n">
+        <v>4</v>
+      </c>
+      <c r="S155" t="n">
+        <v>10</v>
+      </c>
+      <c r="T155" t="n">
+        <v>0</v>
+      </c>
+      <c r="U155" t="n">
+        <v>0</v>
+      </c>
+      <c r="V155" t="n">
+        <v>0</v>
+      </c>
+      <c r="W155" t="n">
+        <v>0</v>
+      </c>
+      <c r="X155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT155" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AU155" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW155" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AX155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF155" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG155" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH155" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ155" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK155" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
@@ -30891,13 +30891,13 @@
         <v>158</v>
       </c>
       <c r="Q156">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="R156">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S156">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T156">
         <v>0</v>
@@ -31014,22 +31014,22 @@
         <v>0</v>
       </c>
       <c r="BF156">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BG156">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BH156">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BI156">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BJ156">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="BK156">
-        <v>-1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="157" spans="1:63">
@@ -31082,13 +31082,13 @@
         <v>127</v>
       </c>
       <c r="Q157">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R157">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S157">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="T157">
         <v>0</v>
@@ -31205,22 +31205,22 @@
         <v>0</v>
       </c>
       <c r="BF157">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BG157">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BH157">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BI157">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BJ157">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BK157">
-        <v>-1</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK157"/>
+  <dimension ref="A1:BK163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT2" t="n">
         <v>1.54</v>
@@ -1106,7 +1106,7 @@
         <v>0.62</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>2.31</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT7" t="n">
         <v>1.08</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>2.46</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT12" t="n">
         <v>1.62</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,10 +3336,10 @@
         <v>1</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU14" t="n">
         <v>1.21</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU16" t="n">
         <v>1.51</v>
@@ -3945,10 +3945,10 @@
         <v>1</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU17" t="n">
         <v>0.51</v>
@@ -4151,7 +4151,7 @@
         <v>2.31</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AU18" t="n">
         <v>1.02</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT19" t="n">
         <v>1.08</v>
@@ -4760,7 +4760,7 @@
         <v>0.92</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU21" t="n">
         <v>1.07</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT23" t="n">
         <v>1.08</v>
@@ -5569,10 +5569,10 @@
         <v>0.5</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU25" t="n">
         <v>1.76</v>
@@ -5772,7 +5772,7 @@
         <v>1.5</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT26" t="n">
         <v>1.08</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT27" t="n">
         <v>1.54</v>
@@ -6178,10 +6178,10 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU28" t="n">
         <v>1.55</v>
@@ -6384,7 +6384,7 @@
         <v>2.46</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU29" t="n">
         <v>1.71</v>
@@ -6587,7 +6587,7 @@
         <v>1.08</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU30" t="n">
         <v>1.11</v>
@@ -6787,10 +6787,10 @@
         <v>0.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AU31" t="n">
         <v>1.12</v>
@@ -6990,7 +6990,7 @@
         <v>0.5</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT32" t="n">
         <v>1.08</v>
@@ -7193,7 +7193,7 @@
         <v>2</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT33" t="n">
         <v>1.62</v>
@@ -7399,7 +7399,7 @@
         <v>2.31</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU34" t="n">
         <v>0.82</v>
@@ -7602,7 +7602,7 @@
         <v>2.46</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU35" t="n">
         <v>1.47</v>
@@ -8005,10 +8005,10 @@
         <v>1.33</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU37" t="n">
         <v>1.77</v>
@@ -8211,7 +8211,7 @@
         <v>0.62</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU38" t="n">
         <v>1.04</v>
@@ -8614,10 +8614,10 @@
         <v>1.33</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AU40" t="n">
         <v>1.88</v>
@@ -8817,7 +8817,7 @@
         <v>0.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT41" t="n">
         <v>1.08</v>
@@ -9426,10 +9426,10 @@
         <v>1.25</v>
       </c>
       <c r="AS44" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU44" t="n">
         <v>1.81</v>
@@ -9629,10 +9629,10 @@
         <v>1.67</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU45" t="n">
         <v>1.84</v>
@@ -9832,7 +9832,7 @@
         <v>3</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT46" t="n">
         <v>1.54</v>
@@ -10238,10 +10238,10 @@
         <v>1.75</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU48" t="n">
         <v>2.17</v>
@@ -10444,7 +10444,7 @@
         <v>2.31</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU49" t="n">
         <v>0.75</v>
@@ -10850,7 +10850,7 @@
         <v>0.92</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AU51" t="n">
         <v>1.18</v>
@@ -11253,10 +11253,10 @@
         <v>0.67</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU53" t="n">
         <v>1.79</v>
@@ -11659,7 +11659,7 @@
         <v>1.75</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT55" t="n">
         <v>1.08</v>
@@ -11865,7 +11865,7 @@
         <v>0.92</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU56" t="n">
         <v>1.23</v>
@@ -12471,7 +12471,7 @@
         <v>1.6</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT59" t="n">
         <v>1.08</v>
@@ -12677,7 +12677,7 @@
         <v>2.46</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU60" t="n">
         <v>1.74</v>
@@ -12877,7 +12877,7 @@
         <v>2.25</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT61" t="n">
         <v>1.54</v>
@@ -13080,10 +13080,10 @@
         <v>1.4</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU62" t="n">
         <v>1.25</v>
@@ -13283,10 +13283,10 @@
         <v>1</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU63" t="n">
         <v>1.79</v>
@@ -13486,10 +13486,10 @@
         <v>1.25</v>
       </c>
       <c r="AS64" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU64" t="n">
         <v>1.79</v>
@@ -13689,7 +13689,7 @@
         <v>2</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT65" t="n">
         <v>1.62</v>
@@ -14098,7 +14098,7 @@
         <v>2.46</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU67" t="n">
         <v>1.91</v>
@@ -14298,10 +14298,10 @@
         <v>1.17</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU68" t="n">
         <v>1.73</v>
@@ -14501,10 +14501,10 @@
         <v>1.4</v>
       </c>
       <c r="AS69" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AU69" t="n">
         <v>1.79</v>
@@ -14910,7 +14910,7 @@
         <v>2.46</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU71" t="n">
         <v>1.89</v>
@@ -15110,7 +15110,7 @@
         <v>2</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT72" t="n">
         <v>1.69</v>
@@ -15313,10 +15313,10 @@
         <v>0.4</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU73" t="n">
         <v>1.89</v>
@@ -16125,10 +16125,10 @@
         <v>0.83</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU77" t="n">
         <v>1.86</v>
@@ -16328,10 +16328,10 @@
         <v>1.33</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU78" t="n">
         <v>1.91</v>
@@ -16737,7 +16737,7 @@
         <v>0.62</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU80" t="n">
         <v>1.2</v>
@@ -16937,10 +16937,10 @@
         <v>0.33</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU81" t="n">
         <v>1.74</v>
@@ -17140,10 +17140,10 @@
         <v>0.83</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU82" t="n">
         <v>1.89</v>
@@ -17346,7 +17346,7 @@
         <v>2.46</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AU83" t="n">
         <v>1.83</v>
@@ -17546,7 +17546,7 @@
         <v>1.17</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT84" t="n">
         <v>1.08</v>
@@ -17749,7 +17749,7 @@
         <v>2</v>
       </c>
       <c r="AS85" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT85" t="n">
         <v>1.62</v>
@@ -17955,7 +17955,7 @@
         <v>1.08</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AU86" t="n">
         <v>1.32</v>
@@ -18561,7 +18561,7 @@
         <v>2.17</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT89" t="n">
         <v>1.69</v>
@@ -18967,10 +18967,10 @@
         <v>0.71</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU91" t="n">
         <v>1.82</v>
@@ -19170,10 +19170,10 @@
         <v>0.29</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU92" t="n">
         <v>1.73</v>
@@ -19782,7 +19782,7 @@
         <v>2.46</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU95" t="n">
         <v>1.68</v>
@@ -19982,7 +19982,7 @@
         <v>2.29</v>
       </c>
       <c r="AS96" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT96" t="n">
         <v>1.69</v>
@@ -20185,10 +20185,10 @@
         <v>1.57</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU97" t="n">
         <v>1.27</v>
@@ -20594,7 +20594,7 @@
         <v>1.08</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU99" t="n">
         <v>1.32</v>
@@ -20794,7 +20794,7 @@
         <v>1.5</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT100" t="n">
         <v>1.08</v>
@@ -21000,7 +21000,7 @@
         <v>2.46</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU101" t="n">
         <v>1.68</v>
@@ -21200,10 +21200,10 @@
         <v>1.25</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU102" t="n">
         <v>1.98</v>
@@ -21403,7 +21403,7 @@
         <v>1</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT103" t="n">
         <v>1.08</v>
@@ -21609,7 +21609,7 @@
         <v>0.62</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU104" t="n">
         <v>1.16</v>
@@ -22012,10 +22012,10 @@
         <v>1.38</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AU106" t="n">
         <v>1.73</v>
@@ -22215,7 +22215,7 @@
         <v>2.38</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT107" t="n">
         <v>1.69</v>
@@ -22824,10 +22824,10 @@
         <v>0.67</v>
       </c>
       <c r="AS110" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU110" t="n">
         <v>1.64</v>
@@ -23230,7 +23230,7 @@
         <v>1.25</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT112" t="n">
         <v>1.08</v>
@@ -23433,10 +23433,10 @@
         <v>0.25</v>
       </c>
       <c r="AS113" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU113" t="n">
         <v>1.6</v>
@@ -23636,10 +23636,10 @@
         <v>1.22</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU114" t="n">
         <v>1.32</v>
@@ -23839,10 +23839,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU115" t="n">
         <v>2.05</v>
@@ -24245,7 +24245,7 @@
         <v>1.33</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT117" t="n">
         <v>1.08</v>
@@ -24448,10 +24448,10 @@
         <v>1.56</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AU118" t="n">
         <v>1.77</v>
@@ -24654,7 +24654,7 @@
         <v>0.92</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU119" t="n">
         <v>1.49</v>
@@ -25057,7 +25057,7 @@
         <v>1.8</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT121" t="n">
         <v>1.54</v>
@@ -25263,7 +25263,7 @@
         <v>1.08</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU122" t="n">
         <v>1.34</v>
@@ -25466,7 +25466,7 @@
         <v>2.46</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU123" t="n">
         <v>1.83</v>
@@ -25666,7 +25666,7 @@
         <v>1.9</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT124" t="n">
         <v>1.69</v>
@@ -25872,7 +25872,7 @@
         <v>2.31</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU125" t="n">
         <v>1.28</v>
@@ -26072,7 +26072,7 @@
         <v>0.8</v>
       </c>
       <c r="AS126" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT126" t="n">
         <v>1.08</v>
@@ -26478,7 +26478,7 @@
         <v>1.7</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT128" t="n">
         <v>1.62</v>
@@ -26684,7 +26684,7 @@
         <v>0.92</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU129" t="n">
         <v>1.56</v>
@@ -26884,7 +26884,7 @@
         <v>1.1</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT130" t="n">
         <v>1.08</v>
@@ -27090,7 +27090,7 @@
         <v>0.62</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU131" t="n">
         <v>1.17</v>
@@ -27290,10 +27290,10 @@
         <v>1.7</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AU132" t="n">
         <v>2.04</v>
@@ -27496,7 +27496,7 @@
         <v>1.08</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU133" t="n">
         <v>1.32</v>
@@ -27696,10 +27696,10 @@
         <v>0.82</v>
       </c>
       <c r="AS134" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU134" t="n">
         <v>1.58</v>
@@ -28102,10 +28102,10 @@
         <v>0.73</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU136" t="n">
         <v>1.37</v>
@@ -28308,7 +28308,7 @@
         <v>2.31</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU137" t="n">
         <v>1.22</v>
@@ -28508,7 +28508,7 @@
         <v>1.82</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT138" t="n">
         <v>1.62</v>
@@ -28914,7 +28914,7 @@
         <v>1.18</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT140" t="n">
         <v>1.08</v>
@@ -29117,10 +29117,10 @@
         <v>1.09</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU141" t="n">
         <v>1.63</v>
@@ -29526,7 +29526,7 @@
         <v>2.46</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AU143" t="n">
         <v>1.81</v>
@@ -29726,7 +29726,7 @@
         <v>1.73</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT144" t="n">
         <v>1.69</v>
@@ -29932,7 +29932,7 @@
         <v>1.08</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU145" t="n">
         <v>1.31</v>
@@ -30132,10 +30132,10 @@
         <v>1.42</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU146" t="n">
         <v>1.91</v>
@@ -30335,7 +30335,7 @@
         <v>1.17</v>
       </c>
       <c r="AS147" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT147" t="n">
         <v>1.08</v>
@@ -30541,7 +30541,7 @@
         <v>0.62</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU148" t="n">
         <v>1.18</v>
@@ -30741,7 +30741,7 @@
         <v>1.75</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT149" t="n">
         <v>1.62</v>
@@ -30947,7 +30947,7 @@
         <v>2.46</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU150" t="n">
         <v>1.8</v>
@@ -31147,10 +31147,10 @@
         <v>0.92</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT151" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU151" t="n">
         <v>1.58</v>
@@ -31556,7 +31556,7 @@
         <v>1.08</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AU153" t="n">
         <v>1.34</v>
@@ -31756,7 +31756,7 @@
         <v>1.58</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT154" t="n">
         <v>1.54</v>
@@ -31959,10 +31959,10 @@
         <v>1.67</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AU155" t="n">
         <v>1.65</v>
@@ -32420,6 +32420,1224 @@
       </c>
       <c r="BK157" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>5396340</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>45016.625</v>
+      </c>
+      <c r="F158" t="n">
+        <v>5</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>RSC Anderlecht II</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Waasland-Beveren</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>2</v>
+      </c>
+      <c r="K158" t="n">
+        <v>2</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M158" t="n">
+        <v>4</v>
+      </c>
+      <c r="N158" t="n">
+        <v>4</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>['30', '39', '83', '90']</t>
+        </is>
+      </c>
+      <c r="Q158" t="n">
+        <v>4</v>
+      </c>
+      <c r="R158" t="n">
+        <v>1</v>
+      </c>
+      <c r="S158" t="n">
+        <v>5</v>
+      </c>
+      <c r="T158" t="n">
+        <v>0</v>
+      </c>
+      <c r="U158" t="n">
+        <v>0</v>
+      </c>
+      <c r="V158" t="n">
+        <v>0</v>
+      </c>
+      <c r="W158" t="n">
+        <v>0</v>
+      </c>
+      <c r="X158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ158" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT158" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AU158" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AX158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF158" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG158" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH158" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI158" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ158" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK158" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>5396341</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>45016.625</v>
+      </c>
+      <c r="F159" t="n">
+        <v>5</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>FCV Dender EH</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>KRC Genk II</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N159" t="n">
+        <v>1</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q159" t="n">
+        <v>1</v>
+      </c>
+      <c r="R159" t="n">
+        <v>4</v>
+      </c>
+      <c r="S159" t="n">
+        <v>5</v>
+      </c>
+      <c r="T159" t="n">
+        <v>0</v>
+      </c>
+      <c r="U159" t="n">
+        <v>0</v>
+      </c>
+      <c r="V159" t="n">
+        <v>0</v>
+      </c>
+      <c r="W159" t="n">
+        <v>0</v>
+      </c>
+      <c r="X159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK159" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ159" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR159" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AS159" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT159" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AU159" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV159" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW159" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF159" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG159" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH159" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI159" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ159" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK159" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>5396342</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="F160" t="n">
+        <v>5</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>KMSK Deinze</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Standard Liège II</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>2</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>2</v>
+      </c>
+      <c r="L160" t="n">
+        <v>5</v>
+      </c>
+      <c r="M160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N160" t="n">
+        <v>5</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>['4', '14', '47', '60', '87']</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q160" t="n">
+        <v>7</v>
+      </c>
+      <c r="R160" t="n">
+        <v>7</v>
+      </c>
+      <c r="S160" t="n">
+        <v>14</v>
+      </c>
+      <c r="T160" t="n">
+        <v>0</v>
+      </c>
+      <c r="U160" t="n">
+        <v>0</v>
+      </c>
+      <c r="V160" t="n">
+        <v>0</v>
+      </c>
+      <c r="W160" t="n">
+        <v>0</v>
+      </c>
+      <c r="X160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE160" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ160" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK160" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ160" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AR160" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AS160" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT160" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU160" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV160" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW160" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF160" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG160" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH160" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI160" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ160" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK160" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>5396343</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>45017.625</v>
+      </c>
+      <c r="F161" t="n">
+        <v>5</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Lierse Kempenzonen</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Club Brugge II</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="n">
+        <v>2</v>
+      </c>
+      <c r="N161" t="n">
+        <v>3</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>['61', '72']</t>
+        </is>
+      </c>
+      <c r="Q161" t="n">
+        <v>12</v>
+      </c>
+      <c r="R161" t="n">
+        <v>3</v>
+      </c>
+      <c r="S161" t="n">
+        <v>15</v>
+      </c>
+      <c r="T161" t="n">
+        <v>0</v>
+      </c>
+      <c r="U161" t="n">
+        <v>0</v>
+      </c>
+      <c r="V161" t="n">
+        <v>0</v>
+      </c>
+      <c r="W161" t="n">
+        <v>0</v>
+      </c>
+      <c r="X161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD161" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE161" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ161" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK161" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ161" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AR161" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AS161" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AT161" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU161" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV161" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AW161" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AX161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF161" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG161" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH161" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI161" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ161" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK161" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>5396344</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>45018.45833333334</v>
+      </c>
+      <c r="F162" t="n">
+        <v>5</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Lommel United</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Excelsior Virton</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="n">
+        <v>2</v>
+      </c>
+      <c r="N162" t="n">
+        <v>3</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>['52', '68']</t>
+        </is>
+      </c>
+      <c r="Q162" t="n">
+        <v>2</v>
+      </c>
+      <c r="R162" t="n">
+        <v>8</v>
+      </c>
+      <c r="S162" t="n">
+        <v>10</v>
+      </c>
+      <c r="T162" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U162" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V162" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W162" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X162" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD162" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE162" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF162" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG162" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI162" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AJ162" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK162" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL162" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM162" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN162" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO162" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP162" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AQ162" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AR162" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AS162" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT162" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AU162" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV162" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW162" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX162" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY162" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ162" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BA162" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB162" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC162" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BD162" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE162" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF162" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG162" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH162" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI162" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ162" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK162" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>5396345</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>45018.59375</v>
+      </c>
+      <c r="F163" t="n">
+        <v>5</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Beerschot-Wilrijk</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>RWDM</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="n">
+        <v>2</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="Q163" t="n">
+        <v>5</v>
+      </c>
+      <c r="R163" t="n">
+        <v>5</v>
+      </c>
+      <c r="S163" t="n">
+        <v>10</v>
+      </c>
+      <c r="T163" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U163" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V163" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W163" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X163" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI163" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AJ163" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AK163" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AL163" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM163" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN163" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AO163" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP163" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ163" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AR163" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AS163" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT163" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AU163" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AV163" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW163" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AX163" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AY163" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ163" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BA163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB163" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC163" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD163" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE163" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BF163" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG163" t="n">
+        <v>12</v>
+      </c>
+      <c r="BH163" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI163" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ163" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK163" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK163"/>
+  <dimension ref="A1:BK166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT5" t="n">
         <v>0.86</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT9" t="n">
         <v>1.69</v>
@@ -2730,7 +2730,7 @@
         <v>2.46</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>3</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT15" t="n">
         <v>1.54</v>
@@ -4148,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT18" t="n">
         <v>1.71</v>
@@ -4354,7 +4354,7 @@
         <v>1.5</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU19" t="n">
         <v>2.18</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT21" t="n">
         <v>0.79</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT22" t="n">
         <v>1.69</v>
@@ -5166,7 +5166,7 @@
         <v>1.79</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU23" t="n">
         <v>2.15</v>
@@ -5369,7 +5369,7 @@
         <v>0.62</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU24" t="n">
         <v>1.25</v>
@@ -5775,7 +5775,7 @@
         <v>1.07</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU26" t="n">
         <v>1.88</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT30" t="n">
         <v>0.93</v>
@@ -6993,7 +6993,7 @@
         <v>1.64</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU32" t="n">
         <v>1.18</v>
@@ -7396,7 +7396,7 @@
         <v>1.33</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT34" t="n">
         <v>1.64</v>
@@ -8411,10 +8411,10 @@
         <v>1.33</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU39" t="n">
         <v>1.27</v>
@@ -8820,7 +8820,7 @@
         <v>1.5</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU41" t="n">
         <v>1.88</v>
@@ -9023,7 +9023,7 @@
         <v>2.46</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU42" t="n">
         <v>1.65</v>
@@ -9223,7 +9223,7 @@
         <v>2.33</v>
       </c>
       <c r="AS43" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT43" t="n">
         <v>1.62</v>
@@ -10441,7 +10441,7 @@
         <v>0.67</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT49" t="n">
         <v>0.79</v>
@@ -10647,7 +10647,7 @@
         <v>2.46</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU50" t="n">
         <v>1.85</v>
@@ -10847,7 +10847,7 @@
         <v>1</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT51" t="n">
         <v>1.71</v>
@@ -11053,7 +11053,7 @@
         <v>0.62</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU52" t="n">
         <v>1.19</v>
@@ -11456,7 +11456,7 @@
         <v>2.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT54" t="n">
         <v>1.62</v>
@@ -11662,7 +11662,7 @@
         <v>1.5</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU55" t="n">
         <v>2.04</v>
@@ -11862,7 +11862,7 @@
         <v>1.25</v>
       </c>
       <c r="AS56" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT56" t="n">
         <v>0.93</v>
@@ -12065,10 +12065,10 @@
         <v>0.25</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU57" t="n">
         <v>1.05</v>
@@ -12268,7 +12268,7 @@
         <v>1.75</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT58" t="n">
         <v>1.69</v>
@@ -12474,7 +12474,7 @@
         <v>1</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU59" t="n">
         <v>1.83</v>
@@ -13895,7 +13895,7 @@
         <v>2.46</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU66" t="n">
         <v>1.62</v>
@@ -14707,7 +14707,7 @@
         <v>0.62</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU70" t="n">
         <v>1.16</v>
@@ -15516,7 +15516,7 @@
         <v>2.17</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT74" t="n">
         <v>1.62</v>
@@ -15719,10 +15719,10 @@
         <v>1.83</v>
       </c>
       <c r="AS75" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU75" t="n">
         <v>1.27</v>
@@ -15922,10 +15922,10 @@
         <v>0.67</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU76" t="n">
         <v>1.29</v>
@@ -17549,7 +17549,7 @@
         <v>1.64</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU84" t="n">
         <v>1.21</v>
@@ -17952,7 +17952,7 @@
         <v>1.57</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT86" t="n">
         <v>1.71</v>
@@ -18155,10 +18155,10 @@
         <v>1.71</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU87" t="n">
         <v>1.24</v>
@@ -18358,10 +18358,10 @@
         <v>0.71</v>
       </c>
       <c r="AS88" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU88" t="n">
         <v>1.35</v>
@@ -19373,10 +19373,10 @@
         <v>1</v>
       </c>
       <c r="AS93" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU93" t="n">
         <v>1.35</v>
@@ -20591,7 +20591,7 @@
         <v>1</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT99" t="n">
         <v>1.29</v>
@@ -20797,7 +20797,7 @@
         <v>1.79</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU100" t="n">
         <v>1.84</v>
@@ -21406,7 +21406,7 @@
         <v>1.36</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU103" t="n">
         <v>1.69</v>
@@ -21809,7 +21809,7 @@
         <v>1.88</v>
       </c>
       <c r="AS105" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT105" t="n">
         <v>1.54</v>
@@ -22418,7 +22418,7 @@
         <v>2</v>
       </c>
       <c r="AS108" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT108" t="n">
         <v>1.54</v>
@@ -22624,7 +22624,7 @@
         <v>2.46</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU109" t="n">
         <v>1.81</v>
@@ -23233,7 +23233,7 @@
         <v>1</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU112" t="n">
         <v>1.66</v>
@@ -24248,7 +24248,7 @@
         <v>1.36</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU117" t="n">
         <v>1.62</v>
@@ -24651,7 +24651,7 @@
         <v>1.67</v>
       </c>
       <c r="AS119" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT119" t="n">
         <v>1.64</v>
@@ -24854,10 +24854,10 @@
         <v>1.22</v>
       </c>
       <c r="AS120" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU120" t="n">
         <v>1.33</v>
@@ -25260,7 +25260,7 @@
         <v>1.6</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT122" t="n">
         <v>1.64</v>
@@ -25869,7 +25869,7 @@
         <v>0.9</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT125" t="n">
         <v>0.93</v>
@@ -26075,7 +26075,7 @@
         <v>1.07</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU126" t="n">
         <v>1.54</v>
@@ -26278,7 +26278,7 @@
         <v>2.46</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU127" t="n">
         <v>1.74</v>
@@ -26681,7 +26681,7 @@
         <v>1.1</v>
       </c>
       <c r="AS129" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT129" t="n">
         <v>1.29</v>
@@ -26887,7 +26887,7 @@
         <v>1.36</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU130" t="n">
         <v>1.55</v>
@@ -27493,7 +27493,7 @@
         <v>1</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT133" t="n">
         <v>0.86</v>
@@ -27899,7 +27899,7 @@
         <v>1.73</v>
       </c>
       <c r="AS135" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT135" t="n">
         <v>1.54</v>
@@ -28305,7 +28305,7 @@
         <v>1.55</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT137" t="n">
         <v>1.64</v>
@@ -28714,7 +28714,7 @@
         <v>2.46</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU139" t="n">
         <v>1.79</v>
@@ -28917,7 +28917,7 @@
         <v>1.36</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU140" t="n">
         <v>1.6</v>
@@ -29323,7 +29323,7 @@
         <v>0.62</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU142" t="n">
         <v>1.15</v>
@@ -29929,7 +29929,7 @@
         <v>1</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT145" t="n">
         <v>0.86</v>
@@ -30338,7 +30338,7 @@
         <v>1.07</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU147" t="n">
         <v>1.53</v>
@@ -31353,7 +31353,7 @@
         <v>2.46</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU152" t="n">
         <v>1.77</v>
@@ -31553,7 +31553,7 @@
         <v>0.75</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT153" t="n">
         <v>0.93</v>
@@ -32162,7 +32162,7 @@
         <v>1.83</v>
       </c>
       <c r="AS156" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT156" t="n">
         <v>1.69</v>
@@ -32365,10 +32365,10 @@
         <v>1.08</v>
       </c>
       <c r="AS157" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU157" t="n">
         <v>1.56</v>
@@ -33638,6 +33638,615 @@
       </c>
       <c r="BK163" t="n">
         <v>19</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>5396346</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>45023.625</v>
+      </c>
+      <c r="F164" t="n">
+        <v>6</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>KRC Genk II</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>FCV Dender EH</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>2</v>
+      </c>
+      <c r="K164" t="n">
+        <v>2</v>
+      </c>
+      <c r="L164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M164" t="n">
+        <v>4</v>
+      </c>
+      <c r="N164" t="n">
+        <v>4</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>['7', '29', '70', '85']</t>
+        </is>
+      </c>
+      <c r="Q164" t="n">
+        <v>4</v>
+      </c>
+      <c r="R164" t="n">
+        <v>4</v>
+      </c>
+      <c r="S164" t="n">
+        <v>8</v>
+      </c>
+      <c r="T164" t="n">
+        <v>0</v>
+      </c>
+      <c r="U164" t="n">
+        <v>0</v>
+      </c>
+      <c r="V164" t="n">
+        <v>0</v>
+      </c>
+      <c r="W164" t="n">
+        <v>0</v>
+      </c>
+      <c r="X164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AL164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ164" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR164" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS164" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT164" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AU164" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV164" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW164" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF164" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH164" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI164" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ164" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK164" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>5396347</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>45023.625</v>
+      </c>
+      <c r="F165" t="n">
+        <v>6</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Standard Liège II</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>KMSK Deinze</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>1</v>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="n">
+        <v>2</v>
+      </c>
+      <c r="N165" t="n">
+        <v>3</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>['34', '50']</t>
+        </is>
+      </c>
+      <c r="Q165" t="n">
+        <v>8</v>
+      </c>
+      <c r="R165" t="n">
+        <v>3</v>
+      </c>
+      <c r="S165" t="n">
+        <v>11</v>
+      </c>
+      <c r="T165" t="n">
+        <v>0</v>
+      </c>
+      <c r="U165" t="n">
+        <v>0</v>
+      </c>
+      <c r="V165" t="n">
+        <v>0</v>
+      </c>
+      <c r="W165" t="n">
+        <v>0</v>
+      </c>
+      <c r="X165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ165" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK165" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AL165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ165" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR165" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS165" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AT165" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AU165" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV165" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW165" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF165" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG165" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH165" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI165" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ165" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK165" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>5396348</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>45024.45833333334</v>
+      </c>
+      <c r="F166" t="n">
+        <v>6</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Club Brugge II</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Lierse Kempenzonen</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="n">
+        <v>1</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="Q166" t="n">
+        <v>3</v>
+      </c>
+      <c r="R166" t="n">
+        <v>10</v>
+      </c>
+      <c r="S166" t="n">
+        <v>13</v>
+      </c>
+      <c r="T166" t="n">
+        <v>0</v>
+      </c>
+      <c r="U166" t="n">
+        <v>0</v>
+      </c>
+      <c r="V166" t="n">
+        <v>0</v>
+      </c>
+      <c r="W166" t="n">
+        <v>0</v>
+      </c>
+      <c r="X166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC166" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD166" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE166" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ166" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK166" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ166" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AR166" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS166" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AT166" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AU166" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AV166" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AW166" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG166" t="n">
+        <v>12</v>
+      </c>
+      <c r="BH166" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI166" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ166" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK166" t="n">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK166"/>
+  <dimension ref="A1:BK169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.07</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT3" t="n">
         <v>1.71</v>
@@ -2324,7 +2324,7 @@
         <v>0.86</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT10" t="n">
         <v>0.93</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT11" t="n">
         <v>1.21</v>
@@ -2933,7 +2933,7 @@
         <v>1.36</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU15" t="n">
         <v>0.9399999999999999</v>
@@ -4554,10 +4554,10 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU20" t="n">
         <v>1.76</v>
@@ -4963,7 +4963,7 @@
         <v>2.14</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU22" t="n">
         <v>1.02</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT24" t="n">
         <v>1.21</v>
@@ -5978,7 +5978,7 @@
         <v>1.5</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU27" t="n">
         <v>2.17</v>
@@ -6381,7 +6381,7 @@
         <v>2</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT29" t="n">
         <v>0.86</v>
@@ -7196,7 +7196,7 @@
         <v>1.79</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU33" t="n">
         <v>1.95</v>
@@ -7599,7 +7599,7 @@
         <v>0.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT35" t="n">
         <v>0.79</v>
@@ -7802,10 +7802,10 @@
         <v>2</v>
       </c>
       <c r="AS36" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU36" t="n">
         <v>0.96</v>
@@ -8208,7 +8208,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT38" t="n">
         <v>1.29</v>
@@ -9020,7 +9020,7 @@
         <v>2</v>
       </c>
       <c r="AS42" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT42" t="n">
         <v>1.21</v>
@@ -9226,7 +9226,7 @@
         <v>0.86</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU43" t="n">
         <v>1.14</v>
@@ -9835,7 +9835,7 @@
         <v>1.64</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU46" t="n">
         <v>1.15</v>
@@ -10035,10 +10035,10 @@
         <v>2.33</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU47" t="n">
         <v>1.96</v>
@@ -10644,7 +10644,7 @@
         <v>0.33</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT50" t="n">
         <v>1.21</v>
@@ -11050,7 +11050,7 @@
         <v>1.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT52" t="n">
         <v>1.21</v>
@@ -11459,7 +11459,7 @@
         <v>1</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU54" t="n">
         <v>1.36</v>
@@ -12271,7 +12271,7 @@
         <v>1</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU58" t="n">
         <v>1.33</v>
@@ -12674,7 +12674,7 @@
         <v>1.6</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT60" t="n">
         <v>1.64</v>
@@ -12880,7 +12880,7 @@
         <v>1.79</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU61" t="n">
         <v>1.9</v>
@@ -13692,7 +13692,7 @@
         <v>1.5</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU65" t="n">
         <v>1.87</v>
@@ -13892,7 +13892,7 @@
         <v>1.4</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT66" t="n">
         <v>1.21</v>
@@ -14095,7 +14095,7 @@
         <v>0.5</v>
       </c>
       <c r="AS67" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT67" t="n">
         <v>0.79</v>
@@ -14704,7 +14704,7 @@
         <v>0.2</v>
       </c>
       <c r="AS70" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT70" t="n">
         <v>1.21</v>
@@ -14907,7 +14907,7 @@
         <v>1</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT71" t="n">
         <v>1.29</v>
@@ -15113,7 +15113,7 @@
         <v>1.36</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU72" t="n">
         <v>1.86</v>
@@ -15519,7 +15519,7 @@
         <v>2.14</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU74" t="n">
         <v>1.14</v>
@@ -16531,10 +16531,10 @@
         <v>1.8</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU79" t="n">
         <v>1.64</v>
@@ -16734,7 +16734,7 @@
         <v>1</v>
       </c>
       <c r="AS80" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT80" t="n">
         <v>0.86</v>
@@ -17343,7 +17343,7 @@
         <v>1.67</v>
       </c>
       <c r="AS83" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT83" t="n">
         <v>1.71</v>
@@ -17752,7 +17752,7 @@
         <v>1.07</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU85" t="n">
         <v>1.72</v>
@@ -18564,7 +18564,7 @@
         <v>1</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU89" t="n">
         <v>1.71</v>
@@ -18764,10 +18764,10 @@
         <v>1.5</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU90" t="n">
         <v>1.72</v>
@@ -19576,10 +19576,10 @@
         <v>1.71</v>
       </c>
       <c r="AS94" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU94" t="n">
         <v>1.14</v>
@@ -19779,7 +19779,7 @@
         <v>0.71</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT95" t="n">
         <v>1.29</v>
@@ -19985,7 +19985,7 @@
         <v>1.07</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU96" t="n">
         <v>1.64</v>
@@ -20388,10 +20388,10 @@
         <v>1.75</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU98" t="n">
         <v>1.83</v>
@@ -20997,7 +20997,7 @@
         <v>0.75</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT101" t="n">
         <v>0.93</v>
@@ -21606,7 +21606,7 @@
         <v>1.75</v>
       </c>
       <c r="AS104" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT104" t="n">
         <v>1.64</v>
@@ -21812,7 +21812,7 @@
         <v>0.86</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU105" t="n">
         <v>1.48</v>
@@ -22218,7 +22218,7 @@
         <v>1.64</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU107" t="n">
         <v>1.32</v>
@@ -22421,7 +22421,7 @@
         <v>2.14</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU108" t="n">
         <v>1.33</v>
@@ -22621,7 +22621,7 @@
         <v>0.89</v>
       </c>
       <c r="AS109" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT109" t="n">
         <v>1.21</v>
@@ -23027,10 +23027,10 @@
         <v>2.11</v>
       </c>
       <c r="AS111" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU111" t="n">
         <v>1.81</v>
@@ -24042,10 +24042,10 @@
         <v>1.56</v>
       </c>
       <c r="AS116" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU116" t="n">
         <v>1.14</v>
@@ -25060,7 +25060,7 @@
         <v>1</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU121" t="n">
         <v>1.67</v>
@@ -25463,7 +25463,7 @@
         <v>1.11</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT123" t="n">
         <v>0.86</v>
@@ -25669,7 +25669,7 @@
         <v>1.79</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU124" t="n">
         <v>1.77</v>
@@ -26275,7 +26275,7 @@
         <v>1.3</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT127" t="n">
         <v>1.21</v>
@@ -26481,7 +26481,7 @@
         <v>1.64</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU128" t="n">
         <v>1.37</v>
@@ -27087,7 +27087,7 @@
         <v>0.5</v>
       </c>
       <c r="AS131" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT131" t="n">
         <v>0.79</v>
@@ -27902,7 +27902,7 @@
         <v>0.86</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU135" t="n">
         <v>1.56</v>
@@ -28511,7 +28511,7 @@
         <v>1.5</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU138" t="n">
         <v>1.98</v>
@@ -28711,7 +28711,7 @@
         <v>1.27</v>
       </c>
       <c r="AS139" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT139" t="n">
         <v>1.21</v>
@@ -29320,7 +29320,7 @@
         <v>1</v>
       </c>
       <c r="AS142" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT142" t="n">
         <v>1.21</v>
@@ -29523,7 +29523,7 @@
         <v>1.82</v>
       </c>
       <c r="AS143" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT143" t="n">
         <v>1.71</v>
@@ -29729,7 +29729,7 @@
         <v>1.79</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU144" t="n">
         <v>1.73</v>
@@ -30538,7 +30538,7 @@
         <v>1</v>
       </c>
       <c r="AS148" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT148" t="n">
         <v>0.86</v>
@@ -30744,7 +30744,7 @@
         <v>1.79</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU149" t="n">
         <v>1.63</v>
@@ -30944,7 +30944,7 @@
         <v>1.25</v>
       </c>
       <c r="AS150" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT150" t="n">
         <v>1.29</v>
@@ -31350,7 +31350,7 @@
         <v>1.17</v>
       </c>
       <c r="AS152" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT152" t="n">
         <v>1.21</v>
@@ -31759,7 +31759,7 @@
         <v>1.64</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU154" t="n">
         <v>1.39</v>
@@ -32165,7 +32165,7 @@
         <v>2.14</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU156" t="n">
         <v>1.22</v>
@@ -34111,10 +34111,10 @@
         <v>3</v>
       </c>
       <c r="R166" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S166" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T166" t="n">
         <v>0</v>
@@ -34247,6 +34247,615 @@
       </c>
       <c r="BK166" t="n">
         <v>25</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>5396349</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>45024.625</v>
+      </c>
+      <c r="F167" t="n">
+        <v>6</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Waasland-Beveren</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>RSC Anderlecht II</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L167" t="n">
+        <v>4</v>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="n">
+        <v>5</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>['57', '71', '80', '86']</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="Q167" t="n">
+        <v>5</v>
+      </c>
+      <c r="R167" t="n">
+        <v>6</v>
+      </c>
+      <c r="S167" t="n">
+        <v>11</v>
+      </c>
+      <c r="T167" t="n">
+        <v>0</v>
+      </c>
+      <c r="U167" t="n">
+        <v>0</v>
+      </c>
+      <c r="V167" t="n">
+        <v>0</v>
+      </c>
+      <c r="W167" t="n">
+        <v>0</v>
+      </c>
+      <c r="X167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC167" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD167" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE167" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ167" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AK167" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AL167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ167" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AR167" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS167" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT167" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU167" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV167" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW167" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF167" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG167" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH167" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI167" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ167" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK167" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>5396350</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>45025.45833333334</v>
+      </c>
+      <c r="F168" t="n">
+        <v>6</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Excelsior Virton</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Lommel United</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="n">
+        <v>1</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="Q168" t="n">
+        <v>2</v>
+      </c>
+      <c r="R168" t="n">
+        <v>8</v>
+      </c>
+      <c r="S168" t="n">
+        <v>10</v>
+      </c>
+      <c r="T168" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U168" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V168" t="n">
+        <v>3</v>
+      </c>
+      <c r="W168" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X168" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC168" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD168" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="AE168" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF168" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI168" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ168" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK168" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL168" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM168" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN168" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO168" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP168" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ168" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AR168" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS168" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AT168" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AU168" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AV168" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW168" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AX168" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY168" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ168" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA168" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB168" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC168" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BD168" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE168" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF168" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG168" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH168" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI168" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ168" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK168" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>5396351</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>45025.59375</v>
+      </c>
+      <c r="F169" t="n">
+        <v>6</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>RWDM</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Beerschot-Wilrijk</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>3</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>3</v>
+      </c>
+      <c r="L169" t="n">
+        <v>4</v>
+      </c>
+      <c r="M169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N169" t="n">
+        <v>4</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>['5', '7', '35', '79']</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q169" t="n">
+        <v>7</v>
+      </c>
+      <c r="R169" t="n">
+        <v>2</v>
+      </c>
+      <c r="S169" t="n">
+        <v>9</v>
+      </c>
+      <c r="T169" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U169" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V169" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W169" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X169" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC169" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD169" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="AE169" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AF169" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI169" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AJ169" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AK169" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AL169" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM169" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN169" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO169" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP169" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ169" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AR169" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS169" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT169" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AU169" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV169" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AW169" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AX169" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AY169" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ169" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BA169" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB169" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC169" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD169" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE169" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF169" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG169" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH169" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI169" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ169" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK169" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
@@ -34637,22 +34637,22 @@
         <v>3.8</v>
       </c>
       <c r="BF168" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BG168" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BH168" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BI168" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BJ168" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="BK168" t="n">
-        <v>11</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169">

--- a/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK169"/>
+  <dimension ref="A1:BK171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT4" t="n">
         <v>1.64</v>
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT12" t="n">
         <v>1.5</v>
@@ -3136,7 +3136,7 @@
         <v>1.79</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT19" t="n">
         <v>1.21</v>
@@ -5166,7 +5166,7 @@
         <v>1.79</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU23" t="n">
         <v>2.15</v>
@@ -5569,7 +5569,7 @@
         <v>0.5</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT25" t="n">
         <v>1.64</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT27" t="n">
         <v>1.64</v>
@@ -6181,7 +6181,7 @@
         <v>1</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU28" t="n">
         <v>1.55</v>
@@ -8005,7 +8005,7 @@
         <v>1.33</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT37" t="n">
         <v>0.86</v>
@@ -8211,7 +8211,7 @@
         <v>0.57</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU38" t="n">
         <v>1.04</v>
@@ -8614,7 +8614,7 @@
         <v>1.33</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT40" t="n">
         <v>1.71</v>
@@ -8817,10 +8817,10 @@
         <v>0.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU41" t="n">
         <v>1.88</v>
@@ -10647,7 +10647,7 @@
         <v>2.5</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU50" t="n">
         <v>1.85</v>
@@ -11253,10 +11253,10 @@
         <v>0.67</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU53" t="n">
         <v>1.79</v>
@@ -11659,7 +11659,7 @@
         <v>1.75</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT55" t="n">
         <v>1.21</v>
@@ -12068,7 +12068,7 @@
         <v>2.14</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU57" t="n">
         <v>1.05</v>
@@ -13283,7 +13283,7 @@
         <v>1</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT63" t="n">
         <v>0.93</v>
@@ -13489,7 +13489,7 @@
         <v>1.07</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU64" t="n">
         <v>1.79</v>
@@ -13689,7 +13689,7 @@
         <v>2</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT65" t="n">
         <v>1.5</v>
@@ -14707,7 +14707,7 @@
         <v>0.57</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU70" t="n">
         <v>1.16</v>
@@ -14910,7 +14910,7 @@
         <v>2.5</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU71" t="n">
         <v>1.89</v>
@@ -15110,7 +15110,7 @@
         <v>2</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT72" t="n">
         <v>1.57</v>
@@ -15925,7 +15925,7 @@
         <v>1</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU76" t="n">
         <v>1.29</v>
@@ -16125,7 +16125,7 @@
         <v>0.83</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT77" t="n">
         <v>0.93</v>
@@ -16937,7 +16937,7 @@
         <v>0.33</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT81" t="n">
         <v>0.79</v>
@@ -17140,10 +17140,10 @@
         <v>0.83</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU82" t="n">
         <v>1.89</v>
@@ -18361,7 +18361,7 @@
         <v>0.86</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU88" t="n">
         <v>1.35</v>
@@ -19782,7 +19782,7 @@
         <v>2.5</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU95" t="n">
         <v>1.68</v>
@@ -20594,7 +20594,7 @@
         <v>1</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU99" t="n">
         <v>1.32</v>
@@ -21200,7 +21200,7 @@
         <v>1.25</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT102" t="n">
         <v>0.86</v>
@@ -21403,10 +21403,10 @@
         <v>1</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU103" t="n">
         <v>1.69</v>
@@ -22624,7 +22624,7 @@
         <v>2.5</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU109" t="n">
         <v>1.81</v>
@@ -23639,7 +23639,7 @@
         <v>1.64</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU114" t="n">
         <v>1.32</v>
@@ -23839,7 +23839,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT115" t="n">
         <v>0.79</v>
@@ -24245,7 +24245,7 @@
         <v>1.33</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT117" t="n">
         <v>1.21</v>
@@ -26075,7 +26075,7 @@
         <v>1.07</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU126" t="n">
         <v>1.54</v>
@@ -26684,7 +26684,7 @@
         <v>0.86</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU129" t="n">
         <v>1.56</v>
@@ -26884,7 +26884,7 @@
         <v>1.1</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT130" t="n">
         <v>1.21</v>
@@ -27290,7 +27290,7 @@
         <v>1.7</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT132" t="n">
         <v>1.71</v>
@@ -28508,7 +28508,7 @@
         <v>1.82</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT138" t="n">
         <v>1.5</v>
@@ -28914,7 +28914,7 @@
         <v>1.18</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT140" t="n">
         <v>1.21</v>
@@ -29120,7 +29120,7 @@
         <v>1</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU141" t="n">
         <v>1.63</v>
@@ -29323,7 +29323,7 @@
         <v>0.57</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU142" t="n">
         <v>1.15</v>
@@ -30132,7 +30132,7 @@
         <v>1.42</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT146" t="n">
         <v>1.64</v>
@@ -30338,7 +30338,7 @@
         <v>1.07</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU147" t="n">
         <v>1.53</v>
@@ -30947,7 +30947,7 @@
         <v>2.5</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU150" t="n">
         <v>1.8</v>
@@ -31147,7 +31147,7 @@
         <v>0.92</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT151" t="n">
         <v>0.79</v>
@@ -33180,7 +33180,7 @@
         <v>1.79</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AU161" t="n">
         <v>1.63</v>
@@ -33380,7 +33380,7 @@
         <v>0.77</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT162" t="n">
         <v>0.93</v>
@@ -33583,7 +33583,7 @@
         <v>1.77</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT163" t="n">
         <v>1.71</v>
@@ -33992,7 +33992,7 @@
         <v>0.86</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU165" t="n">
         <v>1.53</v>
@@ -34856,6 +34856,412 @@
       </c>
       <c r="BK169" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>5396352</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>45030.625</v>
+      </c>
+      <c r="F170" t="n">
+        <v>7</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Beerschot-Wilrijk</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Club Brugge II</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>2</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="n">
+        <v>2</v>
+      </c>
+      <c r="L170" t="n">
+        <v>4</v>
+      </c>
+      <c r="M170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N170" t="n">
+        <v>4</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>['24', '42', '65', '81']</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q170" t="n">
+        <v>2</v>
+      </c>
+      <c r="R170" t="n">
+        <v>3</v>
+      </c>
+      <c r="S170" t="n">
+        <v>5</v>
+      </c>
+      <c r="T170" t="n">
+        <v>0</v>
+      </c>
+      <c r="U170" t="n">
+        <v>0</v>
+      </c>
+      <c r="V170" t="n">
+        <v>0</v>
+      </c>
+      <c r="W170" t="n">
+        <v>0</v>
+      </c>
+      <c r="X170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC170" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AD170" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="AE170" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="AF170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ170" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK170" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ170" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR170" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS170" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT170" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU170" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AV170" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AW170" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF170" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH170" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI170" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ170" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK170" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="n">
+        <v>5396353</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>45030.625</v>
+      </c>
+      <c r="F171" t="n">
+        <v>7</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Lommel United</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>KMSK Deinze</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="n">
+        <v>4</v>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="n">
+        <v>5</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>['10', '57', '76', '87']</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="Q171" t="n">
+        <v>2</v>
+      </c>
+      <c r="R171" t="n">
+        <v>7</v>
+      </c>
+      <c r="S171" t="n">
+        <v>9</v>
+      </c>
+      <c r="T171" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U171" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V171" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W171" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X171" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB171" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC171" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AD171" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AE171" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF171" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG171" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH171" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI171" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AJ171" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AK171" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AL171" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM171" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN171" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO171" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP171" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ171" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR171" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS171" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT171" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU171" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV171" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW171" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX171" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY171" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ171" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA171" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB171" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC171" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD171" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE171" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF171" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG171" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH171" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI171" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ171" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK171" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Belgium First Division B_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK171"/>
+  <dimension ref="A1:BK175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AT3" t="n">
         <v>1.71</v>
@@ -1309,7 +1309,7 @@
         <v>1.6</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>1.64</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT9" t="n">
         <v>1.57</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU16" t="n">
         <v>1.51</v>
@@ -4354,7 +4354,7 @@
         <v>1.6</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU19" t="n">
         <v>2.18</v>
@@ -4554,7 +4554,7 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AT20" t="n">
         <v>1.5</v>
@@ -4757,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU21" t="n">
         <v>1.07</v>
@@ -5366,10 +5366,10 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU24" t="n">
         <v>1.25</v>
@@ -5572,7 +5572,7 @@
         <v>1.47</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU25" t="n">
         <v>1.76</v>
@@ -5775,7 +5775,7 @@
         <v>1.07</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU26" t="n">
         <v>1.88</v>
@@ -6993,7 +6993,7 @@
         <v>1.64</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU32" t="n">
         <v>1.18</v>
@@ -7399,7 +7399,7 @@
         <v>2.14</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU34" t="n">
         <v>0.82</v>
@@ -7599,10 +7599,10 @@
         <v>0.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU35" t="n">
         <v>1.47</v>
@@ -7802,7 +7802,7 @@
         <v>2</v>
       </c>
       <c r="AS36" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AT36" t="n">
         <v>1.57</v>
@@ -8208,7 +8208,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AT38" t="n">
         <v>1.2</v>
@@ -8414,7 +8414,7 @@
         <v>1</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU39" t="n">
         <v>1.27</v>
@@ -9023,7 +9023,7 @@
         <v>2.5</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU42" t="n">
         <v>1.65</v>
@@ -9223,7 +9223,7 @@
         <v>2.33</v>
       </c>
       <c r="AS43" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT43" t="n">
         <v>1.5</v>
@@ -9429,7 +9429,7 @@
         <v>1.07</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU44" t="n">
         <v>1.81</v>
@@ -10035,7 +10035,7 @@
         <v>2.33</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AT47" t="n">
         <v>1.57</v>
@@ -10444,7 +10444,7 @@
         <v>2.14</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU49" t="n">
         <v>0.75</v>
@@ -10847,7 +10847,7 @@
         <v>1</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT51" t="n">
         <v>1.71</v>
@@ -11050,10 +11050,10 @@
         <v>1.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU52" t="n">
         <v>1.19</v>
@@ -11662,7 +11662,7 @@
         <v>1.6</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU55" t="n">
         <v>2.04</v>
@@ -11862,7 +11862,7 @@
         <v>1.25</v>
       </c>
       <c r="AS56" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT56" t="n">
         <v>0.93</v>
@@ -12474,7 +12474,7 @@
         <v>1</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU59" t="n">
         <v>1.83</v>
@@ -12674,10 +12674,10 @@
         <v>1.6</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU60" t="n">
         <v>1.74</v>
@@ -13892,10 +13892,10 @@
         <v>1.4</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU66" t="n">
         <v>1.62</v>
@@ -14098,7 +14098,7 @@
         <v>2.5</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU67" t="n">
         <v>1.91</v>
@@ -14704,7 +14704,7 @@
         <v>0.2</v>
       </c>
       <c r="AS70" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AT70" t="n">
         <v>1.13</v>
@@ -15316,7 +15316,7 @@
         <v>1.79</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU73" t="n">
         <v>1.89</v>
@@ -15719,10 +15719,10 @@
         <v>1.83</v>
       </c>
       <c r="AS75" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU75" t="n">
         <v>1.27</v>
@@ -16331,7 +16331,7 @@
         <v>1.79</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU78" t="n">
         <v>1.91</v>
@@ -16531,7 +16531,7 @@
         <v>1.8</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AT79" t="n">
         <v>1.64</v>
@@ -16734,7 +16734,7 @@
         <v>1</v>
       </c>
       <c r="AS80" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AT80" t="n">
         <v>0.86</v>
@@ -16940,7 +16940,7 @@
         <v>1.47</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU81" t="n">
         <v>1.74</v>
@@ -17549,7 +17549,7 @@
         <v>1.64</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU84" t="n">
         <v>1.21</v>
@@ -18158,7 +18158,7 @@
         <v>2.14</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU87" t="n">
         <v>1.24</v>
@@ -18358,7 +18358,7 @@
         <v>0.71</v>
       </c>
       <c r="AS88" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT88" t="n">
         <v>1.13</v>
@@ -19173,7 +19173,7 @@
         <v>1</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU92" t="n">
         <v>1.73</v>
@@ -19373,10 +19373,10 @@
         <v>1</v>
       </c>
       <c r="AS93" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU93" t="n">
         <v>1.35</v>
@@ -19576,7 +19576,7 @@
         <v>1.71</v>
       </c>
       <c r="AS94" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AT94" t="n">
         <v>1.64</v>
@@ -19779,7 +19779,7 @@
         <v>0.71</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AT95" t="n">
         <v>1.2</v>
@@ -20188,7 +20188,7 @@
         <v>1.64</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU97" t="n">
         <v>1.27</v>
@@ -20797,7 +20797,7 @@
         <v>1.79</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU100" t="n">
         <v>1.84</v>
@@ -20997,7 +20997,7 @@
         <v>0.75</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AT101" t="n">
         <v>0.93</v>
@@ -21606,10 +21606,10 @@
         <v>1.75</v>
       </c>
       <c r="AS104" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU104" t="n">
         <v>1.16</v>
@@ -21809,7 +21809,7 @@
         <v>1.88</v>
       </c>
       <c r="AS105" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT105" t="n">
         <v>1.64</v>
@@ -22621,7 +22621,7 @@
         <v>0.89</v>
       </c>
       <c r="AS109" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AT109" t="n">
         <v>1.13</v>
@@ -23233,7 +23233,7 @@
         <v>1</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU112" t="n">
         <v>1.66</v>
@@ -23436,7 +23436,7 @@
         <v>1.07</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU113" t="n">
         <v>1.6</v>
@@ -23842,7 +23842,7 @@
         <v>1.6</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU115" t="n">
         <v>2.05</v>
@@ -24042,7 +24042,7 @@
         <v>1.56</v>
       </c>
       <c r="AS116" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AT116" t="n">
         <v>1.5</v>
@@ -24248,7 +24248,7 @@
         <v>1.47</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU117" t="n">
         <v>1.62</v>
@@ -24651,10 +24651,10 @@
         <v>1.67</v>
       </c>
       <c r="AS119" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU119" t="n">
         <v>1.49</v>
@@ -24857,7 +24857,7 @@
         <v>2.14</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU120" t="n">
         <v>1.33</v>
@@ -25263,7 +25263,7 @@
         <v>1</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU122" t="n">
         <v>1.34</v>
@@ -25463,7 +25463,7 @@
         <v>1.11</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AT123" t="n">
         <v>0.86</v>
@@ -26278,7 +26278,7 @@
         <v>2.5</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU127" t="n">
         <v>1.74</v>
@@ -26681,7 +26681,7 @@
         <v>1.1</v>
       </c>
       <c r="AS129" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT129" t="n">
         <v>1.2</v>
@@ -26887,7 +26887,7 @@
         <v>1.47</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU130" t="n">
         <v>1.55</v>
@@ -27087,10 +27087,10 @@
         <v>0.5</v>
       </c>
       <c r="AS131" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU131" t="n">
         <v>1.17</v>
@@ -27899,7 +27899,7 @@
         <v>1.73</v>
       </c>
       <c r="AS135" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT135" t="n">
         <v>1.64</v>
@@ -28105,7 +28105,7 @@
         <v>1.64</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU136" t="n">
         <v>1.37</v>
@@ -28308,7 +28308,7 @@
         <v>2.14</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU137" t="n">
         <v>1.22</v>
@@ -28711,10 +28711,10 @@
         <v>1.27</v>
       </c>
       <c r="AS139" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU139" t="n">
         <v>1.79</v>
@@ -28917,7 +28917,7 @@
         <v>1.47</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU140" t="n">
         <v>1.6</v>
@@ -29320,7 +29320,7 @@
         <v>1</v>
       </c>
       <c r="AS142" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AT142" t="n">
         <v>1.13</v>
@@ -30135,7 +30135,7 @@
         <v>1.6</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU146" t="n">
         <v>1.91</v>
@@ -30538,7 +30538,7 @@
         <v>1</v>
       </c>
       <c r="AS148" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AT148" t="n">
         <v>0.86</v>
@@ -30944,7 +30944,7 @@
         <v>1.25</v>
       </c>
       <c r="AS150" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AT150" t="n">
         <v>1.2</v>
@@ -31150,7 +31150,7 @@
         <v>1.47</v>
       </c>
       <c r="AT151" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU151" t="n">
         <v>1.58</v>
@@ -31353,7 +31353,7 @@
         <v>2.5</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU152" t="n">
         <v>1.77</v>
@@ -32365,10 +32365,10 @@
         <v>1.08</v>
       </c>
       <c r="AS157" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU157" t="n">
         <v>1.56</v>
@@ -32571,7 +32571,7 @@
         <v>1</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AU158" t="n">
         <v>1.64</v>
@@ -32774,7 +32774,7 @@
         <v>1.07</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AU159" t="n">
         <v>1.56</v>
@@ -33789,7 +33789,7 @@
         <v>1</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU164" t="n">
         <v>1.43</v>
@@ -33989,7 +33989,7 @@
         <v>1.08</v>
       </c>
       <c r="AS165" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT165" t="n">
         <v>1.13</v>
@@ -34195,7 +34195,7 @@
         <v>2.14</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU166" t="n">
         <v>1.26</v>
@@ -34598,7 +34598,7 @@
         <v>1.54</v>
       </c>
       <c r="AS168" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AT168" t="n">
         <v>1.64</v>
@@ -34801,7 +34801,7 @@
         <v>1.69</v>
       </c>
       <c r="AS169" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AT169" t="n">
         <v>1.57</v>
@@ -34920,13 +34920,13 @@
         </is>
       </c>
       <c r="Q170" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R170" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S170" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T170" t="n">
         <v>0</v>
@@ -35043,22 +35043,22 @@
         <v>0</v>
       </c>
       <c r="BF170" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BG170" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH170" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BI170" t="n">
         <v>3</v>
       </c>
       <c r="BJ170" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BK170" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="171">
@@ -35262,6 +35262,818 @@
       </c>
       <c r="BK171" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="n">
+        <v>5396354</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>45031.45833333334</v>
+      </c>
+      <c r="F172" t="n">
+        <v>7</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Standard Liège II</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>KRC Genk II</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N172" t="n">
+        <v>0</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q172" t="n">
+        <v>10</v>
+      </c>
+      <c r="R172" t="n">
+        <v>7</v>
+      </c>
+      <c r="S172" t="n">
+        <v>17</v>
+      </c>
+      <c r="T172" t="n">
+        <v>0</v>
+      </c>
+      <c r="U172" t="n">
+        <v>0</v>
+      </c>
+      <c r="V172" t="n">
+        <v>0</v>
+      </c>
+      <c r="W172" t="n">
+        <v>0</v>
+      </c>
+      <c r="X172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC172" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AD172" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE172" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AF172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ172" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK172" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AL172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ172" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR172" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AS172" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AT172" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU172" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV172" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AW172" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AX172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF172" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG172" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH172" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI172" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ172" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK172" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="n">
+        <v>5396355</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>45031.625</v>
+      </c>
+      <c r="F173" t="n">
+        <v>7</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>RSC Anderlecht II</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Lierse Kempenzonen</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>2</v>
+      </c>
+      <c r="K173" t="n">
+        <v>2</v>
+      </c>
+      <c r="L173" t="n">
+        <v>2</v>
+      </c>
+      <c r="M173" t="n">
+        <v>2</v>
+      </c>
+      <c r="N173" t="n">
+        <v>4</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>['78', '80']</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>['9', '19']</t>
+        </is>
+      </c>
+      <c r="Q173" t="n">
+        <v>3</v>
+      </c>
+      <c r="R173" t="n">
+        <v>6</v>
+      </c>
+      <c r="S173" t="n">
+        <v>9</v>
+      </c>
+      <c r="T173" t="n">
+        <v>0</v>
+      </c>
+      <c r="U173" t="n">
+        <v>0</v>
+      </c>
+      <c r="V173" t="n">
+        <v>0</v>
+      </c>
+      <c r="W173" t="n">
+        <v>0</v>
+      </c>
+      <c r="X173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC173" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AD173" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE173" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ173" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK173" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ173" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR173" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS173" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT173" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU173" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV173" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AW173" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AX173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF173" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG173" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH173" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI173" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ173" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK173" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="n">
+        <v>5396356</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>45032.45833333334</v>
+      </c>
+      <c r="F174" t="n">
+        <v>7</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>RWDM</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Waasland-Beveren</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="n">
+        <v>2</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="Q174" t="n">
+        <v>9</v>
+      </c>
+      <c r="R174" t="n">
+        <v>2</v>
+      </c>
+      <c r="S174" t="n">
+        <v>11</v>
+      </c>
+      <c r="T174" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U174" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="V174" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="W174" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X174" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y174" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AA174" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AB174" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC174" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD174" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE174" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF174" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG174" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH174" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI174" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ174" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK174" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AL174" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM174" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN174" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO174" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP174" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ174" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR174" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AS174" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AT174" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU174" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AV174" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AW174" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AX174" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY174" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ174" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA174" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB174" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC174" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD174" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE174" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF174" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG174" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH174" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI174" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ174" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK174" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="n">
+        <v>5396357</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Belgium First Division B</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>45032.59375</v>
+      </c>
+      <c r="F175" t="n">
+        <v>7</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Excelsior Virton</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>FCV Dender EH</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="n">
+        <v>1</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="Q175" t="n">
+        <v>1</v>
+      </c>
+      <c r="R175" t="n">
+        <v>4</v>
+      </c>
+      <c r="S175" t="n">
+        <v>5</v>
+      </c>
+      <c r="T175" t="n">
+        <v>3</v>
+      </c>
+      <c r="U175" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V175" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W175" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X175" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y175" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="Z175" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA175" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB175" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC175" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AD175" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE175" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AF175" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG175" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH175" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI175" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ175" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK175" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL175" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM175" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN175" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO175" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP175" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ175" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AR175" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS175" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AT175" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU175" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AV175" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW175" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AX175" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AY175" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ175" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BA175" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BB175" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BC175" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BD175" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BE175" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BF175" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG175" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH175" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI175" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ175" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK175" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
